--- a/working-detection.xlsx
+++ b/working-detection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K195"/>
+  <dimension ref="A1:K197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,34 +492,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33.37140395876925</v>
+        <v>52.97688684460164</v>
       </c>
       <c r="B2" t="n">
-        <v>11.92887583431166</v>
+        <v>38.34659719712041</v>
       </c>
       <c r="C2" t="n">
-        <v>90.270900703807</v>
+        <v>146.176523292513</v>
       </c>
       <c r="D2" t="n">
-        <v>151.4204981585909</v>
+        <v>143.1674458306643</v>
       </c>
       <c r="E2" t="n">
-        <v>129.4447840430853</v>
+        <v>97.4780762439421</v>
       </c>
       <c r="F2" t="n">
-        <v>122.1997542907494</v>
+        <v>104.5213299952902</v>
       </c>
       <c r="G2" t="n">
-        <v>20.47637238168116</v>
+        <v>60.0746307654281</v>
       </c>
       <c r="H2" t="n">
-        <v>61.07058886652073</v>
+        <v>41.75169415675249</v>
       </c>
       <c r="I2" t="n">
-        <v>127.3421177294036</v>
+        <v>6.963545044107954</v>
       </c>
       <c r="J2" t="n">
-        <v>58.84185399539352</v>
+        <v>22.76898180547733</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -527,34 +527,34 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.543976550345017</v>
+        <v>89.48470489965396</v>
       </c>
       <c r="B3" t="n">
-        <v>101.065141235105</v>
+        <v>121.7500483970502</v>
       </c>
       <c r="C3" t="n">
-        <v>76.63131360021625</v>
+        <v>159.2739007934731</v>
       </c>
       <c r="D3" t="n">
-        <v>110.3566242270912</v>
+        <v>172.9676754998529</v>
       </c>
       <c r="E3" t="n">
-        <v>76.40354174182303</v>
+        <v>66.5164272597345</v>
       </c>
       <c r="F3" t="n">
-        <v>48.42441750492077</v>
+        <v>61.38110069462941</v>
       </c>
       <c r="G3" t="n">
-        <v>120.825343308793</v>
+        <v>45.73966476996026</v>
       </c>
       <c r="H3" t="n">
-        <v>123.3913968755857</v>
+        <v>45.98331256629308</v>
       </c>
       <c r="I3" t="n">
-        <v>7.967856049299586</v>
+        <v>5.793113018714647</v>
       </c>
       <c r="J3" t="n">
-        <v>37.99042879938765</v>
+        <v>0.2563333120176309</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -562,34 +562,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73.94087019777015</v>
+        <v>19.23882574035077</v>
       </c>
       <c r="B4" t="n">
-        <v>57.58871258353619</v>
+        <v>27.88242731292615</v>
       </c>
       <c r="C4" t="n">
-        <v>110.3090956260805</v>
+        <v>150.1573367341598</v>
       </c>
       <c r="D4" t="n">
-        <v>137.2311096451952</v>
+        <v>160.2728557546171</v>
       </c>
       <c r="E4" t="n">
-        <v>70.28739156865646</v>
+        <v>128.6663327911284</v>
       </c>
       <c r="F4" t="n">
-        <v>87.97022833387229</v>
+        <v>122.3239150223933</v>
       </c>
       <c r="G4" t="n">
-        <v>60.8098699912483</v>
+        <v>102.3439789537192</v>
       </c>
       <c r="H4" t="n">
-        <v>60.3770984612333</v>
+        <v>61.9332492813402</v>
       </c>
       <c r="I4" t="n">
-        <v>16.78118221809517</v>
+        <v>20.97993544174959</v>
       </c>
       <c r="J4" t="n">
-        <v>2.846609917667887</v>
+        <v>43.034700583557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -597,34 +597,34 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16.87322573372333</v>
+        <v>46.13509545038163</v>
       </c>
       <c r="B5" t="n">
-        <v>17.60342435001107</v>
+        <v>10.80346209466416</v>
       </c>
       <c r="C5" t="n">
-        <v>154.9276340633445</v>
+        <v>80.63013546698913</v>
       </c>
       <c r="D5" t="n">
-        <v>44.09569500582444</v>
+        <v>86.13527742076724</v>
       </c>
       <c r="E5" t="n">
-        <v>132.8638944742594</v>
+        <v>104.007657139821</v>
       </c>
       <c r="F5" t="n">
-        <v>125.7165069445491</v>
+        <v>61.46230300021023</v>
       </c>
       <c r="G5" t="n">
-        <v>108.1747105220564</v>
+        <v>101.3748228856679</v>
       </c>
       <c r="H5" t="n">
-        <v>151.6001034357771</v>
+        <v>89.50719570217854</v>
       </c>
       <c r="I5" t="n">
-        <v>39.31014055775009</v>
+        <v>55.57786728912868</v>
       </c>
       <c r="J5" t="n">
-        <v>8.26383551910644</v>
+        <v>32.13133316288764</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -632,34 +632,34 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14.25680383461226</v>
+        <v>166.8820378770705</v>
       </c>
       <c r="B6" t="n">
-        <v>7.952723399565673</v>
+        <v>75.02081422537645</v>
       </c>
       <c r="C6" t="n">
-        <v>120.4690927645121</v>
+        <v>59.85439497876564</v>
       </c>
       <c r="D6" t="n">
-        <v>139.2643660032276</v>
+        <v>45.56446701964562</v>
       </c>
       <c r="E6" t="n">
-        <v>147.2796512402954</v>
+        <v>144.7667577821931</v>
       </c>
       <c r="F6" t="n">
-        <v>140.6214212183294</v>
+        <v>135.8013172521652</v>
       </c>
       <c r="G6" t="n">
-        <v>84.39232460067866</v>
+        <v>102.4600956709895</v>
       </c>
       <c r="H6" t="n">
-        <v>52.79562527524339</v>
+        <v>112.11993443352</v>
       </c>
       <c r="I6" t="n">
-        <v>54.71087690051776</v>
+        <v>49.23088912315887</v>
       </c>
       <c r="J6" t="n">
-        <v>78.06731588933403</v>
+        <v>30.24549891026573</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -667,34 +667,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.889409078222452</v>
+        <v>2.121866219427582</v>
       </c>
       <c r="B7" t="n">
-        <v>10.32289045508163</v>
+        <v>20.45502169209558</v>
       </c>
       <c r="C7" t="n">
-        <v>104.9464530800446</v>
+        <v>146.462679825129</v>
       </c>
       <c r="D7" t="n">
-        <v>119.157921222351</v>
+        <v>129.6320538637616</v>
       </c>
       <c r="E7" t="n">
-        <v>128.9505635261179</v>
+        <v>109.6712808650343</v>
       </c>
       <c r="F7" t="n">
-        <v>125.1032918870111</v>
+        <v>97.69421788559529</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5952446043088</v>
+        <v>92.25225672765713</v>
       </c>
       <c r="H7" t="n">
-        <v>83.18297360447878</v>
+        <v>87.38047521251893</v>
       </c>
       <c r="I7" t="n">
-        <v>37.59987675427455</v>
+        <v>50.02047718117116</v>
       </c>
       <c r="J7" t="n">
-        <v>54.56510713074889</v>
+        <v>23.82378771852328</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -702,34 +702,34 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.692679538029996</v>
+        <v>29.96404457337212</v>
       </c>
       <c r="B8" t="n">
-        <v>19.17268448236182</v>
+        <v>34.41502178141125</v>
       </c>
       <c r="C8" t="n">
-        <v>155.064757109856</v>
+        <v>111.5773803345419</v>
       </c>
       <c r="D8" t="n">
-        <v>139.8379425339303</v>
+        <v>121.18810984487</v>
       </c>
       <c r="E8" t="n">
-        <v>150.3050465816159</v>
+        <v>85.51115291957262</v>
       </c>
       <c r="F8" t="n">
-        <v>131.995740304182</v>
+        <v>85.39215507266221</v>
       </c>
       <c r="G8" t="n">
-        <v>170.1809320028344</v>
+        <v>77.48409058221979</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4110993115801</v>
+        <v>45.87521812244956</v>
       </c>
       <c r="I8" t="n">
-        <v>2.975984941687222</v>
+        <v>3.515637371491812</v>
       </c>
       <c r="J8" t="n">
-        <v>25.60629427687481</v>
+        <v>16.39707077406029</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -737,34 +737,34 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91.95196406237758</v>
+        <v>116.1187790450776</v>
       </c>
       <c r="B9" t="n">
-        <v>98.68344964485877</v>
+        <v>13.24344995619182</v>
       </c>
       <c r="C9" t="n">
-        <v>78.51307309118985</v>
+        <v>17.35775557216809</v>
       </c>
       <c r="D9" t="n">
-        <v>40.468932895093</v>
+        <v>95.69628060045187</v>
       </c>
       <c r="E9" t="n">
-        <v>71.74201943730245</v>
+        <v>51.18213015034092</v>
       </c>
       <c r="F9" t="n">
-        <v>63.57162447214323</v>
+        <v>58.10750366065321</v>
       </c>
       <c r="G9" t="n">
-        <v>99.07612730805778</v>
+        <v>92.00704728662777</v>
       </c>
       <c r="H9" t="n">
-        <v>81.69925727891534</v>
+        <v>67.55193243902083</v>
       </c>
       <c r="I9" t="n">
-        <v>4.485440062117045</v>
+        <v>2.684962825365963</v>
       </c>
       <c r="J9" t="n">
-        <v>19.99618695041244</v>
+        <v>58.78249275507228</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -772,34 +772,34 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64.20825318005325</v>
+        <v>5.94546162517805</v>
       </c>
       <c r="B10" t="n">
-        <v>41.07914758030919</v>
+        <v>25.78338076035427</v>
       </c>
       <c r="C10" t="n">
-        <v>151.6963380234266</v>
+        <v>94.53120952759572</v>
       </c>
       <c r="D10" t="n">
-        <v>144.2212407746654</v>
+        <v>127.6104627346591</v>
       </c>
       <c r="E10" t="n">
-        <v>89.77532372615286</v>
+        <v>91.3003663029267</v>
       </c>
       <c r="F10" t="n">
-        <v>105.8084436909873</v>
+        <v>91.03163100919195</v>
       </c>
       <c r="G10" t="n">
-        <v>75.22217281237066</v>
+        <v>83.25564845155935</v>
       </c>
       <c r="H10" t="n">
-        <v>44.58916622891891</v>
+        <v>86.88188142284685</v>
       </c>
       <c r="I10" t="n">
-        <v>18.97877067609828</v>
+        <v>14.76174199944491</v>
       </c>
       <c r="J10" t="n">
-        <v>22.62275949972858</v>
+        <v>13.73022166696374</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -807,34 +807,34 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>166.8820378770705</v>
+        <v>98.97299444042126</v>
       </c>
       <c r="B11" t="n">
-        <v>75.02081422537645</v>
+        <v>98.73171308273018</v>
       </c>
       <c r="C11" t="n">
-        <v>59.85439497876564</v>
+        <v>179.3659866069346</v>
       </c>
       <c r="D11" t="n">
-        <v>45.56446701964562</v>
+        <v>174.9251696133854</v>
       </c>
       <c r="E11" t="n">
-        <v>144.7667577821931</v>
+        <v>107.337586383908</v>
       </c>
       <c r="F11" t="n">
-        <v>135.8013172521652</v>
+        <v>124.7797015087238</v>
       </c>
       <c r="G11" t="n">
-        <v>102.4600956709895</v>
+        <v>28.16584884103757</v>
       </c>
       <c r="H11" t="n">
-        <v>112.11993443352</v>
+        <v>149.0337912548914</v>
       </c>
       <c r="I11" t="n">
-        <v>49.23088912315887</v>
+        <v>179.051754043251</v>
       </c>
       <c r="J11" t="n">
-        <v>30.24549891026573</v>
+        <v>16.80413223627616</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -842,34 +842,34 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>42.55725834776305</v>
+        <v>153.7058160635138</v>
       </c>
       <c r="B12" t="n">
-        <v>12.46806362544493</v>
+        <v>43.35286919845661</v>
       </c>
       <c r="C12" t="n">
-        <v>67.87008011156513</v>
+        <v>167.996589887533</v>
       </c>
       <c r="D12" t="n">
-        <v>55.38755067840964</v>
+        <v>5.08526973210194</v>
       </c>
       <c r="E12" t="n">
-        <v>53.88179605385943</v>
+        <v>111.6614990736814</v>
       </c>
       <c r="F12" t="n">
-        <v>65.90417512032178</v>
+        <v>106.8166565781981</v>
       </c>
       <c r="G12" t="n">
-        <v>58.91463001917369</v>
+        <v>4.562386552214781</v>
       </c>
       <c r="H12" t="n">
-        <v>60.19724352242875</v>
+        <v>121.8644687979409</v>
       </c>
       <c r="I12" t="n">
-        <v>23.88749972999694</v>
+        <v>111.7617005389109</v>
       </c>
       <c r="J12" t="n">
-        <v>41.06806971574569</v>
+        <v>8.08515449777571</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -877,34 +877,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>30.94913032801934</v>
+        <v>21.70809297152311</v>
       </c>
       <c r="B13" t="n">
-        <v>58.3886950333027</v>
+        <v>25.78958273403439</v>
       </c>
       <c r="C13" t="n">
-        <v>112.5837483902641</v>
+        <v>170.9285659226564</v>
       </c>
       <c r="D13" t="n">
-        <v>142.5515411053086</v>
+        <v>59.5243465306407</v>
       </c>
       <c r="E13" t="n">
-        <v>99.73601244952965</v>
+        <v>129.161285029241</v>
       </c>
       <c r="F13" t="n">
-        <v>86.03439782242907</v>
+        <v>135.1964941471358</v>
       </c>
       <c r="G13" t="n">
-        <v>109.6864354547645</v>
+        <v>86.82465434742295</v>
       </c>
       <c r="H13" t="n">
-        <v>62.86301022676531</v>
+        <v>124.4749924617587</v>
       </c>
       <c r="I13" t="n">
-        <v>25.46241797485564</v>
+        <v>60.53268634150449</v>
       </c>
       <c r="J13" t="n">
-        <v>15.09432258057991</v>
+        <v>11.81447861370187</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -912,34 +912,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>134.7125723533425</v>
+        <v>63.21026769523123</v>
       </c>
       <c r="B14" t="n">
-        <v>30.61149805579609</v>
+        <v>38.08268879390945</v>
       </c>
       <c r="C14" t="n">
-        <v>133.6597643525528</v>
+        <v>150.7354839748903</v>
       </c>
       <c r="D14" t="n">
-        <v>114.1799679040024</v>
+        <v>138.8706546078589</v>
       </c>
       <c r="E14" t="n">
-        <v>5.390453519620984</v>
+        <v>91.56489519597216</v>
       </c>
       <c r="F14" t="n">
-        <v>99.31403488897786</v>
+        <v>106.2923607960732</v>
       </c>
       <c r="G14" t="n">
-        <v>158.5273176851827</v>
+        <v>76.00864858169793</v>
       </c>
       <c r="H14" t="n">
-        <v>107.4042810153136</v>
+        <v>56.34705404115022</v>
       </c>
       <c r="I14" t="n">
-        <v>52.94470980565347</v>
+        <v>14.28848296282481</v>
       </c>
       <c r="J14" t="n">
-        <v>79.44354524437999</v>
+        <v>28.66887117205564</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -947,34 +947,34 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>81.93417332683232</v>
+        <v>66.45940360529849</v>
       </c>
       <c r="B15" t="n">
-        <v>112.9785671012516</v>
+        <v>45.13228083238286</v>
       </c>
       <c r="C15" t="n">
-        <v>146.8080882488101</v>
+        <v>85.85301020510541</v>
       </c>
       <c r="D15" t="n">
-        <v>128.0731047869264</v>
+        <v>160.194001769042</v>
       </c>
       <c r="E15" t="n">
-        <v>46.46495105620185</v>
+        <v>86.81385310308809</v>
       </c>
       <c r="F15" t="n">
-        <v>39.83859109212719</v>
+        <v>93.55940076580907</v>
       </c>
       <c r="G15" t="n">
-        <v>118.4220556912824</v>
+        <v>97.81099517621543</v>
       </c>
       <c r="H15" t="n">
-        <v>109.2063705985314</v>
+        <v>81.28201232957743</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01195104856470763</v>
+        <v>7.686806296365353</v>
       </c>
       <c r="J15" t="n">
-        <v>4.043144333253041</v>
+        <v>19.76707497104323</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -982,34 +982,34 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>46.13509545038163</v>
+        <v>18.89747889556768</v>
       </c>
       <c r="B16" t="n">
-        <v>10.80346209466416</v>
+        <v>28.38140615593639</v>
       </c>
       <c r="C16" t="n">
-        <v>80.63013546698913</v>
+        <v>123.6443894185585</v>
       </c>
       <c r="D16" t="n">
-        <v>86.13527742076724</v>
+        <v>135.5559389140886</v>
       </c>
       <c r="E16" t="n">
-        <v>104.007657139821</v>
+        <v>104.1565431706808</v>
       </c>
       <c r="F16" t="n">
-        <v>61.46230300021023</v>
+        <v>113.4440867103916</v>
       </c>
       <c r="G16" t="n">
-        <v>101.3748228856679</v>
+        <v>157.9617886462903</v>
       </c>
       <c r="H16" t="n">
-        <v>89.50719570217854</v>
+        <v>140.2647663899184</v>
       </c>
       <c r="I16" t="n">
-        <v>55.57786728912868</v>
+        <v>0.01248951233091732</v>
       </c>
       <c r="J16" t="n">
-        <v>32.13133316288764</v>
+        <v>5.141565495136581</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1017,34 +1017,34 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>41.28398781575957</v>
+        <v>78.83047595497223</v>
       </c>
       <c r="B17" t="n">
-        <v>4.780880109111271</v>
+        <v>76.06592437815519</v>
       </c>
       <c r="C17" t="n">
-        <v>124.3166106024594</v>
+        <v>170.1860373473545</v>
       </c>
       <c r="D17" t="n">
-        <v>137.4886454219058</v>
+        <v>157.394686461189</v>
       </c>
       <c r="E17" t="n">
-        <v>120.4405579850846</v>
+        <v>62.81289660466908</v>
       </c>
       <c r="F17" t="n">
-        <v>106.3740138310463</v>
+        <v>72.57299397701289</v>
       </c>
       <c r="G17" t="n">
-        <v>44.95750441605043</v>
+        <v>115.280871851132</v>
       </c>
       <c r="H17" t="n">
-        <v>34.92414923095373</v>
+        <v>122.7426227279558</v>
       </c>
       <c r="I17" t="n">
-        <v>55.34479169301449</v>
+        <v>9.694701282092245</v>
       </c>
       <c r="J17" t="n">
-        <v>84.68743011435033</v>
+        <v>46.45996503501944</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1052,34 +1052,34 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>38.93220687084489</v>
+        <v>65.28093907515617</v>
       </c>
       <c r="B18" t="n">
-        <v>1.335224957977003</v>
+        <v>45.60392930514441</v>
       </c>
       <c r="C18" t="n">
-        <v>47.16694653820782</v>
+        <v>145.8384979880243</v>
       </c>
       <c r="D18" t="n">
-        <v>119.6852517135502</v>
+        <v>141.4574026306788</v>
       </c>
       <c r="E18" t="n">
-        <v>114.285063651605</v>
+        <v>84.55419154154748</v>
       </c>
       <c r="F18" t="n">
-        <v>113.09251236114</v>
+        <v>97.70628197450299</v>
       </c>
       <c r="G18" t="n">
-        <v>102.8099749740486</v>
+        <v>125.6468697535293</v>
       </c>
       <c r="H18" t="n">
-        <v>89.94246060364434</v>
+        <v>95.0236866973929</v>
       </c>
       <c r="I18" t="n">
-        <v>24.97056974789799</v>
+        <v>44.31810301308211</v>
       </c>
       <c r="J18" t="n">
-        <v>35.06092037769996</v>
+        <v>16.48807997035519</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1087,34 +1087,34 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>29.07302141959306</v>
+        <v>117.0260030118374</v>
       </c>
       <c r="B19" t="n">
-        <v>26.90451793681522</v>
+        <v>10.13443141564301</v>
       </c>
       <c r="C19" t="n">
-        <v>147.9091715696336</v>
+        <v>30.87583163559666</v>
       </c>
       <c r="D19" t="n">
-        <v>138.6308840759762</v>
+        <v>84.63882749600725</v>
       </c>
       <c r="E19" t="n">
-        <v>110.7059837279711</v>
+        <v>51.94092553980641</v>
       </c>
       <c r="F19" t="n">
-        <v>113.0067757259492</v>
+        <v>69.07441053250363</v>
       </c>
       <c r="G19" t="n">
-        <v>134.859672104719</v>
+        <v>103.7414439771349</v>
       </c>
       <c r="H19" t="n">
-        <v>127.8162567276666</v>
+        <v>92.39367417625304</v>
       </c>
       <c r="I19" t="n">
-        <v>7.492571872523124</v>
+        <v>11.12530031501749</v>
       </c>
       <c r="J19" t="n">
-        <v>5.280831980493006</v>
+        <v>38.62973318783038</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1122,34 +1122,34 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>49.34919313953543</v>
+        <v>7.691450411215443</v>
       </c>
       <c r="B20" t="n">
-        <v>48.12400097855608</v>
+        <v>23.38261211595559</v>
       </c>
       <c r="C20" t="n">
-        <v>82.48730053654323</v>
+        <v>135.009334055679</v>
       </c>
       <c r="D20" t="n">
-        <v>74.50041587264235</v>
+        <v>132.0829268024094</v>
       </c>
       <c r="E20" t="n">
-        <v>109.7049515277176</v>
+        <v>108.0706137712278</v>
       </c>
       <c r="F20" t="n">
-        <v>113.9220592748958</v>
+        <v>94.69995603207764</v>
       </c>
       <c r="G20" t="n">
-        <v>115.1721076262984</v>
+        <v>92.34436051250995</v>
       </c>
       <c r="H20" t="n">
-        <v>103.5662061698382</v>
+        <v>65.80903107440855</v>
       </c>
       <c r="I20" t="n">
-        <v>8.663544724821787</v>
+        <v>30.00723635407592</v>
       </c>
       <c r="J20" t="n">
-        <v>19.21434740185862</v>
+        <v>20.05556085694599</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1157,34 +1157,34 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.691450411215443</v>
+        <v>67.07906394894795</v>
       </c>
       <c r="B21" t="n">
-        <v>23.38261211595559</v>
+        <v>43.00695513592256</v>
       </c>
       <c r="C21" t="n">
-        <v>135.009334055679</v>
+        <v>152.4104635651269</v>
       </c>
       <c r="D21" t="n">
-        <v>132.0829268024094</v>
+        <v>147.0031207311716</v>
       </c>
       <c r="E21" t="n">
-        <v>108.0706137712278</v>
+        <v>89.00836856156792</v>
       </c>
       <c r="F21" t="n">
-        <v>94.69995603207764</v>
+        <v>105.1519434075821</v>
       </c>
       <c r="G21" t="n">
-        <v>92.34436051250995</v>
+        <v>75.75222666726907</v>
       </c>
       <c r="H21" t="n">
-        <v>65.80903107440855</v>
+        <v>65.39296762932823</v>
       </c>
       <c r="I21" t="n">
-        <v>30.00723635407592</v>
+        <v>18.10186501530609</v>
       </c>
       <c r="J21" t="n">
-        <v>20.05556085694599</v>
+        <v>20.03229224620195</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1192,34 +1192,34 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>25.30459476565702</v>
+        <v>9.579867491081826</v>
       </c>
       <c r="B22" t="n">
-        <v>52.42727615195142</v>
+        <v>23.02822434446515</v>
       </c>
       <c r="C22" t="n">
-        <v>94.11635671350443</v>
+        <v>119.678703525846</v>
       </c>
       <c r="D22" t="n">
-        <v>54.43908457362108</v>
+        <v>82.42231667656448</v>
       </c>
       <c r="E22" t="n">
-        <v>55.2481965296308</v>
+        <v>130.1478186543158</v>
       </c>
       <c r="F22" t="n">
-        <v>64.4212310470941</v>
+        <v>120.7943201100248</v>
       </c>
       <c r="G22" t="n">
-        <v>100.5355349050612</v>
+        <v>63.54896931861873</v>
       </c>
       <c r="H22" t="n">
-        <v>119.3891303629005</v>
+        <v>62.16059529675823</v>
       </c>
       <c r="I22" t="n">
-        <v>57.05363172176047</v>
+        <v>47.27837507565596</v>
       </c>
       <c r="J22" t="n">
-        <v>42.39216550502126</v>
+        <v>48.459126913441</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1227,34 +1227,34 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.94546162517805</v>
+        <v>14.24147269664335</v>
       </c>
       <c r="B23" t="n">
-        <v>25.78338076035427</v>
+        <v>3.782079875528261</v>
       </c>
       <c r="C23" t="n">
-        <v>94.53120952759572</v>
+        <v>126.2801934364139</v>
       </c>
       <c r="D23" t="n">
-        <v>127.6104627346591</v>
+        <v>115.0846473551706</v>
       </c>
       <c r="E23" t="n">
-        <v>91.3003663029267</v>
+        <v>133.1220999307613</v>
       </c>
       <c r="F23" t="n">
-        <v>91.03163100919195</v>
+        <v>125.9229447328485</v>
       </c>
       <c r="G23" t="n">
-        <v>83.25564845155935</v>
+        <v>124.5748636968423</v>
       </c>
       <c r="H23" t="n">
-        <v>86.88188142284685</v>
+        <v>89.42127496638187</v>
       </c>
       <c r="I23" t="n">
-        <v>14.76174199944491</v>
+        <v>29.31405845785336</v>
       </c>
       <c r="J23" t="n">
-        <v>13.73022166696374</v>
+        <v>46.74933058860577</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1262,34 +1262,34 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>159.5629596532492</v>
+        <v>82.60306441342226</v>
       </c>
       <c r="B24" t="n">
-        <v>5.724194079273691</v>
+        <v>76.68562083851971</v>
       </c>
       <c r="C24" t="n">
-        <v>33.82759930297226</v>
+        <v>140.5764761352215</v>
       </c>
       <c r="D24" t="n">
-        <v>40.27097900990071</v>
+        <v>132.8982910419792</v>
       </c>
       <c r="E24" t="n">
-        <v>154.4886564355374</v>
+        <v>63.70594546512147</v>
       </c>
       <c r="F24" t="n">
-        <v>141.0388769934303</v>
+        <v>65.44161723984337</v>
       </c>
       <c r="G24" t="n">
-        <v>121.8591233472999</v>
+        <v>46.97935018644245</v>
       </c>
       <c r="H24" t="n">
-        <v>122.0133014712263</v>
+        <v>52.53525399519202</v>
       </c>
       <c r="I24" t="n">
-        <v>26.64311610662241</v>
+        <v>8.963213631884148</v>
       </c>
       <c r="J24" t="n">
-        <v>31.57652886637144</v>
+        <v>6.41234286512144</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1297,34 +1297,34 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>58.19885020449305</v>
+        <v>2.39601521389235</v>
       </c>
       <c r="B25" t="n">
-        <v>45.49004646111697</v>
+        <v>8.571000239329804</v>
       </c>
       <c r="C25" t="n">
-        <v>146.9480307776094</v>
+        <v>146.4677087247777</v>
       </c>
       <c r="D25" t="n">
-        <v>144.0086186575677</v>
+        <v>115.6367011499139</v>
       </c>
       <c r="E25" t="n">
-        <v>91.92293231571523</v>
+        <v>127.2084949834635</v>
       </c>
       <c r="F25" t="n">
-        <v>103.8155868834001</v>
+        <v>120.2436203365423</v>
       </c>
       <c r="G25" t="n">
-        <v>77.37278465581444</v>
+        <v>107.2589544118204</v>
       </c>
       <c r="H25" t="n">
-        <v>56.52995594519689</v>
+        <v>89.61451860662733</v>
       </c>
       <c r="I25" t="n">
-        <v>22.68314516956629</v>
+        <v>40.86554492631898</v>
       </c>
       <c r="J25" t="n">
-        <v>17.81318486011492</v>
+        <v>47.74840200124353</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1332,34 +1332,34 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.39601521389235</v>
+        <v>10.75133289100324</v>
       </c>
       <c r="B26" t="n">
-        <v>8.571000239329804</v>
+        <v>16.85660217921245</v>
       </c>
       <c r="C26" t="n">
-        <v>146.4677087247777</v>
+        <v>149.6807867486146</v>
       </c>
       <c r="D26" t="n">
-        <v>115.6367011499139</v>
+        <v>105.7671001927277</v>
       </c>
       <c r="E26" t="n">
-        <v>127.2084949834635</v>
+        <v>118.0370421324484</v>
       </c>
       <c r="F26" t="n">
-        <v>120.2436203365423</v>
+        <v>144.1493520834756</v>
       </c>
       <c r="G26" t="n">
-        <v>107.2589544118204</v>
+        <v>137.9252240133272</v>
       </c>
       <c r="H26" t="n">
-        <v>89.61451860662733</v>
+        <v>122.5906467205719</v>
       </c>
       <c r="I26" t="n">
-        <v>40.86554492631898</v>
+        <v>13.21663705442639</v>
       </c>
       <c r="J26" t="n">
-        <v>47.74840200124353</v>
+        <v>21.27712730111612</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1367,34 +1367,34 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.754641479698462</v>
+        <v>26.28723059389973</v>
       </c>
       <c r="B27" t="n">
-        <v>55.88300400876548</v>
+        <v>16.09074696532664</v>
       </c>
       <c r="C27" t="n">
-        <v>142.6254304751547</v>
+        <v>166.9932550206826</v>
       </c>
       <c r="D27" t="n">
-        <v>77.54961951849405</v>
+        <v>136.5832344635468</v>
       </c>
       <c r="E27" t="n">
-        <v>134.2207544962257</v>
+        <v>125.810994315869</v>
       </c>
       <c r="F27" t="n">
-        <v>130.8332270049083</v>
+        <v>133.4344004355646</v>
       </c>
       <c r="G27" t="n">
-        <v>148.641008787247</v>
+        <v>107.3406658833079</v>
       </c>
       <c r="H27" t="n">
-        <v>146.0482699754853</v>
+        <v>116.7179770016804</v>
       </c>
       <c r="I27" t="n">
-        <v>11.69308817691694</v>
+        <v>30.63065456616237</v>
       </c>
       <c r="J27" t="n">
-        <v>17.9386076151485</v>
+        <v>20.64238282801794</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1402,34 +1402,34 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7.364229072923693</v>
+        <v>16.70130357283176</v>
       </c>
       <c r="B28" t="n">
-        <v>7.68937064208388</v>
+        <v>41.53345602576229</v>
       </c>
       <c r="C28" t="n">
-        <v>149.4954902704998</v>
+        <v>125.8907297295102</v>
       </c>
       <c r="D28" t="n">
-        <v>131.55732903714</v>
+        <v>134.7396698631306</v>
       </c>
       <c r="E28" t="n">
-        <v>139.4084805520874</v>
+        <v>114.424879610325</v>
       </c>
       <c r="F28" t="n">
-        <v>128.9770253905336</v>
+        <v>113.5691365561063</v>
       </c>
       <c r="G28" t="n">
-        <v>136.1962780528043</v>
+        <v>93.5187453382876</v>
       </c>
       <c r="H28" t="n">
-        <v>128.1207018882312</v>
+        <v>95.96713243309091</v>
       </c>
       <c r="I28" t="n">
-        <v>7.448106958214423</v>
+        <v>28.651149013308</v>
       </c>
       <c r="J28" t="n">
-        <v>9.516821216307074</v>
+        <v>8.402146903963612</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1437,34 +1437,34 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7.393388083524284</v>
+        <v>51.63728839003063</v>
       </c>
       <c r="B29" t="n">
-        <v>7.314402552957362</v>
+        <v>49.76925156086847</v>
       </c>
       <c r="C29" t="n">
-        <v>169.576626876816</v>
+        <v>144.8318014898357</v>
       </c>
       <c r="D29" t="n">
-        <v>133.8430387403737</v>
+        <v>149.1001594123942</v>
       </c>
       <c r="E29" t="n">
-        <v>133.3032191073544</v>
+        <v>98.45135021485174</v>
       </c>
       <c r="F29" t="n">
-        <v>120.5417055517837</v>
+        <v>107.529199495812</v>
       </c>
       <c r="G29" t="n">
-        <v>117.7314976440649</v>
+        <v>58.14680469675717</v>
       </c>
       <c r="H29" t="n">
-        <v>93.20367477174766</v>
+        <v>64.22856537121295</v>
       </c>
       <c r="I29" t="n">
-        <v>44.02407846697276</v>
+        <v>9.821707330216949</v>
       </c>
       <c r="J29" t="n">
-        <v>29.14824934995542</v>
+        <v>14.54690322281926</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1472,34 +1472,34 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>65.28093907515617</v>
+        <v>19.1954178375281</v>
       </c>
       <c r="B30" t="n">
-        <v>45.60392930514441</v>
+        <v>1.378704141583288</v>
       </c>
       <c r="C30" t="n">
-        <v>145.8384979880243</v>
+        <v>167.1937549425349</v>
       </c>
       <c r="D30" t="n">
-        <v>141.4574026306788</v>
+        <v>131.8550750336332</v>
       </c>
       <c r="E30" t="n">
-        <v>84.55419154154748</v>
+        <v>132.8500781423344</v>
       </c>
       <c r="F30" t="n">
-        <v>97.70628197450299</v>
+        <v>136.9619592496832</v>
       </c>
       <c r="G30" t="n">
-        <v>125.6468697535293</v>
+        <v>107.9276702281961</v>
       </c>
       <c r="H30" t="n">
-        <v>95.0236866973929</v>
+        <v>98.71552694981665</v>
       </c>
       <c r="I30" t="n">
-        <v>44.31810301308211</v>
+        <v>35.92707406220189</v>
       </c>
       <c r="J30" t="n">
-        <v>16.48807997035519</v>
+        <v>45.36090451919127</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1507,34 +1507,34 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.292570206830413</v>
+        <v>113.5549100316183</v>
       </c>
       <c r="B31" t="n">
-        <v>1.13532460944658</v>
+        <v>11.21298059950694</v>
       </c>
       <c r="C31" t="n">
-        <v>96.72925429513086</v>
+        <v>35.24226649913935</v>
       </c>
       <c r="D31" t="n">
-        <v>87.35603037166568</v>
+        <v>141.8993064831459</v>
       </c>
       <c r="E31" t="n">
-        <v>86.31648079096777</v>
+        <v>57.65309615736169</v>
       </c>
       <c r="F31" t="n">
-        <v>88.10993752350984</v>
+        <v>68.36131357930424</v>
       </c>
       <c r="G31" t="n">
-        <v>140.5149631559119</v>
+        <v>99.77593626045228</v>
       </c>
       <c r="H31" t="n">
-        <v>141.0031208969499</v>
+        <v>109.7790114213484</v>
       </c>
       <c r="I31" t="n">
-        <v>11.92955762782256</v>
+        <v>5.324562584522846</v>
       </c>
       <c r="J31" t="n">
-        <v>7.725010139547923</v>
+        <v>28.7038438400442</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1542,34 +1542,34 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>32.82063874548936</v>
+        <v>0.09356535551685598</v>
       </c>
       <c r="B32" t="n">
-        <v>70.02022872262843</v>
+        <v>18.75461237781211</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5914678947833</v>
+        <v>146.4403113253078</v>
       </c>
       <c r="D32" t="n">
-        <v>151.2413231206359</v>
+        <v>132.4507446740141</v>
       </c>
       <c r="E32" t="n">
-        <v>101.8687429071135</v>
+        <v>147.837734224237</v>
       </c>
       <c r="F32" t="n">
-        <v>85.56026234755217</v>
+        <v>136.6241865368255</v>
       </c>
       <c r="G32" t="n">
-        <v>128.7094346766656</v>
+        <v>161.5923282767139</v>
       </c>
       <c r="H32" t="n">
-        <v>65.80168692112017</v>
+        <v>114.5007583465461</v>
       </c>
       <c r="I32" t="n">
-        <v>41.3468003009995</v>
+        <v>1.367959817663982</v>
       </c>
       <c r="J32" t="n">
-        <v>13.96325707880387</v>
+        <v>33.76560063860307</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1577,34 +1577,34 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>29.7131300053744</v>
+        <v>78.28635000422442</v>
       </c>
       <c r="B33" t="n">
-        <v>1.266512286297811</v>
+        <v>99.9508803974453</v>
       </c>
       <c r="C33" t="n">
-        <v>148.1062289459422</v>
+        <v>139.0568771830549</v>
       </c>
       <c r="D33" t="n">
-        <v>114.9446299255687</v>
+        <v>133.2758517653184</v>
       </c>
       <c r="E33" t="n">
-        <v>112.4467287677236</v>
+        <v>134.3205925634963</v>
       </c>
       <c r="F33" t="n">
-        <v>123.2566525927965</v>
+        <v>56.96309930033754</v>
       </c>
       <c r="G33" t="n">
-        <v>155.4628708733525</v>
+        <v>130.7688060803951</v>
       </c>
       <c r="H33" t="n">
-        <v>140.8868491640567</v>
+        <v>52.68353103557348</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1186610343234426</v>
+        <v>20.60210660773165</v>
       </c>
       <c r="J33" t="n">
-        <v>10.43418052536977</v>
+        <v>3.171950518949449</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1612,34 +1612,34 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>86.01984561695467</v>
+        <v>11.77441402382343</v>
       </c>
       <c r="B34" t="n">
-        <v>73.88809738282208</v>
+        <v>5.369314631928852</v>
       </c>
       <c r="C34" t="n">
-        <v>143.25464567816</v>
+        <v>138.4696475703674</v>
       </c>
       <c r="D34" t="n">
-        <v>133.6247885270338</v>
+        <v>133.7377792191341</v>
       </c>
       <c r="E34" t="n">
-        <v>61.30581974805433</v>
+        <v>135.4114322106481</v>
       </c>
       <c r="F34" t="n">
-        <v>67.40597547918253</v>
+        <v>118.6792025399139</v>
       </c>
       <c r="G34" t="n">
-        <v>41.34727997741953</v>
+        <v>124.3814592097038</v>
       </c>
       <c r="H34" t="n">
-        <v>46.70047793820936</v>
+        <v>94.92509899278024</v>
       </c>
       <c r="I34" t="n">
-        <v>7.444712841488456</v>
+        <v>32.58295656285996</v>
       </c>
       <c r="J34" t="n">
-        <v>4.138056523393199</v>
+        <v>37.35958878836905</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -1647,34 +1647,34 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>97.47276342548062</v>
+        <v>133.0564830323384</v>
       </c>
       <c r="B35" t="n">
-        <v>99.17638803475357</v>
+        <v>41.60681076370197</v>
       </c>
       <c r="C35" t="n">
-        <v>165.391812422042</v>
+        <v>87.12778405120991</v>
       </c>
       <c r="D35" t="n">
-        <v>169.2540169698136</v>
+        <v>4.048088796882212</v>
       </c>
       <c r="E35" t="n">
-        <v>72.48920804467605</v>
+        <v>149.366595736349</v>
       </c>
       <c r="F35" t="n">
-        <v>71.42266473940737</v>
+        <v>140.6787162198271</v>
       </c>
       <c r="G35" t="n">
-        <v>44.90393429551534</v>
+        <v>33.43958090641992</v>
       </c>
       <c r="H35" t="n">
-        <v>40.35357180886058</v>
+        <v>49.92874494256658</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4937602122107646</v>
+        <v>169.1081028820659</v>
       </c>
       <c r="J35" t="n">
-        <v>0.8415180129787455</v>
+        <v>101.7857892357854</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -1682,34 +1682,34 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>47.38176748826907</v>
+        <v>34.1399187520423</v>
       </c>
       <c r="B36" t="n">
-        <v>65.22845473480295</v>
+        <v>31.68545683544181</v>
       </c>
       <c r="C36" t="n">
-        <v>156.1790695043875</v>
+        <v>161.3803011502338</v>
       </c>
       <c r="D36" t="n">
-        <v>158.0141720669245</v>
+        <v>161.5399183549347</v>
       </c>
       <c r="E36" t="n">
-        <v>112.5528277041591</v>
+        <v>127.4081563345923</v>
       </c>
       <c r="F36" t="n">
-        <v>97.58008847359525</v>
+        <v>134.5517212657005</v>
       </c>
       <c r="G36" t="n">
-        <v>123.1873857695996</v>
+        <v>75.80849534774597</v>
       </c>
       <c r="H36" t="n">
-        <v>66.21461490782093</v>
+        <v>74.31391565724299</v>
       </c>
       <c r="I36" t="n">
-        <v>20.47653968685875</v>
+        <v>1.343039631914143</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9721736960131167</v>
+        <v>16.5379230870123</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -1717,34 +1717,34 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>89.48470489965396</v>
+        <v>8.418812047221945</v>
       </c>
       <c r="B37" t="n">
-        <v>121.7500483970502</v>
+        <v>21.71905604709632</v>
       </c>
       <c r="C37" t="n">
-        <v>159.2739007934731</v>
+        <v>123.4143937104237</v>
       </c>
       <c r="D37" t="n">
-        <v>172.9676754998529</v>
+        <v>78.21182975881666</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5164272597345</v>
+        <v>96.93288495597004</v>
       </c>
       <c r="F37" t="n">
-        <v>61.38110069462941</v>
+        <v>88.83906879609951</v>
       </c>
       <c r="G37" t="n">
-        <v>45.73966476996026</v>
+        <v>99.02629086382819</v>
       </c>
       <c r="H37" t="n">
-        <v>45.98331256629308</v>
+        <v>66.84164018701517</v>
       </c>
       <c r="I37" t="n">
-        <v>5.793113018714647</v>
+        <v>35.57014855407412</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2563333120176309</v>
+        <v>43.4921673620533</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -1752,34 +1752,34 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>26.84209684121826</v>
+        <v>6.239190385688382</v>
       </c>
       <c r="B38" t="n">
-        <v>26.19228831722572</v>
+        <v>11.48260927234548</v>
       </c>
       <c r="C38" t="n">
-        <v>169.0191579872075</v>
+        <v>127.9230156118635</v>
       </c>
       <c r="D38" t="n">
-        <v>51.70725533560498</v>
+        <v>109.3782590577899</v>
       </c>
       <c r="E38" t="n">
-        <v>143.3150451193212</v>
+        <v>137.6872021832374</v>
       </c>
       <c r="F38" t="n">
-        <v>136.4716733697477</v>
+        <v>126.3828960530106</v>
       </c>
       <c r="G38" t="n">
-        <v>52.09332428120626</v>
+        <v>130.1513810211587</v>
       </c>
       <c r="H38" t="n">
-        <v>144.2470822918181</v>
+        <v>92.54174337524836</v>
       </c>
       <c r="I38" t="n">
-        <v>14.24143358628794</v>
+        <v>24.20909786410227</v>
       </c>
       <c r="J38" t="n">
-        <v>3.488525140554188</v>
+        <v>44.21150422175781</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -1787,34 +1787,34 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9.182206946810071</v>
+        <v>2.790888577078255</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01564182451069396</v>
+        <v>8.863168237016415</v>
       </c>
       <c r="C39" t="n">
-        <v>139.5762961696998</v>
+        <v>131.5625910559738</v>
       </c>
       <c r="D39" t="n">
-        <v>139.3060992588816</v>
+        <v>119.8993658784903</v>
       </c>
       <c r="E39" t="n">
-        <v>133.4244201808612</v>
+        <v>114.6391633017131</v>
       </c>
       <c r="F39" t="n">
-        <v>128.9726336184667</v>
+        <v>105.7051052013588</v>
       </c>
       <c r="G39" t="n">
-        <v>109.0736756103127</v>
+        <v>92.17495687180536</v>
       </c>
       <c r="H39" t="n">
-        <v>92.00556907479744</v>
+        <v>81.8498340094439</v>
       </c>
       <c r="I39" t="n">
-        <v>36.91569671369174</v>
+        <v>45.87198027899841</v>
       </c>
       <c r="J39" t="n">
-        <v>47.91713100579106</v>
+        <v>51.24548111843654</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -1822,34 +1822,34 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>96.8706662880152</v>
+        <v>29.27008213729883</v>
       </c>
       <c r="B40" t="n">
-        <v>79.26549690985507</v>
+        <v>22.8713833336612</v>
       </c>
       <c r="C40" t="n">
-        <v>45.04889554517805</v>
+        <v>62.45984832600036</v>
       </c>
       <c r="D40" t="n">
-        <v>149.5953064523998</v>
+        <v>42.77046938416277</v>
       </c>
       <c r="E40" t="n">
-        <v>73.55535723050934</v>
+        <v>135.3696752570782</v>
       </c>
       <c r="F40" t="n">
-        <v>83.96864758070882</v>
+        <v>143.0216104909007</v>
       </c>
       <c r="G40" t="n">
-        <v>87.1728044557412</v>
+        <v>108.8388219261332</v>
       </c>
       <c r="H40" t="n">
-        <v>56.1735789999513</v>
+        <v>123.7939947809039</v>
       </c>
       <c r="I40" t="n">
-        <v>6.074775272546061</v>
+        <v>36.91306865219388</v>
       </c>
       <c r="J40" t="n">
-        <v>23.43689969576451</v>
+        <v>21.35107302190422</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -1857,34 +1857,34 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>160.4576533142493</v>
+        <v>24.63105086594274</v>
       </c>
       <c r="B41" t="n">
-        <v>1.297360062633558</v>
+        <v>74.25081526714303</v>
       </c>
       <c r="C41" t="n">
-        <v>97.4913260381133</v>
+        <v>129.2842799151254</v>
       </c>
       <c r="D41" t="n">
-        <v>139.9364140301788</v>
+        <v>73.68499695901994</v>
       </c>
       <c r="E41" t="n">
-        <v>77.0113100194838</v>
+        <v>144.5947066404812</v>
       </c>
       <c r="F41" t="n">
-        <v>46.42185273005549</v>
+        <v>145.0573215687554</v>
       </c>
       <c r="G41" t="n">
-        <v>14.24425089436075</v>
+        <v>130.2750852908992</v>
       </c>
       <c r="H41" t="n">
-        <v>75.90900416994813</v>
+        <v>133.724279417015</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4760877857777</v>
+        <v>29.74183406245391</v>
       </c>
       <c r="J41" t="n">
-        <v>28.39498295359617</v>
+        <v>29.63425543245625</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -1892,34 +1892,34 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>30.54201998052044</v>
+        <v>51.44078290413393</v>
       </c>
       <c r="B42" t="n">
-        <v>42.67748974291535</v>
+        <v>86.96414409722868</v>
       </c>
       <c r="C42" t="n">
-        <v>107.0699717259765</v>
+        <v>143.1539647271825</v>
       </c>
       <c r="D42" t="n">
-        <v>124.4552016971442</v>
+        <v>129.3516493137589</v>
       </c>
       <c r="E42" t="n">
-        <v>67.30256834852884</v>
+        <v>102.6169788998307</v>
       </c>
       <c r="F42" t="n">
-        <v>84.02775709065577</v>
+        <v>65.32757762685583</v>
       </c>
       <c r="G42" t="n">
-        <v>62.36681638016029</v>
+        <v>72.47692201561989</v>
       </c>
       <c r="H42" t="n">
-        <v>52.72655498438414</v>
+        <v>67.17274463428075</v>
       </c>
       <c r="I42" t="n">
-        <v>5.308233080247696</v>
+        <v>1.37675926823676</v>
       </c>
       <c r="J42" t="n">
-        <v>5.558794333188038</v>
+        <v>7.198011696428205</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -1927,34 +1927,34 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10.75133289100324</v>
+        <v>160.4576533142493</v>
       </c>
       <c r="B43" t="n">
-        <v>16.85660217921245</v>
+        <v>1.297360062633558</v>
       </c>
       <c r="C43" t="n">
-        <v>149.6807867486146</v>
+        <v>97.4913260381133</v>
       </c>
       <c r="D43" t="n">
-        <v>105.7671001927277</v>
+        <v>139.9364140301788</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0370421324484</v>
+        <v>77.0113100194838</v>
       </c>
       <c r="F43" t="n">
-        <v>144.1493520834756</v>
+        <v>46.42185273005549</v>
       </c>
       <c r="G43" t="n">
-        <v>137.9252240133272</v>
+        <v>14.24425089436075</v>
       </c>
       <c r="H43" t="n">
-        <v>122.5906467205719</v>
+        <v>75.90900416994813</v>
       </c>
       <c r="I43" t="n">
-        <v>13.21663705442639</v>
+        <v>100.4760877857777</v>
       </c>
       <c r="J43" t="n">
-        <v>21.27712730111612</v>
+        <v>28.39498295359617</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -1962,34 +1962,34 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>49.34015183713247</v>
+        <v>58.7600728218906</v>
       </c>
       <c r="B44" t="n">
-        <v>115.7958908296843</v>
+        <v>41.38907951334214</v>
       </c>
       <c r="C44" t="n">
-        <v>18.07018663518496</v>
+        <v>130.8908124110599</v>
       </c>
       <c r="D44" t="n">
-        <v>10.87862032381583</v>
+        <v>125.3724783592984</v>
       </c>
       <c r="E44" t="n">
-        <v>175.1797246471253</v>
+        <v>75.64228129962464</v>
       </c>
       <c r="F44" t="n">
-        <v>161.0073796698617</v>
+        <v>92.73936250451254</v>
       </c>
       <c r="G44" t="n">
-        <v>155.0898403618354</v>
+        <v>69.7400210649307</v>
       </c>
       <c r="H44" t="n">
-        <v>178.4800360222125</v>
+        <v>43.14364788547849</v>
       </c>
       <c r="I44" t="n">
-        <v>23.18103237577684</v>
+        <v>19.11228673261015</v>
       </c>
       <c r="J44" t="n">
-        <v>15.2200195405987</v>
+        <v>18.56841926369037</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -1997,34 +1997,34 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50.67597823838613</v>
+        <v>49.34919313953543</v>
       </c>
       <c r="B45" t="n">
-        <v>54.03946454650001</v>
+        <v>48.12400097855608</v>
       </c>
       <c r="C45" t="n">
-        <v>151.4322667510563</v>
+        <v>82.48730053654323</v>
       </c>
       <c r="D45" t="n">
-        <v>151.4320635131493</v>
+        <v>74.50041587264235</v>
       </c>
       <c r="E45" t="n">
-        <v>101.4035147659274</v>
+        <v>109.7049515277176</v>
       </c>
       <c r="F45" t="n">
-        <v>110.5155987032472</v>
+        <v>113.9220592748958</v>
       </c>
       <c r="G45" t="n">
-        <v>73.91033723370961</v>
+        <v>115.1721076262984</v>
       </c>
       <c r="H45" t="n">
-        <v>42.60125053801115</v>
+        <v>103.5662061698382</v>
       </c>
       <c r="I45" t="n">
-        <v>9.46372996067884</v>
+        <v>8.663544724821787</v>
       </c>
       <c r="J45" t="n">
-        <v>39.51692441906673</v>
+        <v>19.21434740185862</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2032,34 +2032,34 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>153.7058160635138</v>
+        <v>1.39513386733987</v>
       </c>
       <c r="B46" t="n">
-        <v>43.35286919845661</v>
+        <v>58.39572963986785</v>
       </c>
       <c r="C46" t="n">
-        <v>167.996589887533</v>
+        <v>163.6233900254865</v>
       </c>
       <c r="D46" t="n">
-        <v>5.08526973210194</v>
+        <v>90.46128977693064</v>
       </c>
       <c r="E46" t="n">
-        <v>111.6614990736814</v>
+        <v>139.7387640245124</v>
       </c>
       <c r="F46" t="n">
-        <v>106.8166565781981</v>
+        <v>145.9573094170044</v>
       </c>
       <c r="G46" t="n">
-        <v>4.562386552214781</v>
+        <v>158.6787089144793</v>
       </c>
       <c r="H46" t="n">
-        <v>121.8644687979409</v>
+        <v>136.5532406112511</v>
       </c>
       <c r="I46" t="n">
-        <v>111.7617005389109</v>
+        <v>8.926763998331005</v>
       </c>
       <c r="J46" t="n">
-        <v>8.08515449777571</v>
+        <v>25.04969997405375</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2067,34 +2067,34 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>71.53871299990003</v>
+        <v>5.878766579839326</v>
       </c>
       <c r="B47" t="n">
-        <v>19.99292627848824</v>
+        <v>10.89496227697697</v>
       </c>
       <c r="C47" t="n">
-        <v>68.56092639947622</v>
+        <v>136.8053583070184</v>
       </c>
       <c r="D47" t="n">
-        <v>151.7039653078226</v>
+        <v>53.40588183952498</v>
       </c>
       <c r="E47" t="n">
-        <v>79.50648263891723</v>
+        <v>139.0099970820327</v>
       </c>
       <c r="F47" t="n">
-        <v>110.0849727724712</v>
+        <v>139.7915869188918</v>
       </c>
       <c r="G47" t="n">
-        <v>108.0115254981741</v>
+        <v>113.7434930640459</v>
       </c>
       <c r="H47" t="n">
-        <v>77.59208692276921</v>
+        <v>148.6539237661163</v>
       </c>
       <c r="I47" t="n">
-        <v>3.040130992346464</v>
+        <v>33.15322659785101</v>
       </c>
       <c r="J47" t="n">
-        <v>47.80386700835125</v>
+        <v>0.555069667995421</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2102,34 +2102,34 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20.64043350376932</v>
+        <v>8.783991071875212</v>
       </c>
       <c r="B48" t="n">
-        <v>23.31947847266315</v>
+        <v>19.42136232075514</v>
       </c>
       <c r="C48" t="n">
-        <v>139.2171982706856</v>
+        <v>140.0895119049741</v>
       </c>
       <c r="D48" t="n">
-        <v>159.2853160689677</v>
+        <v>126.7306230843444</v>
       </c>
       <c r="E48" t="n">
-        <v>125.6214087726042</v>
+        <v>142.5164310243894</v>
       </c>
       <c r="F48" t="n">
-        <v>130.0121809000558</v>
+        <v>112.7664827259011</v>
       </c>
       <c r="G48" t="n">
-        <v>64.84541456989793</v>
+        <v>102.3480106059574</v>
       </c>
       <c r="H48" t="n">
-        <v>64.43908620758474</v>
+        <v>56.26802073431213</v>
       </c>
       <c r="I48" t="n">
-        <v>48.57722444874831</v>
+        <v>5.793514576731391</v>
       </c>
       <c r="J48" t="n">
-        <v>54.55667017362485</v>
+        <v>5.746592800917283</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2137,34 +2137,34 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>52.09667599644659</v>
+        <v>97.47276342548062</v>
       </c>
       <c r="B49" t="n">
-        <v>59.16929607041246</v>
+        <v>99.17638803475357</v>
       </c>
       <c r="C49" t="n">
-        <v>140.3909285527577</v>
+        <v>165.391812422042</v>
       </c>
       <c r="D49" t="n">
-        <v>166.5272064347104</v>
+        <v>169.2540169698136</v>
       </c>
       <c r="E49" t="n">
-        <v>95.20831992877788</v>
+        <v>72.48920804467605</v>
       </c>
       <c r="F49" t="n">
-        <v>105.5409370810453</v>
+        <v>71.42266473940737</v>
       </c>
       <c r="G49" t="n">
-        <v>52.50409031221302</v>
+        <v>44.90393429551534</v>
       </c>
       <c r="H49" t="n">
-        <v>39.38969535018276</v>
+        <v>40.35357180886058</v>
       </c>
       <c r="I49" t="n">
-        <v>16.58473605684325</v>
+        <v>0.4937602122107646</v>
       </c>
       <c r="J49" t="n">
-        <v>10.60186608531792</v>
+        <v>0.8415180129787455</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2172,34 +2172,34 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.2610602218132</v>
+        <v>129.4485747484432</v>
       </c>
       <c r="B50" t="n">
-        <v>75.42838147730431</v>
+        <v>7.358337402303467</v>
       </c>
       <c r="C50" t="n">
-        <v>128.4829645804705</v>
+        <v>70.9797250326899</v>
       </c>
       <c r="D50" t="n">
-        <v>63.44576169985418</v>
+        <v>177.293357269382</v>
       </c>
       <c r="E50" t="n">
-        <v>129.4393301027174</v>
+        <v>145.9325232176679</v>
       </c>
       <c r="F50" t="n">
-        <v>133.3673230250408</v>
+        <v>140.2014427763382</v>
       </c>
       <c r="G50" t="n">
-        <v>144.2204367681961</v>
+        <v>121.6639146862258</v>
       </c>
       <c r="H50" t="n">
-        <v>131.2018973880647</v>
+        <v>140.3233706321894</v>
       </c>
       <c r="I50" t="n">
-        <v>16.89881498999984</v>
+        <v>32.98204594321903</v>
       </c>
       <c r="J50" t="n">
-        <v>29.82403036149694</v>
+        <v>13.19623895053152</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2207,34 +2207,34 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>64.66375018410902</v>
+        <v>146.8752448532401</v>
       </c>
       <c r="B51" t="n">
-        <v>43.35656106521916</v>
+        <v>47.52926776873157</v>
       </c>
       <c r="C51" t="n">
-        <v>146.6347799388823</v>
+        <v>94.80748854304039</v>
       </c>
       <c r="D51" t="n">
-        <v>139.1614914801675</v>
+        <v>35.05322660884165</v>
       </c>
       <c r="E51" t="n">
-        <v>89.08000165903007</v>
+        <v>92.67097679407341</v>
       </c>
       <c r="F51" t="n">
-        <v>107.4242393937211</v>
+        <v>90.1172554994242</v>
       </c>
       <c r="G51" t="n">
-        <v>80.77162382784351</v>
+        <v>65.5982478336241</v>
       </c>
       <c r="H51" t="n">
-        <v>48.79646801865245</v>
+        <v>26.06461904494669</v>
       </c>
       <c r="I51" t="n">
-        <v>17.86002394693416</v>
+        <v>50.38882668576251</v>
       </c>
       <c r="J51" t="n">
-        <v>34.33636995954875</v>
+        <v>85.45004060708288</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2242,34 +2242,34 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.641279119021457</v>
+        <v>14.25680383461226</v>
       </c>
       <c r="B52" t="n">
-        <v>3.970784657123878</v>
+        <v>7.952723399565673</v>
       </c>
       <c r="C52" t="n">
-        <v>148.2297130637517</v>
+        <v>120.4690927645121</v>
       </c>
       <c r="D52" t="n">
-        <v>127.940489392668</v>
+        <v>139.2643660032276</v>
       </c>
       <c r="E52" t="n">
-        <v>128.6335835946084</v>
+        <v>147.2796512402954</v>
       </c>
       <c r="F52" t="n">
-        <v>135.3292400804096</v>
+        <v>140.6214212183294</v>
       </c>
       <c r="G52" t="n">
-        <v>140.5806076004765</v>
+        <v>84.39232460067866</v>
       </c>
       <c r="H52" t="n">
-        <v>140.200015089693</v>
+        <v>52.79562527524339</v>
       </c>
       <c r="I52" t="n">
-        <v>10.07516413896283</v>
+        <v>54.71087690051776</v>
       </c>
       <c r="J52" t="n">
-        <v>11.24965186218711</v>
+        <v>78.06731588933403</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2277,34 +2277,34 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>140.5890958520674</v>
+        <v>1.754641479698462</v>
       </c>
       <c r="B53" t="n">
-        <v>12.15873700496747</v>
+        <v>55.88300400876548</v>
       </c>
       <c r="C53" t="n">
-        <v>110.303328959388</v>
+        <v>142.6254304751547</v>
       </c>
       <c r="D53" t="n">
-        <v>177.901422395246</v>
+        <v>77.54961951849405</v>
       </c>
       <c r="E53" t="n">
-        <v>148.0429720482807</v>
+        <v>134.2207544962257</v>
       </c>
       <c r="F53" t="n">
-        <v>147.5501411828268</v>
+        <v>130.8332270049083</v>
       </c>
       <c r="G53" t="n">
-        <v>112.9093888503141</v>
+        <v>148.641008787247</v>
       </c>
       <c r="H53" t="n">
-        <v>136.826233662997</v>
+        <v>146.0482699754853</v>
       </c>
       <c r="I53" t="n">
-        <v>53.82935629705105</v>
+        <v>11.69308817691694</v>
       </c>
       <c r="J53" t="n">
-        <v>15.91412678753382</v>
+        <v>17.9386076151485</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2312,34 +2312,34 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>21.70809297152311</v>
+        <v>159.5629596532492</v>
       </c>
       <c r="B54" t="n">
-        <v>25.78958273403439</v>
+        <v>5.724194079273691</v>
       </c>
       <c r="C54" t="n">
-        <v>170.9285659226564</v>
+        <v>33.82759930297226</v>
       </c>
       <c r="D54" t="n">
-        <v>59.5243465306407</v>
+        <v>40.27097900990071</v>
       </c>
       <c r="E54" t="n">
-        <v>129.161285029241</v>
+        <v>154.4886564355374</v>
       </c>
       <c r="F54" t="n">
-        <v>135.1964941471358</v>
+        <v>141.0388769934303</v>
       </c>
       <c r="G54" t="n">
-        <v>86.82465434742295</v>
+        <v>121.8591233472999</v>
       </c>
       <c r="H54" t="n">
-        <v>124.4749924617587</v>
+        <v>122.0133014712263</v>
       </c>
       <c r="I54" t="n">
-        <v>60.53268634150449</v>
+        <v>26.64311610662241</v>
       </c>
       <c r="J54" t="n">
-        <v>11.81447861370187</v>
+        <v>31.57652886637144</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2347,34 +2347,34 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>36.78088302561058</v>
+        <v>1.543976550345017</v>
       </c>
       <c r="B55" t="n">
-        <v>35.99394830450964</v>
+        <v>101.065141235105</v>
       </c>
       <c r="C55" t="n">
-        <v>109.9634346752734</v>
+        <v>76.63131360021625</v>
       </c>
       <c r="D55" t="n">
-        <v>125.9564857977093</v>
+        <v>110.3566242270912</v>
       </c>
       <c r="E55" t="n">
-        <v>77.72742571999208</v>
+        <v>76.40354174182303</v>
       </c>
       <c r="F55" t="n">
-        <v>89.56051659181128</v>
+        <v>48.42441750492077</v>
       </c>
       <c r="G55" t="n">
-        <v>76.27411412939689</v>
+        <v>120.825343308793</v>
       </c>
       <c r="H55" t="n">
-        <v>34.35943619009416</v>
+        <v>123.3913968755857</v>
       </c>
       <c r="I55" t="n">
-        <v>10.33826457372391</v>
+        <v>7.967856049299586</v>
       </c>
       <c r="J55" t="n">
-        <v>15.39378741053439</v>
+        <v>37.99042879938765</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -2382,34 +2382,34 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28.38669357987182</v>
+        <v>132.1875593374887</v>
       </c>
       <c r="B56" t="n">
-        <v>21.17119495581386</v>
+        <v>138.3427025427822</v>
       </c>
       <c r="C56" t="n">
-        <v>107.5482517205218</v>
+        <v>145.4082497624532</v>
       </c>
       <c r="D56" t="n">
-        <v>126.0651263409473</v>
+        <v>177.8434738720749</v>
       </c>
       <c r="E56" t="n">
-        <v>66.9757666158938</v>
+        <v>27.80947475467556</v>
       </c>
       <c r="F56" t="n">
-        <v>79.28943825802122</v>
+        <v>37.6371796031705</v>
       </c>
       <c r="G56" t="n">
-        <v>58.29962655990315</v>
+        <v>129.4337522598926</v>
       </c>
       <c r="H56" t="n">
-        <v>37.68119713780588</v>
+        <v>114.6109860827821</v>
       </c>
       <c r="I56" t="n">
-        <v>7.202699663341187</v>
+        <v>27.11244926321888</v>
       </c>
       <c r="J56" t="n">
-        <v>22.94001340468594</v>
+        <v>9.134371362065565</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -2417,34 +2417,34 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>93.18592440687803</v>
+        <v>66.05345072767992</v>
       </c>
       <c r="B57" t="n">
-        <v>99.91509388483513</v>
+        <v>58.01035116701635</v>
       </c>
       <c r="C57" t="n">
-        <v>113.7694169349917</v>
+        <v>147.2739621159057</v>
       </c>
       <c r="D57" t="n">
-        <v>56.11830261160132</v>
+        <v>156.4922364098362</v>
       </c>
       <c r="E57" t="n">
-        <v>82.81689162772096</v>
+        <v>85.47692473819626</v>
       </c>
       <c r="F57" t="n">
-        <v>60.17698611937945</v>
+        <v>104.806218080851</v>
       </c>
       <c r="G57" t="n">
-        <v>101.1375671400701</v>
+        <v>74.17906678967776</v>
       </c>
       <c r="H57" t="n">
-        <v>126.4764201844113</v>
+        <v>48.75129795673403</v>
       </c>
       <c r="I57" t="n">
-        <v>10.38494802555265</v>
+        <v>16.57399063389736</v>
       </c>
       <c r="J57" t="n">
-        <v>12.99284771627019</v>
+        <v>13.50583130154743</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -2452,34 +2452,34 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.643089237195209</v>
+        <v>29.7131300053744</v>
       </c>
       <c r="B58" t="n">
-        <v>1.878760571918252</v>
+        <v>1.266512286297811</v>
       </c>
       <c r="C58" t="n">
-        <v>78.54755384068369</v>
+        <v>148.1062289459422</v>
       </c>
       <c r="D58" t="n">
-        <v>65.14195189535913</v>
+        <v>114.9446299255687</v>
       </c>
       <c r="E58" t="n">
-        <v>73.44421600326794</v>
+        <v>112.4467287677236</v>
       </c>
       <c r="F58" t="n">
-        <v>63.83337251007039</v>
+        <v>123.2566525927965</v>
       </c>
       <c r="G58" t="n">
-        <v>101.3456242005607</v>
+        <v>155.4628708733525</v>
       </c>
       <c r="H58" t="n">
-        <v>114.5258696105526</v>
+        <v>140.8868491640567</v>
       </c>
       <c r="I58" t="n">
-        <v>2.693043044072318</v>
+        <v>0.1186610343234426</v>
       </c>
       <c r="J58" t="n">
-        <v>14.52158105538532</v>
+        <v>10.43418052536977</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -2487,34 +2487,34 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.410742674347556</v>
+        <v>96.90471840444194</v>
       </c>
       <c r="B59" t="n">
-        <v>5.466022402081459</v>
+        <v>6.500065678581983</v>
       </c>
       <c r="C59" t="n">
-        <v>130.326094304603</v>
+        <v>28.76042865039023</v>
       </c>
       <c r="D59" t="n">
-        <v>121.7088667492697</v>
+        <v>105.8569247928143</v>
       </c>
       <c r="E59" t="n">
-        <v>132.3161259918444</v>
+        <v>72.32294211198302</v>
       </c>
       <c r="F59" t="n">
-        <v>124.5690243224093</v>
+        <v>97.76178284056022</v>
       </c>
       <c r="G59" t="n">
-        <v>143.0843552832237</v>
+        <v>86.20398203891722</v>
       </c>
       <c r="H59" t="n">
-        <v>121.326568748249</v>
+        <v>64.65363641922156</v>
       </c>
       <c r="I59" t="n">
-        <v>14.07806508130703</v>
+        <v>3.559215281956549</v>
       </c>
       <c r="J59" t="n">
-        <v>20.78657262423122</v>
+        <v>34.38877057026701</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -2522,34 +2522,34 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>85.69480741135794</v>
+        <v>114.0771695519321</v>
       </c>
       <c r="B60" t="n">
-        <v>100.5656108630185</v>
+        <v>21.39255316472454</v>
       </c>
       <c r="C60" t="n">
-        <v>99.18237370778681</v>
+        <v>52.25236759690038</v>
       </c>
       <c r="D60" t="n">
-        <v>58.19103989694313</v>
+        <v>118.5416124000276</v>
       </c>
       <c r="E60" t="n">
-        <v>67.97376367927846</v>
+        <v>51.18653436090653</v>
       </c>
       <c r="F60" t="n">
-        <v>60.11381413613307</v>
+        <v>71.22047658507211</v>
       </c>
       <c r="G60" t="n">
-        <v>94.48397776321116</v>
+        <v>82.42346098732516</v>
       </c>
       <c r="H60" t="n">
-        <v>78.54963164847226</v>
+        <v>56.02381771893219</v>
       </c>
       <c r="I60" t="n">
-        <v>1.83102127375859</v>
+        <v>3.537398437607799</v>
       </c>
       <c r="J60" t="n">
-        <v>14.57241744161775</v>
+        <v>64.9899787316771</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -2557,34 +2557,34 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>87.40735173963172</v>
+        <v>21.98579738813302</v>
       </c>
       <c r="B61" t="n">
-        <v>90.49263794261279</v>
+        <v>9.39060269770037</v>
       </c>
       <c r="C61" t="n">
-        <v>167.8726860824196</v>
+        <v>177.75383491964</v>
       </c>
       <c r="D61" t="n">
-        <v>145.6991645264577</v>
+        <v>145.8064621272039</v>
       </c>
       <c r="E61" t="n">
-        <v>69.89481522535048</v>
+        <v>132.7887059425079</v>
       </c>
       <c r="F61" t="n">
-        <v>71.66020076743408</v>
+        <v>139.0625874629723</v>
       </c>
       <c r="G61" t="n">
-        <v>48.49481922862583</v>
+        <v>109.3149841644345</v>
       </c>
       <c r="H61" t="n">
-        <v>43.41379975205797</v>
+        <v>108.0546298675957</v>
       </c>
       <c r="I61" t="n">
-        <v>0.674569122533563</v>
+        <v>34.92077688165938</v>
       </c>
       <c r="J61" t="n">
-        <v>5.100853656744762</v>
+        <v>33.53319881089045</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -2592,34 +2592,34 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>133.0564830323384</v>
+        <v>60.10504033021747</v>
       </c>
       <c r="B62" t="n">
-        <v>41.60681076370197</v>
+        <v>55.41419390996527</v>
       </c>
       <c r="C62" t="n">
-        <v>87.12778405120991</v>
+        <v>150.4859293776765</v>
       </c>
       <c r="D62" t="n">
-        <v>4.048088796882212</v>
+        <v>156.8528520334442</v>
       </c>
       <c r="E62" t="n">
-        <v>149.366595736349</v>
+        <v>90.26131323725929</v>
       </c>
       <c r="F62" t="n">
-        <v>140.6787162198271</v>
+        <v>96.50571220501064</v>
       </c>
       <c r="G62" t="n">
-        <v>33.43958090641992</v>
+        <v>86.9177281269738</v>
       </c>
       <c r="H62" t="n">
-        <v>49.92874494256658</v>
+        <v>48.57086199775497</v>
       </c>
       <c r="I62" t="n">
-        <v>169.1081028820659</v>
+        <v>25.68616621310536</v>
       </c>
       <c r="J62" t="n">
-        <v>101.7857892357854</v>
+        <v>0.5312438046923916</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -2627,34 +2627,34 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>124.9922344889587</v>
+        <v>65.02080061938355</v>
       </c>
       <c r="B63" t="n">
-        <v>15.88552446304702</v>
+        <v>103.5930078407575</v>
       </c>
       <c r="C63" t="n">
-        <v>29.69359282458289</v>
+        <v>114.4274307783458</v>
       </c>
       <c r="D63" t="n">
-        <v>132.9815224216977</v>
+        <v>49.10217616013973</v>
       </c>
       <c r="E63" t="n">
-        <v>141.7006578957162</v>
+        <v>62.47289891861438</v>
       </c>
       <c r="F63" t="n">
-        <v>144.1059535402681</v>
+        <v>57.66114461105219</v>
       </c>
       <c r="G63" t="n">
-        <v>110.7487365531357</v>
+        <v>96.15865484468492</v>
       </c>
       <c r="H63" t="n">
-        <v>143.7854372481474</v>
+        <v>91.48599220559606</v>
       </c>
       <c r="I63" t="n">
-        <v>40.62471323677121</v>
+        <v>21.18667575983273</v>
       </c>
       <c r="J63" t="n">
-        <v>7.947004097968679</v>
+        <v>8.594803459038131</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -2662,34 +2662,34 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>42.99464808942155</v>
+        <v>5.685952926158803</v>
       </c>
       <c r="B64" t="n">
-        <v>90.05851064395036</v>
+        <v>7.568538548233223</v>
       </c>
       <c r="C64" t="n">
-        <v>61.8456930132764</v>
+        <v>49.69041984564444</v>
       </c>
       <c r="D64" t="n">
-        <v>5.809765757055479</v>
+        <v>87.98533450799579</v>
       </c>
       <c r="E64" t="n">
-        <v>81.89821969150108</v>
+        <v>68.5958788168889</v>
       </c>
       <c r="F64" t="n">
-        <v>107.6624349557265</v>
+        <v>66.46243863739357</v>
       </c>
       <c r="G64" t="n">
-        <v>32.02892489207416</v>
+        <v>49.56245416570013</v>
       </c>
       <c r="H64" t="n">
-        <v>46.72932290762842</v>
+        <v>34.98299100979447</v>
       </c>
       <c r="I64" t="n">
-        <v>54.31361251834433</v>
+        <v>35.11967729062714</v>
       </c>
       <c r="J64" t="n">
-        <v>89.30733310601535</v>
+        <v>24.06086337976765</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -2697,34 +2697,34 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13.05945480115046</v>
+        <v>9.182206946810071</v>
       </c>
       <c r="B65" t="n">
-        <v>22.70658646100435</v>
+        <v>0.01564182451069396</v>
       </c>
       <c r="C65" t="n">
-        <v>163.1154886919828</v>
+        <v>139.5762961696998</v>
       </c>
       <c r="D65" t="n">
-        <v>173.2547051486726</v>
+        <v>139.3060992588816</v>
       </c>
       <c r="E65" t="n">
-        <v>132.1491396947659</v>
+        <v>133.4244201808612</v>
       </c>
       <c r="F65" t="n">
-        <v>120.1108526779142</v>
+        <v>128.9726336184667</v>
       </c>
       <c r="G65" t="n">
-        <v>134.5356169533468</v>
+        <v>109.0736756103127</v>
       </c>
       <c r="H65" t="n">
-        <v>98.66964644069476</v>
+        <v>92.00556907479744</v>
       </c>
       <c r="I65" t="n">
-        <v>13.28329680616506</v>
+        <v>36.91569671369174</v>
       </c>
       <c r="J65" t="n">
-        <v>34.16569821280431</v>
+        <v>47.91713100579106</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -2732,34 +2732,34 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.5907405404270415</v>
+        <v>82.39344545335</v>
       </c>
       <c r="B66" t="n">
-        <v>16.89308403713107</v>
+        <v>99.71711774802802</v>
       </c>
       <c r="C66" t="n">
-        <v>140.0629554592597</v>
+        <v>138.8035269984217</v>
       </c>
       <c r="D66" t="n">
-        <v>151.8653083641737</v>
+        <v>134.68421030485</v>
       </c>
       <c r="E66" t="n">
-        <v>151.2614320332204</v>
+        <v>120.6532006041426</v>
       </c>
       <c r="F66" t="n">
-        <v>143.4588102421329</v>
+        <v>56.56672672761015</v>
       </c>
       <c r="G66" t="n">
-        <v>82.59771668010544</v>
+        <v>105.6545188179263</v>
       </c>
       <c r="H66" t="n">
-        <v>98.82251641114574</v>
+        <v>57.8644772819126</v>
       </c>
       <c r="I66" t="n">
-        <v>39.26382220566723</v>
+        <v>6.017319038498704</v>
       </c>
       <c r="J66" t="n">
-        <v>32.21440494919398</v>
+        <v>4.524998534837091</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -2767,34 +2767,34 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>61.18174351734901</v>
+        <v>58.08025446022255</v>
       </c>
       <c r="B67" t="n">
-        <v>48.85236607810939</v>
+        <v>23.2276514439239</v>
       </c>
       <c r="C67" t="n">
-        <v>158.2600738444456</v>
+        <v>157.748787328836</v>
       </c>
       <c r="D67" t="n">
-        <v>69.75625452078776</v>
+        <v>96.93462998271724</v>
       </c>
       <c r="E67" t="n">
-        <v>96.47387566822835</v>
+        <v>70.95087276887654</v>
       </c>
       <c r="F67" t="n">
-        <v>117.6475112282508</v>
+        <v>103.0986653648903</v>
       </c>
       <c r="G67" t="n">
-        <v>129.3135751256124</v>
+        <v>106.3132396075793</v>
       </c>
       <c r="H67" t="n">
-        <v>119.2403348367928</v>
+        <v>93.62249927466382</v>
       </c>
       <c r="I67" t="n">
-        <v>9.628502151891299</v>
+        <v>2.962612717096921</v>
       </c>
       <c r="J67" t="n">
-        <v>3.858098011874257</v>
+        <v>37.42648754953562</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -2802,34 +2802,34 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>98.97299444042126</v>
+        <v>5.760644590601798</v>
       </c>
       <c r="B68" t="n">
-        <v>98.73171308273018</v>
+        <v>21.33873555157112</v>
       </c>
       <c r="C68" t="n">
-        <v>179.3659866069346</v>
+        <v>151.9551762271762</v>
       </c>
       <c r="D68" t="n">
-        <v>174.9251696133854</v>
+        <v>154.3153715167015</v>
       </c>
       <c r="E68" t="n">
-        <v>107.337586383908</v>
+        <v>145.290742955501</v>
       </c>
       <c r="F68" t="n">
-        <v>124.7797015087238</v>
+        <v>133.793791227646</v>
       </c>
       <c r="G68" t="n">
-        <v>28.16584884103757</v>
+        <v>162.5234556551064</v>
       </c>
       <c r="H68" t="n">
-        <v>149.0337912548914</v>
+        <v>125.8044820576986</v>
       </c>
       <c r="I68" t="n">
-        <v>179.051754043251</v>
+        <v>1.363456940462685</v>
       </c>
       <c r="J68" t="n">
-        <v>16.80413223627616</v>
+        <v>21.1710465908137</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -2837,34 +2837,34 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>78.28635000422442</v>
+        <v>2.632902362981199</v>
       </c>
       <c r="B69" t="n">
-        <v>99.9508803974453</v>
+        <v>11.04879674845406</v>
       </c>
       <c r="C69" t="n">
-        <v>139.0568771830549</v>
+        <v>147.2967229958745</v>
       </c>
       <c r="D69" t="n">
-        <v>133.2758517653184</v>
+        <v>131.7587806254207</v>
       </c>
       <c r="E69" t="n">
-        <v>134.3205925634963</v>
+        <v>131.9668130053618</v>
       </c>
       <c r="F69" t="n">
-        <v>56.96309930033754</v>
+        <v>113.564645366894</v>
       </c>
       <c r="G69" t="n">
-        <v>130.7688060803951</v>
+        <v>101.6655879769149</v>
       </c>
       <c r="H69" t="n">
-        <v>52.68353103557348</v>
+        <v>92.02289740590092</v>
       </c>
       <c r="I69" t="n">
-        <v>20.60210660773165</v>
+        <v>40.21008855444487</v>
       </c>
       <c r="J69" t="n">
-        <v>3.171950518949449</v>
+        <v>30.44937057691201</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -2872,34 +2872,34 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12.64068347822181</v>
+        <v>56.35105162097484</v>
       </c>
       <c r="B70" t="n">
-        <v>8.90371970484987</v>
+        <v>48.27856450291084</v>
       </c>
       <c r="C70" t="n">
-        <v>158.5573879923864</v>
+        <v>152.0307434099852</v>
       </c>
       <c r="D70" t="n">
-        <v>137.2522824440801</v>
+        <v>156.3209619083278</v>
       </c>
       <c r="E70" t="n">
-        <v>138.6819727576092</v>
+        <v>98.19768636772278</v>
       </c>
       <c r="F70" t="n">
-        <v>133.1701250318118</v>
+        <v>108.1468375355965</v>
       </c>
       <c r="G70" t="n">
-        <v>105.8057055719227</v>
+        <v>76.43876034354882</v>
       </c>
       <c r="H70" t="n">
-        <v>121.6209658894945</v>
+        <v>62.24334208223865</v>
       </c>
       <c r="I70" t="n">
-        <v>32.06522537262795</v>
+        <v>17.0190550339685</v>
       </c>
       <c r="J70" t="n">
-        <v>11.52074731132137</v>
+        <v>7.173380409850774</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -2907,34 +2907,34 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>11.02697366992082</v>
+        <v>6.053711054340976</v>
       </c>
       <c r="B71" t="n">
-        <v>14.00525331243934</v>
+        <v>13.28721986449396</v>
       </c>
       <c r="C71" t="n">
-        <v>47.41215016690143</v>
+        <v>136.1697040396745</v>
       </c>
       <c r="D71" t="n">
-        <v>85.73890973153624</v>
+        <v>59.47644659535193</v>
       </c>
       <c r="E71" t="n">
-        <v>65.56027344437621</v>
+        <v>126.9790030056733</v>
       </c>
       <c r="F71" t="n">
-        <v>73.72259829886093</v>
+        <v>148.2948174759084</v>
       </c>
       <c r="G71" t="n">
-        <v>43.34910420155071</v>
+        <v>153.8582097126844</v>
       </c>
       <c r="H71" t="n">
-        <v>52.14106830238374</v>
+        <v>136.2786981201147</v>
       </c>
       <c r="I71" t="n">
-        <v>52.99780863738881</v>
+        <v>13.5035724844238</v>
       </c>
       <c r="J71" t="n">
-        <v>40.33340792472673</v>
+        <v>14.47757148205693</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -2942,34 +2942,34 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>93.08103340327851</v>
+        <v>82.87220754216621</v>
       </c>
       <c r="B72" t="n">
-        <v>99.26231606739405</v>
+        <v>73.37427174634142</v>
       </c>
       <c r="C72" t="n">
-        <v>78.96241159080671</v>
+        <v>141.6120247399648</v>
       </c>
       <c r="D72" t="n">
-        <v>43.53175901830534</v>
+        <v>137.6460913374203</v>
       </c>
       <c r="E72" t="n">
-        <v>72.9660708570831</v>
+        <v>62.0870984517049</v>
       </c>
       <c r="F72" t="n">
-        <v>64.2549668984452</v>
+        <v>74.30859770368808</v>
       </c>
       <c r="G72" t="n">
-        <v>83.62438997867008</v>
+        <v>39.84539619957951</v>
       </c>
       <c r="H72" t="n">
-        <v>83.8151137358916</v>
+        <v>44.81244305233452</v>
       </c>
       <c r="I72" t="n">
-        <v>12.74093288227001</v>
+        <v>8.661050589453522</v>
       </c>
       <c r="J72" t="n">
-        <v>18.8041595861243</v>
+        <v>2.5726495781601</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -2977,34 +2977,34 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>64.08765015137104</v>
+        <v>13.76741713143909</v>
       </c>
       <c r="B73" t="n">
-        <v>19.69825836413219</v>
+        <v>25.12033739169543</v>
       </c>
       <c r="C73" t="n">
-        <v>69.93210913483863</v>
+        <v>142.9642176955973</v>
       </c>
       <c r="D73" t="n">
-        <v>130.9277451892243</v>
+        <v>131.5258443298316</v>
       </c>
       <c r="E73" t="n">
-        <v>85.75060192687731</v>
+        <v>121.0292699031668</v>
       </c>
       <c r="F73" t="n">
-        <v>98.05044516751724</v>
+        <v>96.12161320427212</v>
       </c>
       <c r="G73" t="n">
-        <v>96.22248971324544</v>
+        <v>97.813717469783</v>
       </c>
       <c r="H73" t="n">
-        <v>106.0185802195739</v>
+        <v>79.0253155145739</v>
       </c>
       <c r="I73" t="n">
-        <v>9.750097136079363</v>
+        <v>18.58901377820731</v>
       </c>
       <c r="J73" t="n">
-        <v>18.93106739250309</v>
+        <v>23.11351454260679</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -3012,34 +3012,34 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>11.77441402382343</v>
+        <v>16.87322573372333</v>
       </c>
       <c r="B74" t="n">
-        <v>5.369314631928852</v>
+        <v>17.60342435001107</v>
       </c>
       <c r="C74" t="n">
-        <v>138.4696475703674</v>
+        <v>154.9276340633445</v>
       </c>
       <c r="D74" t="n">
-        <v>133.7377792191341</v>
+        <v>44.09569500582444</v>
       </c>
       <c r="E74" t="n">
-        <v>135.4114322106481</v>
+        <v>132.8638944742594</v>
       </c>
       <c r="F74" t="n">
-        <v>118.6792025399139</v>
+        <v>125.7165069445491</v>
       </c>
       <c r="G74" t="n">
-        <v>124.3814592097038</v>
+        <v>108.1747105220564</v>
       </c>
       <c r="H74" t="n">
-        <v>94.92509899278024</v>
+        <v>151.6001034357771</v>
       </c>
       <c r="I74" t="n">
-        <v>32.58295656285996</v>
+        <v>39.31014055775009</v>
       </c>
       <c r="J74" t="n">
-        <v>37.35958878836905</v>
+        <v>8.26383551910644</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3047,34 +3047,34 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>141.3396914480124</v>
+        <v>86.01984561695467</v>
       </c>
       <c r="B75" t="n">
-        <v>58.75339729343773</v>
+        <v>73.88809738282208</v>
       </c>
       <c r="C75" t="n">
-        <v>78.55024056829271</v>
+        <v>143.25464567816</v>
       </c>
       <c r="D75" t="n">
-        <v>0.05243411986003492</v>
+        <v>133.6247885270338</v>
       </c>
       <c r="E75" t="n">
-        <v>155.6017366067649</v>
+        <v>61.30581974805433</v>
       </c>
       <c r="F75" t="n">
-        <v>146.0502098778508</v>
+        <v>67.40597547918253</v>
       </c>
       <c r="G75" t="n">
-        <v>145.289945085635</v>
+        <v>41.34727997741953</v>
       </c>
       <c r="H75" t="n">
-        <v>134.8770353187733</v>
+        <v>46.70047793820936</v>
       </c>
       <c r="I75" t="n">
-        <v>8.382315312109231</v>
+        <v>7.444712841488456</v>
       </c>
       <c r="J75" t="n">
-        <v>28.98850937292102</v>
+        <v>4.138056523393199</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3082,34 +3082,34 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>63.8751840033686</v>
+        <v>141.3396914480124</v>
       </c>
       <c r="B76" t="n">
-        <v>2.71995625679366</v>
+        <v>58.75339729343773</v>
       </c>
       <c r="C76" t="n">
-        <v>106.5729305022112</v>
+        <v>78.55024056829271</v>
       </c>
       <c r="D76" t="n">
-        <v>118.6481596151035</v>
+        <v>0.05243411986003492</v>
       </c>
       <c r="E76" t="n">
-        <v>82.54733141022712</v>
+        <v>155.6017366067649</v>
       </c>
       <c r="F76" t="n">
-        <v>95.54264152321866</v>
+        <v>146.0502098778508</v>
       </c>
       <c r="G76" t="n">
-        <v>54.00936109520189</v>
+        <v>145.289945085635</v>
       </c>
       <c r="H76" t="n">
-        <v>45.64597585004401</v>
+        <v>134.8770353187733</v>
       </c>
       <c r="I76" t="n">
-        <v>33.35894685197712</v>
+        <v>8.382315312109231</v>
       </c>
       <c r="J76" t="n">
-        <v>55.73975171595519</v>
+        <v>28.98850937292102</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3117,34 +3117,34 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>24.63105086594274</v>
+        <v>14.03441239395614</v>
       </c>
       <c r="B77" t="n">
-        <v>74.25081526714303</v>
+        <v>0.4169897373264613</v>
       </c>
       <c r="C77" t="n">
-        <v>129.2842799151254</v>
+        <v>129.912706023381</v>
       </c>
       <c r="D77" t="n">
-        <v>73.68499695901994</v>
+        <v>133.4949188331069</v>
       </c>
       <c r="E77" t="n">
-        <v>144.5947066404812</v>
+        <v>144.9219446092197</v>
       </c>
       <c r="F77" t="n">
-        <v>145.0573215687554</v>
+        <v>132.3216484428429</v>
       </c>
       <c r="G77" t="n">
-        <v>130.2750852908992</v>
+        <v>149.5774476765899</v>
       </c>
       <c r="H77" t="n">
-        <v>133.724279417015</v>
+        <v>126.9768740729997</v>
       </c>
       <c r="I77" t="n">
-        <v>29.74183406245391</v>
+        <v>12.32489568240151</v>
       </c>
       <c r="J77" t="n">
-        <v>29.63425543245625</v>
+        <v>24.1075926043474</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -3152,34 +3152,34 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>60.84107331770112</v>
+        <v>77.5529690115312</v>
       </c>
       <c r="B78" t="n">
-        <v>65.82500785262073</v>
+        <v>77.11070255032094</v>
       </c>
       <c r="C78" t="n">
-        <v>36.41430103347628</v>
+        <v>135.876534402283</v>
       </c>
       <c r="D78" t="n">
-        <v>156.5475159334807</v>
+        <v>150.5161339085454</v>
       </c>
       <c r="E78" t="n">
-        <v>149.6488392148738</v>
+        <v>61.45652692199343</v>
       </c>
       <c r="F78" t="n">
-        <v>78.18293893752394</v>
+        <v>78.52521559360537</v>
       </c>
       <c r="G78" t="n">
-        <v>177.3833337744687</v>
+        <v>60.20056061639019</v>
       </c>
       <c r="H78" t="n">
-        <v>93.51324873957384</v>
+        <v>63.07278141146636</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5201664379742247</v>
+        <v>9.74742783923371</v>
       </c>
       <c r="J78" t="n">
-        <v>57.72541978456507</v>
+        <v>6.065656071689119</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -3187,34 +3187,34 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>26.76706950973614</v>
+        <v>13.05945480115046</v>
       </c>
       <c r="B79" t="n">
-        <v>31.16792635079901</v>
+        <v>22.70658646100435</v>
       </c>
       <c r="C79" t="n">
-        <v>123.899790342363</v>
+        <v>163.1154886919828</v>
       </c>
       <c r="D79" t="n">
-        <v>104.8840977719747</v>
+        <v>173.2547051486726</v>
       </c>
       <c r="E79" t="n">
-        <v>111.7550991223786</v>
+        <v>132.1491396947659</v>
       </c>
       <c r="F79" t="n">
-        <v>112.5610723254618</v>
+        <v>120.1108526779142</v>
       </c>
       <c r="G79" t="n">
-        <v>134.644419911599</v>
+        <v>134.5356169533468</v>
       </c>
       <c r="H79" t="n">
-        <v>137.6221139968631</v>
+        <v>98.66964644069476</v>
       </c>
       <c r="I79" t="n">
-        <v>10.39422680396113</v>
+        <v>13.28329680616506</v>
       </c>
       <c r="J79" t="n">
-        <v>7.405821583205857</v>
+        <v>34.16569821280431</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -3222,34 +3222,34 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>77.5529690115312</v>
+        <v>30.31825307426427</v>
       </c>
       <c r="B80" t="n">
-        <v>77.11070255032094</v>
+        <v>3.64074011054448</v>
       </c>
       <c r="C80" t="n">
-        <v>135.876534402283</v>
+        <v>147.3240055281449</v>
       </c>
       <c r="D80" t="n">
-        <v>150.5161339085454</v>
+        <v>141.8938057368636</v>
       </c>
       <c r="E80" t="n">
-        <v>61.45652692199343</v>
+        <v>148.9083971436519</v>
       </c>
       <c r="F80" t="n">
-        <v>78.52521559360537</v>
+        <v>119.7327484659903</v>
       </c>
       <c r="G80" t="n">
-        <v>60.20056061639019</v>
+        <v>100.1365728124475</v>
       </c>
       <c r="H80" t="n">
-        <v>63.07278141146636</v>
+        <v>57.84522748384256</v>
       </c>
       <c r="I80" t="n">
-        <v>9.74742783923371</v>
+        <v>11.29743155966445</v>
       </c>
       <c r="J80" t="n">
-        <v>6.065656071689119</v>
+        <v>45.24902836141138</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -3257,34 +3257,34 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.39513386733987</v>
+        <v>37.39887198287809</v>
       </c>
       <c r="B81" t="n">
-        <v>58.39572963986785</v>
+        <v>16.20824490427692</v>
       </c>
       <c r="C81" t="n">
-        <v>163.6233900254865</v>
+        <v>178.7908635775437</v>
       </c>
       <c r="D81" t="n">
-        <v>90.46128977693064</v>
+        <v>158.91255322893</v>
       </c>
       <c r="E81" t="n">
-        <v>139.7387640245124</v>
+        <v>109.9313534439224</v>
       </c>
       <c r="F81" t="n">
-        <v>145.9573094170044</v>
+        <v>115.2571237549632</v>
       </c>
       <c r="G81" t="n">
-        <v>158.6787089144793</v>
+        <v>43.38119959793323</v>
       </c>
       <c r="H81" t="n">
-        <v>136.5532406112511</v>
+        <v>42.45159344720992</v>
       </c>
       <c r="I81" t="n">
-        <v>8.926763998331005</v>
+        <v>68.84794554013239</v>
       </c>
       <c r="J81" t="n">
-        <v>25.04969997405375</v>
+        <v>149.5683040688715</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -3292,34 +3292,34 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>78.83047595497223</v>
+        <v>14.38020752228619</v>
       </c>
       <c r="B82" t="n">
-        <v>76.06592437815519</v>
+        <v>12.36275114450205</v>
       </c>
       <c r="C82" t="n">
-        <v>170.1860373473545</v>
+        <v>116.6086224775781</v>
       </c>
       <c r="D82" t="n">
-        <v>157.394686461189</v>
+        <v>102.3927649291238</v>
       </c>
       <c r="E82" t="n">
-        <v>62.81289660466908</v>
+        <v>117.7794552146432</v>
       </c>
       <c r="F82" t="n">
-        <v>72.57299397701289</v>
+        <v>116.4782870936827</v>
       </c>
       <c r="G82" t="n">
-        <v>115.280871851132</v>
+        <v>109.8916653089134</v>
       </c>
       <c r="H82" t="n">
-        <v>122.7426227279558</v>
+        <v>90.7754581106972</v>
       </c>
       <c r="I82" t="n">
-        <v>9.694701282092245</v>
+        <v>37.62286221987427</v>
       </c>
       <c r="J82" t="n">
-        <v>46.45996503501944</v>
+        <v>50.79190971897847</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -3327,34 +3327,34 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>37.39887198287809</v>
+        <v>46.96325126124029</v>
       </c>
       <c r="B83" t="n">
-        <v>16.20824490427692</v>
+        <v>57.25124573742563</v>
       </c>
       <c r="C83" t="n">
-        <v>178.7908635775437</v>
+        <v>150.192734176023</v>
       </c>
       <c r="D83" t="n">
-        <v>158.91255322893</v>
+        <v>69.74492342667382</v>
       </c>
       <c r="E83" t="n">
-        <v>109.9313534439224</v>
+        <v>113.540548676384</v>
       </c>
       <c r="F83" t="n">
-        <v>115.2571237549632</v>
+        <v>108.6758017788448</v>
       </c>
       <c r="G83" t="n">
-        <v>43.38119959793323</v>
+        <v>112.7635800147958</v>
       </c>
       <c r="H83" t="n">
-        <v>42.45159344720992</v>
+        <v>103.1374432340987</v>
       </c>
       <c r="I83" t="n">
-        <v>68.84794554013239</v>
+        <v>10.71114283318964</v>
       </c>
       <c r="J83" t="n">
-        <v>149.5683040688715</v>
+        <v>18.22958852053006</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -3362,34 +3362,34 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>114.0771695519321</v>
+        <v>1.036554995325783</v>
       </c>
       <c r="B84" t="n">
-        <v>21.39255316472454</v>
+        <v>26.27566552208435</v>
       </c>
       <c r="C84" t="n">
-        <v>52.25236759690038</v>
+        <v>104.1470880198785</v>
       </c>
       <c r="D84" t="n">
-        <v>118.5416124000276</v>
+        <v>111.903498482337</v>
       </c>
       <c r="E84" t="n">
-        <v>51.18653436090653</v>
+        <v>99.65471006331796</v>
       </c>
       <c r="F84" t="n">
-        <v>71.22047658507211</v>
+        <v>92.05219937572603</v>
       </c>
       <c r="G84" t="n">
-        <v>82.42346098732516</v>
+        <v>72.48434237249793</v>
       </c>
       <c r="H84" t="n">
-        <v>56.02381771893219</v>
+        <v>75.11359581828944</v>
       </c>
       <c r="I84" t="n">
-        <v>3.537398437607799</v>
+        <v>54.32006359105447</v>
       </c>
       <c r="J84" t="n">
-        <v>64.9899787316771</v>
+        <v>25.01433833328919</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -3397,34 +3397,34 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>11.4544839884535</v>
+        <v>85.69480741135794</v>
       </c>
       <c r="B85" t="n">
-        <v>23.00141209302758</v>
+        <v>100.5656108630185</v>
       </c>
       <c r="C85" t="n">
-        <v>87.33347996230481</v>
+        <v>99.18237370778681</v>
       </c>
       <c r="D85" t="n">
-        <v>98.79791620211449</v>
+        <v>58.19103989694313</v>
       </c>
       <c r="E85" t="n">
-        <v>68.49223854185192</v>
+        <v>67.97376367927846</v>
       </c>
       <c r="F85" t="n">
-        <v>71.34431735751986</v>
+        <v>60.11381413613307</v>
       </c>
       <c r="G85" t="n">
-        <v>57.70796824771721</v>
+        <v>94.48397776321116</v>
       </c>
       <c r="H85" t="n">
-        <v>33.45421116407653</v>
+        <v>78.54963164847226</v>
       </c>
       <c r="I85" t="n">
-        <v>11.53378436261132</v>
+        <v>1.83102127375859</v>
       </c>
       <c r="J85" t="n">
-        <v>7.086429987555479</v>
+        <v>14.57241744161775</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -3432,34 +3432,34 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>30.36695924805118</v>
+        <v>26.76706950973614</v>
       </c>
       <c r="B86" t="n">
-        <v>48.0209867999823</v>
+        <v>31.16792635079901</v>
       </c>
       <c r="C86" t="n">
-        <v>59.62780274924056</v>
+        <v>123.899790342363</v>
       </c>
       <c r="D86" t="n">
-        <v>55.79657124341415</v>
+        <v>104.8840977719747</v>
       </c>
       <c r="E86" t="n">
-        <v>61.26931432312339</v>
+        <v>111.7550991223786</v>
       </c>
       <c r="F86" t="n">
-        <v>67.40365066859326</v>
+        <v>112.5610723254618</v>
       </c>
       <c r="G86" t="n">
-        <v>50.20267841712547</v>
+        <v>134.644419911599</v>
       </c>
       <c r="H86" t="n">
-        <v>54.73004735901071</v>
+        <v>137.6221139968631</v>
       </c>
       <c r="I86" t="n">
-        <v>86.59958578976105</v>
+        <v>10.39422680396113</v>
       </c>
       <c r="J86" t="n">
-        <v>92.23514882807127</v>
+        <v>7.405821583205857</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -3467,34 +3467,34 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>47.60211420608911</v>
+        <v>15.93982891640577</v>
       </c>
       <c r="B87" t="n">
-        <v>28.1926521401683</v>
+        <v>14.34178752374666</v>
       </c>
       <c r="C87" t="n">
-        <v>142.2739268002511</v>
+        <v>97.90447081000541</v>
       </c>
       <c r="D87" t="n">
-        <v>147.3214852326001</v>
+        <v>163.73014115866</v>
       </c>
       <c r="E87" t="n">
-        <v>101.8784605730012</v>
+        <v>136.6051446446662</v>
       </c>
       <c r="F87" t="n">
-        <v>110.4601122548085</v>
+        <v>130.4258154356898</v>
       </c>
       <c r="G87" t="n">
-        <v>58.48480083391396</v>
+        <v>39.36081470692969</v>
       </c>
       <c r="H87" t="n">
-        <v>46.48023273855847</v>
+        <v>55.71103678925878</v>
       </c>
       <c r="I87" t="n">
-        <v>9.952941193657656</v>
+        <v>96.27199979273064</v>
       </c>
       <c r="J87" t="n">
-        <v>32.82095180038138</v>
+        <v>75.85111704426477</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -3502,34 +3502,34 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>51.44078290413393</v>
+        <v>37.90455843812517</v>
       </c>
       <c r="B88" t="n">
-        <v>86.96414409722868</v>
+        <v>43.43671744335751</v>
       </c>
       <c r="C88" t="n">
-        <v>143.1539647271825</v>
+        <v>166.4876756374183</v>
       </c>
       <c r="D88" t="n">
-        <v>129.3516493137589</v>
+        <v>168.9591678882449</v>
       </c>
       <c r="E88" t="n">
-        <v>102.6169788998307</v>
+        <v>113.160475561982</v>
       </c>
       <c r="F88" t="n">
-        <v>65.32757762685583</v>
+        <v>111.9456477078675</v>
       </c>
       <c r="G88" t="n">
-        <v>72.47692201561989</v>
+        <v>133.7248272609194</v>
       </c>
       <c r="H88" t="n">
-        <v>67.17274463428075</v>
+        <v>126.487988274004</v>
       </c>
       <c r="I88" t="n">
-        <v>1.37675926823676</v>
+        <v>19.78992529292943</v>
       </c>
       <c r="J88" t="n">
-        <v>7.198011696428205</v>
+        <v>20.43685140188206</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -3537,34 +3537,34 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>22.28731546614554</v>
+        <v>64.66375018410902</v>
       </c>
       <c r="B89" t="n">
-        <v>61.89661064396584</v>
+        <v>43.35656106521916</v>
       </c>
       <c r="C89" t="n">
-        <v>147.4239427076091</v>
+        <v>146.6347799388823</v>
       </c>
       <c r="D89" t="n">
-        <v>137.8566550522357</v>
+        <v>139.1614914801675</v>
       </c>
       <c r="E89" t="n">
-        <v>113.8313597680202</v>
+        <v>89.08000165903007</v>
       </c>
       <c r="F89" t="n">
-        <v>89.66764381012256</v>
+        <v>107.4242393937211</v>
       </c>
       <c r="G89" t="n">
-        <v>102.1053574101707</v>
+        <v>80.77162382784351</v>
       </c>
       <c r="H89" t="n">
-        <v>52.96391493465222</v>
+        <v>48.79646801865245</v>
       </c>
       <c r="I89" t="n">
-        <v>13.33128594759561</v>
+        <v>17.86002394693416</v>
       </c>
       <c r="J89" t="n">
-        <v>3.118809480393118</v>
+        <v>34.33636995954875</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -3572,34 +3572,34 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>67.07906394894795</v>
+        <v>87.40735173963172</v>
       </c>
       <c r="B90" t="n">
-        <v>43.00695513592256</v>
+        <v>90.49263794261279</v>
       </c>
       <c r="C90" t="n">
-        <v>152.4104635651269</v>
+        <v>167.8726860824196</v>
       </c>
       <c r="D90" t="n">
-        <v>147.0031207311716</v>
+        <v>145.6991645264577</v>
       </c>
       <c r="E90" t="n">
-        <v>89.00836856156792</v>
+        <v>69.89481522535048</v>
       </c>
       <c r="F90" t="n">
-        <v>105.1519434075821</v>
+        <v>71.66020076743408</v>
       </c>
       <c r="G90" t="n">
-        <v>75.75222666726907</v>
+        <v>48.49481922862583</v>
       </c>
       <c r="H90" t="n">
-        <v>65.39296762932823</v>
+        <v>43.41379975205797</v>
       </c>
       <c r="I90" t="n">
-        <v>18.10186501530609</v>
+        <v>0.674569122533563</v>
       </c>
       <c r="J90" t="n">
-        <v>20.03229224620195</v>
+        <v>5.100853656744762</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -3607,34 +3607,34 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>99.04958813691513</v>
+        <v>61.18174351734901</v>
       </c>
       <c r="B91" t="n">
-        <v>27.65721096275265</v>
+        <v>48.85236607810939</v>
       </c>
       <c r="C91" t="n">
-        <v>162.4464302247631</v>
+        <v>158.2600738444456</v>
       </c>
       <c r="D91" t="n">
-        <v>130.832323067349</v>
+        <v>69.75625452078776</v>
       </c>
       <c r="E91" t="n">
-        <v>73.20910311902236</v>
+        <v>96.47387566822835</v>
       </c>
       <c r="F91" t="n">
-        <v>118.2933145228737</v>
+        <v>117.6475112282508</v>
       </c>
       <c r="G91" t="n">
-        <v>93.23731612766731</v>
+        <v>129.3135751256124</v>
       </c>
       <c r="H91" t="n">
-        <v>82.55365150110785</v>
+        <v>119.2403348367928</v>
       </c>
       <c r="I91" t="n">
-        <v>44.39739414308121</v>
+        <v>9.628502151891299</v>
       </c>
       <c r="J91" t="n">
-        <v>62.00268244960354</v>
+        <v>3.858098011874257</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -3642,34 +3642,34 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>13.76741713143909</v>
+        <v>30.36695924805118</v>
       </c>
       <c r="B92" t="n">
-        <v>25.12033739169543</v>
+        <v>48.0209867999823</v>
       </c>
       <c r="C92" t="n">
-        <v>142.9642176955973</v>
+        <v>59.62780274924056</v>
       </c>
       <c r="D92" t="n">
-        <v>131.5258443298316</v>
+        <v>55.79657124341415</v>
       </c>
       <c r="E92" t="n">
-        <v>121.0292699031668</v>
+        <v>61.26931432312339</v>
       </c>
       <c r="F92" t="n">
-        <v>96.12161320427212</v>
+        <v>67.40365066859326</v>
       </c>
       <c r="G92" t="n">
-        <v>97.813717469783</v>
+        <v>50.20267841712547</v>
       </c>
       <c r="H92" t="n">
-        <v>79.0253155145739</v>
+        <v>54.73004735901071</v>
       </c>
       <c r="I92" t="n">
-        <v>18.58901377820731</v>
+        <v>86.59958578976105</v>
       </c>
       <c r="J92" t="n">
-        <v>23.11351454260679</v>
+        <v>92.23514882807127</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -3677,34 +3677,34 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.790888577078255</v>
+        <v>19.136455814097</v>
       </c>
       <c r="B93" t="n">
-        <v>8.863168237016415</v>
+        <v>10.25038895714213</v>
       </c>
       <c r="C93" t="n">
-        <v>131.5625910559738</v>
+        <v>114.5227230799634</v>
       </c>
       <c r="D93" t="n">
-        <v>119.8993658784903</v>
+        <v>60.63749358459609</v>
       </c>
       <c r="E93" t="n">
-        <v>114.6391633017131</v>
+        <v>115.2960417718706</v>
       </c>
       <c r="F93" t="n">
-        <v>105.7051052013588</v>
+        <v>136.9367695001443</v>
       </c>
       <c r="G93" t="n">
-        <v>92.17495687180536</v>
+        <v>135.7324459520581</v>
       </c>
       <c r="H93" t="n">
-        <v>81.8498340094439</v>
+        <v>145.5934592648373</v>
       </c>
       <c r="I93" t="n">
-        <v>45.87198027899841</v>
+        <v>19.27711288284</v>
       </c>
       <c r="J93" t="n">
-        <v>51.24548111843654</v>
+        <v>3.589335403774951</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -3712,34 +3712,34 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>29.96404457337212</v>
+        <v>15.22891078933622</v>
       </c>
       <c r="B94" t="n">
-        <v>34.41502178141125</v>
+        <v>9.90261835371496</v>
       </c>
       <c r="C94" t="n">
-        <v>111.5773803345419</v>
+        <v>61.74167243278087</v>
       </c>
       <c r="D94" t="n">
-        <v>121.18810984487</v>
+        <v>87.52260830053041</v>
       </c>
       <c r="E94" t="n">
-        <v>85.51115291957262</v>
+        <v>62.04606548905656</v>
       </c>
       <c r="F94" t="n">
-        <v>85.39215507266221</v>
+        <v>69.47501374206684</v>
       </c>
       <c r="G94" t="n">
-        <v>77.48409058221979</v>
+        <v>82.45157754571117</v>
       </c>
       <c r="H94" t="n">
-        <v>45.87521812244956</v>
+        <v>31.25419031417679</v>
       </c>
       <c r="I94" t="n">
-        <v>3.515637371491812</v>
+        <v>8.083869132134859</v>
       </c>
       <c r="J94" t="n">
-        <v>16.39707077406029</v>
+        <v>30.49725875637565</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -3747,34 +3747,34 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>7.577049822765646</v>
+        <v>10.29363551953212</v>
       </c>
       <c r="B95" t="n">
-        <v>4.094122741931357</v>
+        <v>17.76315536615592</v>
       </c>
       <c r="C95" t="n">
-        <v>101.7233701477525</v>
+        <v>96.24105131743674</v>
       </c>
       <c r="D95" t="n">
-        <v>107.584817959557</v>
+        <v>66.80039604752763</v>
       </c>
       <c r="E95" t="n">
-        <v>119.696269414428</v>
+        <v>95.90501763870691</v>
       </c>
       <c r="F95" t="n">
-        <v>121.9006233644647</v>
+        <v>92.61937196927751</v>
       </c>
       <c r="G95" t="n">
-        <v>101.4862237871273</v>
+        <v>55.8066224485064</v>
       </c>
       <c r="H95" t="n">
-        <v>86.57754416475461</v>
+        <v>40.38685368730842</v>
       </c>
       <c r="I95" t="n">
-        <v>40.94567251897882</v>
+        <v>43.97373169178957</v>
       </c>
       <c r="J95" t="n">
-        <v>50.70143574768036</v>
+        <v>37.15126558997921</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -3782,34 +3782,34 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>14.03441239395614</v>
+        <v>42.46529029607966</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4169897373264613</v>
+        <v>26.67335665818118</v>
       </c>
       <c r="C96" t="n">
-        <v>129.912706023381</v>
+        <v>143.1556050222744</v>
       </c>
       <c r="D96" t="n">
-        <v>133.4949188331069</v>
+        <v>145.8283336991293</v>
       </c>
       <c r="E96" t="n">
-        <v>144.9219446092197</v>
+        <v>104.4109170679186</v>
       </c>
       <c r="F96" t="n">
-        <v>132.3216484428429</v>
+        <v>112.9954492457939</v>
       </c>
       <c r="G96" t="n">
-        <v>149.5774476765899</v>
+        <v>50.74113283707583</v>
       </c>
       <c r="H96" t="n">
-        <v>126.9768740729997</v>
+        <v>55.81933089495161</v>
       </c>
       <c r="I96" t="n">
-        <v>12.32489568240151</v>
+        <v>12.66512372500709</v>
       </c>
       <c r="J96" t="n">
-        <v>24.1075926043474</v>
+        <v>13.94845051073627</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -3817,34 +3817,34 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8.783991071875212</v>
+        <v>9.570924397883497</v>
       </c>
       <c r="B97" t="n">
-        <v>19.42136232075514</v>
+        <v>8.145652805565341</v>
       </c>
       <c r="C97" t="n">
-        <v>140.0895119049741</v>
+        <v>138.1901751211839</v>
       </c>
       <c r="D97" t="n">
-        <v>126.7306230843444</v>
+        <v>114.7060315838353</v>
       </c>
       <c r="E97" t="n">
-        <v>142.5164310243894</v>
+        <v>140.2795004951924</v>
       </c>
       <c r="F97" t="n">
-        <v>112.7664827259011</v>
+        <v>135.6575856756256</v>
       </c>
       <c r="G97" t="n">
-        <v>102.3480106059574</v>
+        <v>85.86416462615563</v>
       </c>
       <c r="H97" t="n">
-        <v>56.26802073431213</v>
+        <v>53.34293850373837</v>
       </c>
       <c r="I97" t="n">
-        <v>5.793514576731391</v>
+        <v>57.55380912673274</v>
       </c>
       <c r="J97" t="n">
-        <v>5.746592800917283</v>
+        <v>76.20257770438496</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -3852,314 +3852,314 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>57.47897200195615</v>
+        <v>57.08618082505868</v>
       </c>
       <c r="B98" t="n">
-        <v>54.3263787601295</v>
+        <v>29.39066324177718</v>
       </c>
       <c r="C98" t="n">
-        <v>153.8746342475876</v>
+        <v>135.2955104122083</v>
       </c>
       <c r="D98" t="n">
-        <v>157.9586482206335</v>
+        <v>128.93930377836</v>
       </c>
       <c r="E98" t="n">
-        <v>98.38481384486687</v>
+        <v>90.36520168378377</v>
       </c>
       <c r="F98" t="n">
-        <v>107.6340017734284</v>
+        <v>103.4046435468976</v>
       </c>
       <c r="G98" t="n">
-        <v>75.28399631553924</v>
+        <v>52.60543717666299</v>
       </c>
       <c r="H98" t="n">
-        <v>76.36027700470696</v>
+        <v>53.12500667732392</v>
       </c>
       <c r="I98" t="n">
-        <v>17.13468079213045</v>
+        <v>12.58133690742367</v>
       </c>
       <c r="J98" t="n">
-        <v>10.99042508221886</v>
+        <v>23.19315210448237</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8.916729288168479</v>
+        <v>21.2657312172884</v>
       </c>
       <c r="B99" t="n">
-        <v>33.34360810098208</v>
+        <v>37.68406394182237</v>
       </c>
       <c r="C99" t="n">
-        <v>67.2831536583035</v>
+        <v>147.5617522505353</v>
       </c>
       <c r="D99" t="n">
-        <v>47.56982611837722</v>
+        <v>136.7137847236134</v>
       </c>
       <c r="E99" t="n">
-        <v>46.37931941359707</v>
+        <v>118.2190884484207</v>
       </c>
       <c r="F99" t="n">
-        <v>50.06932729174542</v>
+        <v>103.3217080335342</v>
       </c>
       <c r="G99" t="n">
-        <v>75.4769004863951</v>
+        <v>118.7585241069307</v>
       </c>
       <c r="H99" t="n">
-        <v>88.82980460663657</v>
+        <v>96.08386268728773</v>
       </c>
       <c r="I99" t="n">
-        <v>54.68466037227028</v>
+        <v>11.70068665618599</v>
       </c>
       <c r="J99" t="n">
-        <v>65.73464465929909</v>
+        <v>4.746675791160628</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>117.0260030118374</v>
+        <v>48.59799330994738</v>
       </c>
       <c r="B100" t="n">
-        <v>10.13443141564301</v>
+        <v>29.11782663261282</v>
       </c>
       <c r="C100" t="n">
-        <v>30.87583163559666</v>
+        <v>88.67769783088079</v>
       </c>
       <c r="D100" t="n">
-        <v>84.63882749600725</v>
+        <v>84.96310279796202</v>
       </c>
       <c r="E100" t="n">
-        <v>51.94092553980641</v>
+        <v>63.22498622538665</v>
       </c>
       <c r="F100" t="n">
-        <v>69.07441053250363</v>
+        <v>69.07874076537996</v>
       </c>
       <c r="G100" t="n">
-        <v>103.7414439771349</v>
+        <v>54.2952932474002</v>
       </c>
       <c r="H100" t="n">
-        <v>92.39367417625304</v>
+        <v>51.46536789368662</v>
       </c>
       <c r="I100" t="n">
-        <v>11.12530031501749</v>
+        <v>16.00319532209472</v>
       </c>
       <c r="J100" t="n">
-        <v>38.62973318783038</v>
+        <v>19.62555592192735</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>52.97688684460164</v>
+        <v>31.96361128563025</v>
       </c>
       <c r="B101" t="n">
-        <v>38.34659719712041</v>
+        <v>0.9069604648428087</v>
       </c>
       <c r="C101" t="n">
-        <v>146.176523292513</v>
+        <v>87.81635016146042</v>
       </c>
       <c r="D101" t="n">
-        <v>143.1674458306643</v>
+        <v>62.61485610600126</v>
       </c>
       <c r="E101" t="n">
-        <v>97.4780762439421</v>
+        <v>54.22916465823499</v>
       </c>
       <c r="F101" t="n">
-        <v>104.5213299952902</v>
+        <v>58.31847737313331</v>
       </c>
       <c r="G101" t="n">
-        <v>60.0746307654281</v>
+        <v>102.9446250114896</v>
       </c>
       <c r="H101" t="n">
-        <v>41.75169415675249</v>
+        <v>64.05494672560073</v>
       </c>
       <c r="I101" t="n">
-        <v>6.963545044107954</v>
+        <v>16.79638821844424</v>
       </c>
       <c r="J101" t="n">
-        <v>22.76898180547733</v>
+        <v>29.93666992551293</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>16.70130357283176</v>
+        <v>17.39542742098606</v>
       </c>
       <c r="B102" t="n">
-        <v>41.53345602576229</v>
+        <v>4.02962751494313</v>
       </c>
       <c r="C102" t="n">
-        <v>125.8907297295102</v>
+        <v>72.50570349258136</v>
       </c>
       <c r="D102" t="n">
-        <v>134.7396698631306</v>
+        <v>111.4499334425518</v>
       </c>
       <c r="E102" t="n">
-        <v>114.424879610325</v>
+        <v>113.8530982258774</v>
       </c>
       <c r="F102" t="n">
-        <v>113.5691365561063</v>
+        <v>143.2623719906227</v>
       </c>
       <c r="G102" t="n">
-        <v>93.5187453382876</v>
+        <v>90.59225972998053</v>
       </c>
       <c r="H102" t="n">
-        <v>95.96713243309091</v>
+        <v>111.1147473143899</v>
       </c>
       <c r="I102" t="n">
-        <v>28.651149013308</v>
+        <v>4.273636913796453</v>
       </c>
       <c r="J102" t="n">
-        <v>8.402146903963612</v>
+        <v>13.74254137457219</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8.465699955101734</v>
+        <v>23.89651837148788</v>
       </c>
       <c r="B103" t="n">
-        <v>24.94956200141146</v>
+        <v>54.30569762457865</v>
       </c>
       <c r="C103" t="n">
-        <v>112.0902525903238</v>
+        <v>151.5285617165103</v>
       </c>
       <c r="D103" t="n">
-        <v>96.03144100444456</v>
+        <v>152.6560952785152</v>
       </c>
       <c r="E103" t="n">
-        <v>128.6959140450691</v>
+        <v>111.7114009215569</v>
       </c>
       <c r="F103" t="n">
-        <v>118.0733993476825</v>
+        <v>97.2954907299996</v>
       </c>
       <c r="G103" t="n">
-        <v>93.79550268899271</v>
+        <v>119.3361261452216</v>
       </c>
       <c r="H103" t="n">
-        <v>60.39084499755381</v>
+        <v>99.65548357616817</v>
       </c>
       <c r="I103" t="n">
-        <v>35.16019161504533</v>
+        <v>15.09738616028453</v>
       </c>
       <c r="J103" t="n">
-        <v>44.70861574155833</v>
+        <v>8.768479658912007</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>66.45940360529849</v>
+        <v>14.48155422366672</v>
       </c>
       <c r="B104" t="n">
-        <v>45.13228083238286</v>
+        <v>24.44098123708248</v>
       </c>
       <c r="C104" t="n">
-        <v>85.85301020510541</v>
+        <v>127.4309930488178</v>
       </c>
       <c r="D104" t="n">
-        <v>160.194001769042</v>
+        <v>101.5941261621802</v>
       </c>
       <c r="E104" t="n">
-        <v>86.81385310308809</v>
+        <v>85.06255482086053</v>
       </c>
       <c r="F104" t="n">
-        <v>93.55940076580907</v>
+        <v>85.24195940970976</v>
       </c>
       <c r="G104" t="n">
-        <v>97.81099517621543</v>
+        <v>42.30822526350823</v>
       </c>
       <c r="H104" t="n">
-        <v>81.28201232957743</v>
+        <v>40.5201694154091</v>
       </c>
       <c r="I104" t="n">
-        <v>7.686806296365353</v>
+        <v>33.01179092423052</v>
       </c>
       <c r="J104" t="n">
-        <v>19.76707497104323</v>
+        <v>18.30185287937744</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>83.86744704907312</v>
+        <v>38.51946401805534</v>
       </c>
       <c r="B105" t="n">
-        <v>80.74994983012131</v>
+        <v>21.85033580819461</v>
       </c>
       <c r="C105" t="n">
-        <v>137.2061695470342</v>
+        <v>75.47534548296672</v>
       </c>
       <c r="D105" t="n">
-        <v>132.9085044956899</v>
+        <v>76.05450600464506</v>
       </c>
       <c r="E105" t="n">
-        <v>59.34321279903543</v>
+        <v>60.31180520719756</v>
       </c>
       <c r="F105" t="n">
-        <v>61.96473442475145</v>
+        <v>66.1732447201021</v>
       </c>
       <c r="G105" t="n">
-        <v>44.30024426542161</v>
+        <v>54.48690538056388</v>
       </c>
       <c r="H105" t="n">
-        <v>50.06536903542803</v>
+        <v>52.02955834517195</v>
       </c>
       <c r="I105" t="n">
-        <v>9.281996063793732</v>
+        <v>18.95864732845064</v>
       </c>
       <c r="J105" t="n">
-        <v>6.879573778389909</v>
+        <v>22.84189482501839</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>53.80082279299231</v>
+        <v>4.915528443089333</v>
       </c>
       <c r="B106" t="n">
-        <v>72.12523842988087</v>
+        <v>47.65412278642897</v>
       </c>
       <c r="C106" t="n">
-        <v>150.5316501015292</v>
+        <v>114.6777916593055</v>
       </c>
       <c r="D106" t="n">
-        <v>171.5038096422425</v>
+        <v>133.7351605451783</v>
       </c>
       <c r="E106" t="n">
-        <v>96.76792614503199</v>
+        <v>97.85737045837017</v>
       </c>
       <c r="F106" t="n">
-        <v>89.93767468832759</v>
+        <v>87.64721348755559</v>
       </c>
       <c r="G106" t="n">
-        <v>125.1107929785561</v>
+        <v>113.7897038210269</v>
       </c>
       <c r="H106" t="n">
-        <v>111.4632348359479</v>
+        <v>96.92482339992722</v>
       </c>
       <c r="I106" t="n">
-        <v>49.20237889363373</v>
+        <v>17.85613114993876</v>
       </c>
       <c r="J106" t="n">
-        <v>27.66706304430698</v>
+        <v>15.57565001365579</v>
       </c>
       <c r="K106" t="n">
         <v>1</v>
@@ -4167,34 +4167,34 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>48.00801168779877</v>
+        <v>2.516225390354379</v>
       </c>
       <c r="B107" t="n">
-        <v>36.16649223913402</v>
+        <v>26.78231244639192</v>
       </c>
       <c r="C107" t="n">
-        <v>141.8910472105412</v>
+        <v>129.8434066574317</v>
       </c>
       <c r="D107" t="n">
-        <v>136.1791223584968</v>
+        <v>97.33076448304652</v>
       </c>
       <c r="E107" t="n">
-        <v>99.81689558348177</v>
+        <v>108.4725605027712</v>
       </c>
       <c r="F107" t="n">
-        <v>100.9962892013372</v>
+        <v>103.16350966928</v>
       </c>
       <c r="G107" t="n">
-        <v>53.59971825168335</v>
+        <v>53.12649197623426</v>
       </c>
       <c r="H107" t="n">
-        <v>45.06139254948387</v>
+        <v>51.45413626307584</v>
       </c>
       <c r="I107" t="n">
-        <v>12.56014662122642</v>
+        <v>32.79798191549212</v>
       </c>
       <c r="J107" t="n">
-        <v>26.74425854432575</v>
+        <v>27.75267423020421</v>
       </c>
       <c r="K107" t="n">
         <v>1</v>
@@ -4202,34 +4202,34 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>49.45386297428164</v>
+        <v>6.617572513430543</v>
       </c>
       <c r="B108" t="n">
-        <v>41.35801854186865</v>
+        <v>42.00852211550986</v>
       </c>
       <c r="C108" t="n">
-        <v>147.9026660557705</v>
+        <v>125.2020800496754</v>
       </c>
       <c r="D108" t="n">
-        <v>150.5838125553654</v>
+        <v>129.9080341023704</v>
       </c>
       <c r="E108" t="n">
-        <v>107.8071254604093</v>
+        <v>112.831509772285</v>
       </c>
       <c r="F108" t="n">
-        <v>113.2103706601376</v>
+        <v>93.75548445973949</v>
       </c>
       <c r="G108" t="n">
-        <v>65.79309240021855</v>
+        <v>106.3692279086252</v>
       </c>
       <c r="H108" t="n">
-        <v>40.07066553023233</v>
+        <v>84.31038730498216</v>
       </c>
       <c r="I108" t="n">
-        <v>12.64111503003961</v>
+        <v>25.26821072866933</v>
       </c>
       <c r="J108" t="n">
-        <v>32.62253446355395</v>
+        <v>8.700817855101533</v>
       </c>
       <c r="K108" t="n">
         <v>1</v>
@@ -4237,34 +4237,34 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>87.60662397101648</v>
+        <v>41.55154248396671</v>
       </c>
       <c r="B109" t="n">
-        <v>81.26683561642807</v>
+        <v>61.87230459770458</v>
       </c>
       <c r="C109" t="n">
-        <v>137.1402018846523</v>
+        <v>131.9255403137472</v>
       </c>
       <c r="D109" t="n">
-        <v>149.5482828330035</v>
+        <v>132.0249481752636</v>
       </c>
       <c r="E109" t="n">
-        <v>65.42365118744323</v>
+        <v>89.50150789217697</v>
       </c>
       <c r="F109" t="n">
-        <v>72.58414495694063</v>
+        <v>88.7681876976788</v>
       </c>
       <c r="G109" t="n">
-        <v>60.5683570529981</v>
+        <v>107.7179765828523</v>
       </c>
       <c r="H109" t="n">
-        <v>62.41866312694589</v>
+        <v>115.6803833745177</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9038313523760482</v>
+        <v>5.593339662851111</v>
       </c>
       <c r="J109" t="n">
-        <v>1.398495415965402</v>
+        <v>16.38946532598732</v>
       </c>
       <c r="K109" t="n">
         <v>1</v>
@@ -4272,34 +4272,34 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>99.81263911605137</v>
+        <v>3.055688897040079</v>
       </c>
       <c r="B110" t="n">
-        <v>96.4350060939105</v>
+        <v>25.91826633238323</v>
       </c>
       <c r="C110" t="n">
-        <v>33.89840717288538</v>
+        <v>120.3054780974249</v>
       </c>
       <c r="D110" t="n">
-        <v>148.9220811849631</v>
+        <v>121.4152625771294</v>
       </c>
       <c r="E110" t="n">
-        <v>53.89947074280187</v>
+        <v>121.6744511501497</v>
       </c>
       <c r="F110" t="n">
-        <v>64.06677819578823</v>
+        <v>101.8899318971978</v>
       </c>
       <c r="G110" t="n">
-        <v>54.43531019143327</v>
+        <v>74.9295630758337</v>
       </c>
       <c r="H110" t="n">
-        <v>71.37235396028849</v>
+        <v>85.77370444614274</v>
       </c>
       <c r="I110" t="n">
-        <v>25.71215734868276</v>
+        <v>37.0575922717488</v>
       </c>
       <c r="J110" t="n">
-        <v>3.05673984205663</v>
+        <v>9.089545024515475</v>
       </c>
       <c r="K110" t="n">
         <v>1</v>
@@ -4307,34 +4307,34 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>22.23197394037826</v>
+        <v>56.41774837775971</v>
       </c>
       <c r="B111" t="n">
-        <v>46.09739826540261</v>
+        <v>44.90778424113849</v>
       </c>
       <c r="C111" t="n">
-        <v>100.2028686449024</v>
+        <v>138.9055796388309</v>
       </c>
       <c r="D111" t="n">
-        <v>122.0230866723729</v>
+        <v>134.5994422181114</v>
       </c>
       <c r="E111" t="n">
-        <v>82.0071970412581</v>
+        <v>94.10194090392719</v>
       </c>
       <c r="F111" t="n">
-        <v>87.2584674392286</v>
+        <v>94.75920916492851</v>
       </c>
       <c r="G111" t="n">
-        <v>112.6596529974553</v>
+        <v>49.77081550532927</v>
       </c>
       <c r="H111" t="n">
-        <v>110.8744682865383</v>
+        <v>54.03555453131574</v>
       </c>
       <c r="I111" t="n">
-        <v>20.11608566252673</v>
+        <v>12.55334256898751</v>
       </c>
       <c r="J111" t="n">
-        <v>16.65080611831543</v>
+        <v>12.91076254883783</v>
       </c>
       <c r="K111" t="n">
         <v>1</v>
@@ -4342,34 +4342,34 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>106.7927457456158</v>
+        <v>6.881379399557678</v>
       </c>
       <c r="B112" t="n">
-        <v>80.16724352504745</v>
+        <v>37.55042756059312</v>
       </c>
       <c r="C112" t="n">
-        <v>28.22374554646911</v>
+        <v>144.2625081188057</v>
       </c>
       <c r="D112" t="n">
-        <v>138.2642010912081</v>
+        <v>136.0495931688137</v>
       </c>
       <c r="E112" t="n">
-        <v>42.30973524728297</v>
+        <v>115.4206801744497</v>
       </c>
       <c r="F112" t="n">
-        <v>51.13533676359334</v>
+        <v>97.66876988628538</v>
       </c>
       <c r="G112" t="n">
-        <v>44.78177807731915</v>
+        <v>109.7319395443444</v>
       </c>
       <c r="H112" t="n">
-        <v>52.90998545103825</v>
+        <v>87.5426478210736</v>
       </c>
       <c r="I112" t="n">
-        <v>26.36170214514155</v>
+        <v>35.01040115791633</v>
       </c>
       <c r="J112" t="n">
-        <v>4.527180426370548</v>
+        <v>7.007178111199707</v>
       </c>
       <c r="K112" t="n">
         <v>1</v>
@@ -4377,34 +4377,34 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>50.20164748448577</v>
+        <v>60.84127748374366</v>
       </c>
       <c r="B113" t="n">
-        <v>10.92018431414235</v>
+        <v>52.22551357541614</v>
       </c>
       <c r="C113" t="n">
-        <v>24.72807858893519</v>
+        <v>34.74571680934968</v>
       </c>
       <c r="D113" t="n">
-        <v>139.7001469176583</v>
+        <v>95.97203557573363</v>
       </c>
       <c r="E113" t="n">
-        <v>92.2408756474286</v>
+        <v>31.51127427575788</v>
       </c>
       <c r="F113" t="n">
-        <v>115.6478894711209</v>
+        <v>7.115463776926014</v>
       </c>
       <c r="G113" t="n">
-        <v>100.7684148324854</v>
+        <v>13.97818751562443</v>
       </c>
       <c r="H113" t="n">
-        <v>79.280052602277</v>
+        <v>9.705690087343877</v>
       </c>
       <c r="I113" t="n">
-        <v>19.13846543746054</v>
+        <v>21.91839571829497</v>
       </c>
       <c r="J113" t="n">
-        <v>25.79591220939766</v>
+        <v>12.80801009665226</v>
       </c>
       <c r="K113" t="n">
         <v>1</v>
@@ -4412,34 +4412,34 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>23.89651837148788</v>
+        <v>6.312511353224751</v>
       </c>
       <c r="B114" t="n">
-        <v>54.30569762457865</v>
+        <v>63.36287722419484</v>
       </c>
       <c r="C114" t="n">
-        <v>151.5285617165103</v>
+        <v>85.00800748700595</v>
       </c>
       <c r="D114" t="n">
-        <v>152.6560952785152</v>
+        <v>161.0904634910239</v>
       </c>
       <c r="E114" t="n">
-        <v>111.7114009215569</v>
+        <v>78.82471396674168</v>
       </c>
       <c r="F114" t="n">
-        <v>97.2954907299996</v>
+        <v>66.00910690159469</v>
       </c>
       <c r="G114" t="n">
-        <v>119.3361261452216</v>
+        <v>65.94721896899527</v>
       </c>
       <c r="H114" t="n">
-        <v>99.65548357616817</v>
+        <v>86.20861035070848</v>
       </c>
       <c r="I114" t="n">
-        <v>15.09738616028453</v>
+        <v>23.32521581359806</v>
       </c>
       <c r="J114" t="n">
-        <v>8.768479658912007</v>
+        <v>67.08706322544953</v>
       </c>
       <c r="K114" t="n">
         <v>1</v>
@@ -4447,34 +4447,34 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>18.13339953426816</v>
+        <v>2.076067197106931</v>
       </c>
       <c r="B115" t="n">
-        <v>31.57358101735124</v>
+        <v>15.33259433886909</v>
       </c>
       <c r="C115" t="n">
-        <v>128.6912332391797</v>
+        <v>127.802092681398</v>
       </c>
       <c r="D115" t="n">
-        <v>127.268139864836</v>
+        <v>119.0004421963053</v>
       </c>
       <c r="E115" t="n">
-        <v>104.442388157534</v>
+        <v>121.5140046003795</v>
       </c>
       <c r="F115" t="n">
-        <v>103.3462464227034</v>
+        <v>109.2558619709982</v>
       </c>
       <c r="G115" t="n">
-        <v>101.6669155681767</v>
+        <v>92.9695822560422</v>
       </c>
       <c r="H115" t="n">
-        <v>101.0293118899864</v>
+        <v>86.58901930098989</v>
       </c>
       <c r="I115" t="n">
-        <v>14.39977036999126</v>
+        <v>24.00456423785783</v>
       </c>
       <c r="J115" t="n">
-        <v>3.4182656372975</v>
+        <v>7.639328049999271</v>
       </c>
       <c r="K115" t="n">
         <v>1</v>
@@ -4482,34 +4482,34 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5.938803298358457</v>
+        <v>53.80082279299231</v>
       </c>
       <c r="B116" t="n">
-        <v>55.78012072260685</v>
+        <v>72.12523842988087</v>
       </c>
       <c r="C116" t="n">
-        <v>91.2567762707347</v>
+        <v>150.5316501015292</v>
       </c>
       <c r="D116" t="n">
-        <v>107.1089765461809</v>
+        <v>171.5038096422425</v>
       </c>
       <c r="E116" t="n">
-        <v>81.56734559741882</v>
+        <v>96.76792614503199</v>
       </c>
       <c r="F116" t="n">
-        <v>74.75077286596169</v>
+        <v>89.93767468832759</v>
       </c>
       <c r="G116" t="n">
-        <v>93.9599592459947</v>
+        <v>125.1107929785561</v>
       </c>
       <c r="H116" t="n">
-        <v>101.6422261378556</v>
+        <v>111.4632348359479</v>
       </c>
       <c r="I116" t="n">
-        <v>31.8881966533632</v>
+        <v>49.20237889363373</v>
       </c>
       <c r="J116" t="n">
-        <v>11.2394146571751</v>
+        <v>27.66706304430698</v>
       </c>
       <c r="K116" t="n">
         <v>1</v>
@@ -4517,34 +4517,34 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>55.61619219895699</v>
+        <v>58.90443056575267</v>
       </c>
       <c r="B117" t="n">
-        <v>35.67697802446634</v>
+        <v>34.30857478347306</v>
       </c>
       <c r="C117" t="n">
-        <v>129.0153442176714</v>
+        <v>128.9399473127424</v>
       </c>
       <c r="D117" t="n">
-        <v>125.6267487062295</v>
+        <v>132.1517128302486</v>
       </c>
       <c r="E117" t="n">
-        <v>79.55254757172747</v>
+        <v>89.0241974137104</v>
       </c>
       <c r="F117" t="n">
-        <v>102.5255552023502</v>
+        <v>90.37819957805505</v>
       </c>
       <c r="G117" t="n">
-        <v>75.06385326131928</v>
+        <v>50.76848303185523</v>
       </c>
       <c r="H117" t="n">
-        <v>48.0235023114496</v>
+        <v>40.02052254755186</v>
       </c>
       <c r="I117" t="n">
-        <v>2.507334541812263</v>
+        <v>29.93064458580593</v>
       </c>
       <c r="J117" t="n">
-        <v>19.14564016176707</v>
+        <v>31.99448122111594</v>
       </c>
       <c r="K117" t="n">
         <v>1</v>
@@ -4552,34 +4552,34 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>58.90443056575267</v>
+        <v>40.81982525691988</v>
       </c>
       <c r="B118" t="n">
-        <v>34.30857478347306</v>
+        <v>19.03936364557787</v>
       </c>
       <c r="C118" t="n">
-        <v>128.9399473127424</v>
+        <v>103.5771431159336</v>
       </c>
       <c r="D118" t="n">
-        <v>132.1517128302486</v>
+        <v>81.33431448557147</v>
       </c>
       <c r="E118" t="n">
-        <v>89.0241974137104</v>
+        <v>91.73430274839676</v>
       </c>
       <c r="F118" t="n">
-        <v>90.37819957805505</v>
+        <v>95.11021002081932</v>
       </c>
       <c r="G118" t="n">
-        <v>50.76848303185523</v>
+        <v>58.81517647164418</v>
       </c>
       <c r="H118" t="n">
-        <v>40.02052254755186</v>
+        <v>64.70134581124967</v>
       </c>
       <c r="I118" t="n">
-        <v>29.93064458580593</v>
+        <v>23.03702383453872</v>
       </c>
       <c r="J118" t="n">
-        <v>31.99448122111594</v>
+        <v>24.57683956821939</v>
       </c>
       <c r="K118" t="n">
         <v>1</v>
@@ -4587,34 +4587,34 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>53.58440897854276</v>
+        <v>5.647345919213231</v>
       </c>
       <c r="B119" t="n">
-        <v>18.12940091377764</v>
+        <v>39.74680968643118</v>
       </c>
       <c r="C119" t="n">
-        <v>141.0200915326434</v>
+        <v>128.7022680206078</v>
       </c>
       <c r="D119" t="n">
-        <v>126.3912680600095</v>
+        <v>135.5598271338133</v>
       </c>
       <c r="E119" t="n">
-        <v>94.88903473440729</v>
+        <v>109.5263363104693</v>
       </c>
       <c r="F119" t="n">
-        <v>104.7937010986469</v>
+        <v>96.54348066888289</v>
       </c>
       <c r="G119" t="n">
-        <v>50.67782176138984</v>
+        <v>122.6648798274953</v>
       </c>
       <c r="H119" t="n">
-        <v>50.88698407488754</v>
+        <v>84.69456312220422</v>
       </c>
       <c r="I119" t="n">
-        <v>8.219083412366965</v>
+        <v>27.5575229084148</v>
       </c>
       <c r="J119" t="n">
-        <v>36.74775520347829</v>
+        <v>0.9425471110617635</v>
       </c>
       <c r="K119" t="n">
         <v>1</v>
@@ -4622,34 +4622,34 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>29.53976855794477</v>
+        <v>50.20164748448577</v>
       </c>
       <c r="B120" t="n">
-        <v>49.24342333560742</v>
+        <v>10.92018431414235</v>
       </c>
       <c r="C120" t="n">
-        <v>128.0407418588142</v>
+        <v>24.72807858893519</v>
       </c>
       <c r="D120" t="n">
-        <v>135.0463026039354</v>
+        <v>139.7001469176583</v>
       </c>
       <c r="E120" t="n">
-        <v>93.87761341831066</v>
+        <v>92.2408756474286</v>
       </c>
       <c r="F120" t="n">
-        <v>85.71031319398081</v>
+        <v>115.6478894711209</v>
       </c>
       <c r="G120" t="n">
-        <v>118.5473955243621</v>
+        <v>100.7684148324854</v>
       </c>
       <c r="H120" t="n">
-        <v>98.75955951525971</v>
+        <v>79.280052602277</v>
       </c>
       <c r="I120" t="n">
-        <v>1.824539336372178</v>
+        <v>19.13846543746054</v>
       </c>
       <c r="J120" t="n">
-        <v>21.07884412359036</v>
+        <v>25.79591220939766</v>
       </c>
       <c r="K120" t="n">
         <v>1</v>
@@ -4657,34 +4657,34 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.783853529444421</v>
+        <v>37.51426809539429</v>
       </c>
       <c r="B121" t="n">
-        <v>30.83917130545576</v>
+        <v>19.37080346043176</v>
       </c>
       <c r="C121" t="n">
-        <v>156.9530082717363</v>
+        <v>75.96369622366001</v>
       </c>
       <c r="D121" t="n">
-        <v>147.9620560236452</v>
+        <v>67.22822302580076</v>
       </c>
       <c r="E121" t="n">
-        <v>129.1231408306871</v>
+        <v>51.66898686140554</v>
       </c>
       <c r="F121" t="n">
-        <v>113.5151819946928</v>
+        <v>58.48686002060301</v>
       </c>
       <c r="G121" t="n">
-        <v>122.3047418946569</v>
+        <v>68.03554090462791</v>
       </c>
       <c r="H121" t="n">
-        <v>63.54481794433448</v>
+        <v>79.47149395409195</v>
       </c>
       <c r="I121" t="n">
-        <v>21.07055314726843</v>
+        <v>8.524163914245777</v>
       </c>
       <c r="J121" t="n">
-        <v>2.317809779682125</v>
+        <v>2.772908585205309</v>
       </c>
       <c r="K121" t="n">
         <v>1</v>
@@ -4692,34 +4692,34 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>29.21010516193734</v>
+        <v>20.89647905313878</v>
       </c>
       <c r="B122" t="n">
-        <v>53.13563006687571</v>
+        <v>12.11691925132317</v>
       </c>
       <c r="C122" t="n">
-        <v>155.670887638797</v>
+        <v>77.98920024294176</v>
       </c>
       <c r="D122" t="n">
-        <v>146.6323365923897</v>
+        <v>67.80753540782361</v>
       </c>
       <c r="E122" t="n">
-        <v>96.56818454358995</v>
+        <v>57.82791773419548</v>
       </c>
       <c r="F122" t="n">
-        <v>96.78538718953027</v>
+        <v>61.14333246907393</v>
       </c>
       <c r="G122" t="n">
-        <v>118.4280414447006</v>
+        <v>105.6697107153745</v>
       </c>
       <c r="H122" t="n">
-        <v>120.20521588971</v>
+        <v>71.32572359874354</v>
       </c>
       <c r="I122" t="n">
-        <v>21.52737783701469</v>
+        <v>14.30999646963729</v>
       </c>
       <c r="J122" t="n">
-        <v>20.3115892028024</v>
+        <v>16.2495402772014</v>
       </c>
       <c r="K122" t="n">
         <v>1</v>
@@ -4727,34 +4727,34 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>15.7127084980299</v>
+        <v>22.54900766873847</v>
       </c>
       <c r="B123" t="n">
-        <v>78.30522535457399</v>
+        <v>24.54428083122264</v>
       </c>
       <c r="C123" t="n">
-        <v>104.9611616304692</v>
+        <v>99.29518565378794</v>
       </c>
       <c r="D123" t="n">
-        <v>167.3866153933743</v>
+        <v>98.67633840944197</v>
       </c>
       <c r="E123" t="n">
-        <v>99.04315682435612</v>
+        <v>98.64014105996463</v>
       </c>
       <c r="F123" t="n">
-        <v>84.26026768447343</v>
+        <v>96.68432967320648</v>
       </c>
       <c r="G123" t="n">
-        <v>31.8931890625194</v>
+        <v>52.73850704274145</v>
       </c>
       <c r="H123" t="n">
-        <v>59.80536467089702</v>
+        <v>43.7087486284999</v>
       </c>
       <c r="I123" t="n">
-        <v>52.80987516199344</v>
+        <v>24.51818679343167</v>
       </c>
       <c r="J123" t="n">
-        <v>2.868920677925998</v>
+        <v>31.17899208219481</v>
       </c>
       <c r="K123" t="n">
         <v>1</v>
@@ -4762,34 +4762,34 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>6.312511353224751</v>
+        <v>20.95093276704564</v>
       </c>
       <c r="B124" t="n">
-        <v>63.36287722419484</v>
+        <v>2.078024974381675</v>
       </c>
       <c r="C124" t="n">
-        <v>85.00800748700595</v>
+        <v>72.38979422518055</v>
       </c>
       <c r="D124" t="n">
-        <v>161.0904634910239</v>
+        <v>60.11030582289918</v>
       </c>
       <c r="E124" t="n">
-        <v>78.82471396674168</v>
+        <v>59.95816451226935</v>
       </c>
       <c r="F124" t="n">
-        <v>66.00910690159469</v>
+        <v>59.97134031848448</v>
       </c>
       <c r="G124" t="n">
-        <v>65.94721896899527</v>
+        <v>93.57789708967317</v>
       </c>
       <c r="H124" t="n">
-        <v>86.20861035070848</v>
+        <v>66.38796028568083</v>
       </c>
       <c r="I124" t="n">
-        <v>23.32521581359806</v>
+        <v>18.86054308632702</v>
       </c>
       <c r="J124" t="n">
-        <v>67.08706322544953</v>
+        <v>32.39797081438508</v>
       </c>
       <c r="K124" t="n">
         <v>1</v>
@@ -4797,34 +4797,34 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>24.19625067219573</v>
+        <v>21.22215045307501</v>
       </c>
       <c r="B125" t="n">
-        <v>39.26917531776963</v>
+        <v>20.15314020643716</v>
       </c>
       <c r="C125" t="n">
-        <v>85.50448747033154</v>
+        <v>47.42837543575497</v>
       </c>
       <c r="D125" t="n">
-        <v>124.7384861013784</v>
+        <v>66.36525815581695</v>
       </c>
       <c r="E125" t="n">
-        <v>92.05172384469647</v>
+        <v>63.13311471818467</v>
       </c>
       <c r="F125" t="n">
-        <v>95.10791817083708</v>
+        <v>70.86248167362581</v>
       </c>
       <c r="G125" t="n">
-        <v>99.18226211528963</v>
+        <v>60.66649553774408</v>
       </c>
       <c r="H125" t="n">
-        <v>78.21541586435984</v>
+        <v>55.7456410934322</v>
       </c>
       <c r="I125" t="n">
-        <v>18.99825059986871</v>
+        <v>29.60832086534323</v>
       </c>
       <c r="J125" t="n">
-        <v>4.751333987925487</v>
+        <v>30.28288523513079</v>
       </c>
       <c r="K125" t="n">
         <v>1</v>
@@ -4832,34 +4832,34 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>54.16901180373878</v>
+        <v>99.81263911605137</v>
       </c>
       <c r="B126" t="n">
-        <v>70.09272993109771</v>
+        <v>96.4350060939105</v>
       </c>
       <c r="C126" t="n">
-        <v>152.575788835324</v>
+        <v>33.89840717288538</v>
       </c>
       <c r="D126" t="n">
-        <v>170.3479096795661</v>
+        <v>148.9220811849631</v>
       </c>
       <c r="E126" t="n">
-        <v>92.12134629904708</v>
+        <v>53.89947074280187</v>
       </c>
       <c r="F126" t="n">
-        <v>98.95344899972079</v>
+        <v>64.06677819578823</v>
       </c>
       <c r="G126" t="n">
-        <v>123.8467172591018</v>
+        <v>54.43531019143327</v>
       </c>
       <c r="H126" t="n">
-        <v>120.6707913327388</v>
+        <v>71.37235396028849</v>
       </c>
       <c r="I126" t="n">
-        <v>56.60659527236979</v>
+        <v>25.71215734868276</v>
       </c>
       <c r="J126" t="n">
-        <v>27.32073967224841</v>
+        <v>3.05673984205663</v>
       </c>
       <c r="K126" t="n">
         <v>1</v>
@@ -4867,34 +4867,34 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4.422596464205279</v>
+        <v>3.553605541043063</v>
       </c>
       <c r="B127" t="n">
-        <v>37.85813606535061</v>
+        <v>14.75241881027019</v>
       </c>
       <c r="C127" t="n">
-        <v>144.0164514318743</v>
+        <v>76.093776238321</v>
       </c>
       <c r="D127" t="n">
-        <v>145.5567544357465</v>
+        <v>74.5003168490264</v>
       </c>
       <c r="E127" t="n">
-        <v>126.1171887061574</v>
+        <v>84.86165072466039</v>
       </c>
       <c r="F127" t="n">
-        <v>105.2608387691539</v>
+        <v>71.10911372971186</v>
       </c>
       <c r="G127" t="n">
-        <v>102.7887915523733</v>
+        <v>104.86184762667</v>
       </c>
       <c r="H127" t="n">
-        <v>83.35294257695165</v>
+        <v>98.99761117850352</v>
       </c>
       <c r="I127" t="n">
-        <v>36.5588767681941</v>
+        <v>4.702446148947415</v>
       </c>
       <c r="J127" t="n">
-        <v>10.43989283066065</v>
+        <v>5.755902945366309</v>
       </c>
       <c r="K127" t="n">
         <v>1</v>
@@ -4902,34 +4902,34 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>7.209392724431324</v>
+        <v>86.85423019003008</v>
       </c>
       <c r="B128" t="n">
-        <v>10.86072228969081</v>
+        <v>75.24845719170435</v>
       </c>
       <c r="C128" t="n">
-        <v>146.0764194726498</v>
+        <v>55.42213984281636</v>
       </c>
       <c r="D128" t="n">
-        <v>145.7738486910709</v>
+        <v>148.3453082066829</v>
       </c>
       <c r="E128" t="n">
-        <v>145.3821798182893</v>
+        <v>59.65401786570399</v>
       </c>
       <c r="F128" t="n">
-        <v>150.1039645316934</v>
+        <v>68.92505294804045</v>
       </c>
       <c r="G128" t="n">
-        <v>113.5953677929692</v>
+        <v>119.7089831171058</v>
       </c>
       <c r="H128" t="n">
-        <v>88.31685330711611</v>
+        <v>107.7653555081441</v>
       </c>
       <c r="I128" t="n">
-        <v>15.31720375396931</v>
+        <v>15.09433495642636</v>
       </c>
       <c r="J128" t="n">
-        <v>35.76783949434183</v>
+        <v>40.45290601638759</v>
       </c>
       <c r="K128" t="n">
         <v>1</v>
@@ -4937,34 +4937,34 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>25.92059045628551</v>
+        <v>58.39693516025357</v>
       </c>
       <c r="B129" t="n">
-        <v>28.61542532913172</v>
+        <v>9.601332234872743</v>
       </c>
       <c r="C129" t="n">
-        <v>154.0508884042366</v>
+        <v>127.9320395848924</v>
       </c>
       <c r="D129" t="n">
-        <v>151.2836203873537</v>
+        <v>123.6145418883308</v>
       </c>
       <c r="E129" t="n">
-        <v>125.6810700127783</v>
+        <v>74.99686533476068</v>
       </c>
       <c r="F129" t="n">
-        <v>123.0115091123469</v>
+        <v>100.9747646829042</v>
       </c>
       <c r="G129" t="n">
-        <v>101.1278186886155</v>
+        <v>99.41553668287185</v>
       </c>
       <c r="H129" t="n">
-        <v>81.50498622113938</v>
+        <v>62.02715699241487</v>
       </c>
       <c r="I129" t="n">
-        <v>16.07492488570287</v>
+        <v>6.397537297455488</v>
       </c>
       <c r="J129" t="n">
-        <v>21.40222919867086</v>
+        <v>41.26163168006394</v>
       </c>
       <c r="K129" t="n">
         <v>1</v>
@@ -4972,34 +4972,34 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.9575637753276556</v>
+        <v>19.110703578669</v>
       </c>
       <c r="B130" t="n">
-        <v>17.53690375004896</v>
+        <v>21.01039275711188</v>
       </c>
       <c r="C130" t="n">
-        <v>113.8032721547668</v>
+        <v>96.60452540544493</v>
       </c>
       <c r="D130" t="n">
-        <v>116.1202773544983</v>
+        <v>100.9684507305699</v>
       </c>
       <c r="E130" t="n">
-        <v>114.5139562847069</v>
+        <v>88.9223246218709</v>
       </c>
       <c r="F130" t="n">
-        <v>108.1930276447005</v>
+        <v>88.88510624480702</v>
       </c>
       <c r="G130" t="n">
-        <v>77.53114637381003</v>
+        <v>43.7852175913074</v>
       </c>
       <c r="H130" t="n">
-        <v>91.35555697605145</v>
+        <v>37.37040049735884</v>
       </c>
       <c r="I130" t="n">
-        <v>21.84871774157288</v>
+        <v>22.45702079397464</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1585611319703226</v>
+        <v>20.5926544870357</v>
       </c>
       <c r="K130" t="n">
         <v>1</v>
@@ -5007,34 +5007,34 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>28.21608745665082</v>
+        <v>41.46593268585925</v>
       </c>
       <c r="B131" t="n">
-        <v>58.55340863547173</v>
+        <v>30.98727935915226</v>
       </c>
       <c r="C131" t="n">
-        <v>102.413721899682</v>
+        <v>80.89934304595145</v>
       </c>
       <c r="D131" t="n">
-        <v>118.0020060431746</v>
+        <v>76.72384390066173</v>
       </c>
       <c r="E131" t="n">
-        <v>82.48231087403424</v>
+        <v>53.57087674714474</v>
       </c>
       <c r="F131" t="n">
-        <v>76.70736432378068</v>
+        <v>57.84745243967277</v>
       </c>
       <c r="G131" t="n">
-        <v>109.214099789656</v>
+        <v>111.0189352784793</v>
       </c>
       <c r="H131" t="n">
-        <v>96.05782617581838</v>
+        <v>74.79893394518115</v>
       </c>
       <c r="I131" t="n">
-        <v>1.556387836684036</v>
+        <v>5.661402224608483</v>
       </c>
       <c r="J131" t="n">
-        <v>1.364142153566132</v>
+        <v>2.672487998250265</v>
       </c>
       <c r="K131" t="n">
         <v>1</v>
@@ -5042,34 +5042,34 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>41.01966250792782</v>
+        <v>17.35732998780157</v>
       </c>
       <c r="B132" t="n">
-        <v>42.7818105917591</v>
+        <v>24.95501422338301</v>
       </c>
       <c r="C132" t="n">
-        <v>45.86881291611875</v>
+        <v>76.14764840304703</v>
       </c>
       <c r="D132" t="n">
-        <v>122.4180202761866</v>
+        <v>86.55710399915448</v>
       </c>
       <c r="E132" t="n">
-        <v>86.03651485044668</v>
+        <v>76.11136836071634</v>
       </c>
       <c r="F132" t="n">
-        <v>90.16409597603719</v>
+        <v>85.67189780903783</v>
       </c>
       <c r="G132" t="n">
-        <v>110.0152566225277</v>
+        <v>120.4249577796239</v>
       </c>
       <c r="H132" t="n">
-        <v>112.9066492397269</v>
+        <v>163.8238781491898</v>
       </c>
       <c r="I132" t="n">
-        <v>12.79043989089702</v>
+        <v>12.62622529882066</v>
       </c>
       <c r="J132" t="n">
-        <v>20.76989192380036</v>
+        <v>25.35535519318631</v>
       </c>
       <c r="K132" t="n">
         <v>1</v>
@@ -5077,34 +5077,34 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>68.67807053306861</v>
+        <v>15.45300947048788</v>
       </c>
       <c r="B133" t="n">
-        <v>101.2323795536602</v>
+        <v>26.1592344083061</v>
       </c>
       <c r="C133" t="n">
-        <v>162.280376999846</v>
+        <v>136.6538039881467</v>
       </c>
       <c r="D133" t="n">
-        <v>165.2128866000446</v>
+        <v>129.16772788506</v>
       </c>
       <c r="E133" t="n">
-        <v>89.03506904281276</v>
+        <v>118.3107888883475</v>
       </c>
       <c r="F133" t="n">
-        <v>69.32729638450478</v>
+        <v>109.3743479237252</v>
       </c>
       <c r="G133" t="n">
-        <v>146.8762471582737</v>
+        <v>109.928031241222</v>
       </c>
       <c r="H133" t="n">
-        <v>144.5783390183652</v>
+        <v>88.90845163117206</v>
       </c>
       <c r="I133" t="n">
-        <v>27.54549982483704</v>
+        <v>8.030191961707972</v>
       </c>
       <c r="J133" t="n">
-        <v>120.0103426283807</v>
+        <v>1.917771720197587</v>
       </c>
       <c r="K133" t="n">
         <v>1</v>
@@ -5112,34 +5112,34 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>82.02335036423234</v>
+        <v>35.68631709961534</v>
       </c>
       <c r="B134" t="n">
-        <v>78.52604913320113</v>
+        <v>40.51365371854284</v>
       </c>
       <c r="C134" t="n">
-        <v>134.2436522150917</v>
+        <v>151.0505776214858</v>
       </c>
       <c r="D134" t="n">
-        <v>131.1329837082305</v>
+        <v>150.0071963729086</v>
       </c>
       <c r="E134" t="n">
-        <v>60.87324353003318</v>
+        <v>112.1739380816187</v>
       </c>
       <c r="F134" t="n">
-        <v>60.59078091809481</v>
+        <v>104.1540477740613</v>
       </c>
       <c r="G134" t="n">
-        <v>40.62708265652066</v>
+        <v>99.0718897587479</v>
       </c>
       <c r="H134" t="n">
-        <v>51.14661522855943</v>
+        <v>66.52742013509952</v>
       </c>
       <c r="I134" t="n">
-        <v>15.20172861603824</v>
+        <v>1.011510189143266</v>
       </c>
       <c r="J134" t="n">
-        <v>7.115886579722998</v>
+        <v>7.456470216907104</v>
       </c>
       <c r="K134" t="n">
         <v>1</v>
@@ -5147,34 +5147,34 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>61.99145166945196</v>
+        <v>18.65758259540133</v>
       </c>
       <c r="B135" t="n">
-        <v>20.29737249462451</v>
+        <v>21.50174576266961</v>
       </c>
       <c r="C135" t="n">
-        <v>137.7904479930266</v>
+        <v>99.61693107734484</v>
       </c>
       <c r="D135" t="n">
-        <v>114.9645821878534</v>
+        <v>100.814989599182</v>
       </c>
       <c r="E135" t="n">
-        <v>88.66741867387134</v>
+        <v>89.81746084215642</v>
       </c>
       <c r="F135" t="n">
-        <v>96.77449311650469</v>
+        <v>88.63379088424061</v>
       </c>
       <c r="G135" t="n">
-        <v>51.02004736277284</v>
+        <v>37.59985643447902</v>
       </c>
       <c r="H135" t="n">
-        <v>55.34703843591505</v>
+        <v>36.83009387260063</v>
       </c>
       <c r="I135" t="n">
-        <v>10.67941384629608</v>
+        <v>26.44585074072286</v>
       </c>
       <c r="J135" t="n">
-        <v>20.68155799093851</v>
+        <v>21.62167868464539</v>
       </c>
       <c r="K135" t="n">
         <v>1</v>
@@ -5182,34 +5182,34 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.571106775475323</v>
+        <v>27.10151882437854</v>
       </c>
       <c r="B136" t="n">
-        <v>16.20418958213225</v>
+        <v>32.45152452866993</v>
       </c>
       <c r="C136" t="n">
-        <v>149.2508247033058</v>
+        <v>75.09064147751397</v>
       </c>
       <c r="D136" t="n">
-        <v>156.8154130296627</v>
+        <v>109.7990677427333</v>
       </c>
       <c r="E136" t="n">
-        <v>147.4970468936169</v>
+        <v>79.92676784270171</v>
       </c>
       <c r="F136" t="n">
-        <v>141.495556947652</v>
+        <v>83.44285284191567</v>
       </c>
       <c r="G136" t="n">
-        <v>128.1418515736058</v>
+        <v>41.98279418625668</v>
       </c>
       <c r="H136" t="n">
-        <v>92.95147983317854</v>
+        <v>39.27092903541615</v>
       </c>
       <c r="I136" t="n">
-        <v>4.900472492133539</v>
+        <v>40.39204712293677</v>
       </c>
       <c r="J136" t="n">
-        <v>30.24096394876163</v>
+        <v>16.43949322011575</v>
       </c>
       <c r="K136" t="n">
         <v>1</v>
@@ -5217,34 +5217,34 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>12.12856388600383</v>
+        <v>45.15019944368153</v>
       </c>
       <c r="B137" t="n">
-        <v>49.63350397767082</v>
+        <v>12.8334353395116</v>
       </c>
       <c r="C137" t="n">
-        <v>157.1961863710085</v>
+        <v>35.94713684820335</v>
       </c>
       <c r="D137" t="n">
-        <v>136.7055174345656</v>
+        <v>151.5927429681588</v>
       </c>
       <c r="E137" t="n">
-        <v>108.1423339578736</v>
+        <v>103.8616669262869</v>
       </c>
       <c r="F137" t="n">
-        <v>93.88454760949462</v>
+        <v>116.7215674177887</v>
       </c>
       <c r="G137" t="n">
-        <v>124.2952688403026</v>
+        <v>95.59875759724014</v>
       </c>
       <c r="H137" t="n">
-        <v>70.86426731268531</v>
+        <v>55.38577330109095</v>
       </c>
       <c r="I137" t="n">
-        <v>32.74818556633503</v>
+        <v>28.38240838664847</v>
       </c>
       <c r="J137" t="n">
-        <v>7.17378310297422</v>
+        <v>38.09606532409158</v>
       </c>
       <c r="K137" t="n">
         <v>1</v>
@@ -5252,34 +5252,34 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>35.68631709961534</v>
+        <v>32.19736025532592</v>
       </c>
       <c r="B138" t="n">
-        <v>40.51365371854284</v>
+        <v>56.00999755141216</v>
       </c>
       <c r="C138" t="n">
-        <v>151.0505776214858</v>
+        <v>155.1196307581455</v>
       </c>
       <c r="D138" t="n">
-        <v>150.0071963729086</v>
+        <v>145.7487011145193</v>
       </c>
       <c r="E138" t="n">
-        <v>112.1739380816187</v>
+        <v>98.20934838653258</v>
       </c>
       <c r="F138" t="n">
-        <v>104.1540477740613</v>
+        <v>91.1308768168315</v>
       </c>
       <c r="G138" t="n">
-        <v>99.0718897587479</v>
+        <v>107.4516707775388</v>
       </c>
       <c r="H138" t="n">
-        <v>66.52742013509952</v>
+        <v>94.90675891293978</v>
       </c>
       <c r="I138" t="n">
-        <v>1.011510189143266</v>
+        <v>17.94211230295787</v>
       </c>
       <c r="J138" t="n">
-        <v>7.456470216907104</v>
+        <v>9.779784813428705</v>
       </c>
       <c r="K138" t="n">
         <v>1</v>
@@ -5287,34 +5287,34 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>94.6450837634189</v>
+        <v>27.40513846898379</v>
       </c>
       <c r="B139" t="n">
-        <v>113.5820480617143</v>
+        <v>37.48645449669657</v>
       </c>
       <c r="C139" t="n">
-        <v>147.3813262230104</v>
+        <v>156.3192139411911</v>
       </c>
       <c r="D139" t="n">
-        <v>131.8526982612626</v>
+        <v>160.9867441172973</v>
       </c>
       <c r="E139" t="n">
-        <v>50.04806341877201</v>
+        <v>133.7697928244704</v>
       </c>
       <c r="F139" t="n">
-        <v>45.50519630826337</v>
+        <v>142.3755383420965</v>
       </c>
       <c r="G139" t="n">
-        <v>100.4011041752028</v>
+        <v>124.9559008134965</v>
       </c>
       <c r="H139" t="n">
-        <v>87.07013660003048</v>
+        <v>99.10583477035348</v>
       </c>
       <c r="I139" t="n">
-        <v>42.83077203668246</v>
+        <v>11.36143043869262</v>
       </c>
       <c r="J139" t="n">
-        <v>21.09352999969676</v>
+        <v>4.751352270049741</v>
       </c>
       <c r="K139" t="n">
         <v>1</v>
@@ -5322,34 +5322,34 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>60.84127748374366</v>
+        <v>12.55793299283504</v>
       </c>
       <c r="B140" t="n">
-        <v>52.22551357541614</v>
+        <v>25.62419492734376</v>
       </c>
       <c r="C140" t="n">
-        <v>34.74571680934968</v>
+        <v>127.5631684899623</v>
       </c>
       <c r="D140" t="n">
-        <v>95.97203557573363</v>
+        <v>127.5965651180715</v>
       </c>
       <c r="E140" t="n">
-        <v>31.51127427575788</v>
+        <v>129.4983154000826</v>
       </c>
       <c r="F140" t="n">
-        <v>7.115463776926014</v>
+        <v>107.2263798545935</v>
       </c>
       <c r="G140" t="n">
-        <v>13.97818751562443</v>
+        <v>101.8922042985018</v>
       </c>
       <c r="H140" t="n">
-        <v>9.705690087343877</v>
+        <v>77.913044900204</v>
       </c>
       <c r="I140" t="n">
-        <v>21.91839571829497</v>
+        <v>40.27022619068987</v>
       </c>
       <c r="J140" t="n">
-        <v>12.80801009665226</v>
+        <v>20.69782428793263</v>
       </c>
       <c r="K140" t="n">
         <v>1</v>
@@ -5357,34 +5357,34 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.457360666101471</v>
+        <v>14.09787050609722</v>
       </c>
       <c r="B141" t="n">
-        <v>37.17609650995857</v>
+        <v>18.56232991169357</v>
       </c>
       <c r="C141" t="n">
-        <v>132.2234841263489</v>
+        <v>88.72726833130416</v>
       </c>
       <c r="D141" t="n">
-        <v>132.3597969117731</v>
+        <v>93.87945268331956</v>
       </c>
       <c r="E141" t="n">
-        <v>110.102012391324</v>
+        <v>80.39652628929161</v>
       </c>
       <c r="F141" t="n">
-        <v>97.00516379017401</v>
+        <v>90.4718336565292</v>
       </c>
       <c r="G141" t="n">
-        <v>114.4197588342749</v>
+        <v>30.91321704173731</v>
       </c>
       <c r="H141" t="n">
-        <v>81.42536733790868</v>
+        <v>50.72145689744428</v>
       </c>
       <c r="I141" t="n">
-        <v>32.5888417880253</v>
+        <v>17.73711148013749</v>
       </c>
       <c r="J141" t="n">
-        <v>2.569126492960452</v>
+        <v>18.97636568948137</v>
       </c>
       <c r="K141" t="n">
         <v>1</v>
@@ -5392,34 +5392,34 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>3.055688897040079</v>
+        <v>43.88896622686211</v>
       </c>
       <c r="B142" t="n">
-        <v>25.91826633238323</v>
+        <v>33.84646494365983</v>
       </c>
       <c r="C142" t="n">
-        <v>120.3054780974249</v>
+        <v>85.63098870046865</v>
       </c>
       <c r="D142" t="n">
-        <v>121.4152625771294</v>
+        <v>81.11051598626561</v>
       </c>
       <c r="E142" t="n">
-        <v>121.6744511501497</v>
+        <v>57.86170243280687</v>
       </c>
       <c r="F142" t="n">
-        <v>101.8899318971978</v>
+        <v>60.52044555720104</v>
       </c>
       <c r="G142" t="n">
-        <v>74.9295630758337</v>
+        <v>67.59413382465476</v>
       </c>
       <c r="H142" t="n">
-        <v>85.77370444614274</v>
+        <v>74.74916052732482</v>
       </c>
       <c r="I142" t="n">
-        <v>37.0575922717488</v>
+        <v>7.562575996551154</v>
       </c>
       <c r="J142" t="n">
-        <v>9.089545024515475</v>
+        <v>5.38529410876936</v>
       </c>
       <c r="K142" t="n">
         <v>1</v>
@@ -5427,34 +5427,34 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>58.78048358510942</v>
+        <v>3.17199127445681</v>
       </c>
       <c r="B143" t="n">
-        <v>55.14031407317789</v>
+        <v>51.66143674300417</v>
       </c>
       <c r="C143" t="n">
-        <v>134.2703768304753</v>
+        <v>127.8711186958744</v>
       </c>
       <c r="D143" t="n">
-        <v>139.2818132059974</v>
+        <v>132.3253920906184</v>
       </c>
       <c r="E143" t="n">
-        <v>82.37858552638136</v>
+        <v>131.7376045200998</v>
       </c>
       <c r="F143" t="n">
-        <v>89.71584813294947</v>
+        <v>96.59576333628638</v>
       </c>
       <c r="G143" t="n">
-        <v>78.31775678872188</v>
+        <v>144.4814498105603</v>
       </c>
       <c r="H143" t="n">
-        <v>50.95633426369512</v>
+        <v>73.27216629837369</v>
       </c>
       <c r="I143" t="n">
-        <v>25.52619717919614</v>
+        <v>2.767981301623729</v>
       </c>
       <c r="J143" t="n">
-        <v>11.19629934833533</v>
+        <v>13.80057473211358</v>
       </c>
       <c r="K143" t="n">
         <v>1</v>
@@ -5462,34 +5462,34 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>18.36242359263418</v>
+        <v>2.42626649569448</v>
       </c>
       <c r="B144" t="n">
-        <v>30.39109687398963</v>
+        <v>59.36073623585111</v>
       </c>
       <c r="C144" t="n">
-        <v>113.8489634376734</v>
+        <v>121.5899399381832</v>
       </c>
       <c r="D144" t="n">
-        <v>114.9996622247484</v>
+        <v>170.0340294267052</v>
       </c>
       <c r="E144" t="n">
-        <v>117.8068897598314</v>
+        <v>125.6285778531203</v>
       </c>
       <c r="F144" t="n">
-        <v>102.2111551773531</v>
+        <v>109.9671659472204</v>
       </c>
       <c r="G144" t="n">
-        <v>61.87257303905858</v>
+        <v>36.9891735969868</v>
       </c>
       <c r="H144" t="n">
-        <v>98.31916024095</v>
+        <v>68.08407816246704</v>
       </c>
       <c r="I144" t="n">
-        <v>66.25821000889951</v>
+        <v>47.15652639573025</v>
       </c>
       <c r="J144" t="n">
-        <v>11.74896788010551</v>
+        <v>4.391844836147504</v>
       </c>
       <c r="K144" t="n">
         <v>1</v>
@@ -5497,34 +5497,34 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>16.60639810517129</v>
+        <v>12.84037770943189</v>
       </c>
       <c r="B145" t="n">
-        <v>17.88905958470587</v>
+        <v>24.19539351441075</v>
       </c>
       <c r="C145" t="n">
-        <v>112.7165437323727</v>
+        <v>134.9641238691731</v>
       </c>
       <c r="D145" t="n">
-        <v>103.411159383786</v>
+        <v>156.5779221173686</v>
       </c>
       <c r="E145" t="n">
-        <v>123.1546476099566</v>
+        <v>125.6114506258441</v>
       </c>
       <c r="F145" t="n">
-        <v>105.9730357816588</v>
+        <v>134.1849545768469</v>
       </c>
       <c r="G145" t="n">
-        <v>89.94633140613331</v>
+        <v>102.0538605674634</v>
       </c>
       <c r="H145" t="n">
-        <v>99.82577482006366</v>
+        <v>87.44468824459942</v>
       </c>
       <c r="I145" t="n">
-        <v>44.62746584851195</v>
+        <v>30.65053960103255</v>
       </c>
       <c r="J145" t="n">
-        <v>11.17503813867221</v>
+        <v>26.80119238743665</v>
       </c>
       <c r="K145" t="n">
         <v>1</v>
@@ -5532,34 +5532,34 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>56.96360344778873</v>
+        <v>44.95819756937042</v>
       </c>
       <c r="B146" t="n">
-        <v>71.74699111288334</v>
+        <v>29.97091246046201</v>
       </c>
       <c r="C146" t="n">
-        <v>143.4446581293053</v>
+        <v>84.92250492148939</v>
       </c>
       <c r="D146" t="n">
-        <v>141.427913916973</v>
+        <v>84.7572435264798</v>
       </c>
       <c r="E146" t="n">
-        <v>90.54061359252597</v>
+        <v>61.31970519939767</v>
       </c>
       <c r="F146" t="n">
-        <v>84.23242374568736</v>
+        <v>68.08111998903784</v>
       </c>
       <c r="G146" t="n">
-        <v>59.34748698743277</v>
+        <v>52.76431509969188</v>
       </c>
       <c r="H146" t="n">
-        <v>52.4553589306683</v>
+        <v>48.77202284383037</v>
       </c>
       <c r="I146" t="n">
-        <v>9.634349744601655</v>
+        <v>16.5021408013118</v>
       </c>
       <c r="J146" t="n">
-        <v>3.687649443053008</v>
+        <v>21.74547443351808</v>
       </c>
       <c r="K146" t="n">
         <v>1</v>
@@ -5567,34 +5567,34 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>61.09155309640969</v>
+        <v>22.68665477207269</v>
       </c>
       <c r="B147" t="n">
-        <v>37.16248877948157</v>
+        <v>31.10036854721596</v>
       </c>
       <c r="C147" t="n">
-        <v>142.0394424040983</v>
+        <v>133.4178514679668</v>
       </c>
       <c r="D147" t="n">
-        <v>134.1760762618269</v>
+        <v>146.7422155662441</v>
       </c>
       <c r="E147" t="n">
-        <v>85.94238003028698</v>
+        <v>114.8175667395978</v>
       </c>
       <c r="F147" t="n">
-        <v>101.0579583793122</v>
+        <v>124.4602238107393</v>
       </c>
       <c r="G147" t="n">
-        <v>79.99372332600296</v>
+        <v>103.9323743042587</v>
       </c>
       <c r="H147" t="n">
-        <v>104.2737178785829</v>
+        <v>89.26125243193574</v>
       </c>
       <c r="I147" t="n">
-        <v>29.32217319720562</v>
+        <v>18.82495934753089</v>
       </c>
       <c r="J147" t="n">
-        <v>13.90906886851537</v>
+        <v>23.16580303426655</v>
       </c>
       <c r="K147" t="n">
         <v>1</v>
@@ -5602,34 +5602,34 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>8.531305177530202</v>
+        <v>29.21010516193734</v>
       </c>
       <c r="B148" t="n">
-        <v>38.71255388512908</v>
+        <v>53.13563006687571</v>
       </c>
       <c r="C148" t="n">
-        <v>154.4039889676467</v>
+        <v>155.670887638797</v>
       </c>
       <c r="D148" t="n">
-        <v>135.4069872975786</v>
+        <v>146.6323365923897</v>
       </c>
       <c r="E148" t="n">
-        <v>120.1901524298853</v>
+        <v>96.56818454358995</v>
       </c>
       <c r="F148" t="n">
-        <v>103.0604349886304</v>
+        <v>96.78538718953027</v>
       </c>
       <c r="G148" t="n">
-        <v>111.8926708218221</v>
+        <v>118.4280414447006</v>
       </c>
       <c r="H148" t="n">
-        <v>82.83091977412565</v>
+        <v>120.20521588971</v>
       </c>
       <c r="I148" t="n">
-        <v>34.84668959967315</v>
+        <v>21.52737783701469</v>
       </c>
       <c r="J148" t="n">
-        <v>13.68470266666657</v>
+        <v>20.3115892028024</v>
       </c>
       <c r="K148" t="n">
         <v>1</v>
@@ -5637,34 +5637,34 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5.705996494642545</v>
+        <v>15.56692627029018</v>
       </c>
       <c r="B149" t="n">
-        <v>45.83207582856615</v>
+        <v>25.83224171861761</v>
       </c>
       <c r="C149" t="n">
-        <v>114.7213105265813</v>
+        <v>124.8391926265802</v>
       </c>
       <c r="D149" t="n">
-        <v>128.2520068177035</v>
+        <v>120.9346021249246</v>
       </c>
       <c r="E149" t="n">
-        <v>98.22850420471042</v>
+        <v>121.3885314544716</v>
       </c>
       <c r="F149" t="n">
-        <v>87.38513723043773</v>
+        <v>102.570371461664</v>
       </c>
       <c r="G149" t="n">
-        <v>114.5355327950319</v>
+        <v>82.64654223041515</v>
       </c>
       <c r="H149" t="n">
-        <v>83.28056134338777</v>
+        <v>89.43961643601153</v>
       </c>
       <c r="I149" t="n">
-        <v>15.28295845885555</v>
+        <v>58.40229791663702</v>
       </c>
       <c r="J149" t="n">
-        <v>15.73614858407197</v>
+        <v>10.10616574626128</v>
       </c>
       <c r="K149" t="n">
         <v>1</v>
@@ -5672,34 +5672,34 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>21.2657312172884</v>
+        <v>61.99145166945196</v>
       </c>
       <c r="B150" t="n">
-        <v>37.68406394182237</v>
+        <v>20.29737249462451</v>
       </c>
       <c r="C150" t="n">
-        <v>147.5617522505353</v>
+        <v>137.7904479930266</v>
       </c>
       <c r="D150" t="n">
-        <v>136.7137847236134</v>
+        <v>114.9645821878534</v>
       </c>
       <c r="E150" t="n">
-        <v>118.2190884484207</v>
+        <v>88.66741867387134</v>
       </c>
       <c r="F150" t="n">
-        <v>103.3217080335342</v>
+        <v>96.77449311650469</v>
       </c>
       <c r="G150" t="n">
-        <v>118.7585241069307</v>
+        <v>51.02004736277284</v>
       </c>
       <c r="H150" t="n">
-        <v>96.08386268728773</v>
+        <v>55.34703843591505</v>
       </c>
       <c r="I150" t="n">
-        <v>11.70068665618599</v>
+        <v>10.67941384629608</v>
       </c>
       <c r="J150" t="n">
-        <v>4.746675791160628</v>
+        <v>20.68155799093851</v>
       </c>
       <c r="K150" t="n">
         <v>1</v>
@@ -5707,34 +5707,34 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>15.56692627029018</v>
+        <v>9.783853529444421</v>
       </c>
       <c r="B151" t="n">
-        <v>25.83224171861761</v>
+        <v>30.83917130545576</v>
       </c>
       <c r="C151" t="n">
-        <v>124.8391926265802</v>
+        <v>156.9530082717363</v>
       </c>
       <c r="D151" t="n">
-        <v>120.9346021249246</v>
+        <v>147.9620560236452</v>
       </c>
       <c r="E151" t="n">
-        <v>121.3885314544716</v>
+        <v>129.1231408306871</v>
       </c>
       <c r="F151" t="n">
-        <v>102.570371461664</v>
+        <v>113.5151819946928</v>
       </c>
       <c r="G151" t="n">
-        <v>82.64654223041515</v>
+        <v>122.3047418946569</v>
       </c>
       <c r="H151" t="n">
-        <v>89.43961643601153</v>
+        <v>63.54481794433448</v>
       </c>
       <c r="I151" t="n">
-        <v>58.40229791663702</v>
+        <v>21.07055314726843</v>
       </c>
       <c r="J151" t="n">
-        <v>10.10616574626128</v>
+        <v>2.317809779682125</v>
       </c>
       <c r="K151" t="n">
         <v>1</v>
@@ -5742,34 +5742,34 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>37.81657180047002</v>
+        <v>5.938803298358457</v>
       </c>
       <c r="B152" t="n">
-        <v>44.83761838257168</v>
+        <v>55.78012072260685</v>
       </c>
       <c r="C152" t="n">
-        <v>136.3004512844094</v>
+        <v>91.2567762707347</v>
       </c>
       <c r="D152" t="n">
-        <v>138.5026366812159</v>
+        <v>107.1089765461809</v>
       </c>
       <c r="E152" t="n">
-        <v>113.0014197298677</v>
+        <v>81.56734559741882</v>
       </c>
       <c r="F152" t="n">
-        <v>101.2196688482218</v>
+        <v>74.75077286596169</v>
       </c>
       <c r="G152" t="n">
-        <v>107.363433689513</v>
+        <v>93.9599592459947</v>
       </c>
       <c r="H152" t="n">
-        <v>104.758936468167</v>
+        <v>101.6422261378556</v>
       </c>
       <c r="I152" t="n">
-        <v>5.971758849455664</v>
+        <v>31.8881966533632</v>
       </c>
       <c r="J152" t="n">
-        <v>28.6507257604031</v>
+        <v>11.2394146571751</v>
       </c>
       <c r="K152" t="n">
         <v>1</v>
@@ -5777,34 +5777,34 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>61.73180906725438</v>
+        <v>19.38730125995054</v>
       </c>
       <c r="B153" t="n">
-        <v>65.56056418888414</v>
+        <v>42.28501056829759</v>
       </c>
       <c r="C153" t="n">
-        <v>54.72194441090018</v>
+        <v>149.2218669186761</v>
       </c>
       <c r="D153" t="n">
-        <v>106.7068486512502</v>
+        <v>143.0102369610352</v>
       </c>
       <c r="E153" t="n">
-        <v>45.38055936552902</v>
+        <v>111.1318548953903</v>
       </c>
       <c r="F153" t="n">
-        <v>40.04027016806143</v>
+        <v>98.97908669779498</v>
       </c>
       <c r="G153" t="n">
-        <v>73.5468920617905</v>
+        <v>107.5494203166554</v>
       </c>
       <c r="H153" t="n">
-        <v>71.11235805502234</v>
+        <v>100.3266547167136</v>
       </c>
       <c r="I153" t="n">
-        <v>6.261873057920337</v>
+        <v>23.95844568190629</v>
       </c>
       <c r="J153" t="n">
-        <v>28.88790905494374</v>
+        <v>2.264568289927554</v>
       </c>
       <c r="K153" t="n">
         <v>1</v>
@@ -5812,34 +5812,34 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>66.39215691394165</v>
+        <v>16.23329276717626</v>
       </c>
       <c r="B154" t="n">
-        <v>55.9360828247655</v>
+        <v>28.46777614391421</v>
       </c>
       <c r="C154" t="n">
-        <v>137.753210651492</v>
+        <v>121.1012768480757</v>
       </c>
       <c r="D154" t="n">
-        <v>138.5740353887986</v>
+        <v>122.064130048478</v>
       </c>
       <c r="E154" t="n">
-        <v>84.48264346030544</v>
+        <v>123.7548899354644</v>
       </c>
       <c r="F154" t="n">
-        <v>87.46340911786689</v>
+        <v>101.7751958463732</v>
       </c>
       <c r="G154" t="n">
-        <v>52.51636473044687</v>
+        <v>61.50283963210114</v>
       </c>
       <c r="H154" t="n">
-        <v>40.70450786510984</v>
+        <v>87.94802107505194</v>
       </c>
       <c r="I154" t="n">
-        <v>9.34808581604559</v>
+        <v>70.24961649940484</v>
       </c>
       <c r="J154" t="n">
-        <v>18.84197494456071</v>
+        <v>12.52374545493006</v>
       </c>
       <c r="K154" t="n">
         <v>1</v>
@@ -5847,34 +5847,34 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>22.68665477207269</v>
+        <v>21.38985553580426</v>
       </c>
       <c r="B155" t="n">
-        <v>31.10036854721596</v>
+        <v>22.11611307238352</v>
       </c>
       <c r="C155" t="n">
-        <v>133.4178514679668</v>
+        <v>151.1473255513243</v>
       </c>
       <c r="D155" t="n">
-        <v>146.7422155662441</v>
+        <v>153.8284573911702</v>
       </c>
       <c r="E155" t="n">
-        <v>114.8175667395978</v>
+        <v>133.6845224198313</v>
       </c>
       <c r="F155" t="n">
-        <v>124.4602238107393</v>
+        <v>148.6346110621642</v>
       </c>
       <c r="G155" t="n">
-        <v>103.9323743042587</v>
+        <v>105.7313435376274</v>
       </c>
       <c r="H155" t="n">
-        <v>89.26125243193574</v>
+        <v>84.78876622719974</v>
       </c>
       <c r="I155" t="n">
-        <v>18.82495934753089</v>
+        <v>17.10352048948517</v>
       </c>
       <c r="J155" t="n">
-        <v>23.16580303426655</v>
+        <v>21.37061415171923</v>
       </c>
       <c r="K155" t="n">
         <v>1</v>
@@ -5882,34 +5882,34 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>41.58901341967582</v>
+        <v>17.05430166903955</v>
       </c>
       <c r="B156" t="n">
-        <v>118.0282069393403</v>
+        <v>20.75507857564061</v>
       </c>
       <c r="C156" t="n">
-        <v>87.89313134837275</v>
+        <v>98.53322954211332</v>
       </c>
       <c r="D156" t="n">
-        <v>115.9604985747722</v>
+        <v>102.3045515976152</v>
       </c>
       <c r="E156" t="n">
-        <v>56.91594182640423</v>
+        <v>92.07409738514755</v>
       </c>
       <c r="F156" t="n">
-        <v>37.96428005448013</v>
+        <v>91.94365605008916</v>
       </c>
       <c r="G156" t="n">
-        <v>77.87692911986085</v>
+        <v>39.61843140832156</v>
       </c>
       <c r="H156" t="n">
-        <v>68.88157928484014</v>
+        <v>38.71915026517826</v>
       </c>
       <c r="I156" t="n">
-        <v>9.129122753342072</v>
+        <v>24.14107692424872</v>
       </c>
       <c r="J156" t="n">
-        <v>4.989548963809326</v>
+        <v>21.44157585489708</v>
       </c>
       <c r="K156" t="n">
         <v>1</v>
@@ -5917,34 +5917,34 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.892736517692615</v>
+        <v>54.81112861596983</v>
       </c>
       <c r="B157" t="n">
-        <v>22.63713090431914</v>
+        <v>72.43422964154149</v>
       </c>
       <c r="C157" t="n">
-        <v>139.5928227024502</v>
+        <v>150.6038955226163</v>
       </c>
       <c r="D157" t="n">
-        <v>153.2568363554794</v>
+        <v>171.9227469677708</v>
       </c>
       <c r="E157" t="n">
-        <v>143.2363189483056</v>
+        <v>93.1065662571667</v>
       </c>
       <c r="F157" t="n">
-        <v>151.6648037568096</v>
+        <v>91.6036571631451</v>
       </c>
       <c r="G157" t="n">
-        <v>131.5159423512295</v>
+        <v>115.6766129462225</v>
       </c>
       <c r="H157" t="n">
-        <v>101.6574016584457</v>
+        <v>105.9203906678219</v>
       </c>
       <c r="I157" t="n">
-        <v>8.419401523964186</v>
+        <v>50.19326540720144</v>
       </c>
       <c r="J157" t="n">
-        <v>5.169809415871867</v>
+        <v>26.08043095194296</v>
       </c>
       <c r="K157" t="n">
         <v>1</v>
@@ -5952,34 +5952,34 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>19.38730125995054</v>
+        <v>64.14201856470164</v>
       </c>
       <c r="B158" t="n">
-        <v>42.28501056829759</v>
+        <v>84.38605599626165</v>
       </c>
       <c r="C158" t="n">
-        <v>149.2218669186761</v>
+        <v>133.6470512182919</v>
       </c>
       <c r="D158" t="n">
-        <v>143.0102369610352</v>
+        <v>171.1200953170567</v>
       </c>
       <c r="E158" t="n">
-        <v>111.1318548953903</v>
+        <v>80.16890674934028</v>
       </c>
       <c r="F158" t="n">
-        <v>98.97908669779498</v>
+        <v>82.71896036041269</v>
       </c>
       <c r="G158" t="n">
-        <v>107.5494203166554</v>
+        <v>118.3656466938451</v>
       </c>
       <c r="H158" t="n">
-        <v>100.3266547167136</v>
+        <v>59.93357341175342</v>
       </c>
       <c r="I158" t="n">
-        <v>23.95844568190629</v>
+        <v>73.23716310623325</v>
       </c>
       <c r="J158" t="n">
-        <v>2.264568289927554</v>
+        <v>10.48785988631906</v>
       </c>
       <c r="K158" t="n">
         <v>1</v>
@@ -5987,34 +5987,34 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>6.817391340924589</v>
+        <v>0.457360666101471</v>
       </c>
       <c r="B159" t="n">
-        <v>43.03168130597719</v>
+        <v>37.17609650995857</v>
       </c>
       <c r="C159" t="n">
-        <v>137.8254794431254</v>
+        <v>132.2234841263489</v>
       </c>
       <c r="D159" t="n">
-        <v>145.7362900946787</v>
+        <v>132.3597969117731</v>
       </c>
       <c r="E159" t="n">
-        <v>124.3721300700726</v>
+        <v>110.102012391324</v>
       </c>
       <c r="F159" t="n">
-        <v>103.1547651826529</v>
+        <v>97.00516379017401</v>
       </c>
       <c r="G159" t="n">
-        <v>97.50477999171818</v>
+        <v>114.4197588342749</v>
       </c>
       <c r="H159" t="n">
-        <v>88.84886957719948</v>
+        <v>81.42536733790868</v>
       </c>
       <c r="I159" t="n">
-        <v>34.87080367788376</v>
+        <v>32.5888417880253</v>
       </c>
       <c r="J159" t="n">
-        <v>9.023587216972004</v>
+        <v>2.569126492960452</v>
       </c>
       <c r="K159" t="n">
         <v>1</v>
@@ -6022,34 +6022,34 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>12.99604157055333</v>
+        <v>11.20406203680932</v>
       </c>
       <c r="B160" t="n">
-        <v>31.23662819719662</v>
+        <v>19.78349076832565</v>
       </c>
       <c r="C160" t="n">
-        <v>113.2635919040912</v>
+        <v>99.63841516925827</v>
       </c>
       <c r="D160" t="n">
-        <v>112.5729566031689</v>
+        <v>99.28517518362855</v>
       </c>
       <c r="E160" t="n">
-        <v>116.7867135551692</v>
+        <v>89.58340680428418</v>
       </c>
       <c r="F160" t="n">
-        <v>99.52534176167404</v>
+        <v>88.08577879203649</v>
       </c>
       <c r="G160" t="n">
-        <v>85.3506441415264</v>
+        <v>40.092666308003</v>
       </c>
       <c r="H160" t="n">
-        <v>96.13356530113606</v>
+        <v>37.87254326276138</v>
       </c>
       <c r="I160" t="n">
-        <v>49.29150017913738</v>
+        <v>30.75033118725067</v>
       </c>
       <c r="J160" t="n">
-        <v>9.060782391150095</v>
+        <v>21.83025223850186</v>
       </c>
       <c r="K160" t="n">
         <v>1</v>
@@ -6057,34 +6057,34 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>16.23329276717626</v>
+        <v>29.39395676944251</v>
       </c>
       <c r="B161" t="n">
-        <v>28.46777614391421</v>
+        <v>39.31731089241167</v>
       </c>
       <c r="C161" t="n">
-        <v>121.1012768480757</v>
+        <v>105.4818095249416</v>
       </c>
       <c r="D161" t="n">
-        <v>122.064130048478</v>
+        <v>108.5015654455939</v>
       </c>
       <c r="E161" t="n">
-        <v>123.7548899354644</v>
+        <v>86.07933617602856</v>
       </c>
       <c r="F161" t="n">
-        <v>101.7751958463732</v>
+        <v>82.08947178660267</v>
       </c>
       <c r="G161" t="n">
-        <v>61.50283963210114</v>
+        <v>39.55916213214772</v>
       </c>
       <c r="H161" t="n">
-        <v>87.94802107505194</v>
+        <v>41.95805186041048</v>
       </c>
       <c r="I161" t="n">
-        <v>70.24961649940484</v>
+        <v>15.35547160288182</v>
       </c>
       <c r="J161" t="n">
-        <v>12.52374545493006</v>
+        <v>12.06952528218368</v>
       </c>
       <c r="K161" t="n">
         <v>1</v>
@@ -6092,34 +6092,34 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.42626649569448</v>
+        <v>7.209392724431324</v>
       </c>
       <c r="B162" t="n">
-        <v>59.36073623585111</v>
+        <v>10.86072228969081</v>
       </c>
       <c r="C162" t="n">
-        <v>121.5899399381832</v>
+        <v>146.0764194726498</v>
       </c>
       <c r="D162" t="n">
-        <v>170.0340294267052</v>
+        <v>145.7738486910709</v>
       </c>
       <c r="E162" t="n">
-        <v>125.6285778531203</v>
+        <v>145.3821798182893</v>
       </c>
       <c r="F162" t="n">
-        <v>109.9671659472204</v>
+        <v>150.1039645316934</v>
       </c>
       <c r="G162" t="n">
-        <v>36.9891735969868</v>
+        <v>113.5953677929692</v>
       </c>
       <c r="H162" t="n">
-        <v>68.08407816246704</v>
+        <v>88.31685330711611</v>
       </c>
       <c r="I162" t="n">
-        <v>47.15652639573025</v>
+        <v>15.31720375396931</v>
       </c>
       <c r="J162" t="n">
-        <v>4.391844836147504</v>
+        <v>35.76783949434183</v>
       </c>
       <c r="K162" t="n">
         <v>1</v>
@@ -6127,34 +6127,34 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>72.24687134539614</v>
+        <v>7.543178970153651</v>
       </c>
       <c r="B163" t="n">
-        <v>80.38724562316023</v>
+        <v>14.68596353059904</v>
       </c>
       <c r="C163" t="n">
-        <v>136.4660315863435</v>
+        <v>89.70344223464339</v>
       </c>
       <c r="D163" t="n">
-        <v>127.6234593225485</v>
+        <v>90.45747940167716</v>
       </c>
       <c r="E163" t="n">
-        <v>102.4558716211881</v>
+        <v>85.40034331682128</v>
       </c>
       <c r="F163" t="n">
-        <v>72.94174584533178</v>
+        <v>87.79251662098353</v>
       </c>
       <c r="G163" t="n">
-        <v>94.76482465501238</v>
+        <v>37.90403065602322</v>
       </c>
       <c r="H163" t="n">
-        <v>56.11825756247714</v>
+        <v>38.92790069499478</v>
       </c>
       <c r="I163" t="n">
-        <v>10.66994216560314</v>
+        <v>31.63426720857141</v>
       </c>
       <c r="J163" t="n">
-        <v>6.478251105052057</v>
+        <v>23.28869939117442</v>
       </c>
       <c r="K163" t="n">
         <v>1</v>
@@ -6162,34 +6162,34 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>76.686851885564</v>
+        <v>37.59986015178023</v>
       </c>
       <c r="B164" t="n">
-        <v>71.52408084933016</v>
+        <v>26.69378593758697</v>
       </c>
       <c r="C164" t="n">
-        <v>130.9256978949561</v>
+        <v>80.00856733462177</v>
       </c>
       <c r="D164" t="n">
-        <v>129.6141676817152</v>
+        <v>84.40005543182228</v>
       </c>
       <c r="E164" t="n">
-        <v>66.556986861018</v>
+        <v>63.69981265384286</v>
       </c>
       <c r="F164" t="n">
-        <v>64.29881249647514</v>
+        <v>70.4282946626065</v>
       </c>
       <c r="G164" t="n">
-        <v>55.78245330660439</v>
+        <v>56.06962738619086</v>
       </c>
       <c r="H164" t="n">
-        <v>48.16538230377975</v>
+        <v>51.50760258743139</v>
       </c>
       <c r="I164" t="n">
-        <v>9.119644254142282</v>
+        <v>13.73586834007483</v>
       </c>
       <c r="J164" t="n">
-        <v>9.64323643338216</v>
+        <v>21.81605824703542</v>
       </c>
       <c r="K164" t="n">
         <v>1</v>
@@ -6197,34 +6197,34 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>86.85423019003008</v>
+        <v>10.29370429756082</v>
       </c>
       <c r="B165" t="n">
-        <v>75.24845719170435</v>
+        <v>19.00307782552706</v>
       </c>
       <c r="C165" t="n">
-        <v>55.42213984281636</v>
+        <v>147.755273209186</v>
       </c>
       <c r="D165" t="n">
-        <v>148.3453082066829</v>
+        <v>160.099953986349</v>
       </c>
       <c r="E165" t="n">
-        <v>59.65401786570399</v>
+        <v>144.3860438822806</v>
       </c>
       <c r="F165" t="n">
-        <v>68.92505294804045</v>
+        <v>153.0821498330381</v>
       </c>
       <c r="G165" t="n">
-        <v>119.7089831171058</v>
+        <v>133.3993540220972</v>
       </c>
       <c r="H165" t="n">
-        <v>107.7653555081441</v>
+        <v>90.49036242447633</v>
       </c>
       <c r="I165" t="n">
-        <v>15.09433495642636</v>
+        <v>3.298875499018467</v>
       </c>
       <c r="J165" t="n">
-        <v>40.45290601638759</v>
+        <v>21.58555263585539</v>
       </c>
       <c r="K165" t="n">
         <v>1</v>
@@ -6232,34 +6232,34 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>22.05500854164664</v>
+        <v>14.41637022519375</v>
       </c>
       <c r="B166" t="n">
-        <v>37.8197769278871</v>
+        <v>23.57403469248154</v>
       </c>
       <c r="C166" t="n">
-        <v>139.9776778760244</v>
+        <v>143.7290147313971</v>
       </c>
       <c r="D166" t="n">
-        <v>131.3181609539941</v>
+        <v>152.4853255504084</v>
       </c>
       <c r="E166" t="n">
-        <v>107.3816845534161</v>
+        <v>134.6432435246012</v>
       </c>
       <c r="F166" t="n">
-        <v>99.62870856093694</v>
+        <v>135.758570038304</v>
       </c>
       <c r="G166" t="n">
-        <v>100.9398320036799</v>
+        <v>116.8231363259395</v>
       </c>
       <c r="H166" t="n">
-        <v>96.06440783458389</v>
+        <v>87.04314815306009</v>
       </c>
       <c r="I166" t="n">
-        <v>17.12764151953874</v>
+        <v>13.41141603952827</v>
       </c>
       <c r="J166" t="n">
-        <v>5.872352885526005</v>
+        <v>27.55231908299421</v>
       </c>
       <c r="K166" t="n">
         <v>1</v>
@@ -6267,34 +6267,34 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>34.25851315545538</v>
+        <v>9.571106775475323</v>
       </c>
       <c r="B167" t="n">
-        <v>31.84541936048105</v>
+        <v>16.20418958213225</v>
       </c>
       <c r="C167" t="n">
-        <v>143.0820983567559</v>
+        <v>149.2508247033058</v>
       </c>
       <c r="D167" t="n">
-        <v>141.9312736497454</v>
+        <v>156.8154130296627</v>
       </c>
       <c r="E167" t="n">
-        <v>113.750496652862</v>
+        <v>147.4970468936169</v>
       </c>
       <c r="F167" t="n">
-        <v>117.0436255459657</v>
+        <v>141.495556947652</v>
       </c>
       <c r="G167" t="n">
-        <v>102.0404267448574</v>
+        <v>128.1418515736058</v>
       </c>
       <c r="H167" t="n">
-        <v>99.78497851174302</v>
+        <v>92.95147983317854</v>
       </c>
       <c r="I167" t="n">
-        <v>11.18279265375902</v>
+        <v>4.900472492133539</v>
       </c>
       <c r="J167" t="n">
-        <v>13.87817647282719</v>
+        <v>30.24096394876163</v>
       </c>
       <c r="K167" t="n">
         <v>1</v>
@@ -6302,34 +6302,34 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>5.647345919213231</v>
+        <v>61.73180906725438</v>
       </c>
       <c r="B168" t="n">
-        <v>39.74680968643118</v>
+        <v>65.56056418888414</v>
       </c>
       <c r="C168" t="n">
-        <v>128.7022680206078</v>
+        <v>54.72194441090018</v>
       </c>
       <c r="D168" t="n">
-        <v>135.5598271338133</v>
+        <v>106.7068486512502</v>
       </c>
       <c r="E168" t="n">
-        <v>109.5263363104693</v>
+        <v>45.38055936552902</v>
       </c>
       <c r="F168" t="n">
-        <v>96.54348066888289</v>
+        <v>40.04027016806143</v>
       </c>
       <c r="G168" t="n">
-        <v>122.6648798274953</v>
+        <v>73.5468920617905</v>
       </c>
       <c r="H168" t="n">
-        <v>84.69456312220422</v>
+        <v>71.11235805502234</v>
       </c>
       <c r="I168" t="n">
-        <v>27.5575229084148</v>
+        <v>6.261873057920337</v>
       </c>
       <c r="J168" t="n">
-        <v>0.9425471110617635</v>
+        <v>28.88790905494374</v>
       </c>
       <c r="K168" t="n">
         <v>1</v>
@@ -6337,34 +6337,34 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>92.86789278870602</v>
+        <v>7.742747947821451</v>
       </c>
       <c r="B169" t="n">
-        <v>114.6126024650971</v>
+        <v>82.3936825149725</v>
       </c>
       <c r="C169" t="n">
-        <v>136.7962703185924</v>
+        <v>76.02653934400074</v>
       </c>
       <c r="D169" t="n">
-        <v>117.5177601383615</v>
+        <v>174.518140044417</v>
       </c>
       <c r="E169" t="n">
-        <v>63.05555590267637</v>
+        <v>92.70835150938649</v>
       </c>
       <c r="F169" t="n">
-        <v>44.17588623889554</v>
+        <v>79.92209448441341</v>
       </c>
       <c r="G169" t="n">
-        <v>71.86431795750354</v>
+        <v>90.64441319918613</v>
       </c>
       <c r="H169" t="n">
-        <v>77.78919743027882</v>
+        <v>73.81884572789663</v>
       </c>
       <c r="I169" t="n">
-        <v>11.23183930823897</v>
+        <v>44.96223644008682</v>
       </c>
       <c r="J169" t="n">
-        <v>10.88000289536982</v>
+        <v>18.08332665132662</v>
       </c>
       <c r="K169" t="n">
         <v>1</v>
@@ -6372,34 +6372,34 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>52.07468491495349</v>
+        <v>18.36242359263418</v>
       </c>
       <c r="B170" t="n">
-        <v>16.57042492920087</v>
+        <v>30.39109687398963</v>
       </c>
       <c r="C170" t="n">
-        <v>54.0936241725308</v>
+        <v>113.8489634376734</v>
       </c>
       <c r="D170" t="n">
-        <v>56.31696352842027</v>
+        <v>114.9996622247484</v>
       </c>
       <c r="E170" t="n">
-        <v>52.40046978147461</v>
+        <v>117.8068897598314</v>
       </c>
       <c r="F170" t="n">
-        <v>88.63764841268011</v>
+        <v>102.2111551773531</v>
       </c>
       <c r="G170" t="n">
-        <v>92.66370629344318</v>
+        <v>61.87257303905858</v>
       </c>
       <c r="H170" t="n">
-        <v>94.07732738841068</v>
+        <v>98.31916024095</v>
       </c>
       <c r="I170" t="n">
-        <v>8.039599325080919</v>
+        <v>66.25821000889951</v>
       </c>
       <c r="J170" t="n">
-        <v>15.69691404458783</v>
+        <v>11.74896788010551</v>
       </c>
       <c r="K170" t="n">
         <v>1</v>
@@ -6407,34 +6407,34 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>36.66414727002199</v>
+        <v>4.422596464205279</v>
       </c>
       <c r="B171" t="n">
-        <v>25.08721707964854</v>
+        <v>37.85813606535061</v>
       </c>
       <c r="C171" t="n">
-        <v>84.01575951336893</v>
+        <v>144.0164514318743</v>
       </c>
       <c r="D171" t="n">
-        <v>73.70618505756119</v>
+        <v>145.5567544357465</v>
       </c>
       <c r="E171" t="n">
-        <v>64.12608355807805</v>
+        <v>126.1171887061574</v>
       </c>
       <c r="F171" t="n">
-        <v>95.16359299834039</v>
+        <v>105.2608387691539</v>
       </c>
       <c r="G171" t="n">
-        <v>75.36669550921299</v>
+        <v>102.7887915523733</v>
       </c>
       <c r="H171" t="n">
-        <v>90.38038954742241</v>
+        <v>83.35294257695165</v>
       </c>
       <c r="I171" t="n">
-        <v>6.785801048550707</v>
+        <v>36.5588767681941</v>
       </c>
       <c r="J171" t="n">
-        <v>44.88376942643001</v>
+        <v>10.43989283066065</v>
       </c>
       <c r="K171" t="n">
         <v>1</v>
@@ -6442,34 +6442,34 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>14.41637022519375</v>
+        <v>106.7927457456158</v>
       </c>
       <c r="B172" t="n">
-        <v>23.57403469248154</v>
+        <v>80.16724352504745</v>
       </c>
       <c r="C172" t="n">
-        <v>143.7290147313971</v>
+        <v>28.22374554646911</v>
       </c>
       <c r="D172" t="n">
-        <v>152.4853255504084</v>
+        <v>138.2642010912081</v>
       </c>
       <c r="E172" t="n">
-        <v>134.6432435246012</v>
+        <v>42.30973524728297</v>
       </c>
       <c r="F172" t="n">
-        <v>135.758570038304</v>
+        <v>51.13533676359334</v>
       </c>
       <c r="G172" t="n">
-        <v>116.8231363259395</v>
+        <v>44.78177807731915</v>
       </c>
       <c r="H172" t="n">
-        <v>87.04314815306009</v>
+        <v>52.90998545103825</v>
       </c>
       <c r="I172" t="n">
-        <v>13.41141603952827</v>
+        <v>26.36170214514155</v>
       </c>
       <c r="J172" t="n">
-        <v>27.55231908299421</v>
+        <v>4.527180426370548</v>
       </c>
       <c r="K172" t="n">
         <v>1</v>
@@ -6477,34 +6477,34 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>13.1360747592888</v>
+        <v>23.13660292572298</v>
       </c>
       <c r="B173" t="n">
-        <v>46.5781634319362</v>
+        <v>18.27396023461721</v>
       </c>
       <c r="C173" t="n">
-        <v>121.2914908785112</v>
+        <v>76.14150905784453</v>
       </c>
       <c r="D173" t="n">
-        <v>133.5786379876624</v>
+        <v>73.23814721842209</v>
       </c>
       <c r="E173" t="n">
-        <v>104.31655832425</v>
+        <v>59.48658664245009</v>
       </c>
       <c r="F173" t="n">
-        <v>91.28868430128006</v>
+        <v>60.17331805800875</v>
       </c>
       <c r="G173" t="n">
-        <v>118.12867016917</v>
+        <v>75.81204302166827</v>
       </c>
       <c r="H173" t="n">
-        <v>81.98758812234072</v>
+        <v>80.62864695859366</v>
       </c>
       <c r="I173" t="n">
-        <v>2.272183072700755</v>
+        <v>22.45347880314387</v>
       </c>
       <c r="J173" t="n">
-        <v>8.775956919765324</v>
+        <v>20.36112003695721</v>
       </c>
       <c r="K173" t="n">
         <v>1</v>
@@ -6512,34 +6512,34 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>62.6798028180273</v>
+        <v>54.04340564882038</v>
       </c>
       <c r="B174" t="n">
-        <v>41.19646290020857</v>
+        <v>20.84080402101235</v>
       </c>
       <c r="C174" t="n">
-        <v>144.9677493092364</v>
+        <v>99.55545061559717</v>
       </c>
       <c r="D174" t="n">
-        <v>136.0012024921216</v>
+        <v>89.34396819929339</v>
       </c>
       <c r="E174" t="n">
-        <v>84.17781476614471</v>
+        <v>95.95633074756392</v>
       </c>
       <c r="F174" t="n">
-        <v>103.9312278879445</v>
+        <v>98.41741093513042</v>
       </c>
       <c r="G174" t="n">
-        <v>85.68561921616119</v>
+        <v>54.11344848761047</v>
       </c>
       <c r="H174" t="n">
-        <v>72.57710978268412</v>
+        <v>61.40195800345151</v>
       </c>
       <c r="I174" t="n">
-        <v>28.20551587904211</v>
+        <v>33.25806509982939</v>
       </c>
       <c r="J174" t="n">
-        <v>7.688327277341397</v>
+        <v>26.86440897919042</v>
       </c>
       <c r="K174" t="n">
         <v>1</v>
@@ -6547,34 +6547,34 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.076067197106931</v>
+        <v>8.531305177530202</v>
       </c>
       <c r="B175" t="n">
-        <v>15.33259433886909</v>
+        <v>38.71255388512908</v>
       </c>
       <c r="C175" t="n">
-        <v>127.802092681398</v>
+        <v>154.4039889676467</v>
       </c>
       <c r="D175" t="n">
-        <v>119.0004421963053</v>
+        <v>135.4069872975786</v>
       </c>
       <c r="E175" t="n">
-        <v>121.5140046003795</v>
+        <v>120.1901524298853</v>
       </c>
       <c r="F175" t="n">
-        <v>109.2558619709982</v>
+        <v>103.0604349886304</v>
       </c>
       <c r="G175" t="n">
-        <v>92.9695822560422</v>
+        <v>111.8926708218221</v>
       </c>
       <c r="H175" t="n">
-        <v>86.58901930098989</v>
+        <v>82.83091977412565</v>
       </c>
       <c r="I175" t="n">
-        <v>24.00456423785783</v>
+        <v>34.84668959967315</v>
       </c>
       <c r="J175" t="n">
-        <v>7.639328049999271</v>
+        <v>13.68470266666657</v>
       </c>
       <c r="K175" t="n">
         <v>1</v>
@@ -6582,34 +6582,34 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>14.01019141284292</v>
+        <v>6.817391340924589</v>
       </c>
       <c r="B176" t="n">
-        <v>22.20846332641734</v>
+        <v>43.03168130597719</v>
       </c>
       <c r="C176" t="n">
-        <v>140.7922165145443</v>
+        <v>137.8254794431254</v>
       </c>
       <c r="D176" t="n">
-        <v>124.0182456046208</v>
+        <v>145.7362900946787</v>
       </c>
       <c r="E176" t="n">
-        <v>119.6013098950237</v>
+        <v>124.3721300700726</v>
       </c>
       <c r="F176" t="n">
-        <v>108.2767301112375</v>
+        <v>103.1547651826529</v>
       </c>
       <c r="G176" t="n">
-        <v>105.0011579052794</v>
+        <v>97.50477999171818</v>
       </c>
       <c r="H176" t="n">
-        <v>87.67466402681677</v>
+        <v>88.84886957719948</v>
       </c>
       <c r="I176" t="n">
-        <v>19.62584794013829</v>
+        <v>34.87080367788376</v>
       </c>
       <c r="J176" t="n">
-        <v>0.5339263479189885</v>
+        <v>9.023587216972004</v>
       </c>
       <c r="K176" t="n">
         <v>1</v>
@@ -6617,34 +6617,34 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>63.28733167456424</v>
+        <v>22.93644646675461</v>
       </c>
       <c r="B177" t="n">
-        <v>59.6021193392807</v>
+        <v>13.30723347232575</v>
       </c>
       <c r="C177" t="n">
-        <v>65.37763027657294</v>
+        <v>75.41231487180282</v>
       </c>
       <c r="D177" t="n">
-        <v>119.8535748090139</v>
+        <v>70.58837899666098</v>
       </c>
       <c r="E177" t="n">
-        <v>53.05327871894949</v>
+        <v>60.27611073962108</v>
       </c>
       <c r="F177" t="n">
-        <v>45.90884667973925</v>
+        <v>62.39840390940839</v>
       </c>
       <c r="G177" t="n">
-        <v>97.44530040155254</v>
+        <v>100.8463012068814</v>
       </c>
       <c r="H177" t="n">
-        <v>86.1063586973363</v>
+        <v>66.55110803946297</v>
       </c>
       <c r="I177" t="n">
-        <v>1.469093341608759</v>
+        <v>17.92708917875848</v>
       </c>
       <c r="J177" t="n">
-        <v>24.83474790209903</v>
+        <v>21.3477728105878</v>
       </c>
       <c r="K177" t="n">
         <v>1</v>
@@ -6652,34 +6652,34 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>41.55154248396671</v>
+        <v>15.78620693016957</v>
       </c>
       <c r="B178" t="n">
-        <v>61.87230459770458</v>
+        <v>18.68021978064853</v>
       </c>
       <c r="C178" t="n">
-        <v>131.9255403137472</v>
+        <v>89.90066543322099</v>
       </c>
       <c r="D178" t="n">
-        <v>132.0249481752636</v>
+        <v>95.66508298621387</v>
       </c>
       <c r="E178" t="n">
-        <v>89.50150789217697</v>
+        <v>95.62392983365322</v>
       </c>
       <c r="F178" t="n">
-        <v>88.7681876976788</v>
+        <v>99.30581871947513</v>
       </c>
       <c r="G178" t="n">
-        <v>107.7179765828523</v>
+        <v>49.69620017832551</v>
       </c>
       <c r="H178" t="n">
-        <v>115.6803833745177</v>
+        <v>41.74245040035868</v>
       </c>
       <c r="I178" t="n">
-        <v>5.593339662851111</v>
+        <v>26.63631663516564</v>
       </c>
       <c r="J178" t="n">
-        <v>16.38946532598732</v>
+        <v>26.95043750428427</v>
       </c>
       <c r="K178" t="n">
         <v>1</v>
@@ -6687,34 +6687,34 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>51.61295428770953</v>
+        <v>63.28733167456424</v>
       </c>
       <c r="B179" t="n">
-        <v>0.8563133021330884</v>
+        <v>59.6021193392807</v>
       </c>
       <c r="C179" t="n">
-        <v>141.135749465214</v>
+        <v>65.37763027657294</v>
       </c>
       <c r="D179" t="n">
-        <v>125.1403963580835</v>
+        <v>119.8535748090139</v>
       </c>
       <c r="E179" t="n">
-        <v>99.78941940716669</v>
+        <v>53.05327871894949</v>
       </c>
       <c r="F179" t="n">
-        <v>107.1286287341136</v>
+        <v>45.90884667973925</v>
       </c>
       <c r="G179" t="n">
-        <v>55.22874575714273</v>
+        <v>97.44530040155254</v>
       </c>
       <c r="H179" t="n">
-        <v>45.40723144135241</v>
+        <v>86.1063586973363</v>
       </c>
       <c r="I179" t="n">
-        <v>4.804994082855748</v>
+        <v>1.469093341608759</v>
       </c>
       <c r="J179" t="n">
-        <v>53.89585892481649</v>
+        <v>24.83474790209903</v>
       </c>
       <c r="K179" t="n">
         <v>1</v>
@@ -6722,34 +6722,34 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>21.38985553580426</v>
+        <v>54.44833842475568</v>
       </c>
       <c r="B180" t="n">
-        <v>22.11611307238352</v>
+        <v>65.5820698307804</v>
       </c>
       <c r="C180" t="n">
-        <v>151.1473255513243</v>
+        <v>150.0212954357771</v>
       </c>
       <c r="D180" t="n">
-        <v>153.8284573911702</v>
+        <v>169.0006527725953</v>
       </c>
       <c r="E180" t="n">
-        <v>133.6845224198313</v>
+        <v>96.86815383523765</v>
       </c>
       <c r="F180" t="n">
-        <v>148.6346110621642</v>
+        <v>105.9605629267389</v>
       </c>
       <c r="G180" t="n">
-        <v>105.7313435376274</v>
+        <v>115.2594839543779</v>
       </c>
       <c r="H180" t="n">
-        <v>84.78876622719974</v>
+        <v>97.91929323174611</v>
       </c>
       <c r="I180" t="n">
-        <v>17.10352048948517</v>
+        <v>58.42718888799642</v>
       </c>
       <c r="J180" t="n">
-        <v>21.37061415171923</v>
+        <v>10.54039781719499</v>
       </c>
       <c r="K180" t="n">
         <v>1</v>
@@ -6757,34 +6757,34 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>10.29370429756082</v>
+        <v>1.892736517692615</v>
       </c>
       <c r="B181" t="n">
-        <v>19.00307782552706</v>
+        <v>22.63713090431914</v>
       </c>
       <c r="C181" t="n">
-        <v>147.755273209186</v>
+        <v>139.5928227024502</v>
       </c>
       <c r="D181" t="n">
-        <v>160.099953986349</v>
+        <v>153.2568363554794</v>
       </c>
       <c r="E181" t="n">
-        <v>144.3860438822806</v>
+        <v>143.2363189483056</v>
       </c>
       <c r="F181" t="n">
-        <v>153.0821498330381</v>
+        <v>151.6648037568096</v>
       </c>
       <c r="G181" t="n">
-        <v>133.3993540220972</v>
+        <v>131.5159423512295</v>
       </c>
       <c r="H181" t="n">
-        <v>90.49036242447633</v>
+        <v>101.6574016584457</v>
       </c>
       <c r="I181" t="n">
-        <v>3.298875499018467</v>
+        <v>8.419401523964186</v>
       </c>
       <c r="J181" t="n">
-        <v>21.58555263585539</v>
+        <v>5.169809415871867</v>
       </c>
       <c r="K181" t="n">
         <v>1</v>
@@ -6792,34 +6792,34 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>57.08618082505868</v>
+        <v>22.84245861771676</v>
       </c>
       <c r="B182" t="n">
-        <v>29.39066324177718</v>
+        <v>21.4272871022506</v>
       </c>
       <c r="C182" t="n">
-        <v>135.2955104122083</v>
+        <v>81.50107303408292</v>
       </c>
       <c r="D182" t="n">
-        <v>128.93930377836</v>
+        <v>75.14222805912601</v>
       </c>
       <c r="E182" t="n">
-        <v>90.36520168378377</v>
+        <v>59.00853233359432</v>
       </c>
       <c r="F182" t="n">
-        <v>103.4046435468976</v>
+        <v>63.61066587934518</v>
       </c>
       <c r="G182" t="n">
-        <v>52.60543717666299</v>
+        <v>99.62228060830228</v>
       </c>
       <c r="H182" t="n">
-        <v>53.12500667732392</v>
+        <v>64.26111372412873</v>
       </c>
       <c r="I182" t="n">
-        <v>12.58133690742367</v>
+        <v>16.8308422134724</v>
       </c>
       <c r="J182" t="n">
-        <v>23.19315210448237</v>
+        <v>21.29726435389572</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -6827,34 +6827,34 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3.553605541043063</v>
+        <v>13.1360747592888</v>
       </c>
       <c r="B183" t="n">
-        <v>14.75241881027019</v>
+        <v>46.5781634319362</v>
       </c>
       <c r="C183" t="n">
-        <v>76.093776238321</v>
+        <v>121.2914908785112</v>
       </c>
       <c r="D183" t="n">
-        <v>74.5003168490264</v>
+        <v>133.5786379876624</v>
       </c>
       <c r="E183" t="n">
-        <v>84.86165072466039</v>
+        <v>104.31655832425</v>
       </c>
       <c r="F183" t="n">
-        <v>71.10911372971186</v>
+        <v>91.28868430128006</v>
       </c>
       <c r="G183" t="n">
-        <v>104.86184762667</v>
+        <v>118.12867016917</v>
       </c>
       <c r="H183" t="n">
-        <v>98.99761117850352</v>
+        <v>81.98758812234072</v>
       </c>
       <c r="I183" t="n">
-        <v>4.702446148947415</v>
+        <v>2.272183072700755</v>
       </c>
       <c r="J183" t="n">
-        <v>5.755902945366309</v>
+        <v>8.775956919765324</v>
       </c>
       <c r="K183" t="n">
         <v>1</v>
@@ -6862,34 +6862,34 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>68.4035955032133</v>
+        <v>14.01019141284292</v>
       </c>
       <c r="B184" t="n">
-        <v>53.81390213774094</v>
+        <v>22.20846332641734</v>
       </c>
       <c r="C184" t="n">
-        <v>135.8374387784893</v>
+        <v>140.7922165145443</v>
       </c>
       <c r="D184" t="n">
-        <v>140.0798346292697</v>
+        <v>124.0182456046208</v>
       </c>
       <c r="E184" t="n">
-        <v>82.51468720738404</v>
+        <v>119.6013098950237</v>
       </c>
       <c r="F184" t="n">
-        <v>88.21618074149916</v>
+        <v>108.2767301112375</v>
       </c>
       <c r="G184" t="n">
-        <v>51.20992513378496</v>
+        <v>105.0011579052794</v>
       </c>
       <c r="H184" t="n">
-        <v>39.51091000240909</v>
+        <v>87.67466402681677</v>
       </c>
       <c r="I184" t="n">
-        <v>11.91970328476973</v>
+        <v>19.62584794013829</v>
       </c>
       <c r="J184" t="n">
-        <v>16.27986881117924</v>
+        <v>0.5339263479189885</v>
       </c>
       <c r="K184" t="n">
         <v>1</v>
@@ -6897,34 +6897,34 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>62.45570425998721</v>
+        <v>36.66414727002199</v>
       </c>
       <c r="B185" t="n">
-        <v>78.13873241794738</v>
+        <v>25.08721707964854</v>
       </c>
       <c r="C185" t="n">
-        <v>148.8904173803867</v>
+        <v>84.01575951336893</v>
       </c>
       <c r="D185" t="n">
-        <v>169.6404742519071</v>
+        <v>73.70618505756119</v>
       </c>
       <c r="E185" t="n">
-        <v>83.55417720990404</v>
+        <v>64.12608355807805</v>
       </c>
       <c r="F185" t="n">
-        <v>75.80595698188213</v>
+        <v>95.16359299834039</v>
       </c>
       <c r="G185" t="n">
-        <v>111.4956255223122</v>
+        <v>75.36669550921299</v>
       </c>
       <c r="H185" t="n">
-        <v>110.994868016048</v>
+        <v>90.38038954742241</v>
       </c>
       <c r="I185" t="n">
-        <v>44.61831052481487</v>
+        <v>6.785801048550707</v>
       </c>
       <c r="J185" t="n">
-        <v>36.1656532026345</v>
+        <v>44.88376942643001</v>
       </c>
       <c r="K185" t="n">
         <v>1</v>
@@ -6932,34 +6932,34 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>76.79129606982642</v>
+        <v>12.12856388600383</v>
       </c>
       <c r="B186" t="n">
-        <v>72.47737650901385</v>
+        <v>49.63350397767082</v>
       </c>
       <c r="C186" t="n">
-        <v>156.1796838778583</v>
+        <v>157.1961863710085</v>
       </c>
       <c r="D186" t="n">
-        <v>167.7788949980043</v>
+        <v>136.7055174345656</v>
       </c>
       <c r="E186" t="n">
-        <v>77.62627955224866</v>
+        <v>108.1423339578736</v>
       </c>
       <c r="F186" t="n">
-        <v>95.64386029030487</v>
+        <v>93.88454760949462</v>
       </c>
       <c r="G186" t="n">
-        <v>81.41781074548328</v>
+        <v>124.2952688403026</v>
       </c>
       <c r="H186" t="n">
-        <v>72.21158973786648</v>
+        <v>70.86426731268531</v>
       </c>
       <c r="I186" t="n">
-        <v>33.785438881678</v>
+        <v>32.74818556633503</v>
       </c>
       <c r="J186" t="n">
-        <v>1.862980969844288</v>
+        <v>7.17378310297422</v>
       </c>
       <c r="K186" t="n">
         <v>1</v>
@@ -6967,34 +6967,34 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>55.04983991767775</v>
+        <v>9.841978014815719</v>
       </c>
       <c r="B187" t="n">
-        <v>35.80988624731194</v>
+        <v>59.9272805298385</v>
       </c>
       <c r="C187" t="n">
-        <v>155.2082966502237</v>
+        <v>78.88992518360615</v>
       </c>
       <c r="D187" t="n">
-        <v>153.3504277851059</v>
+        <v>174.4738041465155</v>
       </c>
       <c r="E187" t="n">
-        <v>107.0427847830117</v>
+        <v>140.6692594409584</v>
       </c>
       <c r="F187" t="n">
-        <v>111.1573923150871</v>
+        <v>119.3421314570244</v>
       </c>
       <c r="G187" t="n">
-        <v>56.56102913779149</v>
+        <v>65.00833915947361</v>
       </c>
       <c r="H187" t="n">
-        <v>49.76593174294724</v>
+        <v>55.57888162682593</v>
       </c>
       <c r="I187" t="n">
-        <v>19.36255846400512</v>
+        <v>70.1618259126634</v>
       </c>
       <c r="J187" t="n">
-        <v>38.98095491491332</v>
+        <v>6.332757486933761</v>
       </c>
       <c r="K187" t="n">
         <v>1</v>
@@ -7002,34 +7002,34 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>89.09074401024338</v>
+        <v>6.301930689749324</v>
       </c>
       <c r="B188" t="n">
-        <v>78.53628703949848</v>
+        <v>24.84986471026056</v>
       </c>
       <c r="C188" t="n">
-        <v>139.8523653809518</v>
+        <v>82.73015883631984</v>
       </c>
       <c r="D188" t="n">
-        <v>131.2974830313728</v>
+        <v>97.81268256128891</v>
       </c>
       <c r="E188" t="n">
-        <v>58.25833346436697</v>
+        <v>107.9502622788531</v>
       </c>
       <c r="F188" t="n">
-        <v>61.44139933211866</v>
+        <v>104.381530704945</v>
       </c>
       <c r="G188" t="n">
-        <v>46.62240923306564</v>
+        <v>58.34313620265794</v>
       </c>
       <c r="H188" t="n">
-        <v>44.97991463686844</v>
+        <v>60.03783949771116</v>
       </c>
       <c r="I188" t="n">
-        <v>1.278637991574144</v>
+        <v>26.22080808300351</v>
       </c>
       <c r="J188" t="n">
-        <v>2.134898160436807</v>
+        <v>25.80619638478316</v>
       </c>
       <c r="K188" t="n">
         <v>1</v>
@@ -7037,34 +7037,34 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>59.41072555830645</v>
+        <v>52.07468491495349</v>
       </c>
       <c r="B189" t="n">
-        <v>49.74281757110935</v>
+        <v>16.57042492920087</v>
       </c>
       <c r="C189" t="n">
-        <v>39.86924409017037</v>
+        <v>54.0936241725308</v>
       </c>
       <c r="D189" t="n">
-        <v>155.4161962483801</v>
+        <v>56.31696352842027</v>
       </c>
       <c r="E189" t="n">
-        <v>92.36468755632495</v>
+        <v>52.40046978147461</v>
       </c>
       <c r="F189" t="n">
-        <v>95.47678888078678</v>
+        <v>88.63764841268011</v>
       </c>
       <c r="G189" t="n">
-        <v>99.88530170272243</v>
+        <v>92.66370629344318</v>
       </c>
       <c r="H189" t="n">
-        <v>69.11889929753697</v>
+        <v>94.07732738841068</v>
       </c>
       <c r="I189" t="n">
-        <v>19.37336985133103</v>
+        <v>8.039599325080919</v>
       </c>
       <c r="J189" t="n">
-        <v>15.66694214490022</v>
+        <v>15.69691404458783</v>
       </c>
       <c r="K189" t="n">
         <v>1</v>
@@ -7072,34 +7072,34 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>60.19514020136274</v>
+        <v>34.25851315545538</v>
       </c>
       <c r="B190" t="n">
-        <v>42.115910387746</v>
+        <v>31.84541936048105</v>
       </c>
       <c r="C190" t="n">
-        <v>139.7096444243752</v>
+        <v>143.0820983567559</v>
       </c>
       <c r="D190" t="n">
-        <v>140.6696798272216</v>
+        <v>141.9312736497454</v>
       </c>
       <c r="E190" t="n">
-        <v>90.84138194948343</v>
+        <v>113.750496652862</v>
       </c>
       <c r="F190" t="n">
-        <v>91.13209828608933</v>
+        <v>117.0436255459657</v>
       </c>
       <c r="G190" t="n">
-        <v>54.43031611339492</v>
+        <v>102.0404267448574</v>
       </c>
       <c r="H190" t="n">
-        <v>34.13821984306581</v>
+        <v>99.78497851174302</v>
       </c>
       <c r="I190" t="n">
-        <v>8.799024357643166</v>
+        <v>11.18279265375902</v>
       </c>
       <c r="J190" t="n">
-        <v>19.92845146119133</v>
+        <v>13.87817647282719</v>
       </c>
       <c r="K190" t="n">
         <v>1</v>
@@ -7107,34 +7107,34 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>16.30885269599013</v>
+        <v>14.54496447037841</v>
       </c>
       <c r="B191" t="n">
-        <v>20.10558348035052</v>
+        <v>9.855726863269542</v>
       </c>
       <c r="C191" t="n">
-        <v>111.6512580139607</v>
+        <v>55.46465274838</v>
       </c>
       <c r="D191" t="n">
-        <v>114.6212004833866</v>
+        <v>64.6060569944739</v>
       </c>
       <c r="E191" t="n">
-        <v>122.4529644616948</v>
+        <v>63.04690861220239</v>
       </c>
       <c r="F191" t="n">
-        <v>105.2524189621538</v>
+        <v>75.83147157810167</v>
       </c>
       <c r="G191" t="n">
-        <v>62.76331311372053</v>
+        <v>54.19710630493802</v>
       </c>
       <c r="H191" t="n">
-        <v>85.43933757283344</v>
+        <v>53.71039608652018</v>
       </c>
       <c r="I191" t="n">
-        <v>59.98485793777765</v>
+        <v>32.73353978621039</v>
       </c>
       <c r="J191" t="n">
-        <v>20.22027514140351</v>
+        <v>33.8038131672031</v>
       </c>
       <c r="K191" t="n">
         <v>1</v>
@@ -7142,34 +7142,34 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>32.19736025532592</v>
+        <v>5.158528137021543</v>
       </c>
       <c r="B192" t="n">
-        <v>56.00999755141216</v>
+        <v>53.95789029493464</v>
       </c>
       <c r="C192" t="n">
-        <v>155.1196307581455</v>
+        <v>111.8562899220884</v>
       </c>
       <c r="D192" t="n">
-        <v>145.7487011145193</v>
+        <v>132.1990904561075</v>
       </c>
       <c r="E192" t="n">
-        <v>98.20934838653258</v>
+        <v>90.19365173531939</v>
       </c>
       <c r="F192" t="n">
-        <v>91.1308768168315</v>
+        <v>83.47832081780393</v>
       </c>
       <c r="G192" t="n">
-        <v>107.4516707775388</v>
+        <v>110.2401666234065</v>
       </c>
       <c r="H192" t="n">
-        <v>94.90675891293978</v>
+        <v>106.4242868718833</v>
       </c>
       <c r="I192" t="n">
-        <v>17.94211230295787</v>
+        <v>26.81680797336958</v>
       </c>
       <c r="J192" t="n">
-        <v>9.779784813428705</v>
+        <v>13.83055003392076</v>
       </c>
       <c r="K192" t="n">
         <v>1</v>
@@ -7177,34 +7177,34 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>54.44833842475568</v>
+        <v>15.7127084980299</v>
       </c>
       <c r="B193" t="n">
-        <v>65.5820698307804</v>
+        <v>78.30522535457399</v>
       </c>
       <c r="C193" t="n">
-        <v>150.0212954357771</v>
+        <v>104.9611616304692</v>
       </c>
       <c r="D193" t="n">
-        <v>169.0006527725953</v>
+        <v>167.3866153933743</v>
       </c>
       <c r="E193" t="n">
-        <v>96.86815383523765</v>
+        <v>99.04315682435612</v>
       </c>
       <c r="F193" t="n">
-        <v>105.9605629267389</v>
+        <v>84.26026768447343</v>
       </c>
       <c r="G193" t="n">
-        <v>115.2594839543779</v>
+        <v>31.8931890625194</v>
       </c>
       <c r="H193" t="n">
-        <v>97.91929323174611</v>
+        <v>59.80536467089702</v>
       </c>
       <c r="I193" t="n">
-        <v>58.42718888799642</v>
+        <v>52.80987516199344</v>
       </c>
       <c r="J193" t="n">
-        <v>10.54039781719499</v>
+        <v>2.868920677925998</v>
       </c>
       <c r="K193" t="n">
         <v>1</v>
@@ -7212,34 +7212,34 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>65.24289037214717</v>
+        <v>18.16177845275658</v>
       </c>
       <c r="B194" t="n">
-        <v>47.84080688841925</v>
+        <v>7.050634443699205</v>
       </c>
       <c r="C194" t="n">
-        <v>145.6047624011612</v>
+        <v>71.16101176352767</v>
       </c>
       <c r="D194" t="n">
-        <v>150.1891405733897</v>
+        <v>66.76901831169489</v>
       </c>
       <c r="E194" t="n">
-        <v>86.44635190823686</v>
+        <v>54.82259534654509</v>
       </c>
       <c r="F194" t="n">
-        <v>105.6851482250867</v>
+        <v>63.74248043623826</v>
       </c>
       <c r="G194" t="n">
-        <v>52.23992870942345</v>
+        <v>107.7928425702513</v>
       </c>
       <c r="H194" t="n">
-        <v>64.28729483537677</v>
+        <v>74.64460717964283</v>
       </c>
       <c r="I194" t="n">
-        <v>3.625225011241279</v>
+        <v>13.55891957806726</v>
       </c>
       <c r="J194" t="n">
-        <v>7.223135754810064</v>
+        <v>12.82736604372602</v>
       </c>
       <c r="K194" t="n">
         <v>1</v>
@@ -7247,36 +7247,106 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>6.881379399557678</v>
+        <v>66.39215691394165</v>
       </c>
       <c r="B195" t="n">
-        <v>37.55042756059312</v>
+        <v>55.9360828247655</v>
       </c>
       <c r="C195" t="n">
-        <v>144.2625081188057</v>
+        <v>137.753210651492</v>
       </c>
       <c r="D195" t="n">
-        <v>136.0495931688137</v>
+        <v>138.5740353887986</v>
       </c>
       <c r="E195" t="n">
-        <v>115.4206801744497</v>
+        <v>84.48264346030544</v>
       </c>
       <c r="F195" t="n">
-        <v>97.66876988628538</v>
+        <v>87.46340911786689</v>
       </c>
       <c r="G195" t="n">
-        <v>109.7319395443444</v>
+        <v>52.51636473044687</v>
       </c>
       <c r="H195" t="n">
-        <v>87.5426478210736</v>
+        <v>40.70450786510984</v>
       </c>
       <c r="I195" t="n">
-        <v>35.01040115791633</v>
+        <v>9.34808581604559</v>
       </c>
       <c r="J195" t="n">
-        <v>7.007178111199707</v>
+        <v>18.84197494456071</v>
       </c>
       <c r="K195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>55.04983991767775</v>
+      </c>
+      <c r="B196" t="n">
+        <v>35.80988624731194</v>
+      </c>
+      <c r="C196" t="n">
+        <v>155.2082966502237</v>
+      </c>
+      <c r="D196" t="n">
+        <v>153.3504277851059</v>
+      </c>
+      <c r="E196" t="n">
+        <v>107.0427847830117</v>
+      </c>
+      <c r="F196" t="n">
+        <v>111.1573923150871</v>
+      </c>
+      <c r="G196" t="n">
+        <v>56.56102913779149</v>
+      </c>
+      <c r="H196" t="n">
+        <v>49.76593174294724</v>
+      </c>
+      <c r="I196" t="n">
+        <v>19.36255846400512</v>
+      </c>
+      <c r="J196" t="n">
+        <v>38.98095491491332</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>29.53976855794477</v>
+      </c>
+      <c r="B197" t="n">
+        <v>49.24342333560742</v>
+      </c>
+      <c r="C197" t="n">
+        <v>128.0407418588142</v>
+      </c>
+      <c r="D197" t="n">
+        <v>135.0463026039354</v>
+      </c>
+      <c r="E197" t="n">
+        <v>93.87761341831066</v>
+      </c>
+      <c r="F197" t="n">
+        <v>85.71031319398081</v>
+      </c>
+      <c r="G197" t="n">
+        <v>118.5473955243621</v>
+      </c>
+      <c r="H197" t="n">
+        <v>98.75955951525971</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1.824539336372178</v>
+      </c>
+      <c r="J197" t="n">
+        <v>21.07884412359036</v>
+      </c>
+      <c r="K197" t="n">
         <v>1</v>
       </c>
     </row>

--- a/working-detection.xlsx
+++ b/working-detection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K197"/>
+  <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,34 +492,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52.97688684460164</v>
+        <v>33.37140395876925</v>
       </c>
       <c r="B2" t="n">
-        <v>38.34659719712041</v>
+        <v>11.92887583431166</v>
       </c>
       <c r="C2" t="n">
-        <v>146.176523292513</v>
+        <v>90.270900703807</v>
       </c>
       <c r="D2" t="n">
-        <v>143.1674458306643</v>
+        <v>151.4204981585909</v>
       </c>
       <c r="E2" t="n">
-        <v>97.4780762439421</v>
+        <v>129.4447840430853</v>
       </c>
       <c r="F2" t="n">
-        <v>104.5213299952902</v>
+        <v>122.1997542907494</v>
       </c>
       <c r="G2" t="n">
-        <v>60.0746307654281</v>
+        <v>20.47637238168116</v>
       </c>
       <c r="H2" t="n">
-        <v>41.75169415675249</v>
+        <v>61.07058886652073</v>
       </c>
       <c r="I2" t="n">
-        <v>6.963545044107954</v>
+        <v>127.3421177294036</v>
       </c>
       <c r="J2" t="n">
-        <v>22.76898180547733</v>
+        <v>58.84185399539352</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -527,34 +527,34 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89.48470489965396</v>
+        <v>1.543976550345017</v>
       </c>
       <c r="B3" t="n">
-        <v>121.7500483970502</v>
+        <v>101.065141235105</v>
       </c>
       <c r="C3" t="n">
-        <v>159.2739007934731</v>
+        <v>76.63131360021625</v>
       </c>
       <c r="D3" t="n">
-        <v>172.9676754998529</v>
+        <v>110.3566242270912</v>
       </c>
       <c r="E3" t="n">
-        <v>66.5164272597345</v>
+        <v>76.40354174182303</v>
       </c>
       <c r="F3" t="n">
-        <v>61.38110069462941</v>
+        <v>48.42441750492077</v>
       </c>
       <c r="G3" t="n">
-        <v>45.73966476996026</v>
+        <v>120.825343308793</v>
       </c>
       <c r="H3" t="n">
-        <v>45.98331256629308</v>
+        <v>123.3913968755857</v>
       </c>
       <c r="I3" t="n">
-        <v>5.793113018714647</v>
+        <v>7.967856049299586</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2563333120176309</v>
+        <v>37.99042879938765</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -562,34 +562,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19.23882574035077</v>
+        <v>73.94087019777015</v>
       </c>
       <c r="B4" t="n">
-        <v>27.88242731292615</v>
+        <v>57.58871258353619</v>
       </c>
       <c r="C4" t="n">
-        <v>150.1573367341598</v>
+        <v>110.3090956260805</v>
       </c>
       <c r="D4" t="n">
-        <v>160.2728557546171</v>
+        <v>137.2311096451952</v>
       </c>
       <c r="E4" t="n">
-        <v>128.6663327911284</v>
+        <v>70.28739156865646</v>
       </c>
       <c r="F4" t="n">
-        <v>122.3239150223933</v>
+        <v>87.97022833387229</v>
       </c>
       <c r="G4" t="n">
-        <v>102.3439789537192</v>
+        <v>60.8098699912483</v>
       </c>
       <c r="H4" t="n">
-        <v>61.9332492813402</v>
+        <v>60.3770984612333</v>
       </c>
       <c r="I4" t="n">
-        <v>20.97993544174959</v>
+        <v>16.78118221809517</v>
       </c>
       <c r="J4" t="n">
-        <v>43.034700583557</v>
+        <v>2.846609917667887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -597,34 +597,34 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>46.13509545038163</v>
+        <v>16.87322573372333</v>
       </c>
       <c r="B5" t="n">
-        <v>10.80346209466416</v>
+        <v>17.60342435001107</v>
       </c>
       <c r="C5" t="n">
-        <v>80.63013546698913</v>
+        <v>154.9276340633445</v>
       </c>
       <c r="D5" t="n">
-        <v>86.13527742076724</v>
+        <v>44.09569500582444</v>
       </c>
       <c r="E5" t="n">
-        <v>104.007657139821</v>
+        <v>132.8638944742594</v>
       </c>
       <c r="F5" t="n">
-        <v>61.46230300021023</v>
+        <v>125.7165069445491</v>
       </c>
       <c r="G5" t="n">
-        <v>101.3748228856679</v>
+        <v>108.1747105220564</v>
       </c>
       <c r="H5" t="n">
-        <v>89.50719570217854</v>
+        <v>151.6001034357771</v>
       </c>
       <c r="I5" t="n">
-        <v>55.57786728912868</v>
+        <v>39.31014055775009</v>
       </c>
       <c r="J5" t="n">
-        <v>32.13133316288764</v>
+        <v>8.26383551910644</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -632,34 +632,34 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>166.8820378770705</v>
+        <v>14.25680383461226</v>
       </c>
       <c r="B6" t="n">
-        <v>75.02081422537645</v>
+        <v>7.952723399565673</v>
       </c>
       <c r="C6" t="n">
-        <v>59.85439497876564</v>
+        <v>120.4690927645121</v>
       </c>
       <c r="D6" t="n">
-        <v>45.56446701964562</v>
+        <v>139.2643660032276</v>
       </c>
       <c r="E6" t="n">
-        <v>144.7667577821931</v>
+        <v>147.2796512402954</v>
       </c>
       <c r="F6" t="n">
-        <v>135.8013172521652</v>
+        <v>140.6214212183294</v>
       </c>
       <c r="G6" t="n">
-        <v>102.4600956709895</v>
+        <v>84.39232460067866</v>
       </c>
       <c r="H6" t="n">
-        <v>112.11993443352</v>
+        <v>52.79562527524339</v>
       </c>
       <c r="I6" t="n">
-        <v>49.23088912315887</v>
+        <v>54.71087690051776</v>
       </c>
       <c r="J6" t="n">
-        <v>30.24549891026573</v>
+        <v>78.06731588933403</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -667,34 +667,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.121866219427582</v>
+        <v>4.889409078222452</v>
       </c>
       <c r="B7" t="n">
-        <v>20.45502169209558</v>
+        <v>10.32289045508163</v>
       </c>
       <c r="C7" t="n">
-        <v>146.462679825129</v>
+        <v>104.9464530800446</v>
       </c>
       <c r="D7" t="n">
-        <v>129.6320538637616</v>
+        <v>119.157921222351</v>
       </c>
       <c r="E7" t="n">
-        <v>109.6712808650343</v>
+        <v>128.9505635261179</v>
       </c>
       <c r="F7" t="n">
-        <v>97.69421788559529</v>
+        <v>125.1032918870111</v>
       </c>
       <c r="G7" t="n">
-        <v>92.25225672765713</v>
+        <v>99.5952446043088</v>
       </c>
       <c r="H7" t="n">
-        <v>87.38047521251893</v>
+        <v>83.18297360447878</v>
       </c>
       <c r="I7" t="n">
-        <v>50.02047718117116</v>
+        <v>37.59987675427455</v>
       </c>
       <c r="J7" t="n">
-        <v>23.82378771852328</v>
+        <v>54.56510713074889</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -702,34 +702,34 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>29.96404457337212</v>
+        <v>2.692679538029996</v>
       </c>
       <c r="B8" t="n">
-        <v>34.41502178141125</v>
+        <v>19.17268448236182</v>
       </c>
       <c r="C8" t="n">
-        <v>111.5773803345419</v>
+        <v>155.064757109856</v>
       </c>
       <c r="D8" t="n">
-        <v>121.18810984487</v>
+        <v>139.8379425339303</v>
       </c>
       <c r="E8" t="n">
-        <v>85.51115291957262</v>
+        <v>150.3050465816159</v>
       </c>
       <c r="F8" t="n">
-        <v>85.39215507266221</v>
+        <v>131.995740304182</v>
       </c>
       <c r="G8" t="n">
-        <v>77.48409058221979</v>
+        <v>170.1809320028344</v>
       </c>
       <c r="H8" t="n">
-        <v>45.87521812244956</v>
+        <v>120.4110993115801</v>
       </c>
       <c r="I8" t="n">
-        <v>3.515637371491812</v>
+        <v>2.975984941687222</v>
       </c>
       <c r="J8" t="n">
-        <v>16.39707077406029</v>
+        <v>25.60629427687481</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -737,34 +737,34 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>116.1187790450776</v>
+        <v>91.95196406237758</v>
       </c>
       <c r="B9" t="n">
-        <v>13.24344995619182</v>
+        <v>98.68344964485877</v>
       </c>
       <c r="C9" t="n">
-        <v>17.35775557216809</v>
+        <v>78.51307309118985</v>
       </c>
       <c r="D9" t="n">
-        <v>95.69628060045187</v>
+        <v>40.468932895093</v>
       </c>
       <c r="E9" t="n">
-        <v>51.18213015034092</v>
+        <v>71.74201943730245</v>
       </c>
       <c r="F9" t="n">
-        <v>58.10750366065321</v>
+        <v>63.57162447214323</v>
       </c>
       <c r="G9" t="n">
-        <v>92.00704728662777</v>
+        <v>99.07612730805778</v>
       </c>
       <c r="H9" t="n">
-        <v>67.55193243902083</v>
+        <v>81.69925727891534</v>
       </c>
       <c r="I9" t="n">
-        <v>2.684962825365963</v>
+        <v>4.485440062117045</v>
       </c>
       <c r="J9" t="n">
-        <v>58.78249275507228</v>
+        <v>19.99618695041244</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -772,34 +772,34 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.94546162517805</v>
+        <v>64.20825318005325</v>
       </c>
       <c r="B10" t="n">
-        <v>25.78338076035427</v>
+        <v>41.07914758030919</v>
       </c>
       <c r="C10" t="n">
-        <v>94.53120952759572</v>
+        <v>151.6963380234266</v>
       </c>
       <c r="D10" t="n">
-        <v>127.6104627346591</v>
+        <v>144.2212407746654</v>
       </c>
       <c r="E10" t="n">
-        <v>91.3003663029267</v>
+        <v>89.77532372615286</v>
       </c>
       <c r="F10" t="n">
-        <v>91.03163100919195</v>
+        <v>105.8084436909873</v>
       </c>
       <c r="G10" t="n">
-        <v>83.25564845155935</v>
+        <v>75.22217281237066</v>
       </c>
       <c r="H10" t="n">
-        <v>86.88188142284685</v>
+        <v>44.58916622891891</v>
       </c>
       <c r="I10" t="n">
-        <v>14.76174199944491</v>
+        <v>18.97877067609828</v>
       </c>
       <c r="J10" t="n">
-        <v>13.73022166696374</v>
+        <v>22.62275949972858</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -807,34 +807,34 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98.97299444042126</v>
+        <v>166.8820378770705</v>
       </c>
       <c r="B11" t="n">
-        <v>98.73171308273018</v>
+        <v>75.02081422537645</v>
       </c>
       <c r="C11" t="n">
-        <v>179.3659866069346</v>
+        <v>59.85439497876564</v>
       </c>
       <c r="D11" t="n">
-        <v>174.9251696133854</v>
+        <v>45.56446701964562</v>
       </c>
       <c r="E11" t="n">
-        <v>107.337586383908</v>
+        <v>144.7667577821931</v>
       </c>
       <c r="F11" t="n">
-        <v>124.7797015087238</v>
+        <v>135.8013172521652</v>
       </c>
       <c r="G11" t="n">
-        <v>28.16584884103757</v>
+        <v>102.4600956709895</v>
       </c>
       <c r="H11" t="n">
-        <v>149.0337912548914</v>
+        <v>112.11993443352</v>
       </c>
       <c r="I11" t="n">
-        <v>179.051754043251</v>
+        <v>49.23088912315887</v>
       </c>
       <c r="J11" t="n">
-        <v>16.80413223627616</v>
+        <v>30.24549891026573</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -842,34 +842,34 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>153.7058160635138</v>
+        <v>42.55725834776305</v>
       </c>
       <c r="B12" t="n">
-        <v>43.35286919845661</v>
+        <v>12.46806362544493</v>
       </c>
       <c r="C12" t="n">
-        <v>167.996589887533</v>
+        <v>67.87008011156513</v>
       </c>
       <c r="D12" t="n">
-        <v>5.08526973210194</v>
+        <v>55.38755067840964</v>
       </c>
       <c r="E12" t="n">
-        <v>111.6614990736814</v>
+        <v>53.88179605385943</v>
       </c>
       <c r="F12" t="n">
-        <v>106.8166565781981</v>
+        <v>65.90417512032178</v>
       </c>
       <c r="G12" t="n">
-        <v>4.562386552214781</v>
+        <v>58.91463001917369</v>
       </c>
       <c r="H12" t="n">
-        <v>121.8644687979409</v>
+        <v>60.19724352242875</v>
       </c>
       <c r="I12" t="n">
-        <v>111.7617005389109</v>
+        <v>23.88749972999694</v>
       </c>
       <c r="J12" t="n">
-        <v>8.08515449777571</v>
+        <v>41.06806971574569</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -877,34 +877,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>21.70809297152311</v>
+        <v>30.94913032801934</v>
       </c>
       <c r="B13" t="n">
-        <v>25.78958273403439</v>
+        <v>58.3886950333027</v>
       </c>
       <c r="C13" t="n">
-        <v>170.9285659226564</v>
+        <v>112.5837483902641</v>
       </c>
       <c r="D13" t="n">
-        <v>59.5243465306407</v>
+        <v>142.5515411053086</v>
       </c>
       <c r="E13" t="n">
-        <v>129.161285029241</v>
+        <v>99.73601244952965</v>
       </c>
       <c r="F13" t="n">
-        <v>135.1964941471358</v>
+        <v>86.03439782242907</v>
       </c>
       <c r="G13" t="n">
-        <v>86.82465434742295</v>
+        <v>109.6864354547645</v>
       </c>
       <c r="H13" t="n">
-        <v>124.4749924617587</v>
+        <v>62.86301022676531</v>
       </c>
       <c r="I13" t="n">
-        <v>60.53268634150449</v>
+        <v>25.46241797485564</v>
       </c>
       <c r="J13" t="n">
-        <v>11.81447861370187</v>
+        <v>15.09432258057991</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -912,34 +912,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>63.21026769523123</v>
+        <v>134.7125723533425</v>
       </c>
       <c r="B14" t="n">
-        <v>38.08268879390945</v>
+        <v>30.61149805579609</v>
       </c>
       <c r="C14" t="n">
-        <v>150.7354839748903</v>
+        <v>133.6597643525528</v>
       </c>
       <c r="D14" t="n">
-        <v>138.8706546078589</v>
+        <v>114.1799679040024</v>
       </c>
       <c r="E14" t="n">
-        <v>91.56489519597216</v>
+        <v>5.390453519620984</v>
       </c>
       <c r="F14" t="n">
-        <v>106.2923607960732</v>
+        <v>99.31403488897786</v>
       </c>
       <c r="G14" t="n">
-        <v>76.00864858169793</v>
+        <v>158.5273176851827</v>
       </c>
       <c r="H14" t="n">
-        <v>56.34705404115022</v>
+        <v>107.4042810153136</v>
       </c>
       <c r="I14" t="n">
-        <v>14.28848296282481</v>
+        <v>52.94470980565347</v>
       </c>
       <c r="J14" t="n">
-        <v>28.66887117205564</v>
+        <v>79.44354524437999</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -947,34 +947,34 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66.45940360529849</v>
+        <v>81.93417332683232</v>
       </c>
       <c r="B15" t="n">
-        <v>45.13228083238286</v>
+        <v>112.9785671012516</v>
       </c>
       <c r="C15" t="n">
-        <v>85.85301020510541</v>
+        <v>146.8080882488101</v>
       </c>
       <c r="D15" t="n">
-        <v>160.194001769042</v>
+        <v>128.0731047869264</v>
       </c>
       <c r="E15" t="n">
-        <v>86.81385310308809</v>
+        <v>46.46495105620185</v>
       </c>
       <c r="F15" t="n">
-        <v>93.55940076580907</v>
+        <v>39.83859109212719</v>
       </c>
       <c r="G15" t="n">
-        <v>97.81099517621543</v>
+        <v>118.4220556912824</v>
       </c>
       <c r="H15" t="n">
-        <v>81.28201232957743</v>
+        <v>109.2063705985314</v>
       </c>
       <c r="I15" t="n">
-        <v>7.686806296365353</v>
+        <v>0.01195104856470763</v>
       </c>
       <c r="J15" t="n">
-        <v>19.76707497104323</v>
+        <v>4.043144333253041</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -982,34 +982,34 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18.89747889556768</v>
+        <v>46.13509545038163</v>
       </c>
       <c r="B16" t="n">
-        <v>28.38140615593639</v>
+        <v>10.80346209466416</v>
       </c>
       <c r="C16" t="n">
-        <v>123.6443894185585</v>
+        <v>80.63013546698913</v>
       </c>
       <c r="D16" t="n">
-        <v>135.5559389140886</v>
+        <v>86.13527742076724</v>
       </c>
       <c r="E16" t="n">
-        <v>104.1565431706808</v>
+        <v>104.007657139821</v>
       </c>
       <c r="F16" t="n">
-        <v>113.4440867103916</v>
+        <v>61.46230300021023</v>
       </c>
       <c r="G16" t="n">
-        <v>157.9617886462903</v>
+        <v>101.3748228856679</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2647663899184</v>
+        <v>89.50719570217854</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01248951233091732</v>
+        <v>55.57786728912868</v>
       </c>
       <c r="J16" t="n">
-        <v>5.141565495136581</v>
+        <v>32.13133316288764</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1017,34 +1017,34 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>78.83047595497223</v>
+        <v>41.28398781575957</v>
       </c>
       <c r="B17" t="n">
-        <v>76.06592437815519</v>
+        <v>4.780880109111271</v>
       </c>
       <c r="C17" t="n">
-        <v>170.1860373473545</v>
+        <v>124.3166106024594</v>
       </c>
       <c r="D17" t="n">
-        <v>157.394686461189</v>
+        <v>137.4886454219058</v>
       </c>
       <c r="E17" t="n">
-        <v>62.81289660466908</v>
+        <v>120.4405579850846</v>
       </c>
       <c r="F17" t="n">
-        <v>72.57299397701289</v>
+        <v>106.3740138310463</v>
       </c>
       <c r="G17" t="n">
-        <v>115.280871851132</v>
+        <v>44.95750441605043</v>
       </c>
       <c r="H17" t="n">
-        <v>122.7426227279558</v>
+        <v>34.92414923095373</v>
       </c>
       <c r="I17" t="n">
-        <v>9.694701282092245</v>
+        <v>55.34479169301449</v>
       </c>
       <c r="J17" t="n">
-        <v>46.45996503501944</v>
+        <v>84.68743011435033</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1052,34 +1052,34 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>65.28093907515617</v>
+        <v>38.93220687084489</v>
       </c>
       <c r="B18" t="n">
-        <v>45.60392930514441</v>
+        <v>1.335224957977003</v>
       </c>
       <c r="C18" t="n">
-        <v>145.8384979880243</v>
+        <v>47.16694653820782</v>
       </c>
       <c r="D18" t="n">
-        <v>141.4574026306788</v>
+        <v>119.6852517135502</v>
       </c>
       <c r="E18" t="n">
-        <v>84.55419154154748</v>
+        <v>114.285063651605</v>
       </c>
       <c r="F18" t="n">
-        <v>97.70628197450299</v>
+        <v>113.09251236114</v>
       </c>
       <c r="G18" t="n">
-        <v>125.6468697535293</v>
+        <v>102.8099749740486</v>
       </c>
       <c r="H18" t="n">
-        <v>95.0236866973929</v>
+        <v>89.94246060364434</v>
       </c>
       <c r="I18" t="n">
-        <v>44.31810301308211</v>
+        <v>24.97056974789799</v>
       </c>
       <c r="J18" t="n">
-        <v>16.48807997035519</v>
+        <v>35.06092037769996</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1087,34 +1087,34 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>117.0260030118374</v>
+        <v>29.07302141959306</v>
       </c>
       <c r="B19" t="n">
-        <v>10.13443141564301</v>
+        <v>26.90451793681522</v>
       </c>
       <c r="C19" t="n">
-        <v>30.87583163559666</v>
+        <v>147.9091715696336</v>
       </c>
       <c r="D19" t="n">
-        <v>84.63882749600725</v>
+        <v>138.6308840759762</v>
       </c>
       <c r="E19" t="n">
-        <v>51.94092553980641</v>
+        <v>110.7059837279711</v>
       </c>
       <c r="F19" t="n">
-        <v>69.07441053250363</v>
+        <v>113.0067757259492</v>
       </c>
       <c r="G19" t="n">
-        <v>103.7414439771349</v>
+        <v>134.859672104719</v>
       </c>
       <c r="H19" t="n">
-        <v>92.39367417625304</v>
+        <v>127.8162567276666</v>
       </c>
       <c r="I19" t="n">
-        <v>11.12530031501749</v>
+        <v>7.492571872523124</v>
       </c>
       <c r="J19" t="n">
-        <v>38.62973318783038</v>
+        <v>5.280831980493006</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1122,34 +1122,34 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7.691450411215443</v>
+        <v>49.34919313953543</v>
       </c>
       <c r="B20" t="n">
-        <v>23.38261211595559</v>
+        <v>48.12400097855608</v>
       </c>
       <c r="C20" t="n">
-        <v>135.009334055679</v>
+        <v>82.48730053654323</v>
       </c>
       <c r="D20" t="n">
-        <v>132.0829268024094</v>
+        <v>74.50041587264235</v>
       </c>
       <c r="E20" t="n">
-        <v>108.0706137712278</v>
+        <v>109.7049515277176</v>
       </c>
       <c r="F20" t="n">
-        <v>94.69995603207764</v>
+        <v>113.9220592748958</v>
       </c>
       <c r="G20" t="n">
-        <v>92.34436051250995</v>
+        <v>115.1721076262984</v>
       </c>
       <c r="H20" t="n">
-        <v>65.80903107440855</v>
+        <v>103.5662061698382</v>
       </c>
       <c r="I20" t="n">
-        <v>30.00723635407592</v>
+        <v>8.663544724821787</v>
       </c>
       <c r="J20" t="n">
-        <v>20.05556085694599</v>
+        <v>19.21434740185862</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1157,34 +1157,34 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67.07906394894795</v>
+        <v>7.691450411215443</v>
       </c>
       <c r="B21" t="n">
-        <v>43.00695513592256</v>
+        <v>23.38261211595559</v>
       </c>
       <c r="C21" t="n">
-        <v>152.4104635651269</v>
+        <v>135.009334055679</v>
       </c>
       <c r="D21" t="n">
-        <v>147.0031207311716</v>
+        <v>132.0829268024094</v>
       </c>
       <c r="E21" t="n">
-        <v>89.00836856156792</v>
+        <v>108.0706137712278</v>
       </c>
       <c r="F21" t="n">
-        <v>105.1519434075821</v>
+        <v>94.69995603207764</v>
       </c>
       <c r="G21" t="n">
-        <v>75.75222666726907</v>
+        <v>92.34436051250995</v>
       </c>
       <c r="H21" t="n">
-        <v>65.39296762932823</v>
+        <v>65.80903107440855</v>
       </c>
       <c r="I21" t="n">
-        <v>18.10186501530609</v>
+        <v>30.00723635407592</v>
       </c>
       <c r="J21" t="n">
-        <v>20.03229224620195</v>
+        <v>20.05556085694599</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1192,34 +1192,34 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.579867491081826</v>
+        <v>25.30459476565702</v>
       </c>
       <c r="B22" t="n">
-        <v>23.02822434446515</v>
+        <v>52.42727615195142</v>
       </c>
       <c r="C22" t="n">
-        <v>119.678703525846</v>
+        <v>94.11635671350443</v>
       </c>
       <c r="D22" t="n">
-        <v>82.42231667656448</v>
+        <v>54.43908457362108</v>
       </c>
       <c r="E22" t="n">
-        <v>130.1478186543158</v>
+        <v>55.2481965296308</v>
       </c>
       <c r="F22" t="n">
-        <v>120.7943201100248</v>
+        <v>64.4212310470941</v>
       </c>
       <c r="G22" t="n">
-        <v>63.54896931861873</v>
+        <v>100.5355349050612</v>
       </c>
       <c r="H22" t="n">
-        <v>62.16059529675823</v>
+        <v>119.3891303629005</v>
       </c>
       <c r="I22" t="n">
-        <v>47.27837507565596</v>
+        <v>57.05363172176047</v>
       </c>
       <c r="J22" t="n">
-        <v>48.459126913441</v>
+        <v>42.39216550502126</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1227,34 +1227,34 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14.24147269664335</v>
+        <v>5.94546162517805</v>
       </c>
       <c r="B23" t="n">
-        <v>3.782079875528261</v>
+        <v>25.78338076035427</v>
       </c>
       <c r="C23" t="n">
-        <v>126.2801934364139</v>
+        <v>94.53120952759572</v>
       </c>
       <c r="D23" t="n">
-        <v>115.0846473551706</v>
+        <v>127.6104627346591</v>
       </c>
       <c r="E23" t="n">
-        <v>133.1220999307613</v>
+        <v>91.3003663029267</v>
       </c>
       <c r="F23" t="n">
-        <v>125.9229447328485</v>
+        <v>91.03163100919195</v>
       </c>
       <c r="G23" t="n">
-        <v>124.5748636968423</v>
+        <v>83.25564845155935</v>
       </c>
       <c r="H23" t="n">
-        <v>89.42127496638187</v>
+        <v>86.88188142284685</v>
       </c>
       <c r="I23" t="n">
-        <v>29.31405845785336</v>
+        <v>14.76174199944491</v>
       </c>
       <c r="J23" t="n">
-        <v>46.74933058860577</v>
+        <v>13.73022166696374</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1262,34 +1262,34 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>82.60306441342226</v>
+        <v>159.5629596532492</v>
       </c>
       <c r="B24" t="n">
-        <v>76.68562083851971</v>
+        <v>5.724194079273691</v>
       </c>
       <c r="C24" t="n">
-        <v>140.5764761352215</v>
+        <v>33.82759930297226</v>
       </c>
       <c r="D24" t="n">
-        <v>132.8982910419792</v>
+        <v>40.27097900990071</v>
       </c>
       <c r="E24" t="n">
-        <v>63.70594546512147</v>
+        <v>154.4886564355374</v>
       </c>
       <c r="F24" t="n">
-        <v>65.44161723984337</v>
+        <v>141.0388769934303</v>
       </c>
       <c r="G24" t="n">
-        <v>46.97935018644245</v>
+        <v>121.8591233472999</v>
       </c>
       <c r="H24" t="n">
-        <v>52.53525399519202</v>
+        <v>122.0133014712263</v>
       </c>
       <c r="I24" t="n">
-        <v>8.963213631884148</v>
+        <v>26.64311610662241</v>
       </c>
       <c r="J24" t="n">
-        <v>6.41234286512144</v>
+        <v>31.57652886637144</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1297,34 +1297,34 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.39601521389235</v>
+        <v>58.19885020449305</v>
       </c>
       <c r="B25" t="n">
-        <v>8.571000239329804</v>
+        <v>45.49004646111697</v>
       </c>
       <c r="C25" t="n">
-        <v>146.4677087247777</v>
+        <v>146.9480307776094</v>
       </c>
       <c r="D25" t="n">
-        <v>115.6367011499139</v>
+        <v>144.0086186575677</v>
       </c>
       <c r="E25" t="n">
-        <v>127.2084949834635</v>
+        <v>91.92293231571523</v>
       </c>
       <c r="F25" t="n">
-        <v>120.2436203365423</v>
+        <v>103.8155868834001</v>
       </c>
       <c r="G25" t="n">
-        <v>107.2589544118204</v>
+        <v>77.37278465581444</v>
       </c>
       <c r="H25" t="n">
-        <v>89.61451860662733</v>
+        <v>56.52995594519689</v>
       </c>
       <c r="I25" t="n">
-        <v>40.86554492631898</v>
+        <v>22.68314516956629</v>
       </c>
       <c r="J25" t="n">
-        <v>47.74840200124353</v>
+        <v>17.81318486011492</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1332,34 +1332,34 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10.75133289100324</v>
+        <v>2.39601521389235</v>
       </c>
       <c r="B26" t="n">
-        <v>16.85660217921245</v>
+        <v>8.571000239329804</v>
       </c>
       <c r="C26" t="n">
-        <v>149.6807867486146</v>
+        <v>146.4677087247777</v>
       </c>
       <c r="D26" t="n">
-        <v>105.7671001927277</v>
+        <v>115.6367011499139</v>
       </c>
       <c r="E26" t="n">
-        <v>118.0370421324484</v>
+        <v>127.2084949834635</v>
       </c>
       <c r="F26" t="n">
-        <v>144.1493520834756</v>
+        <v>120.2436203365423</v>
       </c>
       <c r="G26" t="n">
-        <v>137.9252240133272</v>
+        <v>107.2589544118204</v>
       </c>
       <c r="H26" t="n">
-        <v>122.5906467205719</v>
+        <v>89.61451860662733</v>
       </c>
       <c r="I26" t="n">
-        <v>13.21663705442639</v>
+        <v>40.86554492631898</v>
       </c>
       <c r="J26" t="n">
-        <v>21.27712730111612</v>
+        <v>47.74840200124353</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1367,34 +1367,34 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26.28723059389973</v>
+        <v>1.754641479698462</v>
       </c>
       <c r="B27" t="n">
-        <v>16.09074696532664</v>
+        <v>55.88300400876548</v>
       </c>
       <c r="C27" t="n">
-        <v>166.9932550206826</v>
+        <v>142.6254304751547</v>
       </c>
       <c r="D27" t="n">
-        <v>136.5832344635468</v>
+        <v>77.54961951849405</v>
       </c>
       <c r="E27" t="n">
-        <v>125.810994315869</v>
+        <v>134.2207544962257</v>
       </c>
       <c r="F27" t="n">
-        <v>133.4344004355646</v>
+        <v>130.8332270049083</v>
       </c>
       <c r="G27" t="n">
-        <v>107.3406658833079</v>
+        <v>148.641008787247</v>
       </c>
       <c r="H27" t="n">
-        <v>116.7179770016804</v>
+        <v>146.0482699754853</v>
       </c>
       <c r="I27" t="n">
-        <v>30.63065456616237</v>
+        <v>11.69308817691694</v>
       </c>
       <c r="J27" t="n">
-        <v>20.64238282801794</v>
+        <v>17.9386076151485</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1402,34 +1402,34 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>16.70130357283176</v>
+        <v>7.364229072923693</v>
       </c>
       <c r="B28" t="n">
-        <v>41.53345602576229</v>
+        <v>7.68937064208388</v>
       </c>
       <c r="C28" t="n">
-        <v>125.8907297295102</v>
+        <v>149.4954902704998</v>
       </c>
       <c r="D28" t="n">
-        <v>134.7396698631306</v>
+        <v>131.55732903714</v>
       </c>
       <c r="E28" t="n">
-        <v>114.424879610325</v>
+        <v>139.4084805520874</v>
       </c>
       <c r="F28" t="n">
-        <v>113.5691365561063</v>
+        <v>128.9770253905336</v>
       </c>
       <c r="G28" t="n">
-        <v>93.5187453382876</v>
+        <v>136.1962780528043</v>
       </c>
       <c r="H28" t="n">
-        <v>95.96713243309091</v>
+        <v>128.1207018882312</v>
       </c>
       <c r="I28" t="n">
-        <v>28.651149013308</v>
+        <v>7.448106958214423</v>
       </c>
       <c r="J28" t="n">
-        <v>8.402146903963612</v>
+        <v>9.516821216307074</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1437,34 +1437,34 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>51.63728839003063</v>
+        <v>7.393388083524284</v>
       </c>
       <c r="B29" t="n">
-        <v>49.76925156086847</v>
+        <v>7.314402552957362</v>
       </c>
       <c r="C29" t="n">
-        <v>144.8318014898357</v>
+        <v>169.576626876816</v>
       </c>
       <c r="D29" t="n">
-        <v>149.1001594123942</v>
+        <v>133.8430387403737</v>
       </c>
       <c r="E29" t="n">
-        <v>98.45135021485174</v>
+        <v>133.3032191073544</v>
       </c>
       <c r="F29" t="n">
-        <v>107.529199495812</v>
+        <v>120.5417055517837</v>
       </c>
       <c r="G29" t="n">
-        <v>58.14680469675717</v>
+        <v>117.7314976440649</v>
       </c>
       <c r="H29" t="n">
-        <v>64.22856537121295</v>
+        <v>93.20367477174766</v>
       </c>
       <c r="I29" t="n">
-        <v>9.821707330216949</v>
+        <v>44.02407846697276</v>
       </c>
       <c r="J29" t="n">
-        <v>14.54690322281926</v>
+        <v>29.14824934995542</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1472,34 +1472,34 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>19.1954178375281</v>
+        <v>65.28093907515617</v>
       </c>
       <c r="B30" t="n">
-        <v>1.378704141583288</v>
+        <v>45.60392930514441</v>
       </c>
       <c r="C30" t="n">
-        <v>167.1937549425349</v>
+        <v>145.8384979880243</v>
       </c>
       <c r="D30" t="n">
-        <v>131.8550750336332</v>
+        <v>141.4574026306788</v>
       </c>
       <c r="E30" t="n">
-        <v>132.8500781423344</v>
+        <v>84.55419154154748</v>
       </c>
       <c r="F30" t="n">
-        <v>136.9619592496832</v>
+        <v>97.70628197450299</v>
       </c>
       <c r="G30" t="n">
-        <v>107.9276702281961</v>
+        <v>125.6468697535293</v>
       </c>
       <c r="H30" t="n">
-        <v>98.71552694981665</v>
+        <v>95.0236866973929</v>
       </c>
       <c r="I30" t="n">
-        <v>35.92707406220189</v>
+        <v>44.31810301308211</v>
       </c>
       <c r="J30" t="n">
-        <v>45.36090451919127</v>
+        <v>16.48807997035519</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1507,34 +1507,34 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>113.5549100316183</v>
+        <v>4.292570206830413</v>
       </c>
       <c r="B31" t="n">
-        <v>11.21298059950694</v>
+        <v>1.13532460944658</v>
       </c>
       <c r="C31" t="n">
-        <v>35.24226649913935</v>
+        <v>96.72925429513086</v>
       </c>
       <c r="D31" t="n">
-        <v>141.8993064831459</v>
+        <v>87.35603037166568</v>
       </c>
       <c r="E31" t="n">
-        <v>57.65309615736169</v>
+        <v>86.31648079096777</v>
       </c>
       <c r="F31" t="n">
-        <v>68.36131357930424</v>
+        <v>88.10993752350984</v>
       </c>
       <c r="G31" t="n">
-        <v>99.77593626045228</v>
+        <v>140.5149631559119</v>
       </c>
       <c r="H31" t="n">
-        <v>109.7790114213484</v>
+        <v>141.0031208969499</v>
       </c>
       <c r="I31" t="n">
-        <v>5.324562584522846</v>
+        <v>11.92955762782256</v>
       </c>
       <c r="J31" t="n">
-        <v>28.7038438400442</v>
+        <v>7.725010139547923</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1542,34 +1542,34 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.09356535551685598</v>
+        <v>32.82063874548936</v>
       </c>
       <c r="B32" t="n">
-        <v>18.75461237781211</v>
+        <v>70.02022872262843</v>
       </c>
       <c r="C32" t="n">
-        <v>146.4403113253078</v>
+        <v>109.5914678947833</v>
       </c>
       <c r="D32" t="n">
-        <v>132.4507446740141</v>
+        <v>151.2413231206359</v>
       </c>
       <c r="E32" t="n">
-        <v>147.837734224237</v>
+        <v>101.8687429071135</v>
       </c>
       <c r="F32" t="n">
-        <v>136.6241865368255</v>
+        <v>85.56026234755217</v>
       </c>
       <c r="G32" t="n">
-        <v>161.5923282767139</v>
+        <v>128.7094346766656</v>
       </c>
       <c r="H32" t="n">
-        <v>114.5007583465461</v>
+        <v>65.80168692112017</v>
       </c>
       <c r="I32" t="n">
-        <v>1.367959817663982</v>
+        <v>41.3468003009995</v>
       </c>
       <c r="J32" t="n">
-        <v>33.76560063860307</v>
+        <v>13.96325707880387</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1577,34 +1577,34 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>78.28635000422442</v>
+        <v>29.7131300053744</v>
       </c>
       <c r="B33" t="n">
-        <v>99.9508803974453</v>
+        <v>1.266512286297811</v>
       </c>
       <c r="C33" t="n">
-        <v>139.0568771830549</v>
+        <v>148.1062289459422</v>
       </c>
       <c r="D33" t="n">
-        <v>133.2758517653184</v>
+        <v>114.9446299255687</v>
       </c>
       <c r="E33" t="n">
-        <v>134.3205925634963</v>
+        <v>112.4467287677236</v>
       </c>
       <c r="F33" t="n">
-        <v>56.96309930033754</v>
+        <v>123.2566525927965</v>
       </c>
       <c r="G33" t="n">
-        <v>130.7688060803951</v>
+        <v>155.4628708733525</v>
       </c>
       <c r="H33" t="n">
-        <v>52.68353103557348</v>
+        <v>140.8868491640567</v>
       </c>
       <c r="I33" t="n">
-        <v>20.60210660773165</v>
+        <v>0.1186610343234426</v>
       </c>
       <c r="J33" t="n">
-        <v>3.171950518949449</v>
+        <v>10.43418052536977</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1612,34 +1612,34 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11.77441402382343</v>
+        <v>86.01984561695467</v>
       </c>
       <c r="B34" t="n">
-        <v>5.369314631928852</v>
+        <v>73.88809738282208</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4696475703674</v>
+        <v>143.25464567816</v>
       </c>
       <c r="D34" t="n">
-        <v>133.7377792191341</v>
+        <v>133.6247885270338</v>
       </c>
       <c r="E34" t="n">
-        <v>135.4114322106481</v>
+        <v>61.30581974805433</v>
       </c>
       <c r="F34" t="n">
-        <v>118.6792025399139</v>
+        <v>67.40597547918253</v>
       </c>
       <c r="G34" t="n">
-        <v>124.3814592097038</v>
+        <v>41.34727997741953</v>
       </c>
       <c r="H34" t="n">
-        <v>94.92509899278024</v>
+        <v>46.70047793820936</v>
       </c>
       <c r="I34" t="n">
-        <v>32.58295656285996</v>
+        <v>7.444712841488456</v>
       </c>
       <c r="J34" t="n">
-        <v>37.35958878836905</v>
+        <v>4.138056523393199</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -1647,34 +1647,34 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>133.0564830323384</v>
+        <v>97.47276342548062</v>
       </c>
       <c r="B35" t="n">
-        <v>41.60681076370197</v>
+        <v>99.17638803475357</v>
       </c>
       <c r="C35" t="n">
-        <v>87.12778405120991</v>
+        <v>165.391812422042</v>
       </c>
       <c r="D35" t="n">
-        <v>4.048088796882212</v>
+        <v>169.2540169698136</v>
       </c>
       <c r="E35" t="n">
-        <v>149.366595736349</v>
+        <v>72.48920804467605</v>
       </c>
       <c r="F35" t="n">
-        <v>140.6787162198271</v>
+        <v>71.42266473940737</v>
       </c>
       <c r="G35" t="n">
-        <v>33.43958090641992</v>
+        <v>44.90393429551534</v>
       </c>
       <c r="H35" t="n">
-        <v>49.92874494256658</v>
+        <v>40.35357180886058</v>
       </c>
       <c r="I35" t="n">
-        <v>169.1081028820659</v>
+        <v>0.4937602122107646</v>
       </c>
       <c r="J35" t="n">
-        <v>101.7857892357854</v>
+        <v>0.8415180129787455</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -1682,34 +1682,34 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34.1399187520423</v>
+        <v>47.38176748826907</v>
       </c>
       <c r="B36" t="n">
-        <v>31.68545683544181</v>
+        <v>65.22845473480295</v>
       </c>
       <c r="C36" t="n">
-        <v>161.3803011502338</v>
+        <v>156.1790695043875</v>
       </c>
       <c r="D36" t="n">
-        <v>161.5399183549347</v>
+        <v>158.0141720669245</v>
       </c>
       <c r="E36" t="n">
-        <v>127.4081563345923</v>
+        <v>112.5528277041591</v>
       </c>
       <c r="F36" t="n">
-        <v>134.5517212657005</v>
+        <v>97.58008847359525</v>
       </c>
       <c r="G36" t="n">
-        <v>75.80849534774597</v>
+        <v>123.1873857695996</v>
       </c>
       <c r="H36" t="n">
-        <v>74.31391565724299</v>
+        <v>66.21461490782093</v>
       </c>
       <c r="I36" t="n">
-        <v>1.343039631914143</v>
+        <v>20.47653968685875</v>
       </c>
       <c r="J36" t="n">
-        <v>16.5379230870123</v>
+        <v>0.9721736960131167</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -1717,34 +1717,34 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8.418812047221945</v>
+        <v>89.48470489965396</v>
       </c>
       <c r="B37" t="n">
-        <v>21.71905604709632</v>
+        <v>121.7500483970502</v>
       </c>
       <c r="C37" t="n">
-        <v>123.4143937104237</v>
+        <v>159.2739007934731</v>
       </c>
       <c r="D37" t="n">
-        <v>78.21182975881666</v>
+        <v>172.9676754998529</v>
       </c>
       <c r="E37" t="n">
-        <v>96.93288495597004</v>
+        <v>66.5164272597345</v>
       </c>
       <c r="F37" t="n">
-        <v>88.83906879609951</v>
+        <v>61.38110069462941</v>
       </c>
       <c r="G37" t="n">
-        <v>99.02629086382819</v>
+        <v>45.73966476996026</v>
       </c>
       <c r="H37" t="n">
-        <v>66.84164018701517</v>
+        <v>45.98331256629308</v>
       </c>
       <c r="I37" t="n">
-        <v>35.57014855407412</v>
+        <v>5.793113018714647</v>
       </c>
       <c r="J37" t="n">
-        <v>43.4921673620533</v>
+        <v>0.2563333120176309</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -1752,34 +1752,34 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.239190385688382</v>
+        <v>26.84209684121826</v>
       </c>
       <c r="B38" t="n">
-        <v>11.48260927234548</v>
+        <v>26.19228831722572</v>
       </c>
       <c r="C38" t="n">
-        <v>127.9230156118635</v>
+        <v>169.0191579872075</v>
       </c>
       <c r="D38" t="n">
-        <v>109.3782590577899</v>
+        <v>51.70725533560498</v>
       </c>
       <c r="E38" t="n">
-        <v>137.6872021832374</v>
+        <v>143.3150451193212</v>
       </c>
       <c r="F38" t="n">
-        <v>126.3828960530106</v>
+        <v>136.4716733697477</v>
       </c>
       <c r="G38" t="n">
-        <v>130.1513810211587</v>
+        <v>52.09332428120626</v>
       </c>
       <c r="H38" t="n">
-        <v>92.54174337524836</v>
+        <v>144.2470822918181</v>
       </c>
       <c r="I38" t="n">
-        <v>24.20909786410227</v>
+        <v>14.24143358628794</v>
       </c>
       <c r="J38" t="n">
-        <v>44.21150422175781</v>
+        <v>3.488525140554188</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -1787,34 +1787,34 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.790888577078255</v>
+        <v>9.182206946810071</v>
       </c>
       <c r="B39" t="n">
-        <v>8.863168237016415</v>
+        <v>0.01564182451069396</v>
       </c>
       <c r="C39" t="n">
-        <v>131.5625910559738</v>
+        <v>139.5762961696998</v>
       </c>
       <c r="D39" t="n">
-        <v>119.8993658784903</v>
+        <v>139.3060992588816</v>
       </c>
       <c r="E39" t="n">
-        <v>114.6391633017131</v>
+        <v>133.4244201808612</v>
       </c>
       <c r="F39" t="n">
-        <v>105.7051052013588</v>
+        <v>128.9726336184667</v>
       </c>
       <c r="G39" t="n">
-        <v>92.17495687180536</v>
+        <v>109.0736756103127</v>
       </c>
       <c r="H39" t="n">
-        <v>81.8498340094439</v>
+        <v>92.00556907479744</v>
       </c>
       <c r="I39" t="n">
-        <v>45.87198027899841</v>
+        <v>36.91569671369174</v>
       </c>
       <c r="J39" t="n">
-        <v>51.24548111843654</v>
+        <v>47.91713100579106</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -1822,34 +1822,34 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>29.27008213729883</v>
+        <v>96.8706662880152</v>
       </c>
       <c r="B40" t="n">
-        <v>22.8713833336612</v>
+        <v>79.26549690985507</v>
       </c>
       <c r="C40" t="n">
-        <v>62.45984832600036</v>
+        <v>45.04889554517805</v>
       </c>
       <c r="D40" t="n">
-        <v>42.77046938416277</v>
+        <v>149.5953064523998</v>
       </c>
       <c r="E40" t="n">
-        <v>135.3696752570782</v>
+        <v>73.55535723050934</v>
       </c>
       <c r="F40" t="n">
-        <v>143.0216104909007</v>
+        <v>83.96864758070882</v>
       </c>
       <c r="G40" t="n">
-        <v>108.8388219261332</v>
+        <v>87.1728044557412</v>
       </c>
       <c r="H40" t="n">
-        <v>123.7939947809039</v>
+        <v>56.1735789999513</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91306865219388</v>
+        <v>6.074775272546061</v>
       </c>
       <c r="J40" t="n">
-        <v>21.35107302190422</v>
+        <v>23.43689969576451</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -1857,34 +1857,34 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>24.63105086594274</v>
+        <v>160.4576533142493</v>
       </c>
       <c r="B41" t="n">
-        <v>74.25081526714303</v>
+        <v>1.297360062633558</v>
       </c>
       <c r="C41" t="n">
-        <v>129.2842799151254</v>
+        <v>97.4913260381133</v>
       </c>
       <c r="D41" t="n">
-        <v>73.68499695901994</v>
+        <v>139.9364140301788</v>
       </c>
       <c r="E41" t="n">
-        <v>144.5947066404812</v>
+        <v>77.0113100194838</v>
       </c>
       <c r="F41" t="n">
-        <v>145.0573215687554</v>
+        <v>46.42185273005549</v>
       </c>
       <c r="G41" t="n">
-        <v>130.2750852908992</v>
+        <v>14.24425089436075</v>
       </c>
       <c r="H41" t="n">
-        <v>133.724279417015</v>
+        <v>75.90900416994813</v>
       </c>
       <c r="I41" t="n">
-        <v>29.74183406245391</v>
+        <v>100.4760877857777</v>
       </c>
       <c r="J41" t="n">
-        <v>29.63425543245625</v>
+        <v>28.39498295359617</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -1892,34 +1892,34 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>51.44078290413393</v>
+        <v>30.54201998052044</v>
       </c>
       <c r="B42" t="n">
-        <v>86.96414409722868</v>
+        <v>42.67748974291535</v>
       </c>
       <c r="C42" t="n">
-        <v>143.1539647271825</v>
+        <v>107.0699717259765</v>
       </c>
       <c r="D42" t="n">
-        <v>129.3516493137589</v>
+        <v>124.4552016971442</v>
       </c>
       <c r="E42" t="n">
-        <v>102.6169788998307</v>
+        <v>67.30256834852884</v>
       </c>
       <c r="F42" t="n">
-        <v>65.32757762685583</v>
+        <v>84.02775709065577</v>
       </c>
       <c r="G42" t="n">
-        <v>72.47692201561989</v>
+        <v>62.36681638016029</v>
       </c>
       <c r="H42" t="n">
-        <v>67.17274463428075</v>
+        <v>52.72655498438414</v>
       </c>
       <c r="I42" t="n">
-        <v>1.37675926823676</v>
+        <v>5.308233080247696</v>
       </c>
       <c r="J42" t="n">
-        <v>7.198011696428205</v>
+        <v>5.558794333188038</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -1927,34 +1927,34 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>160.4576533142493</v>
+        <v>10.75133289100324</v>
       </c>
       <c r="B43" t="n">
-        <v>1.297360062633558</v>
+        <v>16.85660217921245</v>
       </c>
       <c r="C43" t="n">
-        <v>97.4913260381133</v>
+        <v>149.6807867486146</v>
       </c>
       <c r="D43" t="n">
-        <v>139.9364140301788</v>
+        <v>105.7671001927277</v>
       </c>
       <c r="E43" t="n">
-        <v>77.0113100194838</v>
+        <v>118.0370421324484</v>
       </c>
       <c r="F43" t="n">
-        <v>46.42185273005549</v>
+        <v>144.1493520834756</v>
       </c>
       <c r="G43" t="n">
-        <v>14.24425089436075</v>
+        <v>137.9252240133272</v>
       </c>
       <c r="H43" t="n">
-        <v>75.90900416994813</v>
+        <v>122.5906467205719</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4760877857777</v>
+        <v>13.21663705442639</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39498295359617</v>
+        <v>21.27712730111612</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -1962,34 +1962,34 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>58.7600728218906</v>
+        <v>49.34015183713247</v>
       </c>
       <c r="B44" t="n">
-        <v>41.38907951334214</v>
+        <v>115.7958908296843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.8908124110599</v>
+        <v>18.07018663518496</v>
       </c>
       <c r="D44" t="n">
-        <v>125.3724783592984</v>
+        <v>10.87862032381583</v>
       </c>
       <c r="E44" t="n">
-        <v>75.64228129962464</v>
+        <v>175.1797246471253</v>
       </c>
       <c r="F44" t="n">
-        <v>92.73936250451254</v>
+        <v>161.0073796698617</v>
       </c>
       <c r="G44" t="n">
-        <v>69.7400210649307</v>
+        <v>155.0898403618354</v>
       </c>
       <c r="H44" t="n">
-        <v>43.14364788547849</v>
+        <v>178.4800360222125</v>
       </c>
       <c r="I44" t="n">
-        <v>19.11228673261015</v>
+        <v>23.18103237577684</v>
       </c>
       <c r="J44" t="n">
-        <v>18.56841926369037</v>
+        <v>15.2200195405987</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -1997,34 +1997,34 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>49.34919313953543</v>
+        <v>50.67597823838613</v>
       </c>
       <c r="B45" t="n">
-        <v>48.12400097855608</v>
+        <v>54.03946454650001</v>
       </c>
       <c r="C45" t="n">
-        <v>82.48730053654323</v>
+        <v>151.4322667510563</v>
       </c>
       <c r="D45" t="n">
-        <v>74.50041587264235</v>
+        <v>151.4320635131493</v>
       </c>
       <c r="E45" t="n">
-        <v>109.7049515277176</v>
+        <v>101.4035147659274</v>
       </c>
       <c r="F45" t="n">
-        <v>113.9220592748958</v>
+        <v>110.5155987032472</v>
       </c>
       <c r="G45" t="n">
-        <v>115.1721076262984</v>
+        <v>73.91033723370961</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5662061698382</v>
+        <v>42.60125053801115</v>
       </c>
       <c r="I45" t="n">
-        <v>8.663544724821787</v>
+        <v>9.46372996067884</v>
       </c>
       <c r="J45" t="n">
-        <v>19.21434740185862</v>
+        <v>39.51692441906673</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2032,34 +2032,34 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.39513386733987</v>
+        <v>153.7058160635138</v>
       </c>
       <c r="B46" t="n">
-        <v>58.39572963986785</v>
+        <v>43.35286919845661</v>
       </c>
       <c r="C46" t="n">
-        <v>163.6233900254865</v>
+        <v>167.996589887533</v>
       </c>
       <c r="D46" t="n">
-        <v>90.46128977693064</v>
+        <v>5.08526973210194</v>
       </c>
       <c r="E46" t="n">
-        <v>139.7387640245124</v>
+        <v>111.6614990736814</v>
       </c>
       <c r="F46" t="n">
-        <v>145.9573094170044</v>
+        <v>106.8166565781981</v>
       </c>
       <c r="G46" t="n">
-        <v>158.6787089144793</v>
+        <v>4.562386552214781</v>
       </c>
       <c r="H46" t="n">
-        <v>136.5532406112511</v>
+        <v>121.8644687979409</v>
       </c>
       <c r="I46" t="n">
-        <v>8.926763998331005</v>
+        <v>111.7617005389109</v>
       </c>
       <c r="J46" t="n">
-        <v>25.04969997405375</v>
+        <v>8.08515449777571</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2067,34 +2067,34 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.878766579839326</v>
+        <v>71.53871299990003</v>
       </c>
       <c r="B47" t="n">
-        <v>10.89496227697697</v>
+        <v>19.99292627848824</v>
       </c>
       <c r="C47" t="n">
-        <v>136.8053583070184</v>
+        <v>68.56092639947622</v>
       </c>
       <c r="D47" t="n">
-        <v>53.40588183952498</v>
+        <v>151.7039653078226</v>
       </c>
       <c r="E47" t="n">
-        <v>139.0099970820327</v>
+        <v>79.50648263891723</v>
       </c>
       <c r="F47" t="n">
-        <v>139.7915869188918</v>
+        <v>110.0849727724712</v>
       </c>
       <c r="G47" t="n">
-        <v>113.7434930640459</v>
+        <v>108.0115254981741</v>
       </c>
       <c r="H47" t="n">
-        <v>148.6539237661163</v>
+        <v>77.59208692276921</v>
       </c>
       <c r="I47" t="n">
-        <v>33.15322659785101</v>
+        <v>3.040130992346464</v>
       </c>
       <c r="J47" t="n">
-        <v>0.555069667995421</v>
+        <v>47.80386700835125</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2102,34 +2102,34 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8.783991071875212</v>
+        <v>20.64043350376932</v>
       </c>
       <c r="B48" t="n">
-        <v>19.42136232075514</v>
+        <v>23.31947847266315</v>
       </c>
       <c r="C48" t="n">
-        <v>140.0895119049741</v>
+        <v>139.2171982706856</v>
       </c>
       <c r="D48" t="n">
-        <v>126.7306230843444</v>
+        <v>159.2853160689677</v>
       </c>
       <c r="E48" t="n">
-        <v>142.5164310243894</v>
+        <v>125.6214087726042</v>
       </c>
       <c r="F48" t="n">
-        <v>112.7664827259011</v>
+        <v>130.0121809000558</v>
       </c>
       <c r="G48" t="n">
-        <v>102.3480106059574</v>
+        <v>64.84541456989793</v>
       </c>
       <c r="H48" t="n">
-        <v>56.26802073431213</v>
+        <v>64.43908620758474</v>
       </c>
       <c r="I48" t="n">
-        <v>5.793514576731391</v>
+        <v>48.57722444874831</v>
       </c>
       <c r="J48" t="n">
-        <v>5.746592800917283</v>
+        <v>54.55667017362485</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2137,34 +2137,34 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>97.47276342548062</v>
+        <v>52.09667599644659</v>
       </c>
       <c r="B49" t="n">
-        <v>99.17638803475357</v>
+        <v>59.16929607041246</v>
       </c>
       <c r="C49" t="n">
-        <v>165.391812422042</v>
+        <v>140.3909285527577</v>
       </c>
       <c r="D49" t="n">
-        <v>169.2540169698136</v>
+        <v>166.5272064347104</v>
       </c>
       <c r="E49" t="n">
-        <v>72.48920804467605</v>
+        <v>95.20831992877788</v>
       </c>
       <c r="F49" t="n">
-        <v>71.42266473940737</v>
+        <v>105.5409370810453</v>
       </c>
       <c r="G49" t="n">
-        <v>44.90393429551534</v>
+        <v>52.50409031221302</v>
       </c>
       <c r="H49" t="n">
-        <v>40.35357180886058</v>
+        <v>39.38969535018276</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4937602122107646</v>
+        <v>16.58473605684325</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8415180129787455</v>
+        <v>10.60186608531792</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2172,34 +2172,34 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>129.4485747484432</v>
+        <v>10.2610602218132</v>
       </c>
       <c r="B50" t="n">
-        <v>7.358337402303467</v>
+        <v>75.42838147730431</v>
       </c>
       <c r="C50" t="n">
-        <v>70.9797250326899</v>
+        <v>128.4829645804705</v>
       </c>
       <c r="D50" t="n">
-        <v>177.293357269382</v>
+        <v>63.44576169985418</v>
       </c>
       <c r="E50" t="n">
-        <v>145.9325232176679</v>
+        <v>129.4393301027174</v>
       </c>
       <c r="F50" t="n">
-        <v>140.2014427763382</v>
+        <v>133.3673230250408</v>
       </c>
       <c r="G50" t="n">
-        <v>121.6639146862258</v>
+        <v>144.2204367681961</v>
       </c>
       <c r="H50" t="n">
-        <v>140.3233706321894</v>
+        <v>131.2018973880647</v>
       </c>
       <c r="I50" t="n">
-        <v>32.98204594321903</v>
+        <v>16.89881498999984</v>
       </c>
       <c r="J50" t="n">
-        <v>13.19623895053152</v>
+        <v>29.82403036149694</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2207,34 +2207,34 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>146.8752448532401</v>
+        <v>64.66375018410902</v>
       </c>
       <c r="B51" t="n">
-        <v>47.52926776873157</v>
+        <v>43.35656106521916</v>
       </c>
       <c r="C51" t="n">
-        <v>94.80748854304039</v>
+        <v>146.6347799388823</v>
       </c>
       <c r="D51" t="n">
-        <v>35.05322660884165</v>
+        <v>139.1614914801675</v>
       </c>
       <c r="E51" t="n">
-        <v>92.67097679407341</v>
+        <v>89.08000165903007</v>
       </c>
       <c r="F51" t="n">
-        <v>90.1172554994242</v>
+        <v>107.4242393937211</v>
       </c>
       <c r="G51" t="n">
-        <v>65.5982478336241</v>
+        <v>80.77162382784351</v>
       </c>
       <c r="H51" t="n">
-        <v>26.06461904494669</v>
+        <v>48.79646801865245</v>
       </c>
       <c r="I51" t="n">
-        <v>50.38882668576251</v>
+        <v>17.86002394693416</v>
       </c>
       <c r="J51" t="n">
-        <v>85.45004060708288</v>
+        <v>34.33636995954875</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2242,34 +2242,34 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>14.25680383461226</v>
+        <v>9.641279119021457</v>
       </c>
       <c r="B52" t="n">
-        <v>7.952723399565673</v>
+        <v>3.970784657123878</v>
       </c>
       <c r="C52" t="n">
-        <v>120.4690927645121</v>
+        <v>148.2297130637517</v>
       </c>
       <c r="D52" t="n">
-        <v>139.2643660032276</v>
+        <v>127.940489392668</v>
       </c>
       <c r="E52" t="n">
-        <v>147.2796512402954</v>
+        <v>128.6335835946084</v>
       </c>
       <c r="F52" t="n">
-        <v>140.6214212183294</v>
+        <v>135.3292400804096</v>
       </c>
       <c r="G52" t="n">
-        <v>84.39232460067866</v>
+        <v>140.5806076004765</v>
       </c>
       <c r="H52" t="n">
-        <v>52.79562527524339</v>
+        <v>140.200015089693</v>
       </c>
       <c r="I52" t="n">
-        <v>54.71087690051776</v>
+        <v>10.07516413896283</v>
       </c>
       <c r="J52" t="n">
-        <v>78.06731588933403</v>
+        <v>11.24965186218711</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2277,34 +2277,34 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.754641479698462</v>
+        <v>140.5890958520674</v>
       </c>
       <c r="B53" t="n">
-        <v>55.88300400876548</v>
+        <v>12.15873700496747</v>
       </c>
       <c r="C53" t="n">
-        <v>142.6254304751547</v>
+        <v>110.303328959388</v>
       </c>
       <c r="D53" t="n">
-        <v>77.54961951849405</v>
+        <v>177.901422395246</v>
       </c>
       <c r="E53" t="n">
-        <v>134.2207544962257</v>
+        <v>148.0429720482807</v>
       </c>
       <c r="F53" t="n">
-        <v>130.8332270049083</v>
+        <v>147.5501411828268</v>
       </c>
       <c r="G53" t="n">
-        <v>148.641008787247</v>
+        <v>112.9093888503141</v>
       </c>
       <c r="H53" t="n">
-        <v>146.0482699754853</v>
+        <v>136.826233662997</v>
       </c>
       <c r="I53" t="n">
-        <v>11.69308817691694</v>
+        <v>53.82935629705105</v>
       </c>
       <c r="J53" t="n">
-        <v>17.9386076151485</v>
+        <v>15.91412678753382</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2312,34 +2312,34 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>159.5629596532492</v>
+        <v>21.70809297152311</v>
       </c>
       <c r="B54" t="n">
-        <v>5.724194079273691</v>
+        <v>25.78958273403439</v>
       </c>
       <c r="C54" t="n">
-        <v>33.82759930297226</v>
+        <v>170.9285659226564</v>
       </c>
       <c r="D54" t="n">
-        <v>40.27097900990071</v>
+        <v>59.5243465306407</v>
       </c>
       <c r="E54" t="n">
-        <v>154.4886564355374</v>
+        <v>129.161285029241</v>
       </c>
       <c r="F54" t="n">
-        <v>141.0388769934303</v>
+        <v>135.1964941471358</v>
       </c>
       <c r="G54" t="n">
-        <v>121.8591233472999</v>
+        <v>86.82465434742295</v>
       </c>
       <c r="H54" t="n">
-        <v>122.0133014712263</v>
+        <v>124.4749924617587</v>
       </c>
       <c r="I54" t="n">
-        <v>26.64311610662241</v>
+        <v>60.53268634150449</v>
       </c>
       <c r="J54" t="n">
-        <v>31.57652886637144</v>
+        <v>11.81447861370187</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2347,34 +2347,34 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.543976550345017</v>
+        <v>36.78088302561058</v>
       </c>
       <c r="B55" t="n">
-        <v>101.065141235105</v>
+        <v>35.99394830450964</v>
       </c>
       <c r="C55" t="n">
-        <v>76.63131360021625</v>
+        <v>109.9634346752734</v>
       </c>
       <c r="D55" t="n">
-        <v>110.3566242270912</v>
+        <v>125.9564857977093</v>
       </c>
       <c r="E55" t="n">
-        <v>76.40354174182303</v>
+        <v>77.72742571999208</v>
       </c>
       <c r="F55" t="n">
-        <v>48.42441750492077</v>
+        <v>89.56051659181128</v>
       </c>
       <c r="G55" t="n">
-        <v>120.825343308793</v>
+        <v>76.27411412939689</v>
       </c>
       <c r="H55" t="n">
-        <v>123.3913968755857</v>
+        <v>34.35943619009416</v>
       </c>
       <c r="I55" t="n">
-        <v>7.967856049299586</v>
+        <v>10.33826457372391</v>
       </c>
       <c r="J55" t="n">
-        <v>37.99042879938765</v>
+        <v>15.39378741053439</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -2382,34 +2382,34 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>132.1875593374887</v>
+        <v>28.38669357987182</v>
       </c>
       <c r="B56" t="n">
-        <v>138.3427025427822</v>
+        <v>21.17119495581386</v>
       </c>
       <c r="C56" t="n">
-        <v>145.4082497624532</v>
+        <v>107.5482517205218</v>
       </c>
       <c r="D56" t="n">
-        <v>177.8434738720749</v>
+        <v>126.0651263409473</v>
       </c>
       <c r="E56" t="n">
-        <v>27.80947475467556</v>
+        <v>66.9757666158938</v>
       </c>
       <c r="F56" t="n">
-        <v>37.6371796031705</v>
+        <v>79.28943825802122</v>
       </c>
       <c r="G56" t="n">
-        <v>129.4337522598926</v>
+        <v>58.29962655990315</v>
       </c>
       <c r="H56" t="n">
-        <v>114.6109860827821</v>
+        <v>37.68119713780588</v>
       </c>
       <c r="I56" t="n">
-        <v>27.11244926321888</v>
+        <v>7.202699663341187</v>
       </c>
       <c r="J56" t="n">
-        <v>9.134371362065565</v>
+        <v>22.94001340468594</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -2417,34 +2417,34 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>66.05345072767992</v>
+        <v>93.18592440687803</v>
       </c>
       <c r="B57" t="n">
-        <v>58.01035116701635</v>
+        <v>99.91509388483513</v>
       </c>
       <c r="C57" t="n">
-        <v>147.2739621159057</v>
+        <v>113.7694169349917</v>
       </c>
       <c r="D57" t="n">
-        <v>156.4922364098362</v>
+        <v>56.11830261160132</v>
       </c>
       <c r="E57" t="n">
-        <v>85.47692473819626</v>
+        <v>82.81689162772096</v>
       </c>
       <c r="F57" t="n">
-        <v>104.806218080851</v>
+        <v>60.17698611937945</v>
       </c>
       <c r="G57" t="n">
-        <v>74.17906678967776</v>
+        <v>101.1375671400701</v>
       </c>
       <c r="H57" t="n">
-        <v>48.75129795673403</v>
+        <v>126.4764201844113</v>
       </c>
       <c r="I57" t="n">
-        <v>16.57399063389736</v>
+        <v>10.38494802555265</v>
       </c>
       <c r="J57" t="n">
-        <v>13.50583130154743</v>
+        <v>12.99284771627019</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -2452,34 +2452,34 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>29.7131300053744</v>
+        <v>1.643089237195209</v>
       </c>
       <c r="B58" t="n">
-        <v>1.266512286297811</v>
+        <v>1.878760571918252</v>
       </c>
       <c r="C58" t="n">
-        <v>148.1062289459422</v>
+        <v>78.54755384068369</v>
       </c>
       <c r="D58" t="n">
-        <v>114.9446299255687</v>
+        <v>65.14195189535913</v>
       </c>
       <c r="E58" t="n">
-        <v>112.4467287677236</v>
+        <v>73.44421600326794</v>
       </c>
       <c r="F58" t="n">
-        <v>123.2566525927965</v>
+        <v>63.83337251007039</v>
       </c>
       <c r="G58" t="n">
-        <v>155.4628708733525</v>
+        <v>101.3456242005607</v>
       </c>
       <c r="H58" t="n">
-        <v>140.8868491640567</v>
+        <v>114.5258696105526</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1186610343234426</v>
+        <v>2.693043044072318</v>
       </c>
       <c r="J58" t="n">
-        <v>10.43418052536977</v>
+        <v>14.52158105538532</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -2487,34 +2487,34 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>96.90471840444194</v>
+        <v>7.410742674347556</v>
       </c>
       <c r="B59" t="n">
-        <v>6.500065678581983</v>
+        <v>5.466022402081459</v>
       </c>
       <c r="C59" t="n">
-        <v>28.76042865039023</v>
+        <v>130.326094304603</v>
       </c>
       <c r="D59" t="n">
-        <v>105.8569247928143</v>
+        <v>121.7088667492697</v>
       </c>
       <c r="E59" t="n">
-        <v>72.32294211198302</v>
+        <v>132.3161259918444</v>
       </c>
       <c r="F59" t="n">
-        <v>97.76178284056022</v>
+        <v>124.5690243224093</v>
       </c>
       <c r="G59" t="n">
-        <v>86.20398203891722</v>
+        <v>143.0843552832237</v>
       </c>
       <c r="H59" t="n">
-        <v>64.65363641922156</v>
+        <v>121.326568748249</v>
       </c>
       <c r="I59" t="n">
-        <v>3.559215281956549</v>
+        <v>14.07806508130703</v>
       </c>
       <c r="J59" t="n">
-        <v>34.38877057026701</v>
+        <v>20.78657262423122</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -2522,34 +2522,34 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>114.0771695519321</v>
+        <v>85.69480741135794</v>
       </c>
       <c r="B60" t="n">
-        <v>21.39255316472454</v>
+        <v>100.5656108630185</v>
       </c>
       <c r="C60" t="n">
-        <v>52.25236759690038</v>
+        <v>99.18237370778681</v>
       </c>
       <c r="D60" t="n">
-        <v>118.5416124000276</v>
+        <v>58.19103989694313</v>
       </c>
       <c r="E60" t="n">
-        <v>51.18653436090653</v>
+        <v>67.97376367927846</v>
       </c>
       <c r="F60" t="n">
-        <v>71.22047658507211</v>
+        <v>60.11381413613307</v>
       </c>
       <c r="G60" t="n">
-        <v>82.42346098732516</v>
+        <v>94.48397776321116</v>
       </c>
       <c r="H60" t="n">
-        <v>56.02381771893219</v>
+        <v>78.54963164847226</v>
       </c>
       <c r="I60" t="n">
-        <v>3.537398437607799</v>
+        <v>1.83102127375859</v>
       </c>
       <c r="J60" t="n">
-        <v>64.9899787316771</v>
+        <v>14.57241744161775</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -2557,34 +2557,34 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>21.98579738813302</v>
+        <v>87.40735173963172</v>
       </c>
       <c r="B61" t="n">
-        <v>9.39060269770037</v>
+        <v>90.49263794261279</v>
       </c>
       <c r="C61" t="n">
-        <v>177.75383491964</v>
+        <v>167.8726860824196</v>
       </c>
       <c r="D61" t="n">
-        <v>145.8064621272039</v>
+        <v>145.6991645264577</v>
       </c>
       <c r="E61" t="n">
-        <v>132.7887059425079</v>
+        <v>69.89481522535048</v>
       </c>
       <c r="F61" t="n">
-        <v>139.0625874629723</v>
+        <v>71.66020076743408</v>
       </c>
       <c r="G61" t="n">
-        <v>109.3149841644345</v>
+        <v>48.49481922862583</v>
       </c>
       <c r="H61" t="n">
-        <v>108.0546298675957</v>
+        <v>43.41379975205797</v>
       </c>
       <c r="I61" t="n">
-        <v>34.92077688165938</v>
+        <v>0.674569122533563</v>
       </c>
       <c r="J61" t="n">
-        <v>33.53319881089045</v>
+        <v>5.100853656744762</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -2592,34 +2592,34 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>60.10504033021747</v>
+        <v>133.0564830323384</v>
       </c>
       <c r="B62" t="n">
-        <v>55.41419390996527</v>
+        <v>41.60681076370197</v>
       </c>
       <c r="C62" t="n">
-        <v>150.4859293776765</v>
+        <v>87.12778405120991</v>
       </c>
       <c r="D62" t="n">
-        <v>156.8528520334442</v>
+        <v>4.048088796882212</v>
       </c>
       <c r="E62" t="n">
-        <v>90.26131323725929</v>
+        <v>149.366595736349</v>
       </c>
       <c r="F62" t="n">
-        <v>96.50571220501064</v>
+        <v>140.6787162198271</v>
       </c>
       <c r="G62" t="n">
-        <v>86.9177281269738</v>
+        <v>33.43958090641992</v>
       </c>
       <c r="H62" t="n">
-        <v>48.57086199775497</v>
+        <v>49.92874494256658</v>
       </c>
       <c r="I62" t="n">
-        <v>25.68616621310536</v>
+        <v>169.1081028820659</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5312438046923916</v>
+        <v>101.7857892357854</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -2627,34 +2627,34 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>65.02080061938355</v>
+        <v>124.9922344889587</v>
       </c>
       <c r="B63" t="n">
-        <v>103.5930078407575</v>
+        <v>15.88552446304702</v>
       </c>
       <c r="C63" t="n">
-        <v>114.4274307783458</v>
+        <v>29.69359282458289</v>
       </c>
       <c r="D63" t="n">
-        <v>49.10217616013973</v>
+        <v>132.9815224216977</v>
       </c>
       <c r="E63" t="n">
-        <v>62.47289891861438</v>
+        <v>141.7006578957162</v>
       </c>
       <c r="F63" t="n">
-        <v>57.66114461105219</v>
+        <v>144.1059535402681</v>
       </c>
       <c r="G63" t="n">
-        <v>96.15865484468492</v>
+        <v>110.7487365531357</v>
       </c>
       <c r="H63" t="n">
-        <v>91.48599220559606</v>
+        <v>143.7854372481474</v>
       </c>
       <c r="I63" t="n">
-        <v>21.18667575983273</v>
+        <v>40.62471323677121</v>
       </c>
       <c r="J63" t="n">
-        <v>8.594803459038131</v>
+        <v>7.947004097968679</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -2662,34 +2662,34 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.685952926158803</v>
+        <v>42.99464808942155</v>
       </c>
       <c r="B64" t="n">
-        <v>7.568538548233223</v>
+        <v>90.05851064395036</v>
       </c>
       <c r="C64" t="n">
-        <v>49.69041984564444</v>
+        <v>61.8456930132764</v>
       </c>
       <c r="D64" t="n">
-        <v>87.98533450799579</v>
+        <v>5.809765757055479</v>
       </c>
       <c r="E64" t="n">
-        <v>68.5958788168889</v>
+        <v>81.89821969150108</v>
       </c>
       <c r="F64" t="n">
-        <v>66.46243863739357</v>
+        <v>107.6624349557265</v>
       </c>
       <c r="G64" t="n">
-        <v>49.56245416570013</v>
+        <v>32.02892489207416</v>
       </c>
       <c r="H64" t="n">
-        <v>34.98299100979447</v>
+        <v>46.72932290762842</v>
       </c>
       <c r="I64" t="n">
-        <v>35.11967729062714</v>
+        <v>54.31361251834433</v>
       </c>
       <c r="J64" t="n">
-        <v>24.06086337976765</v>
+        <v>89.30733310601535</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -2697,34 +2697,34 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9.182206946810071</v>
+        <v>13.05945480115046</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01564182451069396</v>
+        <v>22.70658646100435</v>
       </c>
       <c r="C65" t="n">
-        <v>139.5762961696998</v>
+        <v>163.1154886919828</v>
       </c>
       <c r="D65" t="n">
-        <v>139.3060992588816</v>
+        <v>173.2547051486726</v>
       </c>
       <c r="E65" t="n">
-        <v>133.4244201808612</v>
+        <v>132.1491396947659</v>
       </c>
       <c r="F65" t="n">
-        <v>128.9726336184667</v>
+        <v>120.1108526779142</v>
       </c>
       <c r="G65" t="n">
-        <v>109.0736756103127</v>
+        <v>134.5356169533468</v>
       </c>
       <c r="H65" t="n">
-        <v>92.00556907479744</v>
+        <v>98.66964644069476</v>
       </c>
       <c r="I65" t="n">
-        <v>36.91569671369174</v>
+        <v>13.28329680616506</v>
       </c>
       <c r="J65" t="n">
-        <v>47.91713100579106</v>
+        <v>34.16569821280431</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -2732,34 +2732,34 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>82.39344545335</v>
+        <v>0.5907405404270415</v>
       </c>
       <c r="B66" t="n">
-        <v>99.71711774802802</v>
+        <v>16.89308403713107</v>
       </c>
       <c r="C66" t="n">
-        <v>138.8035269984217</v>
+        <v>140.0629554592597</v>
       </c>
       <c r="D66" t="n">
-        <v>134.68421030485</v>
+        <v>151.8653083641737</v>
       </c>
       <c r="E66" t="n">
-        <v>120.6532006041426</v>
+        <v>151.2614320332204</v>
       </c>
       <c r="F66" t="n">
-        <v>56.56672672761015</v>
+        <v>143.4588102421329</v>
       </c>
       <c r="G66" t="n">
-        <v>105.6545188179263</v>
+        <v>82.59771668010544</v>
       </c>
       <c r="H66" t="n">
-        <v>57.8644772819126</v>
+        <v>98.82251641114574</v>
       </c>
       <c r="I66" t="n">
-        <v>6.017319038498704</v>
+        <v>39.26382220566723</v>
       </c>
       <c r="J66" t="n">
-        <v>4.524998534837091</v>
+        <v>32.21440494919398</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -2767,34 +2767,34 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>58.08025446022255</v>
+        <v>61.18174351734901</v>
       </c>
       <c r="B67" t="n">
-        <v>23.2276514439239</v>
+        <v>48.85236607810939</v>
       </c>
       <c r="C67" t="n">
-        <v>157.748787328836</v>
+        <v>158.2600738444456</v>
       </c>
       <c r="D67" t="n">
-        <v>96.93462998271724</v>
+        <v>69.75625452078776</v>
       </c>
       <c r="E67" t="n">
-        <v>70.95087276887654</v>
+        <v>96.47387566822835</v>
       </c>
       <c r="F67" t="n">
-        <v>103.0986653648903</v>
+        <v>117.6475112282508</v>
       </c>
       <c r="G67" t="n">
-        <v>106.3132396075793</v>
+        <v>129.3135751256124</v>
       </c>
       <c r="H67" t="n">
-        <v>93.62249927466382</v>
+        <v>119.2403348367928</v>
       </c>
       <c r="I67" t="n">
-        <v>2.962612717096921</v>
+        <v>9.628502151891299</v>
       </c>
       <c r="J67" t="n">
-        <v>37.42648754953562</v>
+        <v>3.858098011874257</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -2802,34 +2802,34 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.760644590601798</v>
+        <v>98.97299444042126</v>
       </c>
       <c r="B68" t="n">
-        <v>21.33873555157112</v>
+        <v>98.73171308273018</v>
       </c>
       <c r="C68" t="n">
-        <v>151.9551762271762</v>
+        <v>179.3659866069346</v>
       </c>
       <c r="D68" t="n">
-        <v>154.3153715167015</v>
+        <v>174.9251696133854</v>
       </c>
       <c r="E68" t="n">
-        <v>145.290742955501</v>
+        <v>107.337586383908</v>
       </c>
       <c r="F68" t="n">
-        <v>133.793791227646</v>
+        <v>124.7797015087238</v>
       </c>
       <c r="G68" t="n">
-        <v>162.5234556551064</v>
+        <v>28.16584884103757</v>
       </c>
       <c r="H68" t="n">
-        <v>125.8044820576986</v>
+        <v>149.0337912548914</v>
       </c>
       <c r="I68" t="n">
-        <v>1.363456940462685</v>
+        <v>179.051754043251</v>
       </c>
       <c r="J68" t="n">
-        <v>21.1710465908137</v>
+        <v>16.80413223627616</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -2837,34 +2837,34 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.632902362981199</v>
+        <v>78.28635000422442</v>
       </c>
       <c r="B69" t="n">
-        <v>11.04879674845406</v>
+        <v>99.9508803974453</v>
       </c>
       <c r="C69" t="n">
-        <v>147.2967229958745</v>
+        <v>139.0568771830549</v>
       </c>
       <c r="D69" t="n">
-        <v>131.7587806254207</v>
+        <v>133.2758517653184</v>
       </c>
       <c r="E69" t="n">
-        <v>131.9668130053618</v>
+        <v>134.3205925634963</v>
       </c>
       <c r="F69" t="n">
-        <v>113.564645366894</v>
+        <v>56.96309930033754</v>
       </c>
       <c r="G69" t="n">
-        <v>101.6655879769149</v>
+        <v>130.7688060803951</v>
       </c>
       <c r="H69" t="n">
-        <v>92.02289740590092</v>
+        <v>52.68353103557348</v>
       </c>
       <c r="I69" t="n">
-        <v>40.21008855444487</v>
+        <v>20.60210660773165</v>
       </c>
       <c r="J69" t="n">
-        <v>30.44937057691201</v>
+        <v>3.171950518949449</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -2872,34 +2872,34 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>56.35105162097484</v>
+        <v>12.64068347822181</v>
       </c>
       <c r="B70" t="n">
-        <v>48.27856450291084</v>
+        <v>8.90371970484987</v>
       </c>
       <c r="C70" t="n">
-        <v>152.0307434099852</v>
+        <v>158.5573879923864</v>
       </c>
       <c r="D70" t="n">
-        <v>156.3209619083278</v>
+        <v>137.2522824440801</v>
       </c>
       <c r="E70" t="n">
-        <v>98.19768636772278</v>
+        <v>138.6819727576092</v>
       </c>
       <c r="F70" t="n">
-        <v>108.1468375355965</v>
+        <v>133.1701250318118</v>
       </c>
       <c r="G70" t="n">
-        <v>76.43876034354882</v>
+        <v>105.8057055719227</v>
       </c>
       <c r="H70" t="n">
-        <v>62.24334208223865</v>
+        <v>121.6209658894945</v>
       </c>
       <c r="I70" t="n">
-        <v>17.0190550339685</v>
+        <v>32.06522537262795</v>
       </c>
       <c r="J70" t="n">
-        <v>7.173380409850774</v>
+        <v>11.52074731132137</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -2907,34 +2907,34 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.053711054340976</v>
+        <v>11.02697366992082</v>
       </c>
       <c r="B71" t="n">
-        <v>13.28721986449396</v>
+        <v>14.00525331243934</v>
       </c>
       <c r="C71" t="n">
-        <v>136.1697040396745</v>
+        <v>47.41215016690143</v>
       </c>
       <c r="D71" t="n">
-        <v>59.47644659535193</v>
+        <v>85.73890973153624</v>
       </c>
       <c r="E71" t="n">
-        <v>126.9790030056733</v>
+        <v>65.56027344437621</v>
       </c>
       <c r="F71" t="n">
-        <v>148.2948174759084</v>
+        <v>73.72259829886093</v>
       </c>
       <c r="G71" t="n">
-        <v>153.8582097126844</v>
+        <v>43.34910420155071</v>
       </c>
       <c r="H71" t="n">
-        <v>136.2786981201147</v>
+        <v>52.14106830238374</v>
       </c>
       <c r="I71" t="n">
-        <v>13.5035724844238</v>
+        <v>52.99780863738881</v>
       </c>
       <c r="J71" t="n">
-        <v>14.47757148205693</v>
+        <v>40.33340792472673</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -2942,34 +2942,34 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>82.87220754216621</v>
+        <v>93.08103340327851</v>
       </c>
       <c r="B72" t="n">
-        <v>73.37427174634142</v>
+        <v>99.26231606739405</v>
       </c>
       <c r="C72" t="n">
-        <v>141.6120247399648</v>
+        <v>78.96241159080671</v>
       </c>
       <c r="D72" t="n">
-        <v>137.6460913374203</v>
+        <v>43.53175901830534</v>
       </c>
       <c r="E72" t="n">
-        <v>62.0870984517049</v>
+        <v>72.9660708570831</v>
       </c>
       <c r="F72" t="n">
-        <v>74.30859770368808</v>
+        <v>64.2549668984452</v>
       </c>
       <c r="G72" t="n">
-        <v>39.84539619957951</v>
+        <v>83.62438997867008</v>
       </c>
       <c r="H72" t="n">
-        <v>44.81244305233452</v>
+        <v>83.8151137358916</v>
       </c>
       <c r="I72" t="n">
-        <v>8.661050589453522</v>
+        <v>12.74093288227001</v>
       </c>
       <c r="J72" t="n">
-        <v>2.5726495781601</v>
+        <v>18.8041595861243</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -2977,34 +2977,34 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>13.76741713143909</v>
+        <v>64.08765015137104</v>
       </c>
       <c r="B73" t="n">
-        <v>25.12033739169543</v>
+        <v>19.69825836413219</v>
       </c>
       <c r="C73" t="n">
-        <v>142.9642176955973</v>
+        <v>69.93210913483863</v>
       </c>
       <c r="D73" t="n">
-        <v>131.5258443298316</v>
+        <v>130.9277451892243</v>
       </c>
       <c r="E73" t="n">
-        <v>121.0292699031668</v>
+        <v>85.75060192687731</v>
       </c>
       <c r="F73" t="n">
-        <v>96.12161320427212</v>
+        <v>98.05044516751724</v>
       </c>
       <c r="G73" t="n">
-        <v>97.813717469783</v>
+        <v>96.22248971324544</v>
       </c>
       <c r="H73" t="n">
-        <v>79.0253155145739</v>
+        <v>106.0185802195739</v>
       </c>
       <c r="I73" t="n">
-        <v>18.58901377820731</v>
+        <v>9.750097136079363</v>
       </c>
       <c r="J73" t="n">
-        <v>23.11351454260679</v>
+        <v>18.93106739250309</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -3012,34 +3012,34 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16.87322573372333</v>
+        <v>11.77441402382343</v>
       </c>
       <c r="B74" t="n">
-        <v>17.60342435001107</v>
+        <v>5.369314631928852</v>
       </c>
       <c r="C74" t="n">
-        <v>154.9276340633445</v>
+        <v>138.4696475703674</v>
       </c>
       <c r="D74" t="n">
-        <v>44.09569500582444</v>
+        <v>133.7377792191341</v>
       </c>
       <c r="E74" t="n">
-        <v>132.8638944742594</v>
+        <v>135.4114322106481</v>
       </c>
       <c r="F74" t="n">
-        <v>125.7165069445491</v>
+        <v>118.6792025399139</v>
       </c>
       <c r="G74" t="n">
-        <v>108.1747105220564</v>
+        <v>124.3814592097038</v>
       </c>
       <c r="H74" t="n">
-        <v>151.6001034357771</v>
+        <v>94.92509899278024</v>
       </c>
       <c r="I74" t="n">
-        <v>39.31014055775009</v>
+        <v>32.58295656285996</v>
       </c>
       <c r="J74" t="n">
-        <v>8.26383551910644</v>
+        <v>37.35958878836905</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3047,34 +3047,34 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>86.01984561695467</v>
+        <v>141.3396914480124</v>
       </c>
       <c r="B75" t="n">
-        <v>73.88809738282208</v>
+        <v>58.75339729343773</v>
       </c>
       <c r="C75" t="n">
-        <v>143.25464567816</v>
+        <v>78.55024056829271</v>
       </c>
       <c r="D75" t="n">
-        <v>133.6247885270338</v>
+        <v>0.05243411986003492</v>
       </c>
       <c r="E75" t="n">
-        <v>61.30581974805433</v>
+        <v>155.6017366067649</v>
       </c>
       <c r="F75" t="n">
-        <v>67.40597547918253</v>
+        <v>146.0502098778508</v>
       </c>
       <c r="G75" t="n">
-        <v>41.34727997741953</v>
+        <v>145.289945085635</v>
       </c>
       <c r="H75" t="n">
-        <v>46.70047793820936</v>
+        <v>134.8770353187733</v>
       </c>
       <c r="I75" t="n">
-        <v>7.444712841488456</v>
+        <v>8.382315312109231</v>
       </c>
       <c r="J75" t="n">
-        <v>4.138056523393199</v>
+        <v>28.98850937292102</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3082,34 +3082,34 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>141.3396914480124</v>
+        <v>63.8751840033686</v>
       </c>
       <c r="B76" t="n">
-        <v>58.75339729343773</v>
+        <v>2.71995625679366</v>
       </c>
       <c r="C76" t="n">
-        <v>78.55024056829271</v>
+        <v>106.5729305022112</v>
       </c>
       <c r="D76" t="n">
-        <v>0.05243411986003492</v>
+        <v>118.6481596151035</v>
       </c>
       <c r="E76" t="n">
-        <v>155.6017366067649</v>
+        <v>82.54733141022712</v>
       </c>
       <c r="F76" t="n">
-        <v>146.0502098778508</v>
+        <v>95.54264152321866</v>
       </c>
       <c r="G76" t="n">
-        <v>145.289945085635</v>
+        <v>54.00936109520189</v>
       </c>
       <c r="H76" t="n">
-        <v>134.8770353187733</v>
+        <v>45.64597585004401</v>
       </c>
       <c r="I76" t="n">
-        <v>8.382315312109231</v>
+        <v>33.35894685197712</v>
       </c>
       <c r="J76" t="n">
-        <v>28.98850937292102</v>
+        <v>55.73975171595519</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3117,34 +3117,34 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>14.03441239395614</v>
+        <v>24.63105086594274</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4169897373264613</v>
+        <v>74.25081526714303</v>
       </c>
       <c r="C77" t="n">
-        <v>129.912706023381</v>
+        <v>129.2842799151254</v>
       </c>
       <c r="D77" t="n">
-        <v>133.4949188331069</v>
+        <v>73.68499695901994</v>
       </c>
       <c r="E77" t="n">
-        <v>144.9219446092197</v>
+        <v>144.5947066404812</v>
       </c>
       <c r="F77" t="n">
-        <v>132.3216484428429</v>
+        <v>145.0573215687554</v>
       </c>
       <c r="G77" t="n">
-        <v>149.5774476765899</v>
+        <v>130.2750852908992</v>
       </c>
       <c r="H77" t="n">
-        <v>126.9768740729997</v>
+        <v>133.724279417015</v>
       </c>
       <c r="I77" t="n">
-        <v>12.32489568240151</v>
+        <v>29.74183406245391</v>
       </c>
       <c r="J77" t="n">
-        <v>24.1075926043474</v>
+        <v>29.63425543245625</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -3152,34 +3152,34 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77.5529690115312</v>
+        <v>60.84107331770112</v>
       </c>
       <c r="B78" t="n">
-        <v>77.11070255032094</v>
+        <v>65.82500785262073</v>
       </c>
       <c r="C78" t="n">
-        <v>135.876534402283</v>
+        <v>36.41430103347628</v>
       </c>
       <c r="D78" t="n">
-        <v>150.5161339085454</v>
+        <v>156.5475159334807</v>
       </c>
       <c r="E78" t="n">
-        <v>61.45652692199343</v>
+        <v>149.6488392148738</v>
       </c>
       <c r="F78" t="n">
-        <v>78.52521559360537</v>
+        <v>78.18293893752394</v>
       </c>
       <c r="G78" t="n">
-        <v>60.20056061639019</v>
+        <v>177.3833337744687</v>
       </c>
       <c r="H78" t="n">
-        <v>63.07278141146636</v>
+        <v>93.51324873957384</v>
       </c>
       <c r="I78" t="n">
-        <v>9.74742783923371</v>
+        <v>0.5201664379742247</v>
       </c>
       <c r="J78" t="n">
-        <v>6.065656071689119</v>
+        <v>57.72541978456507</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -3187,34 +3187,34 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>13.05945480115046</v>
+        <v>26.76706950973614</v>
       </c>
       <c r="B79" t="n">
-        <v>22.70658646100435</v>
+        <v>31.16792635079901</v>
       </c>
       <c r="C79" t="n">
-        <v>163.1154886919828</v>
+        <v>123.899790342363</v>
       </c>
       <c r="D79" t="n">
-        <v>173.2547051486726</v>
+        <v>104.8840977719747</v>
       </c>
       <c r="E79" t="n">
-        <v>132.1491396947659</v>
+        <v>111.7550991223786</v>
       </c>
       <c r="F79" t="n">
-        <v>120.1108526779142</v>
+        <v>112.5610723254618</v>
       </c>
       <c r="G79" t="n">
-        <v>134.5356169533468</v>
+        <v>134.644419911599</v>
       </c>
       <c r="H79" t="n">
-        <v>98.66964644069476</v>
+        <v>137.6221139968631</v>
       </c>
       <c r="I79" t="n">
-        <v>13.28329680616506</v>
+        <v>10.39422680396113</v>
       </c>
       <c r="J79" t="n">
-        <v>34.16569821280431</v>
+        <v>7.405821583205857</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -3222,34 +3222,34 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>30.31825307426427</v>
+        <v>77.5529690115312</v>
       </c>
       <c r="B80" t="n">
-        <v>3.64074011054448</v>
+        <v>77.11070255032094</v>
       </c>
       <c r="C80" t="n">
-        <v>147.3240055281449</v>
+        <v>135.876534402283</v>
       </c>
       <c r="D80" t="n">
-        <v>141.8938057368636</v>
+        <v>150.5161339085454</v>
       </c>
       <c r="E80" t="n">
-        <v>148.9083971436519</v>
+        <v>61.45652692199343</v>
       </c>
       <c r="F80" t="n">
-        <v>119.7327484659903</v>
+        <v>78.52521559360537</v>
       </c>
       <c r="G80" t="n">
-        <v>100.1365728124475</v>
+        <v>60.20056061639019</v>
       </c>
       <c r="H80" t="n">
-        <v>57.84522748384256</v>
+        <v>63.07278141146636</v>
       </c>
       <c r="I80" t="n">
-        <v>11.29743155966445</v>
+        <v>9.74742783923371</v>
       </c>
       <c r="J80" t="n">
-        <v>45.24902836141138</v>
+        <v>6.065656071689119</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -3257,34 +3257,34 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>37.39887198287809</v>
+        <v>1.39513386733987</v>
       </c>
       <c r="B81" t="n">
-        <v>16.20824490427692</v>
+        <v>58.39572963986785</v>
       </c>
       <c r="C81" t="n">
-        <v>178.7908635775437</v>
+        <v>163.6233900254865</v>
       </c>
       <c r="D81" t="n">
-        <v>158.91255322893</v>
+        <v>90.46128977693064</v>
       </c>
       <c r="E81" t="n">
-        <v>109.9313534439224</v>
+        <v>139.7387640245124</v>
       </c>
       <c r="F81" t="n">
-        <v>115.2571237549632</v>
+        <v>145.9573094170044</v>
       </c>
       <c r="G81" t="n">
-        <v>43.38119959793323</v>
+        <v>158.6787089144793</v>
       </c>
       <c r="H81" t="n">
-        <v>42.45159344720992</v>
+        <v>136.5532406112511</v>
       </c>
       <c r="I81" t="n">
-        <v>68.84794554013239</v>
+        <v>8.926763998331005</v>
       </c>
       <c r="J81" t="n">
-        <v>149.5683040688715</v>
+        <v>25.04969997405375</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -3292,34 +3292,34 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>14.38020752228619</v>
+        <v>78.83047595497223</v>
       </c>
       <c r="B82" t="n">
-        <v>12.36275114450205</v>
+        <v>76.06592437815519</v>
       </c>
       <c r="C82" t="n">
-        <v>116.6086224775781</v>
+        <v>170.1860373473545</v>
       </c>
       <c r="D82" t="n">
-        <v>102.3927649291238</v>
+        <v>157.394686461189</v>
       </c>
       <c r="E82" t="n">
-        <v>117.7794552146432</v>
+        <v>62.81289660466908</v>
       </c>
       <c r="F82" t="n">
-        <v>116.4782870936827</v>
+        <v>72.57299397701289</v>
       </c>
       <c r="G82" t="n">
-        <v>109.8916653089134</v>
+        <v>115.280871851132</v>
       </c>
       <c r="H82" t="n">
-        <v>90.7754581106972</v>
+        <v>122.7426227279558</v>
       </c>
       <c r="I82" t="n">
-        <v>37.62286221987427</v>
+        <v>9.694701282092245</v>
       </c>
       <c r="J82" t="n">
-        <v>50.79190971897847</v>
+        <v>46.45996503501944</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
@@ -3327,34 +3327,34 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>46.96325126124029</v>
+        <v>37.39887198287809</v>
       </c>
       <c r="B83" t="n">
-        <v>57.25124573742563</v>
+        <v>16.20824490427692</v>
       </c>
       <c r="C83" t="n">
-        <v>150.192734176023</v>
+        <v>178.7908635775437</v>
       </c>
       <c r="D83" t="n">
-        <v>69.74492342667382</v>
+        <v>158.91255322893</v>
       </c>
       <c r="E83" t="n">
-        <v>113.540548676384</v>
+        <v>109.9313534439224</v>
       </c>
       <c r="F83" t="n">
-        <v>108.6758017788448</v>
+        <v>115.2571237549632</v>
       </c>
       <c r="G83" t="n">
-        <v>112.7635800147958</v>
+        <v>43.38119959793323</v>
       </c>
       <c r="H83" t="n">
-        <v>103.1374432340987</v>
+        <v>42.45159344720992</v>
       </c>
       <c r="I83" t="n">
-        <v>10.71114283318964</v>
+        <v>68.84794554013239</v>
       </c>
       <c r="J83" t="n">
-        <v>18.22958852053006</v>
+        <v>149.5683040688715</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -3362,34 +3362,34 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.036554995325783</v>
+        <v>114.0771695519321</v>
       </c>
       <c r="B84" t="n">
-        <v>26.27566552208435</v>
+        <v>21.39255316472454</v>
       </c>
       <c r="C84" t="n">
-        <v>104.1470880198785</v>
+        <v>52.25236759690038</v>
       </c>
       <c r="D84" t="n">
-        <v>111.903498482337</v>
+        <v>118.5416124000276</v>
       </c>
       <c r="E84" t="n">
-        <v>99.65471006331796</v>
+        <v>51.18653436090653</v>
       </c>
       <c r="F84" t="n">
-        <v>92.05219937572603</v>
+        <v>71.22047658507211</v>
       </c>
       <c r="G84" t="n">
-        <v>72.48434237249793</v>
+        <v>82.42346098732516</v>
       </c>
       <c r="H84" t="n">
-        <v>75.11359581828944</v>
+        <v>56.02381771893219</v>
       </c>
       <c r="I84" t="n">
-        <v>54.32006359105447</v>
+        <v>3.537398437607799</v>
       </c>
       <c r="J84" t="n">
-        <v>25.01433833328919</v>
+        <v>64.9899787316771</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -3397,34 +3397,34 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>85.69480741135794</v>
+        <v>11.4544839884535</v>
       </c>
       <c r="B85" t="n">
-        <v>100.5656108630185</v>
+        <v>23.00141209302758</v>
       </c>
       <c r="C85" t="n">
-        <v>99.18237370778681</v>
+        <v>87.33347996230481</v>
       </c>
       <c r="D85" t="n">
-        <v>58.19103989694313</v>
+        <v>98.79791620211449</v>
       </c>
       <c r="E85" t="n">
-        <v>67.97376367927846</v>
+        <v>68.49223854185192</v>
       </c>
       <c r="F85" t="n">
-        <v>60.11381413613307</v>
+        <v>71.34431735751986</v>
       </c>
       <c r="G85" t="n">
-        <v>94.48397776321116</v>
+        <v>57.70796824771721</v>
       </c>
       <c r="H85" t="n">
-        <v>78.54963164847226</v>
+        <v>33.45421116407653</v>
       </c>
       <c r="I85" t="n">
-        <v>1.83102127375859</v>
+        <v>11.53378436261132</v>
       </c>
       <c r="J85" t="n">
-        <v>14.57241744161775</v>
+        <v>7.086429987555479</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -3432,34 +3432,34 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>26.76706950973614</v>
+        <v>30.36695924805118</v>
       </c>
       <c r="B86" t="n">
-        <v>31.16792635079901</v>
+        <v>48.0209867999823</v>
       </c>
       <c r="C86" t="n">
-        <v>123.899790342363</v>
+        <v>59.62780274924056</v>
       </c>
       <c r="D86" t="n">
-        <v>104.8840977719747</v>
+        <v>55.79657124341415</v>
       </c>
       <c r="E86" t="n">
-        <v>111.7550991223786</v>
+        <v>61.26931432312339</v>
       </c>
       <c r="F86" t="n">
-        <v>112.5610723254618</v>
+        <v>67.40365066859326</v>
       </c>
       <c r="G86" t="n">
-        <v>134.644419911599</v>
+        <v>50.20267841712547</v>
       </c>
       <c r="H86" t="n">
-        <v>137.6221139968631</v>
+        <v>54.73004735901071</v>
       </c>
       <c r="I86" t="n">
-        <v>10.39422680396113</v>
+        <v>86.59958578976105</v>
       </c>
       <c r="J86" t="n">
-        <v>7.405821583205857</v>
+        <v>92.23514882807127</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -3467,34 +3467,34 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>15.93982891640577</v>
+        <v>47.60211420608911</v>
       </c>
       <c r="B87" t="n">
-        <v>14.34178752374666</v>
+        <v>28.1926521401683</v>
       </c>
       <c r="C87" t="n">
-        <v>97.90447081000541</v>
+        <v>142.2739268002511</v>
       </c>
       <c r="D87" t="n">
-        <v>163.73014115866</v>
+        <v>147.3214852326001</v>
       </c>
       <c r="E87" t="n">
-        <v>136.6051446446662</v>
+        <v>101.8784605730012</v>
       </c>
       <c r="F87" t="n">
-        <v>130.4258154356898</v>
+        <v>110.4601122548085</v>
       </c>
       <c r="G87" t="n">
-        <v>39.36081470692969</v>
+        <v>58.48480083391396</v>
       </c>
       <c r="H87" t="n">
-        <v>55.71103678925878</v>
+        <v>46.48023273855847</v>
       </c>
       <c r="I87" t="n">
-        <v>96.27199979273064</v>
+        <v>9.952941193657656</v>
       </c>
       <c r="J87" t="n">
-        <v>75.85111704426477</v>
+        <v>32.82095180038138</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -3502,34 +3502,34 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>37.90455843812517</v>
+        <v>51.44078290413393</v>
       </c>
       <c r="B88" t="n">
-        <v>43.43671744335751</v>
+        <v>86.96414409722868</v>
       </c>
       <c r="C88" t="n">
-        <v>166.4876756374183</v>
+        <v>143.1539647271825</v>
       </c>
       <c r="D88" t="n">
-        <v>168.9591678882449</v>
+        <v>129.3516493137589</v>
       </c>
       <c r="E88" t="n">
-        <v>113.160475561982</v>
+        <v>102.6169788998307</v>
       </c>
       <c r="F88" t="n">
-        <v>111.9456477078675</v>
+        <v>65.32757762685583</v>
       </c>
       <c r="G88" t="n">
-        <v>133.7248272609194</v>
+        <v>72.47692201561989</v>
       </c>
       <c r="H88" t="n">
-        <v>126.487988274004</v>
+        <v>67.17274463428075</v>
       </c>
       <c r="I88" t="n">
-        <v>19.78992529292943</v>
+        <v>1.37675926823676</v>
       </c>
       <c r="J88" t="n">
-        <v>20.43685140188206</v>
+        <v>7.198011696428205</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -3537,34 +3537,34 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>64.66375018410902</v>
+        <v>22.28731546614554</v>
       </c>
       <c r="B89" t="n">
-        <v>43.35656106521916</v>
+        <v>61.89661064396584</v>
       </c>
       <c r="C89" t="n">
-        <v>146.6347799388823</v>
+        <v>147.4239427076091</v>
       </c>
       <c r="D89" t="n">
-        <v>139.1614914801675</v>
+        <v>137.8566550522357</v>
       </c>
       <c r="E89" t="n">
-        <v>89.08000165903007</v>
+        <v>113.8313597680202</v>
       </c>
       <c r="F89" t="n">
-        <v>107.4242393937211</v>
+        <v>89.66764381012256</v>
       </c>
       <c r="G89" t="n">
-        <v>80.77162382784351</v>
+        <v>102.1053574101707</v>
       </c>
       <c r="H89" t="n">
-        <v>48.79646801865245</v>
+        <v>52.96391493465222</v>
       </c>
       <c r="I89" t="n">
-        <v>17.86002394693416</v>
+        <v>13.33128594759561</v>
       </c>
       <c r="J89" t="n">
-        <v>34.33636995954875</v>
+        <v>3.118809480393118</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -3572,34 +3572,34 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>87.40735173963172</v>
+        <v>67.07906394894795</v>
       </c>
       <c r="B90" t="n">
-        <v>90.49263794261279</v>
+        <v>43.00695513592256</v>
       </c>
       <c r="C90" t="n">
-        <v>167.8726860824196</v>
+        <v>152.4104635651269</v>
       </c>
       <c r="D90" t="n">
-        <v>145.6991645264577</v>
+        <v>147.0031207311716</v>
       </c>
       <c r="E90" t="n">
-        <v>69.89481522535048</v>
+        <v>89.00836856156792</v>
       </c>
       <c r="F90" t="n">
-        <v>71.66020076743408</v>
+        <v>105.1519434075821</v>
       </c>
       <c r="G90" t="n">
-        <v>48.49481922862583</v>
+        <v>75.75222666726907</v>
       </c>
       <c r="H90" t="n">
-        <v>43.41379975205797</v>
+        <v>65.39296762932823</v>
       </c>
       <c r="I90" t="n">
-        <v>0.674569122533563</v>
+        <v>18.10186501530609</v>
       </c>
       <c r="J90" t="n">
-        <v>5.100853656744762</v>
+        <v>20.03229224620195</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -3607,34 +3607,34 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>61.18174351734901</v>
+        <v>99.04958813691513</v>
       </c>
       <c r="B91" t="n">
-        <v>48.85236607810939</v>
+        <v>27.65721096275265</v>
       </c>
       <c r="C91" t="n">
-        <v>158.2600738444456</v>
+        <v>162.4464302247631</v>
       </c>
       <c r="D91" t="n">
-        <v>69.75625452078776</v>
+        <v>130.832323067349</v>
       </c>
       <c r="E91" t="n">
-        <v>96.47387566822835</v>
+        <v>73.20910311902236</v>
       </c>
       <c r="F91" t="n">
-        <v>117.6475112282508</v>
+        <v>118.2933145228737</v>
       </c>
       <c r="G91" t="n">
-        <v>129.3135751256124</v>
+        <v>93.23731612766731</v>
       </c>
       <c r="H91" t="n">
-        <v>119.2403348367928</v>
+        <v>82.55365150110785</v>
       </c>
       <c r="I91" t="n">
-        <v>9.628502151891299</v>
+        <v>44.39739414308121</v>
       </c>
       <c r="J91" t="n">
-        <v>3.858098011874257</v>
+        <v>62.00268244960354</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -3642,34 +3642,34 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>30.36695924805118</v>
+        <v>13.76741713143909</v>
       </c>
       <c r="B92" t="n">
-        <v>48.0209867999823</v>
+        <v>25.12033739169543</v>
       </c>
       <c r="C92" t="n">
-        <v>59.62780274924056</v>
+        <v>142.9642176955973</v>
       </c>
       <c r="D92" t="n">
-        <v>55.79657124341415</v>
+        <v>131.5258443298316</v>
       </c>
       <c r="E92" t="n">
-        <v>61.26931432312339</v>
+        <v>121.0292699031668</v>
       </c>
       <c r="F92" t="n">
-        <v>67.40365066859326</v>
+        <v>96.12161320427212</v>
       </c>
       <c r="G92" t="n">
-        <v>50.20267841712547</v>
+        <v>97.813717469783</v>
       </c>
       <c r="H92" t="n">
-        <v>54.73004735901071</v>
+        <v>79.0253155145739</v>
       </c>
       <c r="I92" t="n">
-        <v>86.59958578976105</v>
+        <v>18.58901377820731</v>
       </c>
       <c r="J92" t="n">
-        <v>92.23514882807127</v>
+        <v>23.11351454260679</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -3677,34 +3677,34 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>19.136455814097</v>
+        <v>2.790888577078255</v>
       </c>
       <c r="B93" t="n">
-        <v>10.25038895714213</v>
+        <v>8.863168237016415</v>
       </c>
       <c r="C93" t="n">
-        <v>114.5227230799634</v>
+        <v>131.5625910559738</v>
       </c>
       <c r="D93" t="n">
-        <v>60.63749358459609</v>
+        <v>119.8993658784903</v>
       </c>
       <c r="E93" t="n">
-        <v>115.2960417718706</v>
+        <v>114.6391633017131</v>
       </c>
       <c r="F93" t="n">
-        <v>136.9367695001443</v>
+        <v>105.7051052013588</v>
       </c>
       <c r="G93" t="n">
-        <v>135.7324459520581</v>
+        <v>92.17495687180536</v>
       </c>
       <c r="H93" t="n">
-        <v>145.5934592648373</v>
+        <v>81.8498340094439</v>
       </c>
       <c r="I93" t="n">
-        <v>19.27711288284</v>
+        <v>45.87198027899841</v>
       </c>
       <c r="J93" t="n">
-        <v>3.589335403774951</v>
+        <v>51.24548111843654</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -3712,34 +3712,34 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>15.22891078933622</v>
+        <v>29.96404457337212</v>
       </c>
       <c r="B94" t="n">
-        <v>9.90261835371496</v>
+        <v>34.41502178141125</v>
       </c>
       <c r="C94" t="n">
-        <v>61.74167243278087</v>
+        <v>111.5773803345419</v>
       </c>
       <c r="D94" t="n">
-        <v>87.52260830053041</v>
+        <v>121.18810984487</v>
       </c>
       <c r="E94" t="n">
-        <v>62.04606548905656</v>
+        <v>85.51115291957262</v>
       </c>
       <c r="F94" t="n">
-        <v>69.47501374206684</v>
+        <v>85.39215507266221</v>
       </c>
       <c r="G94" t="n">
-        <v>82.45157754571117</v>
+        <v>77.48409058221979</v>
       </c>
       <c r="H94" t="n">
-        <v>31.25419031417679</v>
+        <v>45.87521812244956</v>
       </c>
       <c r="I94" t="n">
-        <v>8.083869132134859</v>
+        <v>3.515637371491812</v>
       </c>
       <c r="J94" t="n">
-        <v>30.49725875637565</v>
+        <v>16.39707077406029</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -3747,34 +3747,34 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>10.29363551953212</v>
+        <v>7.577049822765646</v>
       </c>
       <c r="B95" t="n">
-        <v>17.76315536615592</v>
+        <v>4.094122741931357</v>
       </c>
       <c r="C95" t="n">
-        <v>96.24105131743674</v>
+        <v>101.7233701477525</v>
       </c>
       <c r="D95" t="n">
-        <v>66.80039604752763</v>
+        <v>107.584817959557</v>
       </c>
       <c r="E95" t="n">
-        <v>95.90501763870691</v>
+        <v>119.696269414428</v>
       </c>
       <c r="F95" t="n">
-        <v>92.61937196927751</v>
+        <v>121.9006233644647</v>
       </c>
       <c r="G95" t="n">
-        <v>55.8066224485064</v>
+        <v>101.4862237871273</v>
       </c>
       <c r="H95" t="n">
-        <v>40.38685368730842</v>
+        <v>86.57754416475461</v>
       </c>
       <c r="I95" t="n">
-        <v>43.97373169178957</v>
+        <v>40.94567251897882</v>
       </c>
       <c r="J95" t="n">
-        <v>37.15126558997921</v>
+        <v>50.70143574768036</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -3782,34 +3782,34 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>42.46529029607966</v>
+        <v>14.03441239395614</v>
       </c>
       <c r="B96" t="n">
-        <v>26.67335665818118</v>
+        <v>0.4169897373264613</v>
       </c>
       <c r="C96" t="n">
-        <v>143.1556050222744</v>
+        <v>129.912706023381</v>
       </c>
       <c r="D96" t="n">
-        <v>145.8283336991293</v>
+        <v>133.4949188331069</v>
       </c>
       <c r="E96" t="n">
-        <v>104.4109170679186</v>
+        <v>144.9219446092197</v>
       </c>
       <c r="F96" t="n">
-        <v>112.9954492457939</v>
+        <v>132.3216484428429</v>
       </c>
       <c r="G96" t="n">
-        <v>50.74113283707583</v>
+        <v>149.5774476765899</v>
       </c>
       <c r="H96" t="n">
-        <v>55.81933089495161</v>
+        <v>126.9768740729997</v>
       </c>
       <c r="I96" t="n">
-        <v>12.66512372500709</v>
+        <v>12.32489568240151</v>
       </c>
       <c r="J96" t="n">
-        <v>13.94845051073627</v>
+        <v>24.1075926043474</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -3817,34 +3817,34 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.570924397883497</v>
+        <v>8.783991071875212</v>
       </c>
       <c r="B97" t="n">
-        <v>8.145652805565341</v>
+        <v>19.42136232075514</v>
       </c>
       <c r="C97" t="n">
-        <v>138.1901751211839</v>
+        <v>140.0895119049741</v>
       </c>
       <c r="D97" t="n">
-        <v>114.7060315838353</v>
+        <v>126.7306230843444</v>
       </c>
       <c r="E97" t="n">
-        <v>140.2795004951924</v>
+        <v>142.5164310243894</v>
       </c>
       <c r="F97" t="n">
-        <v>135.6575856756256</v>
+        <v>112.7664827259011</v>
       </c>
       <c r="G97" t="n">
-        <v>85.86416462615563</v>
+        <v>102.3480106059574</v>
       </c>
       <c r="H97" t="n">
-        <v>53.34293850373837</v>
+        <v>56.26802073431213</v>
       </c>
       <c r="I97" t="n">
-        <v>57.55380912673274</v>
+        <v>5.793514576731391</v>
       </c>
       <c r="J97" t="n">
-        <v>76.20257770438496</v>
+        <v>5.746592800917283</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -3852,314 +3852,314 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>57.08618082505868</v>
+        <v>57.47897200195615</v>
       </c>
       <c r="B98" t="n">
-        <v>29.39066324177718</v>
+        <v>54.3263787601295</v>
       </c>
       <c r="C98" t="n">
-        <v>135.2955104122083</v>
+        <v>153.8746342475876</v>
       </c>
       <c r="D98" t="n">
-        <v>128.93930377836</v>
+        <v>157.9586482206335</v>
       </c>
       <c r="E98" t="n">
-        <v>90.36520168378377</v>
+        <v>98.38481384486687</v>
       </c>
       <c r="F98" t="n">
-        <v>103.4046435468976</v>
+        <v>107.6340017734284</v>
       </c>
       <c r="G98" t="n">
-        <v>52.60543717666299</v>
+        <v>75.28399631553924</v>
       </c>
       <c r="H98" t="n">
-        <v>53.12500667732392</v>
+        <v>76.36027700470696</v>
       </c>
       <c r="I98" t="n">
-        <v>12.58133690742367</v>
+        <v>17.13468079213045</v>
       </c>
       <c r="J98" t="n">
-        <v>23.19315210448237</v>
+        <v>10.99042508221886</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>21.2657312172884</v>
+        <v>8.916729288168479</v>
       </c>
       <c r="B99" t="n">
-        <v>37.68406394182237</v>
+        <v>33.34360810098208</v>
       </c>
       <c r="C99" t="n">
-        <v>147.5617522505353</v>
+        <v>67.2831536583035</v>
       </c>
       <c r="D99" t="n">
-        <v>136.7137847236134</v>
+        <v>47.56982611837722</v>
       </c>
       <c r="E99" t="n">
-        <v>118.2190884484207</v>
+        <v>46.37931941359707</v>
       </c>
       <c r="F99" t="n">
-        <v>103.3217080335342</v>
+        <v>50.06932729174542</v>
       </c>
       <c r="G99" t="n">
-        <v>118.7585241069307</v>
+        <v>75.4769004863951</v>
       </c>
       <c r="H99" t="n">
-        <v>96.08386268728773</v>
+        <v>88.82980460663657</v>
       </c>
       <c r="I99" t="n">
-        <v>11.70068665618599</v>
+        <v>54.68466037227028</v>
       </c>
       <c r="J99" t="n">
-        <v>4.746675791160628</v>
+        <v>65.73464465929909</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>48.59799330994738</v>
+        <v>117.0260030118374</v>
       </c>
       <c r="B100" t="n">
-        <v>29.11782663261282</v>
+        <v>10.13443141564301</v>
       </c>
       <c r="C100" t="n">
-        <v>88.67769783088079</v>
+        <v>30.87583163559666</v>
       </c>
       <c r="D100" t="n">
-        <v>84.96310279796202</v>
+        <v>84.63882749600725</v>
       </c>
       <c r="E100" t="n">
-        <v>63.22498622538665</v>
+        <v>51.94092553980641</v>
       </c>
       <c r="F100" t="n">
-        <v>69.07874076537996</v>
+        <v>69.07441053250363</v>
       </c>
       <c r="G100" t="n">
-        <v>54.2952932474002</v>
+        <v>103.7414439771349</v>
       </c>
       <c r="H100" t="n">
-        <v>51.46536789368662</v>
+        <v>92.39367417625304</v>
       </c>
       <c r="I100" t="n">
-        <v>16.00319532209472</v>
+        <v>11.12530031501749</v>
       </c>
       <c r="J100" t="n">
-        <v>19.62555592192735</v>
+        <v>38.62973318783038</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>31.96361128563025</v>
+        <v>52.97688684460164</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9069604648428087</v>
+        <v>38.34659719712041</v>
       </c>
       <c r="C101" t="n">
-        <v>87.81635016146042</v>
+        <v>146.176523292513</v>
       </c>
       <c r="D101" t="n">
-        <v>62.61485610600126</v>
+        <v>143.1674458306643</v>
       </c>
       <c r="E101" t="n">
-        <v>54.22916465823499</v>
+        <v>97.4780762439421</v>
       </c>
       <c r="F101" t="n">
-        <v>58.31847737313331</v>
+        <v>104.5213299952902</v>
       </c>
       <c r="G101" t="n">
-        <v>102.9446250114896</v>
+        <v>60.0746307654281</v>
       </c>
       <c r="H101" t="n">
-        <v>64.05494672560073</v>
+        <v>41.75169415675249</v>
       </c>
       <c r="I101" t="n">
-        <v>16.79638821844424</v>
+        <v>6.963545044107954</v>
       </c>
       <c r="J101" t="n">
-        <v>29.93666992551293</v>
+        <v>22.76898180547733</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>17.39542742098606</v>
+        <v>16.70130357283176</v>
       </c>
       <c r="B102" t="n">
-        <v>4.02962751494313</v>
+        <v>41.53345602576229</v>
       </c>
       <c r="C102" t="n">
-        <v>72.50570349258136</v>
+        <v>125.8907297295102</v>
       </c>
       <c r="D102" t="n">
-        <v>111.4499334425518</v>
+        <v>134.7396698631306</v>
       </c>
       <c r="E102" t="n">
-        <v>113.8530982258774</v>
+        <v>114.424879610325</v>
       </c>
       <c r="F102" t="n">
-        <v>143.2623719906227</v>
+        <v>113.5691365561063</v>
       </c>
       <c r="G102" t="n">
-        <v>90.59225972998053</v>
+        <v>93.5187453382876</v>
       </c>
       <c r="H102" t="n">
-        <v>111.1147473143899</v>
+        <v>95.96713243309091</v>
       </c>
       <c r="I102" t="n">
-        <v>4.273636913796453</v>
+        <v>28.651149013308</v>
       </c>
       <c r="J102" t="n">
-        <v>13.74254137457219</v>
+        <v>8.402146903963612</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>23.89651837148788</v>
+        <v>8.465699955101734</v>
       </c>
       <c r="B103" t="n">
-        <v>54.30569762457865</v>
+        <v>24.94956200141146</v>
       </c>
       <c r="C103" t="n">
-        <v>151.5285617165103</v>
+        <v>112.0902525903238</v>
       </c>
       <c r="D103" t="n">
-        <v>152.6560952785152</v>
+        <v>96.03144100444456</v>
       </c>
       <c r="E103" t="n">
-        <v>111.7114009215569</v>
+        <v>128.6959140450691</v>
       </c>
       <c r="F103" t="n">
-        <v>97.2954907299996</v>
+        <v>118.0733993476825</v>
       </c>
       <c r="G103" t="n">
-        <v>119.3361261452216</v>
+        <v>93.79550268899271</v>
       </c>
       <c r="H103" t="n">
-        <v>99.65548357616817</v>
+        <v>60.39084499755381</v>
       </c>
       <c r="I103" t="n">
-        <v>15.09738616028453</v>
+        <v>35.16019161504533</v>
       </c>
       <c r="J103" t="n">
-        <v>8.768479658912007</v>
+        <v>44.70861574155833</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>14.48155422366672</v>
+        <v>66.45940360529849</v>
       </c>
       <c r="B104" t="n">
-        <v>24.44098123708248</v>
+        <v>45.13228083238286</v>
       </c>
       <c r="C104" t="n">
-        <v>127.4309930488178</v>
+        <v>85.85301020510541</v>
       </c>
       <c r="D104" t="n">
-        <v>101.5941261621802</v>
+        <v>160.194001769042</v>
       </c>
       <c r="E104" t="n">
-        <v>85.06255482086053</v>
+        <v>86.81385310308809</v>
       </c>
       <c r="F104" t="n">
-        <v>85.24195940970976</v>
+        <v>93.55940076580907</v>
       </c>
       <c r="G104" t="n">
-        <v>42.30822526350823</v>
+        <v>97.81099517621543</v>
       </c>
       <c r="H104" t="n">
-        <v>40.5201694154091</v>
+        <v>81.28201232957743</v>
       </c>
       <c r="I104" t="n">
-        <v>33.01179092423052</v>
+        <v>7.686806296365353</v>
       </c>
       <c r="J104" t="n">
-        <v>18.30185287937744</v>
+        <v>19.76707497104323</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>38.51946401805534</v>
+        <v>83.86744704907312</v>
       </c>
       <c r="B105" t="n">
-        <v>21.85033580819461</v>
+        <v>80.74994983012131</v>
       </c>
       <c r="C105" t="n">
-        <v>75.47534548296672</v>
+        <v>137.2061695470342</v>
       </c>
       <c r="D105" t="n">
-        <v>76.05450600464506</v>
+        <v>132.9085044956899</v>
       </c>
       <c r="E105" t="n">
-        <v>60.31180520719756</v>
+        <v>59.34321279903543</v>
       </c>
       <c r="F105" t="n">
-        <v>66.1732447201021</v>
+        <v>61.96473442475145</v>
       </c>
       <c r="G105" t="n">
-        <v>54.48690538056388</v>
+        <v>44.30024426542161</v>
       </c>
       <c r="H105" t="n">
-        <v>52.02955834517195</v>
+        <v>50.06536903542803</v>
       </c>
       <c r="I105" t="n">
-        <v>18.95864732845064</v>
+        <v>9.281996063793732</v>
       </c>
       <c r="J105" t="n">
-        <v>22.84189482501839</v>
+        <v>6.879573778389909</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4.915528443089333</v>
+        <v>53.80082279299231</v>
       </c>
       <c r="B106" t="n">
-        <v>47.65412278642897</v>
+        <v>72.12523842988087</v>
       </c>
       <c r="C106" t="n">
-        <v>114.6777916593055</v>
+        <v>150.5316501015292</v>
       </c>
       <c r="D106" t="n">
-        <v>133.7351605451783</v>
+        <v>171.5038096422425</v>
       </c>
       <c r="E106" t="n">
-        <v>97.85737045837017</v>
+        <v>96.76792614503199</v>
       </c>
       <c r="F106" t="n">
-        <v>87.64721348755559</v>
+        <v>89.93767468832759</v>
       </c>
       <c r="G106" t="n">
-        <v>113.7897038210269</v>
+        <v>125.1107929785561</v>
       </c>
       <c r="H106" t="n">
-        <v>96.92482339992722</v>
+        <v>111.4632348359479</v>
       </c>
       <c r="I106" t="n">
-        <v>17.85613114993876</v>
+        <v>49.20237889363373</v>
       </c>
       <c r="J106" t="n">
-        <v>15.57565001365579</v>
+        <v>27.66706304430698</v>
       </c>
       <c r="K106" t="n">
         <v>1</v>
@@ -4167,34 +4167,34 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.516225390354379</v>
+        <v>48.00801168779877</v>
       </c>
       <c r="B107" t="n">
-        <v>26.78231244639192</v>
+        <v>36.16649223913402</v>
       </c>
       <c r="C107" t="n">
-        <v>129.8434066574317</v>
+        <v>141.8910472105412</v>
       </c>
       <c r="D107" t="n">
-        <v>97.33076448304652</v>
+        <v>136.1791223584968</v>
       </c>
       <c r="E107" t="n">
-        <v>108.4725605027712</v>
+        <v>99.81689558348177</v>
       </c>
       <c r="F107" t="n">
-        <v>103.16350966928</v>
+        <v>100.9962892013372</v>
       </c>
       <c r="G107" t="n">
-        <v>53.12649197623426</v>
+        <v>53.59971825168335</v>
       </c>
       <c r="H107" t="n">
-        <v>51.45413626307584</v>
+        <v>45.06139254948387</v>
       </c>
       <c r="I107" t="n">
-        <v>32.79798191549212</v>
+        <v>12.56014662122642</v>
       </c>
       <c r="J107" t="n">
-        <v>27.75267423020421</v>
+        <v>26.74425854432575</v>
       </c>
       <c r="K107" t="n">
         <v>1</v>
@@ -4202,34 +4202,34 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>6.617572513430543</v>
+        <v>49.45386297428164</v>
       </c>
       <c r="B108" t="n">
-        <v>42.00852211550986</v>
+        <v>41.35801854186865</v>
       </c>
       <c r="C108" t="n">
-        <v>125.2020800496754</v>
+        <v>147.9026660557705</v>
       </c>
       <c r="D108" t="n">
-        <v>129.9080341023704</v>
+        <v>150.5838125553654</v>
       </c>
       <c r="E108" t="n">
-        <v>112.831509772285</v>
+        <v>107.8071254604093</v>
       </c>
       <c r="F108" t="n">
-        <v>93.75548445973949</v>
+        <v>113.2103706601376</v>
       </c>
       <c r="G108" t="n">
-        <v>106.3692279086252</v>
+        <v>65.79309240021855</v>
       </c>
       <c r="H108" t="n">
-        <v>84.31038730498216</v>
+        <v>40.07066553023233</v>
       </c>
       <c r="I108" t="n">
-        <v>25.26821072866933</v>
+        <v>12.64111503003961</v>
       </c>
       <c r="J108" t="n">
-        <v>8.700817855101533</v>
+        <v>32.62253446355395</v>
       </c>
       <c r="K108" t="n">
         <v>1</v>
@@ -4237,34 +4237,34 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>41.55154248396671</v>
+        <v>87.60662397101648</v>
       </c>
       <c r="B109" t="n">
-        <v>61.87230459770458</v>
+        <v>81.26683561642807</v>
       </c>
       <c r="C109" t="n">
-        <v>131.9255403137472</v>
+        <v>137.1402018846523</v>
       </c>
       <c r="D109" t="n">
-        <v>132.0249481752636</v>
+        <v>149.5482828330035</v>
       </c>
       <c r="E109" t="n">
-        <v>89.50150789217697</v>
+        <v>65.42365118744323</v>
       </c>
       <c r="F109" t="n">
-        <v>88.7681876976788</v>
+        <v>72.58414495694063</v>
       </c>
       <c r="G109" t="n">
-        <v>107.7179765828523</v>
+        <v>60.5683570529981</v>
       </c>
       <c r="H109" t="n">
-        <v>115.6803833745177</v>
+        <v>62.41866312694589</v>
       </c>
       <c r="I109" t="n">
-        <v>5.593339662851111</v>
+        <v>0.9038313523760482</v>
       </c>
       <c r="J109" t="n">
-        <v>16.38946532598732</v>
+        <v>1.398495415965402</v>
       </c>
       <c r="K109" t="n">
         <v>1</v>
@@ -4272,34 +4272,34 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>3.055688897040079</v>
+        <v>99.81263911605137</v>
       </c>
       <c r="B110" t="n">
-        <v>25.91826633238323</v>
+        <v>96.4350060939105</v>
       </c>
       <c r="C110" t="n">
-        <v>120.3054780974249</v>
+        <v>33.89840717288538</v>
       </c>
       <c r="D110" t="n">
-        <v>121.4152625771294</v>
+        <v>148.9220811849631</v>
       </c>
       <c r="E110" t="n">
-        <v>121.6744511501497</v>
+        <v>53.89947074280187</v>
       </c>
       <c r="F110" t="n">
-        <v>101.8899318971978</v>
+        <v>64.06677819578823</v>
       </c>
       <c r="G110" t="n">
-        <v>74.9295630758337</v>
+        <v>54.43531019143327</v>
       </c>
       <c r="H110" t="n">
-        <v>85.77370444614274</v>
+        <v>71.37235396028849</v>
       </c>
       <c r="I110" t="n">
-        <v>37.0575922717488</v>
+        <v>25.71215734868276</v>
       </c>
       <c r="J110" t="n">
-        <v>9.089545024515475</v>
+        <v>3.05673984205663</v>
       </c>
       <c r="K110" t="n">
         <v>1</v>
@@ -4307,34 +4307,34 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>56.41774837775971</v>
+        <v>22.23197394037826</v>
       </c>
       <c r="B111" t="n">
-        <v>44.90778424113849</v>
+        <v>46.09739826540261</v>
       </c>
       <c r="C111" t="n">
-        <v>138.9055796388309</v>
+        <v>100.2028686449024</v>
       </c>
       <c r="D111" t="n">
-        <v>134.5994422181114</v>
+        <v>122.0230866723729</v>
       </c>
       <c r="E111" t="n">
-        <v>94.10194090392719</v>
+        <v>82.0071970412581</v>
       </c>
       <c r="F111" t="n">
-        <v>94.75920916492851</v>
+        <v>87.2584674392286</v>
       </c>
       <c r="G111" t="n">
-        <v>49.77081550532927</v>
+        <v>112.6596529974553</v>
       </c>
       <c r="H111" t="n">
-        <v>54.03555453131574</v>
+        <v>110.8744682865383</v>
       </c>
       <c r="I111" t="n">
-        <v>12.55334256898751</v>
+        <v>20.11608566252673</v>
       </c>
       <c r="J111" t="n">
-        <v>12.91076254883783</v>
+        <v>16.65080611831543</v>
       </c>
       <c r="K111" t="n">
         <v>1</v>
@@ -4342,34 +4342,34 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6.881379399557678</v>
+        <v>106.7927457456158</v>
       </c>
       <c r="B112" t="n">
-        <v>37.55042756059312</v>
+        <v>80.16724352504745</v>
       </c>
       <c r="C112" t="n">
-        <v>144.2625081188057</v>
+        <v>28.22374554646911</v>
       </c>
       <c r="D112" t="n">
-        <v>136.0495931688137</v>
+        <v>138.2642010912081</v>
       </c>
       <c r="E112" t="n">
-        <v>115.4206801744497</v>
+        <v>42.30973524728297</v>
       </c>
       <c r="F112" t="n">
-        <v>97.66876988628538</v>
+        <v>51.13533676359334</v>
       </c>
       <c r="G112" t="n">
-        <v>109.7319395443444</v>
+        <v>44.78177807731915</v>
       </c>
       <c r="H112" t="n">
-        <v>87.5426478210736</v>
+        <v>52.90998545103825</v>
       </c>
       <c r="I112" t="n">
-        <v>35.01040115791633</v>
+        <v>26.36170214514155</v>
       </c>
       <c r="J112" t="n">
-        <v>7.007178111199707</v>
+        <v>4.527180426370548</v>
       </c>
       <c r="K112" t="n">
         <v>1</v>
@@ -4377,34 +4377,34 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>60.84127748374366</v>
+        <v>50.20164748448577</v>
       </c>
       <c r="B113" t="n">
-        <v>52.22551357541614</v>
+        <v>10.92018431414235</v>
       </c>
       <c r="C113" t="n">
-        <v>34.74571680934968</v>
+        <v>24.72807858893519</v>
       </c>
       <c r="D113" t="n">
-        <v>95.97203557573363</v>
+        <v>139.7001469176583</v>
       </c>
       <c r="E113" t="n">
-        <v>31.51127427575788</v>
+        <v>92.2408756474286</v>
       </c>
       <c r="F113" t="n">
-        <v>7.115463776926014</v>
+        <v>115.6478894711209</v>
       </c>
       <c r="G113" t="n">
-        <v>13.97818751562443</v>
+        <v>100.7684148324854</v>
       </c>
       <c r="H113" t="n">
-        <v>9.705690087343877</v>
+        <v>79.280052602277</v>
       </c>
       <c r="I113" t="n">
-        <v>21.91839571829497</v>
+        <v>19.13846543746054</v>
       </c>
       <c r="J113" t="n">
-        <v>12.80801009665226</v>
+        <v>25.79591220939766</v>
       </c>
       <c r="K113" t="n">
         <v>1</v>
@@ -4412,34 +4412,34 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>6.312511353224751</v>
+        <v>23.89651837148788</v>
       </c>
       <c r="B114" t="n">
-        <v>63.36287722419484</v>
+        <v>54.30569762457865</v>
       </c>
       <c r="C114" t="n">
-        <v>85.00800748700595</v>
+        <v>151.5285617165103</v>
       </c>
       <c r="D114" t="n">
-        <v>161.0904634910239</v>
+        <v>152.6560952785152</v>
       </c>
       <c r="E114" t="n">
-        <v>78.82471396674168</v>
+        <v>111.7114009215569</v>
       </c>
       <c r="F114" t="n">
-        <v>66.00910690159469</v>
+        <v>97.2954907299996</v>
       </c>
       <c r="G114" t="n">
-        <v>65.94721896899527</v>
+        <v>119.3361261452216</v>
       </c>
       <c r="H114" t="n">
-        <v>86.20861035070848</v>
+        <v>99.65548357616817</v>
       </c>
       <c r="I114" t="n">
-        <v>23.32521581359806</v>
+        <v>15.09738616028453</v>
       </c>
       <c r="J114" t="n">
-        <v>67.08706322544953</v>
+        <v>8.768479658912007</v>
       </c>
       <c r="K114" t="n">
         <v>1</v>
@@ -4447,34 +4447,34 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.076067197106931</v>
+        <v>18.13339953426816</v>
       </c>
       <c r="B115" t="n">
-        <v>15.33259433886909</v>
+        <v>31.57358101735124</v>
       </c>
       <c r="C115" t="n">
-        <v>127.802092681398</v>
+        <v>128.6912332391797</v>
       </c>
       <c r="D115" t="n">
-        <v>119.0004421963053</v>
+        <v>127.268139864836</v>
       </c>
       <c r="E115" t="n">
-        <v>121.5140046003795</v>
+        <v>104.442388157534</v>
       </c>
       <c r="F115" t="n">
-        <v>109.2558619709982</v>
+        <v>103.3462464227034</v>
       </c>
       <c r="G115" t="n">
-        <v>92.9695822560422</v>
+        <v>101.6669155681767</v>
       </c>
       <c r="H115" t="n">
-        <v>86.58901930098989</v>
+        <v>101.0293118899864</v>
       </c>
       <c r="I115" t="n">
-        <v>24.00456423785783</v>
+        <v>14.39977036999126</v>
       </c>
       <c r="J115" t="n">
-        <v>7.639328049999271</v>
+        <v>3.4182656372975</v>
       </c>
       <c r="K115" t="n">
         <v>1</v>
@@ -4482,34 +4482,34 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>53.80082279299231</v>
+        <v>5.938803298358457</v>
       </c>
       <c r="B116" t="n">
-        <v>72.12523842988087</v>
+        <v>55.78012072260685</v>
       </c>
       <c r="C116" t="n">
-        <v>150.5316501015292</v>
+        <v>91.2567762707347</v>
       </c>
       <c r="D116" t="n">
-        <v>171.5038096422425</v>
+        <v>107.1089765461809</v>
       </c>
       <c r="E116" t="n">
-        <v>96.76792614503199</v>
+        <v>81.56734559741882</v>
       </c>
       <c r="F116" t="n">
-        <v>89.93767468832759</v>
+        <v>74.75077286596169</v>
       </c>
       <c r="G116" t="n">
-        <v>125.1107929785561</v>
+        <v>93.9599592459947</v>
       </c>
       <c r="H116" t="n">
-        <v>111.4632348359479</v>
+        <v>101.6422261378556</v>
       </c>
       <c r="I116" t="n">
-        <v>49.20237889363373</v>
+        <v>31.8881966533632</v>
       </c>
       <c r="J116" t="n">
-        <v>27.66706304430698</v>
+        <v>11.2394146571751</v>
       </c>
       <c r="K116" t="n">
         <v>1</v>
@@ -4517,34 +4517,34 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>58.90443056575267</v>
+        <v>55.61619219895699</v>
       </c>
       <c r="B117" t="n">
-        <v>34.30857478347306</v>
+        <v>35.67697802446634</v>
       </c>
       <c r="C117" t="n">
-        <v>128.9399473127424</v>
+        <v>129.0153442176714</v>
       </c>
       <c r="D117" t="n">
-        <v>132.1517128302486</v>
+        <v>125.6267487062295</v>
       </c>
       <c r="E117" t="n">
-        <v>89.0241974137104</v>
+        <v>79.55254757172747</v>
       </c>
       <c r="F117" t="n">
-        <v>90.37819957805505</v>
+        <v>102.5255552023502</v>
       </c>
       <c r="G117" t="n">
-        <v>50.76848303185523</v>
+        <v>75.06385326131928</v>
       </c>
       <c r="H117" t="n">
-        <v>40.02052254755186</v>
+        <v>48.0235023114496</v>
       </c>
       <c r="I117" t="n">
-        <v>29.93064458580593</v>
+        <v>2.507334541812263</v>
       </c>
       <c r="J117" t="n">
-        <v>31.99448122111594</v>
+        <v>19.14564016176707</v>
       </c>
       <c r="K117" t="n">
         <v>1</v>
@@ -4552,34 +4552,34 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>40.81982525691988</v>
+        <v>58.90443056575267</v>
       </c>
       <c r="B118" t="n">
-        <v>19.03936364557787</v>
+        <v>34.30857478347306</v>
       </c>
       <c r="C118" t="n">
-        <v>103.5771431159336</v>
+        <v>128.9399473127424</v>
       </c>
       <c r="D118" t="n">
-        <v>81.33431448557147</v>
+        <v>132.1517128302486</v>
       </c>
       <c r="E118" t="n">
-        <v>91.73430274839676</v>
+        <v>89.0241974137104</v>
       </c>
       <c r="F118" t="n">
-        <v>95.11021002081932</v>
+        <v>90.37819957805505</v>
       </c>
       <c r="G118" t="n">
-        <v>58.81517647164418</v>
+        <v>50.76848303185523</v>
       </c>
       <c r="H118" t="n">
-        <v>64.70134581124967</v>
+        <v>40.02052254755186</v>
       </c>
       <c r="I118" t="n">
-        <v>23.03702383453872</v>
+        <v>29.93064458580593</v>
       </c>
       <c r="J118" t="n">
-        <v>24.57683956821939</v>
+        <v>31.99448122111594</v>
       </c>
       <c r="K118" t="n">
         <v>1</v>
@@ -4587,34 +4587,34 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5.647345919213231</v>
+        <v>53.58440897854276</v>
       </c>
       <c r="B119" t="n">
-        <v>39.74680968643118</v>
+        <v>18.12940091377764</v>
       </c>
       <c r="C119" t="n">
-        <v>128.7022680206078</v>
+        <v>141.0200915326434</v>
       </c>
       <c r="D119" t="n">
-        <v>135.5598271338133</v>
+        <v>126.3912680600095</v>
       </c>
       <c r="E119" t="n">
-        <v>109.5263363104693</v>
+        <v>94.88903473440729</v>
       </c>
       <c r="F119" t="n">
-        <v>96.54348066888289</v>
+        <v>104.7937010986469</v>
       </c>
       <c r="G119" t="n">
-        <v>122.6648798274953</v>
+        <v>50.67782176138984</v>
       </c>
       <c r="H119" t="n">
-        <v>84.69456312220422</v>
+        <v>50.88698407488754</v>
       </c>
       <c r="I119" t="n">
-        <v>27.5575229084148</v>
+        <v>8.219083412366965</v>
       </c>
       <c r="J119" t="n">
-        <v>0.9425471110617635</v>
+        <v>36.74775520347829</v>
       </c>
       <c r="K119" t="n">
         <v>1</v>
@@ -4622,34 +4622,34 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>50.20164748448577</v>
+        <v>29.53976855794477</v>
       </c>
       <c r="B120" t="n">
-        <v>10.92018431414235</v>
+        <v>49.24342333560742</v>
       </c>
       <c r="C120" t="n">
-        <v>24.72807858893519</v>
+        <v>128.0407418588142</v>
       </c>
       <c r="D120" t="n">
-        <v>139.7001469176583</v>
+        <v>135.0463026039354</v>
       </c>
       <c r="E120" t="n">
-        <v>92.2408756474286</v>
+        <v>93.87761341831066</v>
       </c>
       <c r="F120" t="n">
-        <v>115.6478894711209</v>
+        <v>85.71031319398081</v>
       </c>
       <c r="G120" t="n">
-        <v>100.7684148324854</v>
+        <v>118.5473955243621</v>
       </c>
       <c r="H120" t="n">
-        <v>79.280052602277</v>
+        <v>98.75955951525971</v>
       </c>
       <c r="I120" t="n">
-        <v>19.13846543746054</v>
+        <v>1.824539336372178</v>
       </c>
       <c r="J120" t="n">
-        <v>25.79591220939766</v>
+        <v>21.07884412359036</v>
       </c>
       <c r="K120" t="n">
         <v>1</v>
@@ -4657,34 +4657,34 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>37.51426809539429</v>
+        <v>9.783853529444421</v>
       </c>
       <c r="B121" t="n">
-        <v>19.37080346043176</v>
+        <v>30.83917130545576</v>
       </c>
       <c r="C121" t="n">
-        <v>75.96369622366001</v>
+        <v>156.9530082717363</v>
       </c>
       <c r="D121" t="n">
-        <v>67.22822302580076</v>
+        <v>147.9620560236452</v>
       </c>
       <c r="E121" t="n">
-        <v>51.66898686140554</v>
+        <v>129.1231408306871</v>
       </c>
       <c r="F121" t="n">
-        <v>58.48686002060301</v>
+        <v>113.5151819946928</v>
       </c>
       <c r="G121" t="n">
-        <v>68.03554090462791</v>
+        <v>122.3047418946569</v>
       </c>
       <c r="H121" t="n">
-        <v>79.47149395409195</v>
+        <v>63.54481794433448</v>
       </c>
       <c r="I121" t="n">
-        <v>8.524163914245777</v>
+        <v>21.07055314726843</v>
       </c>
       <c r="J121" t="n">
-        <v>2.772908585205309</v>
+        <v>2.317809779682125</v>
       </c>
       <c r="K121" t="n">
         <v>1</v>
@@ -4692,34 +4692,34 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>20.89647905313878</v>
+        <v>29.21010516193734</v>
       </c>
       <c r="B122" t="n">
-        <v>12.11691925132317</v>
+        <v>53.13563006687571</v>
       </c>
       <c r="C122" t="n">
-        <v>77.98920024294176</v>
+        <v>155.670887638797</v>
       </c>
       <c r="D122" t="n">
-        <v>67.80753540782361</v>
+        <v>146.6323365923897</v>
       </c>
       <c r="E122" t="n">
-        <v>57.82791773419548</v>
+        <v>96.56818454358995</v>
       </c>
       <c r="F122" t="n">
-        <v>61.14333246907393</v>
+        <v>96.78538718953027</v>
       </c>
       <c r="G122" t="n">
-        <v>105.6697107153745</v>
+        <v>118.4280414447006</v>
       </c>
       <c r="H122" t="n">
-        <v>71.32572359874354</v>
+        <v>120.20521588971</v>
       </c>
       <c r="I122" t="n">
-        <v>14.30999646963729</v>
+        <v>21.52737783701469</v>
       </c>
       <c r="J122" t="n">
-        <v>16.2495402772014</v>
+        <v>20.3115892028024</v>
       </c>
       <c r="K122" t="n">
         <v>1</v>
@@ -4727,34 +4727,34 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>22.54900766873847</v>
+        <v>15.7127084980299</v>
       </c>
       <c r="B123" t="n">
-        <v>24.54428083122264</v>
+        <v>78.30522535457399</v>
       </c>
       <c r="C123" t="n">
-        <v>99.29518565378794</v>
+        <v>104.9611616304692</v>
       </c>
       <c r="D123" t="n">
-        <v>98.67633840944197</v>
+        <v>167.3866153933743</v>
       </c>
       <c r="E123" t="n">
-        <v>98.64014105996463</v>
+        <v>99.04315682435612</v>
       </c>
       <c r="F123" t="n">
-        <v>96.68432967320648</v>
+        <v>84.26026768447343</v>
       </c>
       <c r="G123" t="n">
-        <v>52.73850704274145</v>
+        <v>31.8931890625194</v>
       </c>
       <c r="H123" t="n">
-        <v>43.7087486284999</v>
+        <v>59.80536467089702</v>
       </c>
       <c r="I123" t="n">
-        <v>24.51818679343167</v>
+        <v>52.80987516199344</v>
       </c>
       <c r="J123" t="n">
-        <v>31.17899208219481</v>
+        <v>2.868920677925998</v>
       </c>
       <c r="K123" t="n">
         <v>1</v>
@@ -4762,34 +4762,34 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>20.95093276704564</v>
+        <v>6.312511353224751</v>
       </c>
       <c r="B124" t="n">
-        <v>2.078024974381675</v>
+        <v>63.36287722419484</v>
       </c>
       <c r="C124" t="n">
-        <v>72.38979422518055</v>
+        <v>85.00800748700595</v>
       </c>
       <c r="D124" t="n">
-        <v>60.11030582289918</v>
+        <v>161.0904634910239</v>
       </c>
       <c r="E124" t="n">
-        <v>59.95816451226935</v>
+        <v>78.82471396674168</v>
       </c>
       <c r="F124" t="n">
-        <v>59.97134031848448</v>
+        <v>66.00910690159469</v>
       </c>
       <c r="G124" t="n">
-        <v>93.57789708967317</v>
+        <v>65.94721896899527</v>
       </c>
       <c r="H124" t="n">
-        <v>66.38796028568083</v>
+        <v>86.20861035070848</v>
       </c>
       <c r="I124" t="n">
-        <v>18.86054308632702</v>
+        <v>23.32521581359806</v>
       </c>
       <c r="J124" t="n">
-        <v>32.39797081438508</v>
+        <v>67.08706322544953</v>
       </c>
       <c r="K124" t="n">
         <v>1</v>
@@ -4797,34 +4797,34 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>21.22215045307501</v>
+        <v>24.19625067219573</v>
       </c>
       <c r="B125" t="n">
-        <v>20.15314020643716</v>
+        <v>39.26917531776963</v>
       </c>
       <c r="C125" t="n">
-        <v>47.42837543575497</v>
+        <v>85.50448747033154</v>
       </c>
       <c r="D125" t="n">
-        <v>66.36525815581695</v>
+        <v>124.7384861013784</v>
       </c>
       <c r="E125" t="n">
-        <v>63.13311471818467</v>
+        <v>92.05172384469647</v>
       </c>
       <c r="F125" t="n">
-        <v>70.86248167362581</v>
+        <v>95.10791817083708</v>
       </c>
       <c r="G125" t="n">
-        <v>60.66649553774408</v>
+        <v>99.18226211528963</v>
       </c>
       <c r="H125" t="n">
-        <v>55.7456410934322</v>
+        <v>78.21541586435984</v>
       </c>
       <c r="I125" t="n">
-        <v>29.60832086534323</v>
+        <v>18.99825059986871</v>
       </c>
       <c r="J125" t="n">
-        <v>30.28288523513079</v>
+        <v>4.751333987925487</v>
       </c>
       <c r="K125" t="n">
         <v>1</v>
@@ -4832,34 +4832,34 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>99.81263911605137</v>
+        <v>54.16901180373878</v>
       </c>
       <c r="B126" t="n">
-        <v>96.4350060939105</v>
+        <v>70.09272993109771</v>
       </c>
       <c r="C126" t="n">
-        <v>33.89840717288538</v>
+        <v>152.575788835324</v>
       </c>
       <c r="D126" t="n">
-        <v>148.9220811849631</v>
+        <v>170.3479096795661</v>
       </c>
       <c r="E126" t="n">
-        <v>53.89947074280187</v>
+        <v>92.12134629904708</v>
       </c>
       <c r="F126" t="n">
-        <v>64.06677819578823</v>
+        <v>98.95344899972079</v>
       </c>
       <c r="G126" t="n">
-        <v>54.43531019143327</v>
+        <v>123.8467172591018</v>
       </c>
       <c r="H126" t="n">
-        <v>71.37235396028849</v>
+        <v>120.6707913327388</v>
       </c>
       <c r="I126" t="n">
-        <v>25.71215734868276</v>
+        <v>56.60659527236979</v>
       </c>
       <c r="J126" t="n">
-        <v>3.05673984205663</v>
+        <v>27.32073967224841</v>
       </c>
       <c r="K126" t="n">
         <v>1</v>
@@ -4867,34 +4867,34 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3.553605541043063</v>
+        <v>4.422596464205279</v>
       </c>
       <c r="B127" t="n">
-        <v>14.75241881027019</v>
+        <v>37.85813606535061</v>
       </c>
       <c r="C127" t="n">
-        <v>76.093776238321</v>
+        <v>144.0164514318743</v>
       </c>
       <c r="D127" t="n">
-        <v>74.5003168490264</v>
+        <v>145.5567544357465</v>
       </c>
       <c r="E127" t="n">
-        <v>84.86165072466039</v>
+        <v>126.1171887061574</v>
       </c>
       <c r="F127" t="n">
-        <v>71.10911372971186</v>
+        <v>105.2608387691539</v>
       </c>
       <c r="G127" t="n">
-        <v>104.86184762667</v>
+        <v>102.7887915523733</v>
       </c>
       <c r="H127" t="n">
-        <v>98.99761117850352</v>
+        <v>83.35294257695165</v>
       </c>
       <c r="I127" t="n">
-        <v>4.702446148947415</v>
+        <v>36.5588767681941</v>
       </c>
       <c r="J127" t="n">
-        <v>5.755902945366309</v>
+        <v>10.43989283066065</v>
       </c>
       <c r="K127" t="n">
         <v>1</v>
@@ -4902,34 +4902,34 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>86.85423019003008</v>
+        <v>7.209392724431324</v>
       </c>
       <c r="B128" t="n">
-        <v>75.24845719170435</v>
+        <v>10.86072228969081</v>
       </c>
       <c r="C128" t="n">
-        <v>55.42213984281636</v>
+        <v>146.0764194726498</v>
       </c>
       <c r="D128" t="n">
-        <v>148.3453082066829</v>
+        <v>145.7738486910709</v>
       </c>
       <c r="E128" t="n">
-        <v>59.65401786570399</v>
+        <v>145.3821798182893</v>
       </c>
       <c r="F128" t="n">
-        <v>68.92505294804045</v>
+        <v>150.1039645316934</v>
       </c>
       <c r="G128" t="n">
-        <v>119.7089831171058</v>
+        <v>113.5953677929692</v>
       </c>
       <c r="H128" t="n">
-        <v>107.7653555081441</v>
+        <v>88.31685330711611</v>
       </c>
       <c r="I128" t="n">
-        <v>15.09433495642636</v>
+        <v>15.31720375396931</v>
       </c>
       <c r="J128" t="n">
-        <v>40.45290601638759</v>
+        <v>35.76783949434183</v>
       </c>
       <c r="K128" t="n">
         <v>1</v>
@@ -4937,34 +4937,34 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>58.39693516025357</v>
+        <v>25.92059045628551</v>
       </c>
       <c r="B129" t="n">
-        <v>9.601332234872743</v>
+        <v>28.61542532913172</v>
       </c>
       <c r="C129" t="n">
-        <v>127.9320395848924</v>
+        <v>154.0508884042366</v>
       </c>
       <c r="D129" t="n">
-        <v>123.6145418883308</v>
+        <v>151.2836203873537</v>
       </c>
       <c r="E129" t="n">
-        <v>74.99686533476068</v>
+        <v>125.6810700127783</v>
       </c>
       <c r="F129" t="n">
-        <v>100.9747646829042</v>
+        <v>123.0115091123469</v>
       </c>
       <c r="G129" t="n">
-        <v>99.41553668287185</v>
+        <v>101.1278186886155</v>
       </c>
       <c r="H129" t="n">
-        <v>62.02715699241487</v>
+        <v>81.50498622113938</v>
       </c>
       <c r="I129" t="n">
-        <v>6.397537297455488</v>
+        <v>16.07492488570287</v>
       </c>
       <c r="J129" t="n">
-        <v>41.26163168006394</v>
+        <v>21.40222919867086</v>
       </c>
       <c r="K129" t="n">
         <v>1</v>
@@ -4972,34 +4972,34 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>19.110703578669</v>
+        <v>0.9575637753276556</v>
       </c>
       <c r="B130" t="n">
-        <v>21.01039275711188</v>
+        <v>17.53690375004896</v>
       </c>
       <c r="C130" t="n">
-        <v>96.60452540544493</v>
+        <v>113.8032721547668</v>
       </c>
       <c r="D130" t="n">
-        <v>100.9684507305699</v>
+        <v>116.1202773544983</v>
       </c>
       <c r="E130" t="n">
-        <v>88.9223246218709</v>
+        <v>114.5139562847069</v>
       </c>
       <c r="F130" t="n">
-        <v>88.88510624480702</v>
+        <v>108.1930276447005</v>
       </c>
       <c r="G130" t="n">
-        <v>43.7852175913074</v>
+        <v>77.53114637381003</v>
       </c>
       <c r="H130" t="n">
-        <v>37.37040049735884</v>
+        <v>91.35555697605145</v>
       </c>
       <c r="I130" t="n">
-        <v>22.45702079397464</v>
+        <v>21.84871774157288</v>
       </c>
       <c r="J130" t="n">
-        <v>20.5926544870357</v>
+        <v>0.1585611319703226</v>
       </c>
       <c r="K130" t="n">
         <v>1</v>
@@ -5007,34 +5007,34 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>41.46593268585925</v>
+        <v>28.21608745665082</v>
       </c>
       <c r="B131" t="n">
-        <v>30.98727935915226</v>
+        <v>58.55340863547173</v>
       </c>
       <c r="C131" t="n">
-        <v>80.89934304595145</v>
+        <v>102.413721899682</v>
       </c>
       <c r="D131" t="n">
-        <v>76.72384390066173</v>
+        <v>118.0020060431746</v>
       </c>
       <c r="E131" t="n">
-        <v>53.57087674714474</v>
+        <v>82.48231087403424</v>
       </c>
       <c r="F131" t="n">
-        <v>57.84745243967277</v>
+        <v>76.70736432378068</v>
       </c>
       <c r="G131" t="n">
-        <v>111.0189352784793</v>
+        <v>109.214099789656</v>
       </c>
       <c r="H131" t="n">
-        <v>74.79893394518115</v>
+        <v>96.05782617581838</v>
       </c>
       <c r="I131" t="n">
-        <v>5.661402224608483</v>
+        <v>1.556387836684036</v>
       </c>
       <c r="J131" t="n">
-        <v>2.672487998250265</v>
+        <v>1.364142153566132</v>
       </c>
       <c r="K131" t="n">
         <v>1</v>
@@ -5042,34 +5042,34 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>17.35732998780157</v>
+        <v>41.01966250792782</v>
       </c>
       <c r="B132" t="n">
-        <v>24.95501422338301</v>
+        <v>42.7818105917591</v>
       </c>
       <c r="C132" t="n">
-        <v>76.14764840304703</v>
+        <v>45.86881291611875</v>
       </c>
       <c r="D132" t="n">
-        <v>86.55710399915448</v>
+        <v>122.4180202761866</v>
       </c>
       <c r="E132" t="n">
-        <v>76.11136836071634</v>
+        <v>86.03651485044668</v>
       </c>
       <c r="F132" t="n">
-        <v>85.67189780903783</v>
+        <v>90.16409597603719</v>
       </c>
       <c r="G132" t="n">
-        <v>120.4249577796239</v>
+        <v>110.0152566225277</v>
       </c>
       <c r="H132" t="n">
-        <v>163.8238781491898</v>
+        <v>112.9066492397269</v>
       </c>
       <c r="I132" t="n">
-        <v>12.62622529882066</v>
+        <v>12.79043989089702</v>
       </c>
       <c r="J132" t="n">
-        <v>25.35535519318631</v>
+        <v>20.76989192380036</v>
       </c>
       <c r="K132" t="n">
         <v>1</v>
@@ -5077,34 +5077,34 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>15.45300947048788</v>
+        <v>68.67807053306861</v>
       </c>
       <c r="B133" t="n">
-        <v>26.1592344083061</v>
+        <v>101.2323795536602</v>
       </c>
       <c r="C133" t="n">
-        <v>136.6538039881467</v>
+        <v>162.280376999846</v>
       </c>
       <c r="D133" t="n">
-        <v>129.16772788506</v>
+        <v>165.2128866000446</v>
       </c>
       <c r="E133" t="n">
-        <v>118.3107888883475</v>
+        <v>89.03506904281276</v>
       </c>
       <c r="F133" t="n">
-        <v>109.3743479237252</v>
+        <v>69.32729638450478</v>
       </c>
       <c r="G133" t="n">
-        <v>109.928031241222</v>
+        <v>146.8762471582737</v>
       </c>
       <c r="H133" t="n">
-        <v>88.90845163117206</v>
+        <v>144.5783390183652</v>
       </c>
       <c r="I133" t="n">
-        <v>8.030191961707972</v>
+        <v>27.54549982483704</v>
       </c>
       <c r="J133" t="n">
-        <v>1.917771720197587</v>
+        <v>120.0103426283807</v>
       </c>
       <c r="K133" t="n">
         <v>1</v>
@@ -5112,34 +5112,34 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>35.68631709961534</v>
+        <v>82.02335036423234</v>
       </c>
       <c r="B134" t="n">
-        <v>40.51365371854284</v>
+        <v>78.52604913320113</v>
       </c>
       <c r="C134" t="n">
-        <v>151.0505776214858</v>
+        <v>134.2436522150917</v>
       </c>
       <c r="D134" t="n">
-        <v>150.0071963729086</v>
+        <v>131.1329837082305</v>
       </c>
       <c r="E134" t="n">
-        <v>112.1739380816187</v>
+        <v>60.87324353003318</v>
       </c>
       <c r="F134" t="n">
-        <v>104.1540477740613</v>
+        <v>60.59078091809481</v>
       </c>
       <c r="G134" t="n">
-        <v>99.0718897587479</v>
+        <v>40.62708265652066</v>
       </c>
       <c r="H134" t="n">
-        <v>66.52742013509952</v>
+        <v>51.14661522855943</v>
       </c>
       <c r="I134" t="n">
-        <v>1.011510189143266</v>
+        <v>15.20172861603824</v>
       </c>
       <c r="J134" t="n">
-        <v>7.456470216907104</v>
+        <v>7.115886579722998</v>
       </c>
       <c r="K134" t="n">
         <v>1</v>
@@ -5147,34 +5147,34 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>18.65758259540133</v>
+        <v>61.99145166945196</v>
       </c>
       <c r="B135" t="n">
-        <v>21.50174576266961</v>
+        <v>20.29737249462451</v>
       </c>
       <c r="C135" t="n">
-        <v>99.61693107734484</v>
+        <v>137.7904479930266</v>
       </c>
       <c r="D135" t="n">
-        <v>100.814989599182</v>
+        <v>114.9645821878534</v>
       </c>
       <c r="E135" t="n">
-        <v>89.81746084215642</v>
+        <v>88.66741867387134</v>
       </c>
       <c r="F135" t="n">
-        <v>88.63379088424061</v>
+        <v>96.77449311650469</v>
       </c>
       <c r="G135" t="n">
-        <v>37.59985643447902</v>
+        <v>51.02004736277284</v>
       </c>
       <c r="H135" t="n">
-        <v>36.83009387260063</v>
+        <v>55.34703843591505</v>
       </c>
       <c r="I135" t="n">
-        <v>26.44585074072286</v>
+        <v>10.67941384629608</v>
       </c>
       <c r="J135" t="n">
-        <v>21.62167868464539</v>
+        <v>20.68155799093851</v>
       </c>
       <c r="K135" t="n">
         <v>1</v>
@@ -5182,34 +5182,34 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>27.10151882437854</v>
+        <v>9.571106775475323</v>
       </c>
       <c r="B136" t="n">
-        <v>32.45152452866993</v>
+        <v>16.20418958213225</v>
       </c>
       <c r="C136" t="n">
-        <v>75.09064147751397</v>
+        <v>149.2508247033058</v>
       </c>
       <c r="D136" t="n">
-        <v>109.7990677427333</v>
+        <v>156.8154130296627</v>
       </c>
       <c r="E136" t="n">
-        <v>79.92676784270171</v>
+        <v>147.4970468936169</v>
       </c>
       <c r="F136" t="n">
-        <v>83.44285284191567</v>
+        <v>141.495556947652</v>
       </c>
       <c r="G136" t="n">
-        <v>41.98279418625668</v>
+        <v>128.1418515736058</v>
       </c>
       <c r="H136" t="n">
-        <v>39.27092903541615</v>
+        <v>92.95147983317854</v>
       </c>
       <c r="I136" t="n">
-        <v>40.39204712293677</v>
+        <v>4.900472492133539</v>
       </c>
       <c r="J136" t="n">
-        <v>16.43949322011575</v>
+        <v>30.24096394876163</v>
       </c>
       <c r="K136" t="n">
         <v>1</v>
@@ -5217,34 +5217,34 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>45.15019944368153</v>
+        <v>12.12856388600383</v>
       </c>
       <c r="B137" t="n">
-        <v>12.8334353395116</v>
+        <v>49.63350397767082</v>
       </c>
       <c r="C137" t="n">
-        <v>35.94713684820335</v>
+        <v>157.1961863710085</v>
       </c>
       <c r="D137" t="n">
-        <v>151.5927429681588</v>
+        <v>136.7055174345656</v>
       </c>
       <c r="E137" t="n">
-        <v>103.8616669262869</v>
+        <v>108.1423339578736</v>
       </c>
       <c r="F137" t="n">
-        <v>116.7215674177887</v>
+        <v>93.88454760949462</v>
       </c>
       <c r="G137" t="n">
-        <v>95.59875759724014</v>
+        <v>124.2952688403026</v>
       </c>
       <c r="H137" t="n">
-        <v>55.38577330109095</v>
+        <v>70.86426731268531</v>
       </c>
       <c r="I137" t="n">
-        <v>28.38240838664847</v>
+        <v>32.74818556633503</v>
       </c>
       <c r="J137" t="n">
-        <v>38.09606532409158</v>
+        <v>7.17378310297422</v>
       </c>
       <c r="K137" t="n">
         <v>1</v>
@@ -5252,34 +5252,34 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>32.19736025532592</v>
+        <v>35.68631709961534</v>
       </c>
       <c r="B138" t="n">
-        <v>56.00999755141216</v>
+        <v>40.51365371854284</v>
       </c>
       <c r="C138" t="n">
-        <v>155.1196307581455</v>
+        <v>151.0505776214858</v>
       </c>
       <c r="D138" t="n">
-        <v>145.7487011145193</v>
+        <v>150.0071963729086</v>
       </c>
       <c r="E138" t="n">
-        <v>98.20934838653258</v>
+        <v>112.1739380816187</v>
       </c>
       <c r="F138" t="n">
-        <v>91.1308768168315</v>
+        <v>104.1540477740613</v>
       </c>
       <c r="G138" t="n">
-        <v>107.4516707775388</v>
+        <v>99.0718897587479</v>
       </c>
       <c r="H138" t="n">
-        <v>94.90675891293978</v>
+        <v>66.52742013509952</v>
       </c>
       <c r="I138" t="n">
-        <v>17.94211230295787</v>
+        <v>1.011510189143266</v>
       </c>
       <c r="J138" t="n">
-        <v>9.779784813428705</v>
+        <v>7.456470216907104</v>
       </c>
       <c r="K138" t="n">
         <v>1</v>
@@ -5287,34 +5287,34 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>27.40513846898379</v>
+        <v>94.6450837634189</v>
       </c>
       <c r="B139" t="n">
-        <v>37.48645449669657</v>
+        <v>113.5820480617143</v>
       </c>
       <c r="C139" t="n">
-        <v>156.3192139411911</v>
+        <v>147.3813262230104</v>
       </c>
       <c r="D139" t="n">
-        <v>160.9867441172973</v>
+        <v>131.8526982612626</v>
       </c>
       <c r="E139" t="n">
-        <v>133.7697928244704</v>
+        <v>50.04806341877201</v>
       </c>
       <c r="F139" t="n">
-        <v>142.3755383420965</v>
+        <v>45.50519630826337</v>
       </c>
       <c r="G139" t="n">
-        <v>124.9559008134965</v>
+        <v>100.4011041752028</v>
       </c>
       <c r="H139" t="n">
-        <v>99.10583477035348</v>
+        <v>87.07013660003048</v>
       </c>
       <c r="I139" t="n">
-        <v>11.36143043869262</v>
+        <v>42.83077203668246</v>
       </c>
       <c r="J139" t="n">
-        <v>4.751352270049741</v>
+        <v>21.09352999969676</v>
       </c>
       <c r="K139" t="n">
         <v>1</v>
@@ -5322,34 +5322,34 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>12.55793299283504</v>
+        <v>60.84127748374366</v>
       </c>
       <c r="B140" t="n">
-        <v>25.62419492734376</v>
+        <v>52.22551357541614</v>
       </c>
       <c r="C140" t="n">
-        <v>127.5631684899623</v>
+        <v>34.74571680934968</v>
       </c>
       <c r="D140" t="n">
-        <v>127.5965651180715</v>
+        <v>95.97203557573363</v>
       </c>
       <c r="E140" t="n">
-        <v>129.4983154000826</v>
+        <v>31.51127427575788</v>
       </c>
       <c r="F140" t="n">
-        <v>107.2263798545935</v>
+        <v>7.115463776926014</v>
       </c>
       <c r="G140" t="n">
-        <v>101.8922042985018</v>
+        <v>13.97818751562443</v>
       </c>
       <c r="H140" t="n">
-        <v>77.913044900204</v>
+        <v>9.705690087343877</v>
       </c>
       <c r="I140" t="n">
-        <v>40.27022619068987</v>
+        <v>21.91839571829497</v>
       </c>
       <c r="J140" t="n">
-        <v>20.69782428793263</v>
+        <v>12.80801009665226</v>
       </c>
       <c r="K140" t="n">
         <v>1</v>
@@ -5357,34 +5357,34 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>14.09787050609722</v>
+        <v>0.457360666101471</v>
       </c>
       <c r="B141" t="n">
-        <v>18.56232991169357</v>
+        <v>37.17609650995857</v>
       </c>
       <c r="C141" t="n">
-        <v>88.72726833130416</v>
+        <v>132.2234841263489</v>
       </c>
       <c r="D141" t="n">
-        <v>93.87945268331956</v>
+        <v>132.3597969117731</v>
       </c>
       <c r="E141" t="n">
-        <v>80.39652628929161</v>
+        <v>110.102012391324</v>
       </c>
       <c r="F141" t="n">
-        <v>90.4718336565292</v>
+        <v>97.00516379017401</v>
       </c>
       <c r="G141" t="n">
-        <v>30.91321704173731</v>
+        <v>114.4197588342749</v>
       </c>
       <c r="H141" t="n">
-        <v>50.72145689744428</v>
+        <v>81.42536733790868</v>
       </c>
       <c r="I141" t="n">
-        <v>17.73711148013749</v>
+        <v>32.5888417880253</v>
       </c>
       <c r="J141" t="n">
-        <v>18.97636568948137</v>
+        <v>2.569126492960452</v>
       </c>
       <c r="K141" t="n">
         <v>1</v>
@@ -5392,34 +5392,34 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>43.88896622686211</v>
+        <v>3.055688897040079</v>
       </c>
       <c r="B142" t="n">
-        <v>33.84646494365983</v>
+        <v>25.91826633238323</v>
       </c>
       <c r="C142" t="n">
-        <v>85.63098870046865</v>
+        <v>120.3054780974249</v>
       </c>
       <c r="D142" t="n">
-        <v>81.11051598626561</v>
+        <v>121.4152625771294</v>
       </c>
       <c r="E142" t="n">
-        <v>57.86170243280687</v>
+        <v>121.6744511501497</v>
       </c>
       <c r="F142" t="n">
-        <v>60.52044555720104</v>
+        <v>101.8899318971978</v>
       </c>
       <c r="G142" t="n">
-        <v>67.59413382465476</v>
+        <v>74.9295630758337</v>
       </c>
       <c r="H142" t="n">
-        <v>74.74916052732482</v>
+        <v>85.77370444614274</v>
       </c>
       <c r="I142" t="n">
-        <v>7.562575996551154</v>
+        <v>37.0575922717488</v>
       </c>
       <c r="J142" t="n">
-        <v>5.38529410876936</v>
+        <v>9.089545024515475</v>
       </c>
       <c r="K142" t="n">
         <v>1</v>
@@ -5427,34 +5427,34 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>3.17199127445681</v>
+        <v>58.78048358510942</v>
       </c>
       <c r="B143" t="n">
-        <v>51.66143674300417</v>
+        <v>55.14031407317789</v>
       </c>
       <c r="C143" t="n">
-        <v>127.8711186958744</v>
+        <v>134.2703768304753</v>
       </c>
       <c r="D143" t="n">
-        <v>132.3253920906184</v>
+        <v>139.2818132059974</v>
       </c>
       <c r="E143" t="n">
-        <v>131.7376045200998</v>
+        <v>82.37858552638136</v>
       </c>
       <c r="F143" t="n">
-        <v>96.59576333628638</v>
+        <v>89.71584813294947</v>
       </c>
       <c r="G143" t="n">
-        <v>144.4814498105603</v>
+        <v>78.31775678872188</v>
       </c>
       <c r="H143" t="n">
-        <v>73.27216629837369</v>
+        <v>50.95633426369512</v>
       </c>
       <c r="I143" t="n">
-        <v>2.767981301623729</v>
+        <v>25.52619717919614</v>
       </c>
       <c r="J143" t="n">
-        <v>13.80057473211358</v>
+        <v>11.19629934833533</v>
       </c>
       <c r="K143" t="n">
         <v>1</v>
@@ -5462,34 +5462,34 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.42626649569448</v>
+        <v>18.36242359263418</v>
       </c>
       <c r="B144" t="n">
-        <v>59.36073623585111</v>
+        <v>30.39109687398963</v>
       </c>
       <c r="C144" t="n">
-        <v>121.5899399381832</v>
+        <v>113.8489634376734</v>
       </c>
       <c r="D144" t="n">
-        <v>170.0340294267052</v>
+        <v>114.9996622247484</v>
       </c>
       <c r="E144" t="n">
-        <v>125.6285778531203</v>
+        <v>117.8068897598314</v>
       </c>
       <c r="F144" t="n">
-        <v>109.9671659472204</v>
+        <v>102.2111551773531</v>
       </c>
       <c r="G144" t="n">
-        <v>36.9891735969868</v>
+        <v>61.87257303905858</v>
       </c>
       <c r="H144" t="n">
-        <v>68.08407816246704</v>
+        <v>98.31916024095</v>
       </c>
       <c r="I144" t="n">
-        <v>47.15652639573025</v>
+        <v>66.25821000889951</v>
       </c>
       <c r="J144" t="n">
-        <v>4.391844836147504</v>
+        <v>11.74896788010551</v>
       </c>
       <c r="K144" t="n">
         <v>1</v>
@@ -5497,34 +5497,34 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>12.84037770943189</v>
+        <v>16.60639810517129</v>
       </c>
       <c r="B145" t="n">
-        <v>24.19539351441075</v>
+        <v>17.88905958470587</v>
       </c>
       <c r="C145" t="n">
-        <v>134.9641238691731</v>
+        <v>112.7165437323727</v>
       </c>
       <c r="D145" t="n">
-        <v>156.5779221173686</v>
+        <v>103.411159383786</v>
       </c>
       <c r="E145" t="n">
-        <v>125.6114506258441</v>
+        <v>123.1546476099566</v>
       </c>
       <c r="F145" t="n">
-        <v>134.1849545768469</v>
+        <v>105.9730357816588</v>
       </c>
       <c r="G145" t="n">
-        <v>102.0538605674634</v>
+        <v>89.94633140613331</v>
       </c>
       <c r="H145" t="n">
-        <v>87.44468824459942</v>
+        <v>99.82577482006366</v>
       </c>
       <c r="I145" t="n">
-        <v>30.65053960103255</v>
+        <v>44.62746584851195</v>
       </c>
       <c r="J145" t="n">
-        <v>26.80119238743665</v>
+        <v>11.17503813867221</v>
       </c>
       <c r="K145" t="n">
         <v>1</v>
@@ -5532,34 +5532,34 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>44.95819756937042</v>
+        <v>56.96360344778873</v>
       </c>
       <c r="B146" t="n">
-        <v>29.97091246046201</v>
+        <v>71.74699111288334</v>
       </c>
       <c r="C146" t="n">
-        <v>84.92250492148939</v>
+        <v>143.4446581293053</v>
       </c>
       <c r="D146" t="n">
-        <v>84.7572435264798</v>
+        <v>141.427913916973</v>
       </c>
       <c r="E146" t="n">
-        <v>61.31970519939767</v>
+        <v>90.54061359252597</v>
       </c>
       <c r="F146" t="n">
-        <v>68.08111998903784</v>
+        <v>84.23242374568736</v>
       </c>
       <c r="G146" t="n">
-        <v>52.76431509969188</v>
+        <v>59.34748698743277</v>
       </c>
       <c r="H146" t="n">
-        <v>48.77202284383037</v>
+        <v>52.4553589306683</v>
       </c>
       <c r="I146" t="n">
-        <v>16.5021408013118</v>
+        <v>9.634349744601655</v>
       </c>
       <c r="J146" t="n">
-        <v>21.74547443351808</v>
+        <v>3.687649443053008</v>
       </c>
       <c r="K146" t="n">
         <v>1</v>
@@ -5567,34 +5567,34 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>22.68665477207269</v>
+        <v>61.09155309640969</v>
       </c>
       <c r="B147" t="n">
-        <v>31.10036854721596</v>
+        <v>37.16248877948157</v>
       </c>
       <c r="C147" t="n">
-        <v>133.4178514679668</v>
+        <v>142.0394424040983</v>
       </c>
       <c r="D147" t="n">
-        <v>146.7422155662441</v>
+        <v>134.1760762618269</v>
       </c>
       <c r="E147" t="n">
-        <v>114.8175667395978</v>
+        <v>85.94238003028698</v>
       </c>
       <c r="F147" t="n">
-        <v>124.4602238107393</v>
+        <v>101.0579583793122</v>
       </c>
       <c r="G147" t="n">
-        <v>103.9323743042587</v>
+        <v>79.99372332600296</v>
       </c>
       <c r="H147" t="n">
-        <v>89.26125243193574</v>
+        <v>104.2737178785829</v>
       </c>
       <c r="I147" t="n">
-        <v>18.82495934753089</v>
+        <v>29.32217319720562</v>
       </c>
       <c r="J147" t="n">
-        <v>23.16580303426655</v>
+        <v>13.90906886851537</v>
       </c>
       <c r="K147" t="n">
         <v>1</v>
@@ -5602,34 +5602,34 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>29.21010516193734</v>
+        <v>8.531305177530202</v>
       </c>
       <c r="B148" t="n">
-        <v>53.13563006687571</v>
+        <v>38.71255388512908</v>
       </c>
       <c r="C148" t="n">
-        <v>155.670887638797</v>
+        <v>154.4039889676467</v>
       </c>
       <c r="D148" t="n">
-        <v>146.6323365923897</v>
+        <v>135.4069872975786</v>
       </c>
       <c r="E148" t="n">
-        <v>96.56818454358995</v>
+        <v>120.1901524298853</v>
       </c>
       <c r="F148" t="n">
-        <v>96.78538718953027</v>
+        <v>103.0604349886304</v>
       </c>
       <c r="G148" t="n">
-        <v>118.4280414447006</v>
+        <v>111.8926708218221</v>
       </c>
       <c r="H148" t="n">
-        <v>120.20521588971</v>
+        <v>82.83091977412565</v>
       </c>
       <c r="I148" t="n">
-        <v>21.52737783701469</v>
+        <v>34.84668959967315</v>
       </c>
       <c r="J148" t="n">
-        <v>20.3115892028024</v>
+        <v>13.68470266666657</v>
       </c>
       <c r="K148" t="n">
         <v>1</v>
@@ -5637,34 +5637,34 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>15.56692627029018</v>
+        <v>5.705996494642545</v>
       </c>
       <c r="B149" t="n">
-        <v>25.83224171861761</v>
+        <v>45.83207582856615</v>
       </c>
       <c r="C149" t="n">
-        <v>124.8391926265802</v>
+        <v>114.7213105265813</v>
       </c>
       <c r="D149" t="n">
-        <v>120.9346021249246</v>
+        <v>128.2520068177035</v>
       </c>
       <c r="E149" t="n">
-        <v>121.3885314544716</v>
+        <v>98.22850420471042</v>
       </c>
       <c r="F149" t="n">
-        <v>102.570371461664</v>
+        <v>87.38513723043773</v>
       </c>
       <c r="G149" t="n">
-        <v>82.64654223041515</v>
+        <v>114.5355327950319</v>
       </c>
       <c r="H149" t="n">
-        <v>89.43961643601153</v>
+        <v>83.28056134338777</v>
       </c>
       <c r="I149" t="n">
-        <v>58.40229791663702</v>
+        <v>15.28295845885555</v>
       </c>
       <c r="J149" t="n">
-        <v>10.10616574626128</v>
+        <v>15.73614858407197</v>
       </c>
       <c r="K149" t="n">
         <v>1</v>
@@ -5672,34 +5672,34 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>61.99145166945196</v>
+        <v>21.2657312172884</v>
       </c>
       <c r="B150" t="n">
-        <v>20.29737249462451</v>
+        <v>37.68406394182237</v>
       </c>
       <c r="C150" t="n">
-        <v>137.7904479930266</v>
+        <v>147.5617522505353</v>
       </c>
       <c r="D150" t="n">
-        <v>114.9645821878534</v>
+        <v>136.7137847236134</v>
       </c>
       <c r="E150" t="n">
-        <v>88.66741867387134</v>
+        <v>118.2190884484207</v>
       </c>
       <c r="F150" t="n">
-        <v>96.77449311650469</v>
+        <v>103.3217080335342</v>
       </c>
       <c r="G150" t="n">
-        <v>51.02004736277284</v>
+        <v>118.7585241069307</v>
       </c>
       <c r="H150" t="n">
-        <v>55.34703843591505</v>
+        <v>96.08386268728773</v>
       </c>
       <c r="I150" t="n">
-        <v>10.67941384629608</v>
+        <v>11.70068665618599</v>
       </c>
       <c r="J150" t="n">
-        <v>20.68155799093851</v>
+        <v>4.746675791160628</v>
       </c>
       <c r="K150" t="n">
         <v>1</v>
@@ -5707,34 +5707,34 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9.783853529444421</v>
+        <v>15.56692627029018</v>
       </c>
       <c r="B151" t="n">
-        <v>30.83917130545576</v>
+        <v>25.83224171861761</v>
       </c>
       <c r="C151" t="n">
-        <v>156.9530082717363</v>
+        <v>124.8391926265802</v>
       </c>
       <c r="D151" t="n">
-        <v>147.9620560236452</v>
+        <v>120.9346021249246</v>
       </c>
       <c r="E151" t="n">
-        <v>129.1231408306871</v>
+        <v>121.3885314544716</v>
       </c>
       <c r="F151" t="n">
-        <v>113.5151819946928</v>
+        <v>102.570371461664</v>
       </c>
       <c r="G151" t="n">
-        <v>122.3047418946569</v>
+        <v>82.64654223041515</v>
       </c>
       <c r="H151" t="n">
-        <v>63.54481794433448</v>
+        <v>89.43961643601153</v>
       </c>
       <c r="I151" t="n">
-        <v>21.07055314726843</v>
+        <v>58.40229791663702</v>
       </c>
       <c r="J151" t="n">
-        <v>2.317809779682125</v>
+        <v>10.10616574626128</v>
       </c>
       <c r="K151" t="n">
         <v>1</v>
@@ -5742,34 +5742,34 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>5.938803298358457</v>
+        <v>37.81657180047002</v>
       </c>
       <c r="B152" t="n">
-        <v>55.78012072260685</v>
+        <v>44.83761838257168</v>
       </c>
       <c r="C152" t="n">
-        <v>91.2567762707347</v>
+        <v>136.3004512844094</v>
       </c>
       <c r="D152" t="n">
-        <v>107.1089765461809</v>
+        <v>138.5026366812159</v>
       </c>
       <c r="E152" t="n">
-        <v>81.56734559741882</v>
+        <v>113.0014197298677</v>
       </c>
       <c r="F152" t="n">
-        <v>74.75077286596169</v>
+        <v>101.2196688482218</v>
       </c>
       <c r="G152" t="n">
-        <v>93.9599592459947</v>
+        <v>107.363433689513</v>
       </c>
       <c r="H152" t="n">
-        <v>101.6422261378556</v>
+        <v>104.758936468167</v>
       </c>
       <c r="I152" t="n">
-        <v>31.8881966533632</v>
+        <v>5.971758849455664</v>
       </c>
       <c r="J152" t="n">
-        <v>11.2394146571751</v>
+        <v>28.6507257604031</v>
       </c>
       <c r="K152" t="n">
         <v>1</v>
@@ -5777,34 +5777,34 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>19.38730125995054</v>
+        <v>61.73180906725438</v>
       </c>
       <c r="B153" t="n">
-        <v>42.28501056829759</v>
+        <v>65.56056418888414</v>
       </c>
       <c r="C153" t="n">
-        <v>149.2218669186761</v>
+        <v>54.72194441090018</v>
       </c>
       <c r="D153" t="n">
-        <v>143.0102369610352</v>
+        <v>106.7068486512502</v>
       </c>
       <c r="E153" t="n">
-        <v>111.1318548953903</v>
+        <v>45.38055936552902</v>
       </c>
       <c r="F153" t="n">
-        <v>98.97908669779498</v>
+        <v>40.04027016806143</v>
       </c>
       <c r="G153" t="n">
-        <v>107.5494203166554</v>
+        <v>73.5468920617905</v>
       </c>
       <c r="H153" t="n">
-        <v>100.3266547167136</v>
+        <v>71.11235805502234</v>
       </c>
       <c r="I153" t="n">
-        <v>23.95844568190629</v>
+        <v>6.261873057920337</v>
       </c>
       <c r="J153" t="n">
-        <v>2.264568289927554</v>
+        <v>28.88790905494374</v>
       </c>
       <c r="K153" t="n">
         <v>1</v>
@@ -5812,34 +5812,34 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>16.23329276717626</v>
+        <v>66.39215691394165</v>
       </c>
       <c r="B154" t="n">
-        <v>28.46777614391421</v>
+        <v>55.9360828247655</v>
       </c>
       <c r="C154" t="n">
-        <v>121.1012768480757</v>
+        <v>137.753210651492</v>
       </c>
       <c r="D154" t="n">
-        <v>122.064130048478</v>
+        <v>138.5740353887986</v>
       </c>
       <c r="E154" t="n">
-        <v>123.7548899354644</v>
+        <v>84.48264346030544</v>
       </c>
       <c r="F154" t="n">
-        <v>101.7751958463732</v>
+        <v>87.46340911786689</v>
       </c>
       <c r="G154" t="n">
-        <v>61.50283963210114</v>
+        <v>52.51636473044687</v>
       </c>
       <c r="H154" t="n">
-        <v>87.94802107505194</v>
+        <v>40.70450786510984</v>
       </c>
       <c r="I154" t="n">
-        <v>70.24961649940484</v>
+        <v>9.34808581604559</v>
       </c>
       <c r="J154" t="n">
-        <v>12.52374545493006</v>
+        <v>18.84197494456071</v>
       </c>
       <c r="K154" t="n">
         <v>1</v>
@@ -5847,34 +5847,34 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>21.38985553580426</v>
+        <v>22.68665477207269</v>
       </c>
       <c r="B155" t="n">
-        <v>22.11611307238352</v>
+        <v>31.10036854721596</v>
       </c>
       <c r="C155" t="n">
-        <v>151.1473255513243</v>
+        <v>133.4178514679668</v>
       </c>
       <c r="D155" t="n">
-        <v>153.8284573911702</v>
+        <v>146.7422155662441</v>
       </c>
       <c r="E155" t="n">
-        <v>133.6845224198313</v>
+        <v>114.8175667395978</v>
       </c>
       <c r="F155" t="n">
-        <v>148.6346110621642</v>
+        <v>124.4602238107393</v>
       </c>
       <c r="G155" t="n">
-        <v>105.7313435376274</v>
+        <v>103.9323743042587</v>
       </c>
       <c r="H155" t="n">
-        <v>84.78876622719974</v>
+        <v>89.26125243193574</v>
       </c>
       <c r="I155" t="n">
-        <v>17.10352048948517</v>
+        <v>18.82495934753089</v>
       </c>
       <c r="J155" t="n">
-        <v>21.37061415171923</v>
+        <v>23.16580303426655</v>
       </c>
       <c r="K155" t="n">
         <v>1</v>
@@ -5882,34 +5882,34 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>17.05430166903955</v>
+        <v>41.58901341967582</v>
       </c>
       <c r="B156" t="n">
-        <v>20.75507857564061</v>
+        <v>118.0282069393403</v>
       </c>
       <c r="C156" t="n">
-        <v>98.53322954211332</v>
+        <v>87.89313134837275</v>
       </c>
       <c r="D156" t="n">
-        <v>102.3045515976152</v>
+        <v>115.9604985747722</v>
       </c>
       <c r="E156" t="n">
-        <v>92.07409738514755</v>
+        <v>56.91594182640423</v>
       </c>
       <c r="F156" t="n">
-        <v>91.94365605008916</v>
+        <v>37.96428005448013</v>
       </c>
       <c r="G156" t="n">
-        <v>39.61843140832156</v>
+        <v>77.87692911986085</v>
       </c>
       <c r="H156" t="n">
-        <v>38.71915026517826</v>
+        <v>68.88157928484014</v>
       </c>
       <c r="I156" t="n">
-        <v>24.14107692424872</v>
+        <v>9.129122753342072</v>
       </c>
       <c r="J156" t="n">
-        <v>21.44157585489708</v>
+        <v>4.989548963809326</v>
       </c>
       <c r="K156" t="n">
         <v>1</v>
@@ -5917,34 +5917,34 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>54.81112861596983</v>
+        <v>1.892736517692615</v>
       </c>
       <c r="B157" t="n">
-        <v>72.43422964154149</v>
+        <v>22.63713090431914</v>
       </c>
       <c r="C157" t="n">
-        <v>150.6038955226163</v>
+        <v>139.5928227024502</v>
       </c>
       <c r="D157" t="n">
-        <v>171.9227469677708</v>
+        <v>153.2568363554794</v>
       </c>
       <c r="E157" t="n">
-        <v>93.1065662571667</v>
+        <v>143.2363189483056</v>
       </c>
       <c r="F157" t="n">
-        <v>91.6036571631451</v>
+        <v>151.6648037568096</v>
       </c>
       <c r="G157" t="n">
-        <v>115.6766129462225</v>
+        <v>131.5159423512295</v>
       </c>
       <c r="H157" t="n">
-        <v>105.9203906678219</v>
+        <v>101.6574016584457</v>
       </c>
       <c r="I157" t="n">
-        <v>50.19326540720144</v>
+        <v>8.419401523964186</v>
       </c>
       <c r="J157" t="n">
-        <v>26.08043095194296</v>
+        <v>5.169809415871867</v>
       </c>
       <c r="K157" t="n">
         <v>1</v>
@@ -5952,34 +5952,34 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>64.14201856470164</v>
+        <v>19.38730125995054</v>
       </c>
       <c r="B158" t="n">
-        <v>84.38605599626165</v>
+        <v>42.28501056829759</v>
       </c>
       <c r="C158" t="n">
-        <v>133.6470512182919</v>
+        <v>149.2218669186761</v>
       </c>
       <c r="D158" t="n">
-        <v>171.1200953170567</v>
+        <v>143.0102369610352</v>
       </c>
       <c r="E158" t="n">
-        <v>80.16890674934028</v>
+        <v>111.1318548953903</v>
       </c>
       <c r="F158" t="n">
-        <v>82.71896036041269</v>
+        <v>98.97908669779498</v>
       </c>
       <c r="G158" t="n">
-        <v>118.3656466938451</v>
+        <v>107.5494203166554</v>
       </c>
       <c r="H158" t="n">
-        <v>59.93357341175342</v>
+        <v>100.3266547167136</v>
       </c>
       <c r="I158" t="n">
-        <v>73.23716310623325</v>
+        <v>23.95844568190629</v>
       </c>
       <c r="J158" t="n">
-        <v>10.48785988631906</v>
+        <v>2.264568289927554</v>
       </c>
       <c r="K158" t="n">
         <v>1</v>
@@ -5987,34 +5987,34 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.457360666101471</v>
+        <v>6.817391340924589</v>
       </c>
       <c r="B159" t="n">
-        <v>37.17609650995857</v>
+        <v>43.03168130597719</v>
       </c>
       <c r="C159" t="n">
-        <v>132.2234841263489</v>
+        <v>137.8254794431254</v>
       </c>
       <c r="D159" t="n">
-        <v>132.3597969117731</v>
+        <v>145.7362900946787</v>
       </c>
       <c r="E159" t="n">
-        <v>110.102012391324</v>
+        <v>124.3721300700726</v>
       </c>
       <c r="F159" t="n">
-        <v>97.00516379017401</v>
+        <v>103.1547651826529</v>
       </c>
       <c r="G159" t="n">
-        <v>114.4197588342749</v>
+        <v>97.50477999171818</v>
       </c>
       <c r="H159" t="n">
-        <v>81.42536733790868</v>
+        <v>88.84886957719948</v>
       </c>
       <c r="I159" t="n">
-        <v>32.5888417880253</v>
+        <v>34.87080367788376</v>
       </c>
       <c r="J159" t="n">
-        <v>2.569126492960452</v>
+        <v>9.023587216972004</v>
       </c>
       <c r="K159" t="n">
         <v>1</v>
@@ -6022,34 +6022,34 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>11.20406203680932</v>
+        <v>12.99604157055333</v>
       </c>
       <c r="B160" t="n">
-        <v>19.78349076832565</v>
+        <v>31.23662819719662</v>
       </c>
       <c r="C160" t="n">
-        <v>99.63841516925827</v>
+        <v>113.2635919040912</v>
       </c>
       <c r="D160" t="n">
-        <v>99.28517518362855</v>
+        <v>112.5729566031689</v>
       </c>
       <c r="E160" t="n">
-        <v>89.58340680428418</v>
+        <v>116.7867135551692</v>
       </c>
       <c r="F160" t="n">
-        <v>88.08577879203649</v>
+        <v>99.52534176167404</v>
       </c>
       <c r="G160" t="n">
-        <v>40.092666308003</v>
+        <v>85.3506441415264</v>
       </c>
       <c r="H160" t="n">
-        <v>37.87254326276138</v>
+        <v>96.13356530113606</v>
       </c>
       <c r="I160" t="n">
-        <v>30.75033118725067</v>
+        <v>49.29150017913738</v>
       </c>
       <c r="J160" t="n">
-        <v>21.83025223850186</v>
+        <v>9.060782391150095</v>
       </c>
       <c r="K160" t="n">
         <v>1</v>
@@ -6057,34 +6057,34 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>29.39395676944251</v>
+        <v>16.23329276717626</v>
       </c>
       <c r="B161" t="n">
-        <v>39.31731089241167</v>
+        <v>28.46777614391421</v>
       </c>
       <c r="C161" t="n">
-        <v>105.4818095249416</v>
+        <v>121.1012768480757</v>
       </c>
       <c r="D161" t="n">
-        <v>108.5015654455939</v>
+        <v>122.064130048478</v>
       </c>
       <c r="E161" t="n">
-        <v>86.07933617602856</v>
+        <v>123.7548899354644</v>
       </c>
       <c r="F161" t="n">
-        <v>82.08947178660267</v>
+        <v>101.7751958463732</v>
       </c>
       <c r="G161" t="n">
-        <v>39.55916213214772</v>
+        <v>61.50283963210114</v>
       </c>
       <c r="H161" t="n">
-        <v>41.95805186041048</v>
+        <v>87.94802107505194</v>
       </c>
       <c r="I161" t="n">
-        <v>15.35547160288182</v>
+        <v>70.24961649940484</v>
       </c>
       <c r="J161" t="n">
-        <v>12.06952528218368</v>
+        <v>12.52374545493006</v>
       </c>
       <c r="K161" t="n">
         <v>1</v>
@@ -6092,34 +6092,34 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>7.209392724431324</v>
+        <v>2.42626649569448</v>
       </c>
       <c r="B162" t="n">
-        <v>10.86072228969081</v>
+        <v>59.36073623585111</v>
       </c>
       <c r="C162" t="n">
-        <v>146.0764194726498</v>
+        <v>121.5899399381832</v>
       </c>
       <c r="D162" t="n">
-        <v>145.7738486910709</v>
+        <v>170.0340294267052</v>
       </c>
       <c r="E162" t="n">
-        <v>145.3821798182893</v>
+        <v>125.6285778531203</v>
       </c>
       <c r="F162" t="n">
-        <v>150.1039645316934</v>
+        <v>109.9671659472204</v>
       </c>
       <c r="G162" t="n">
-        <v>113.5953677929692</v>
+        <v>36.9891735969868</v>
       </c>
       <c r="H162" t="n">
-        <v>88.31685330711611</v>
+        <v>68.08407816246704</v>
       </c>
       <c r="I162" t="n">
-        <v>15.31720375396931</v>
+        <v>47.15652639573025</v>
       </c>
       <c r="J162" t="n">
-        <v>35.76783949434183</v>
+        <v>4.391844836147504</v>
       </c>
       <c r="K162" t="n">
         <v>1</v>
@@ -6127,34 +6127,34 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>7.543178970153651</v>
+        <v>72.24687134539614</v>
       </c>
       <c r="B163" t="n">
-        <v>14.68596353059904</v>
+        <v>80.38724562316023</v>
       </c>
       <c r="C163" t="n">
-        <v>89.70344223464339</v>
+        <v>136.4660315863435</v>
       </c>
       <c r="D163" t="n">
-        <v>90.45747940167716</v>
+        <v>127.6234593225485</v>
       </c>
       <c r="E163" t="n">
-        <v>85.40034331682128</v>
+        <v>102.4558716211881</v>
       </c>
       <c r="F163" t="n">
-        <v>87.79251662098353</v>
+        <v>72.94174584533178</v>
       </c>
       <c r="G163" t="n">
-        <v>37.90403065602322</v>
+        <v>94.76482465501238</v>
       </c>
       <c r="H163" t="n">
-        <v>38.92790069499478</v>
+        <v>56.11825756247714</v>
       </c>
       <c r="I163" t="n">
-        <v>31.63426720857141</v>
+        <v>10.66994216560314</v>
       </c>
       <c r="J163" t="n">
-        <v>23.28869939117442</v>
+        <v>6.478251105052057</v>
       </c>
       <c r="K163" t="n">
         <v>1</v>
@@ -6162,34 +6162,34 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>37.59986015178023</v>
+        <v>76.686851885564</v>
       </c>
       <c r="B164" t="n">
-        <v>26.69378593758697</v>
+        <v>71.52408084933016</v>
       </c>
       <c r="C164" t="n">
-        <v>80.00856733462177</v>
+        <v>130.9256978949561</v>
       </c>
       <c r="D164" t="n">
-        <v>84.40005543182228</v>
+        <v>129.6141676817152</v>
       </c>
       <c r="E164" t="n">
-        <v>63.69981265384286</v>
+        <v>66.556986861018</v>
       </c>
       <c r="F164" t="n">
-        <v>70.4282946626065</v>
+        <v>64.29881249647514</v>
       </c>
       <c r="G164" t="n">
-        <v>56.06962738619086</v>
+        <v>55.78245330660439</v>
       </c>
       <c r="H164" t="n">
-        <v>51.50760258743139</v>
+        <v>48.16538230377975</v>
       </c>
       <c r="I164" t="n">
-        <v>13.73586834007483</v>
+        <v>9.119644254142282</v>
       </c>
       <c r="J164" t="n">
-        <v>21.81605824703542</v>
+        <v>9.64323643338216</v>
       </c>
       <c r="K164" t="n">
         <v>1</v>
@@ -6197,34 +6197,34 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.29370429756082</v>
+        <v>86.85423019003008</v>
       </c>
       <c r="B165" t="n">
-        <v>19.00307782552706</v>
+        <v>75.24845719170435</v>
       </c>
       <c r="C165" t="n">
-        <v>147.755273209186</v>
+        <v>55.42213984281636</v>
       </c>
       <c r="D165" t="n">
-        <v>160.099953986349</v>
+        <v>148.3453082066829</v>
       </c>
       <c r="E165" t="n">
-        <v>144.3860438822806</v>
+        <v>59.65401786570399</v>
       </c>
       <c r="F165" t="n">
-        <v>153.0821498330381</v>
+        <v>68.92505294804045</v>
       </c>
       <c r="G165" t="n">
-        <v>133.3993540220972</v>
+        <v>119.7089831171058</v>
       </c>
       <c r="H165" t="n">
-        <v>90.49036242447633</v>
+        <v>107.7653555081441</v>
       </c>
       <c r="I165" t="n">
-        <v>3.298875499018467</v>
+        <v>15.09433495642636</v>
       </c>
       <c r="J165" t="n">
-        <v>21.58555263585539</v>
+        <v>40.45290601638759</v>
       </c>
       <c r="K165" t="n">
         <v>1</v>
@@ -6232,34 +6232,34 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>14.41637022519375</v>
+        <v>22.05500854164664</v>
       </c>
       <c r="B166" t="n">
-        <v>23.57403469248154</v>
+        <v>37.8197769278871</v>
       </c>
       <c r="C166" t="n">
-        <v>143.7290147313971</v>
+        <v>139.9776778760244</v>
       </c>
       <c r="D166" t="n">
-        <v>152.4853255504084</v>
+        <v>131.3181609539941</v>
       </c>
       <c r="E166" t="n">
-        <v>134.6432435246012</v>
+        <v>107.3816845534161</v>
       </c>
       <c r="F166" t="n">
-        <v>135.758570038304</v>
+        <v>99.62870856093694</v>
       </c>
       <c r="G166" t="n">
-        <v>116.8231363259395</v>
+        <v>100.9398320036799</v>
       </c>
       <c r="H166" t="n">
-        <v>87.04314815306009</v>
+        <v>96.06440783458389</v>
       </c>
       <c r="I166" t="n">
-        <v>13.41141603952827</v>
+        <v>17.12764151953874</v>
       </c>
       <c r="J166" t="n">
-        <v>27.55231908299421</v>
+        <v>5.872352885526005</v>
       </c>
       <c r="K166" t="n">
         <v>1</v>
@@ -6267,34 +6267,34 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.571106775475323</v>
+        <v>34.25851315545538</v>
       </c>
       <c r="B167" t="n">
-        <v>16.20418958213225</v>
+        <v>31.84541936048105</v>
       </c>
       <c r="C167" t="n">
-        <v>149.2508247033058</v>
+        <v>143.0820983567559</v>
       </c>
       <c r="D167" t="n">
-        <v>156.8154130296627</v>
+        <v>141.9312736497454</v>
       </c>
       <c r="E167" t="n">
-        <v>147.4970468936169</v>
+        <v>113.750496652862</v>
       </c>
       <c r="F167" t="n">
-        <v>141.495556947652</v>
+        <v>117.0436255459657</v>
       </c>
       <c r="G167" t="n">
-        <v>128.1418515736058</v>
+        <v>102.0404267448574</v>
       </c>
       <c r="H167" t="n">
-        <v>92.95147983317854</v>
+        <v>99.78497851174302</v>
       </c>
       <c r="I167" t="n">
-        <v>4.900472492133539</v>
+        <v>11.18279265375902</v>
       </c>
       <c r="J167" t="n">
-        <v>30.24096394876163</v>
+        <v>13.87817647282719</v>
       </c>
       <c r="K167" t="n">
         <v>1</v>
@@ -6302,34 +6302,34 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>61.73180906725438</v>
+        <v>5.647345919213231</v>
       </c>
       <c r="B168" t="n">
-        <v>65.56056418888414</v>
+        <v>39.74680968643118</v>
       </c>
       <c r="C168" t="n">
-        <v>54.72194441090018</v>
+        <v>128.7022680206078</v>
       </c>
       <c r="D168" t="n">
-        <v>106.7068486512502</v>
+        <v>135.5598271338133</v>
       </c>
       <c r="E168" t="n">
-        <v>45.38055936552902</v>
+        <v>109.5263363104693</v>
       </c>
       <c r="F168" t="n">
-        <v>40.04027016806143</v>
+        <v>96.54348066888289</v>
       </c>
       <c r="G168" t="n">
-        <v>73.5468920617905</v>
+        <v>122.6648798274953</v>
       </c>
       <c r="H168" t="n">
-        <v>71.11235805502234</v>
+        <v>84.69456312220422</v>
       </c>
       <c r="I168" t="n">
-        <v>6.261873057920337</v>
+        <v>27.5575229084148</v>
       </c>
       <c r="J168" t="n">
-        <v>28.88790905494374</v>
+        <v>0.9425471110617635</v>
       </c>
       <c r="K168" t="n">
         <v>1</v>
@@ -6337,34 +6337,34 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>7.742747947821451</v>
+        <v>92.86789278870602</v>
       </c>
       <c r="B169" t="n">
-        <v>82.3936825149725</v>
+        <v>114.6126024650971</v>
       </c>
       <c r="C169" t="n">
-        <v>76.02653934400074</v>
+        <v>136.7962703185924</v>
       </c>
       <c r="D169" t="n">
-        <v>174.518140044417</v>
+        <v>117.5177601383615</v>
       </c>
       <c r="E169" t="n">
-        <v>92.70835150938649</v>
+        <v>63.05555590267637</v>
       </c>
       <c r="F169" t="n">
-        <v>79.92209448441341</v>
+        <v>44.17588623889554</v>
       </c>
       <c r="G169" t="n">
-        <v>90.64441319918613</v>
+        <v>71.86431795750354</v>
       </c>
       <c r="H169" t="n">
-        <v>73.81884572789663</v>
+        <v>77.78919743027882</v>
       </c>
       <c r="I169" t="n">
-        <v>44.96223644008682</v>
+        <v>11.23183930823897</v>
       </c>
       <c r="J169" t="n">
-        <v>18.08332665132662</v>
+        <v>10.88000289536982</v>
       </c>
       <c r="K169" t="n">
         <v>1</v>
@@ -6372,34 +6372,34 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>18.36242359263418</v>
+        <v>52.07468491495349</v>
       </c>
       <c r="B170" t="n">
-        <v>30.39109687398963</v>
+        <v>16.57042492920087</v>
       </c>
       <c r="C170" t="n">
-        <v>113.8489634376734</v>
+        <v>54.0936241725308</v>
       </c>
       <c r="D170" t="n">
-        <v>114.9996622247484</v>
+        <v>56.31696352842027</v>
       </c>
       <c r="E170" t="n">
-        <v>117.8068897598314</v>
+        <v>52.40046978147461</v>
       </c>
       <c r="F170" t="n">
-        <v>102.2111551773531</v>
+        <v>88.63764841268011</v>
       </c>
       <c r="G170" t="n">
-        <v>61.87257303905858</v>
+        <v>92.66370629344318</v>
       </c>
       <c r="H170" t="n">
-        <v>98.31916024095</v>
+        <v>94.07732738841068</v>
       </c>
       <c r="I170" t="n">
-        <v>66.25821000889951</v>
+        <v>8.039599325080919</v>
       </c>
       <c r="J170" t="n">
-        <v>11.74896788010551</v>
+        <v>15.69691404458783</v>
       </c>
       <c r="K170" t="n">
         <v>1</v>
@@ -6407,34 +6407,34 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>4.422596464205279</v>
+        <v>36.66414727002199</v>
       </c>
       <c r="B171" t="n">
-        <v>37.85813606535061</v>
+        <v>25.08721707964854</v>
       </c>
       <c r="C171" t="n">
-        <v>144.0164514318743</v>
+        <v>84.01575951336893</v>
       </c>
       <c r="D171" t="n">
-        <v>145.5567544357465</v>
+        <v>73.70618505756119</v>
       </c>
       <c r="E171" t="n">
-        <v>126.1171887061574</v>
+        <v>64.12608355807805</v>
       </c>
       <c r="F171" t="n">
-        <v>105.2608387691539</v>
+        <v>95.16359299834039</v>
       </c>
       <c r="G171" t="n">
-        <v>102.7887915523733</v>
+        <v>75.36669550921299</v>
       </c>
       <c r="H171" t="n">
-        <v>83.35294257695165</v>
+        <v>90.38038954742241</v>
       </c>
       <c r="I171" t="n">
-        <v>36.5588767681941</v>
+        <v>6.785801048550707</v>
       </c>
       <c r="J171" t="n">
-        <v>10.43989283066065</v>
+        <v>44.88376942643001</v>
       </c>
       <c r="K171" t="n">
         <v>1</v>
@@ -6442,34 +6442,34 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>106.7927457456158</v>
+        <v>14.41637022519375</v>
       </c>
       <c r="B172" t="n">
-        <v>80.16724352504745</v>
+        <v>23.57403469248154</v>
       </c>
       <c r="C172" t="n">
-        <v>28.22374554646911</v>
+        <v>143.7290147313971</v>
       </c>
       <c r="D172" t="n">
-        <v>138.2642010912081</v>
+        <v>152.4853255504084</v>
       </c>
       <c r="E172" t="n">
-        <v>42.30973524728297</v>
+        <v>134.6432435246012</v>
       </c>
       <c r="F172" t="n">
-        <v>51.13533676359334</v>
+        <v>135.758570038304</v>
       </c>
       <c r="G172" t="n">
-        <v>44.78177807731915</v>
+        <v>116.8231363259395</v>
       </c>
       <c r="H172" t="n">
-        <v>52.90998545103825</v>
+        <v>87.04314815306009</v>
       </c>
       <c r="I172" t="n">
-        <v>26.36170214514155</v>
+        <v>13.41141603952827</v>
       </c>
       <c r="J172" t="n">
-        <v>4.527180426370548</v>
+        <v>27.55231908299421</v>
       </c>
       <c r="K172" t="n">
         <v>1</v>
@@ -6477,34 +6477,34 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>23.13660292572298</v>
+        <v>13.1360747592888</v>
       </c>
       <c r="B173" t="n">
-        <v>18.27396023461721</v>
+        <v>46.5781634319362</v>
       </c>
       <c r="C173" t="n">
-        <v>76.14150905784453</v>
+        <v>121.2914908785112</v>
       </c>
       <c r="D173" t="n">
-        <v>73.23814721842209</v>
+        <v>133.5786379876624</v>
       </c>
       <c r="E173" t="n">
-        <v>59.48658664245009</v>
+        <v>104.31655832425</v>
       </c>
       <c r="F173" t="n">
-        <v>60.17331805800875</v>
+        <v>91.28868430128006</v>
       </c>
       <c r="G173" t="n">
-        <v>75.81204302166827</v>
+        <v>118.12867016917</v>
       </c>
       <c r="H173" t="n">
-        <v>80.62864695859366</v>
+        <v>81.98758812234072</v>
       </c>
       <c r="I173" t="n">
-        <v>22.45347880314387</v>
+        <v>2.272183072700755</v>
       </c>
       <c r="J173" t="n">
-        <v>20.36112003695721</v>
+        <v>8.775956919765324</v>
       </c>
       <c r="K173" t="n">
         <v>1</v>
@@ -6512,34 +6512,34 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>54.04340564882038</v>
+        <v>62.6798028180273</v>
       </c>
       <c r="B174" t="n">
-        <v>20.84080402101235</v>
+        <v>41.19646290020857</v>
       </c>
       <c r="C174" t="n">
-        <v>99.55545061559717</v>
+        <v>144.9677493092364</v>
       </c>
       <c r="D174" t="n">
-        <v>89.34396819929339</v>
+        <v>136.0012024921216</v>
       </c>
       <c r="E174" t="n">
-        <v>95.95633074756392</v>
+        <v>84.17781476614471</v>
       </c>
       <c r="F174" t="n">
-        <v>98.41741093513042</v>
+        <v>103.9312278879445</v>
       </c>
       <c r="G174" t="n">
-        <v>54.11344848761047</v>
+        <v>85.68561921616119</v>
       </c>
       <c r="H174" t="n">
-        <v>61.40195800345151</v>
+        <v>72.57710978268412</v>
       </c>
       <c r="I174" t="n">
-        <v>33.25806509982939</v>
+        <v>28.20551587904211</v>
       </c>
       <c r="J174" t="n">
-        <v>26.86440897919042</v>
+        <v>7.688327277341397</v>
       </c>
       <c r="K174" t="n">
         <v>1</v>
@@ -6547,34 +6547,34 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>8.531305177530202</v>
+        <v>2.076067197106931</v>
       </c>
       <c r="B175" t="n">
-        <v>38.71255388512908</v>
+        <v>15.33259433886909</v>
       </c>
       <c r="C175" t="n">
-        <v>154.4039889676467</v>
+        <v>127.802092681398</v>
       </c>
       <c r="D175" t="n">
-        <v>135.4069872975786</v>
+        <v>119.0004421963053</v>
       </c>
       <c r="E175" t="n">
-        <v>120.1901524298853</v>
+        <v>121.5140046003795</v>
       </c>
       <c r="F175" t="n">
-        <v>103.0604349886304</v>
+        <v>109.2558619709982</v>
       </c>
       <c r="G175" t="n">
-        <v>111.8926708218221</v>
+        <v>92.9695822560422</v>
       </c>
       <c r="H175" t="n">
-        <v>82.83091977412565</v>
+        <v>86.58901930098989</v>
       </c>
       <c r="I175" t="n">
-        <v>34.84668959967315</v>
+        <v>24.00456423785783</v>
       </c>
       <c r="J175" t="n">
-        <v>13.68470266666657</v>
+        <v>7.639328049999271</v>
       </c>
       <c r="K175" t="n">
         <v>1</v>
@@ -6582,34 +6582,34 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>6.817391340924589</v>
+        <v>14.01019141284292</v>
       </c>
       <c r="B176" t="n">
-        <v>43.03168130597719</v>
+        <v>22.20846332641734</v>
       </c>
       <c r="C176" t="n">
-        <v>137.8254794431254</v>
+        <v>140.7922165145443</v>
       </c>
       <c r="D176" t="n">
-        <v>145.7362900946787</v>
+        <v>124.0182456046208</v>
       </c>
       <c r="E176" t="n">
-        <v>124.3721300700726</v>
+        <v>119.6013098950237</v>
       </c>
       <c r="F176" t="n">
-        <v>103.1547651826529</v>
+        <v>108.2767301112375</v>
       </c>
       <c r="G176" t="n">
-        <v>97.50477999171818</v>
+        <v>105.0011579052794</v>
       </c>
       <c r="H176" t="n">
-        <v>88.84886957719948</v>
+        <v>87.67466402681677</v>
       </c>
       <c r="I176" t="n">
-        <v>34.87080367788376</v>
+        <v>19.62584794013829</v>
       </c>
       <c r="J176" t="n">
-        <v>9.023587216972004</v>
+        <v>0.5339263479189885</v>
       </c>
       <c r="K176" t="n">
         <v>1</v>
@@ -6617,34 +6617,34 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>22.93644646675461</v>
+        <v>63.28733167456424</v>
       </c>
       <c r="B177" t="n">
-        <v>13.30723347232575</v>
+        <v>59.6021193392807</v>
       </c>
       <c r="C177" t="n">
-        <v>75.41231487180282</v>
+        <v>65.37763027657294</v>
       </c>
       <c r="D177" t="n">
-        <v>70.58837899666098</v>
+        <v>119.8535748090139</v>
       </c>
       <c r="E177" t="n">
-        <v>60.27611073962108</v>
+        <v>53.05327871894949</v>
       </c>
       <c r="F177" t="n">
-        <v>62.39840390940839</v>
+        <v>45.90884667973925</v>
       </c>
       <c r="G177" t="n">
-        <v>100.8463012068814</v>
+        <v>97.44530040155254</v>
       </c>
       <c r="H177" t="n">
-        <v>66.55110803946297</v>
+        <v>86.1063586973363</v>
       </c>
       <c r="I177" t="n">
-        <v>17.92708917875848</v>
+        <v>1.469093341608759</v>
       </c>
       <c r="J177" t="n">
-        <v>21.3477728105878</v>
+        <v>24.83474790209903</v>
       </c>
       <c r="K177" t="n">
         <v>1</v>
@@ -6652,34 +6652,34 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>15.78620693016957</v>
+        <v>41.55154248396671</v>
       </c>
       <c r="B178" t="n">
-        <v>18.68021978064853</v>
+        <v>61.87230459770458</v>
       </c>
       <c r="C178" t="n">
-        <v>89.90066543322099</v>
+        <v>131.9255403137472</v>
       </c>
       <c r="D178" t="n">
-        <v>95.66508298621387</v>
+        <v>132.0249481752636</v>
       </c>
       <c r="E178" t="n">
-        <v>95.62392983365322</v>
+        <v>89.50150789217697</v>
       </c>
       <c r="F178" t="n">
-        <v>99.30581871947513</v>
+        <v>88.7681876976788</v>
       </c>
       <c r="G178" t="n">
-        <v>49.69620017832551</v>
+        <v>107.7179765828523</v>
       </c>
       <c r="H178" t="n">
-        <v>41.74245040035868</v>
+        <v>115.6803833745177</v>
       </c>
       <c r="I178" t="n">
-        <v>26.63631663516564</v>
+        <v>5.593339662851111</v>
       </c>
       <c r="J178" t="n">
-        <v>26.95043750428427</v>
+        <v>16.38946532598732</v>
       </c>
       <c r="K178" t="n">
         <v>1</v>
@@ -6687,34 +6687,34 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>63.28733167456424</v>
+        <v>51.61295428770953</v>
       </c>
       <c r="B179" t="n">
-        <v>59.6021193392807</v>
+        <v>0.8563133021330884</v>
       </c>
       <c r="C179" t="n">
-        <v>65.37763027657294</v>
+        <v>141.135749465214</v>
       </c>
       <c r="D179" t="n">
-        <v>119.8535748090139</v>
+        <v>125.1403963580835</v>
       </c>
       <c r="E179" t="n">
-        <v>53.05327871894949</v>
+        <v>99.78941940716669</v>
       </c>
       <c r="F179" t="n">
-        <v>45.90884667973925</v>
+        <v>107.1286287341136</v>
       </c>
       <c r="G179" t="n">
-        <v>97.44530040155254</v>
+        <v>55.22874575714273</v>
       </c>
       <c r="H179" t="n">
-        <v>86.1063586973363</v>
+        <v>45.40723144135241</v>
       </c>
       <c r="I179" t="n">
-        <v>1.469093341608759</v>
+        <v>4.804994082855748</v>
       </c>
       <c r="J179" t="n">
-        <v>24.83474790209903</v>
+        <v>53.89585892481649</v>
       </c>
       <c r="K179" t="n">
         <v>1</v>
@@ -6722,34 +6722,34 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>54.44833842475568</v>
+        <v>21.38985553580426</v>
       </c>
       <c r="B180" t="n">
-        <v>65.5820698307804</v>
+        <v>22.11611307238352</v>
       </c>
       <c r="C180" t="n">
-        <v>150.0212954357771</v>
+        <v>151.1473255513243</v>
       </c>
       <c r="D180" t="n">
-        <v>169.0006527725953</v>
+        <v>153.8284573911702</v>
       </c>
       <c r="E180" t="n">
-        <v>96.86815383523765</v>
+        <v>133.6845224198313</v>
       </c>
       <c r="F180" t="n">
-        <v>105.9605629267389</v>
+        <v>148.6346110621642</v>
       </c>
       <c r="G180" t="n">
-        <v>115.2594839543779</v>
+        <v>105.7313435376274</v>
       </c>
       <c r="H180" t="n">
-        <v>97.91929323174611</v>
+        <v>84.78876622719974</v>
       </c>
       <c r="I180" t="n">
-        <v>58.42718888799642</v>
+        <v>17.10352048948517</v>
       </c>
       <c r="J180" t="n">
-        <v>10.54039781719499</v>
+        <v>21.37061415171923</v>
       </c>
       <c r="K180" t="n">
         <v>1</v>
@@ -6757,34 +6757,34 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.892736517692615</v>
+        <v>10.29370429756082</v>
       </c>
       <c r="B181" t="n">
-        <v>22.63713090431914</v>
+        <v>19.00307782552706</v>
       </c>
       <c r="C181" t="n">
-        <v>139.5928227024502</v>
+        <v>147.755273209186</v>
       </c>
       <c r="D181" t="n">
-        <v>153.2568363554794</v>
+        <v>160.099953986349</v>
       </c>
       <c r="E181" t="n">
-        <v>143.2363189483056</v>
+        <v>144.3860438822806</v>
       </c>
       <c r="F181" t="n">
-        <v>151.6648037568096</v>
+        <v>153.0821498330381</v>
       </c>
       <c r="G181" t="n">
-        <v>131.5159423512295</v>
+        <v>133.3993540220972</v>
       </c>
       <c r="H181" t="n">
-        <v>101.6574016584457</v>
+        <v>90.49036242447633</v>
       </c>
       <c r="I181" t="n">
-        <v>8.419401523964186</v>
+        <v>3.298875499018467</v>
       </c>
       <c r="J181" t="n">
-        <v>5.169809415871867</v>
+        <v>21.58555263585539</v>
       </c>
       <c r="K181" t="n">
         <v>1</v>
@@ -6792,34 +6792,34 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>22.84245861771676</v>
+        <v>57.08618082505868</v>
       </c>
       <c r="B182" t="n">
-        <v>21.4272871022506</v>
+        <v>29.39066324177718</v>
       </c>
       <c r="C182" t="n">
-        <v>81.50107303408292</v>
+        <v>135.2955104122083</v>
       </c>
       <c r="D182" t="n">
-        <v>75.14222805912601</v>
+        <v>128.93930377836</v>
       </c>
       <c r="E182" t="n">
-        <v>59.00853233359432</v>
+        <v>90.36520168378377</v>
       </c>
       <c r="F182" t="n">
-        <v>63.61066587934518</v>
+        <v>103.4046435468976</v>
       </c>
       <c r="G182" t="n">
-        <v>99.62228060830228</v>
+        <v>52.60543717666299</v>
       </c>
       <c r="H182" t="n">
-        <v>64.26111372412873</v>
+        <v>53.12500667732392</v>
       </c>
       <c r="I182" t="n">
-        <v>16.8308422134724</v>
+        <v>12.58133690742367</v>
       </c>
       <c r="J182" t="n">
-        <v>21.29726435389572</v>
+        <v>23.19315210448237</v>
       </c>
       <c r="K182" t="n">
         <v>1</v>
@@ -6827,34 +6827,34 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>13.1360747592888</v>
+        <v>3.553605541043063</v>
       </c>
       <c r="B183" t="n">
-        <v>46.5781634319362</v>
+        <v>14.75241881027019</v>
       </c>
       <c r="C183" t="n">
-        <v>121.2914908785112</v>
+        <v>76.093776238321</v>
       </c>
       <c r="D183" t="n">
-        <v>133.5786379876624</v>
+        <v>74.5003168490264</v>
       </c>
       <c r="E183" t="n">
-        <v>104.31655832425</v>
+        <v>84.86165072466039</v>
       </c>
       <c r="F183" t="n">
-        <v>91.28868430128006</v>
+        <v>71.10911372971186</v>
       </c>
       <c r="G183" t="n">
-        <v>118.12867016917</v>
+        <v>104.86184762667</v>
       </c>
       <c r="H183" t="n">
-        <v>81.98758812234072</v>
+        <v>98.99761117850352</v>
       </c>
       <c r="I183" t="n">
-        <v>2.272183072700755</v>
+        <v>4.702446148947415</v>
       </c>
       <c r="J183" t="n">
-        <v>8.775956919765324</v>
+        <v>5.755902945366309</v>
       </c>
       <c r="K183" t="n">
         <v>1</v>
@@ -6862,34 +6862,34 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>14.01019141284292</v>
+        <v>68.4035955032133</v>
       </c>
       <c r="B184" t="n">
-        <v>22.20846332641734</v>
+        <v>53.81390213774094</v>
       </c>
       <c r="C184" t="n">
-        <v>140.7922165145443</v>
+        <v>135.8374387784893</v>
       </c>
       <c r="D184" t="n">
-        <v>124.0182456046208</v>
+        <v>140.0798346292697</v>
       </c>
       <c r="E184" t="n">
-        <v>119.6013098950237</v>
+        <v>82.51468720738404</v>
       </c>
       <c r="F184" t="n">
-        <v>108.2767301112375</v>
+        <v>88.21618074149916</v>
       </c>
       <c r="G184" t="n">
-        <v>105.0011579052794</v>
+        <v>51.20992513378496</v>
       </c>
       <c r="H184" t="n">
-        <v>87.67466402681677</v>
+        <v>39.51091000240909</v>
       </c>
       <c r="I184" t="n">
-        <v>19.62584794013829</v>
+        <v>11.91970328476973</v>
       </c>
       <c r="J184" t="n">
-        <v>0.5339263479189885</v>
+        <v>16.27986881117924</v>
       </c>
       <c r="K184" t="n">
         <v>1</v>
@@ -6897,34 +6897,34 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>36.66414727002199</v>
+        <v>62.45570425998721</v>
       </c>
       <c r="B185" t="n">
-        <v>25.08721707964854</v>
+        <v>78.13873241794738</v>
       </c>
       <c r="C185" t="n">
-        <v>84.01575951336893</v>
+        <v>148.8904173803867</v>
       </c>
       <c r="D185" t="n">
-        <v>73.70618505756119</v>
+        <v>169.6404742519071</v>
       </c>
       <c r="E185" t="n">
-        <v>64.12608355807805</v>
+        <v>83.55417720990404</v>
       </c>
       <c r="F185" t="n">
-        <v>95.16359299834039</v>
+        <v>75.80595698188213</v>
       </c>
       <c r="G185" t="n">
-        <v>75.36669550921299</v>
+        <v>111.4956255223122</v>
       </c>
       <c r="H185" t="n">
-        <v>90.38038954742241</v>
+        <v>110.994868016048</v>
       </c>
       <c r="I185" t="n">
-        <v>6.785801048550707</v>
+        <v>44.61831052481487</v>
       </c>
       <c r="J185" t="n">
-        <v>44.88376942643001</v>
+        <v>36.1656532026345</v>
       </c>
       <c r="K185" t="n">
         <v>1</v>
@@ -6932,34 +6932,34 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>12.12856388600383</v>
+        <v>76.79129606982642</v>
       </c>
       <c r="B186" t="n">
-        <v>49.63350397767082</v>
+        <v>72.47737650901385</v>
       </c>
       <c r="C186" t="n">
-        <v>157.1961863710085</v>
+        <v>156.1796838778583</v>
       </c>
       <c r="D186" t="n">
-        <v>136.7055174345656</v>
+        <v>167.7788949980043</v>
       </c>
       <c r="E186" t="n">
-        <v>108.1423339578736</v>
+        <v>77.62627955224866</v>
       </c>
       <c r="F186" t="n">
-        <v>93.88454760949462</v>
+        <v>95.64386029030487</v>
       </c>
       <c r="G186" t="n">
-        <v>124.2952688403026</v>
+        <v>81.41781074548328</v>
       </c>
       <c r="H186" t="n">
-        <v>70.86426731268531</v>
+        <v>72.21158973786648</v>
       </c>
       <c r="I186" t="n">
-        <v>32.74818556633503</v>
+        <v>33.785438881678</v>
       </c>
       <c r="J186" t="n">
-        <v>7.17378310297422</v>
+        <v>1.862980969844288</v>
       </c>
       <c r="K186" t="n">
         <v>1</v>
@@ -6967,34 +6967,34 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>9.841978014815719</v>
+        <v>55.04983991767775</v>
       </c>
       <c r="B187" t="n">
-        <v>59.9272805298385</v>
+        <v>35.80988624731194</v>
       </c>
       <c r="C187" t="n">
-        <v>78.88992518360615</v>
+        <v>155.2082966502237</v>
       </c>
       <c r="D187" t="n">
-        <v>174.4738041465155</v>
+        <v>153.3504277851059</v>
       </c>
       <c r="E187" t="n">
-        <v>140.6692594409584</v>
+        <v>107.0427847830117</v>
       </c>
       <c r="F187" t="n">
-        <v>119.3421314570244</v>
+        <v>111.1573923150871</v>
       </c>
       <c r="G187" t="n">
-        <v>65.00833915947361</v>
+        <v>56.56102913779149</v>
       </c>
       <c r="H187" t="n">
-        <v>55.57888162682593</v>
+        <v>49.76593174294724</v>
       </c>
       <c r="I187" t="n">
-        <v>70.1618259126634</v>
+        <v>19.36255846400512</v>
       </c>
       <c r="J187" t="n">
-        <v>6.332757486933761</v>
+        <v>38.98095491491332</v>
       </c>
       <c r="K187" t="n">
         <v>1</v>
@@ -7002,34 +7002,34 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>6.301930689749324</v>
+        <v>89.09074401024338</v>
       </c>
       <c r="B188" t="n">
-        <v>24.84986471026056</v>
+        <v>78.53628703949848</v>
       </c>
       <c r="C188" t="n">
-        <v>82.73015883631984</v>
+        <v>139.8523653809518</v>
       </c>
       <c r="D188" t="n">
-        <v>97.81268256128891</v>
+        <v>131.2974830313728</v>
       </c>
       <c r="E188" t="n">
-        <v>107.9502622788531</v>
+        <v>58.25833346436697</v>
       </c>
       <c r="F188" t="n">
-        <v>104.381530704945</v>
+        <v>61.44139933211866</v>
       </c>
       <c r="G188" t="n">
-        <v>58.34313620265794</v>
+        <v>46.62240923306564</v>
       </c>
       <c r="H188" t="n">
-        <v>60.03783949771116</v>
+        <v>44.97991463686844</v>
       </c>
       <c r="I188" t="n">
-        <v>26.22080808300351</v>
+        <v>1.278637991574144</v>
       </c>
       <c r="J188" t="n">
-        <v>25.80619638478316</v>
+        <v>2.134898160436807</v>
       </c>
       <c r="K188" t="n">
         <v>1</v>
@@ -7037,34 +7037,34 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>52.07468491495349</v>
+        <v>59.41072555830645</v>
       </c>
       <c r="B189" t="n">
-        <v>16.57042492920087</v>
+        <v>49.74281757110935</v>
       </c>
       <c r="C189" t="n">
-        <v>54.0936241725308</v>
+        <v>39.86924409017037</v>
       </c>
       <c r="D189" t="n">
-        <v>56.31696352842027</v>
+        <v>155.4161962483801</v>
       </c>
       <c r="E189" t="n">
-        <v>52.40046978147461</v>
+        <v>92.36468755632495</v>
       </c>
       <c r="F189" t="n">
-        <v>88.63764841268011</v>
+        <v>95.47678888078678</v>
       </c>
       <c r="G189" t="n">
-        <v>92.66370629344318</v>
+        <v>99.88530170272243</v>
       </c>
       <c r="H189" t="n">
-        <v>94.07732738841068</v>
+        <v>69.11889929753697</v>
       </c>
       <c r="I189" t="n">
-        <v>8.039599325080919</v>
+        <v>19.37336985133103</v>
       </c>
       <c r="J189" t="n">
-        <v>15.69691404458783</v>
+        <v>15.66694214490022</v>
       </c>
       <c r="K189" t="n">
         <v>1</v>
@@ -7072,34 +7072,34 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>34.25851315545538</v>
+        <v>60.19514020136274</v>
       </c>
       <c r="B190" t="n">
-        <v>31.84541936048105</v>
+        <v>42.115910387746</v>
       </c>
       <c r="C190" t="n">
-        <v>143.0820983567559</v>
+        <v>139.7096444243752</v>
       </c>
       <c r="D190" t="n">
-        <v>141.9312736497454</v>
+        <v>140.6696798272216</v>
       </c>
       <c r="E190" t="n">
-        <v>113.750496652862</v>
+        <v>90.84138194948343</v>
       </c>
       <c r="F190" t="n">
-        <v>117.0436255459657</v>
+        <v>91.13209828608933</v>
       </c>
       <c r="G190" t="n">
-        <v>102.0404267448574</v>
+        <v>54.43031611339492</v>
       </c>
       <c r="H190" t="n">
-        <v>99.78497851174302</v>
+        <v>34.13821984306581</v>
       </c>
       <c r="I190" t="n">
-        <v>11.18279265375902</v>
+        <v>8.799024357643166</v>
       </c>
       <c r="J190" t="n">
-        <v>13.87817647282719</v>
+        <v>19.92845146119133</v>
       </c>
       <c r="K190" t="n">
         <v>1</v>
@@ -7107,34 +7107,34 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>14.54496447037841</v>
+        <v>16.30885269599013</v>
       </c>
       <c r="B191" t="n">
-        <v>9.855726863269542</v>
+        <v>20.10558348035052</v>
       </c>
       <c r="C191" t="n">
-        <v>55.46465274838</v>
+        <v>111.6512580139607</v>
       </c>
       <c r="D191" t="n">
-        <v>64.6060569944739</v>
+        <v>114.6212004833866</v>
       </c>
       <c r="E191" t="n">
-        <v>63.04690861220239</v>
+        <v>122.4529644616948</v>
       </c>
       <c r="F191" t="n">
-        <v>75.83147157810167</v>
+        <v>105.2524189621538</v>
       </c>
       <c r="G191" t="n">
-        <v>54.19710630493802</v>
+        <v>62.76331311372053</v>
       </c>
       <c r="H191" t="n">
-        <v>53.71039608652018</v>
+        <v>85.43933757283344</v>
       </c>
       <c r="I191" t="n">
-        <v>32.73353978621039</v>
+        <v>59.98485793777765</v>
       </c>
       <c r="J191" t="n">
-        <v>33.8038131672031</v>
+        <v>20.22027514140351</v>
       </c>
       <c r="K191" t="n">
         <v>1</v>
@@ -7142,34 +7142,34 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5.158528137021543</v>
+        <v>32.19736025532592</v>
       </c>
       <c r="B192" t="n">
-        <v>53.95789029493464</v>
+        <v>56.00999755141216</v>
       </c>
       <c r="C192" t="n">
-        <v>111.8562899220884</v>
+        <v>155.1196307581455</v>
       </c>
       <c r="D192" t="n">
-        <v>132.1990904561075</v>
+        <v>145.7487011145193</v>
       </c>
       <c r="E192" t="n">
-        <v>90.19365173531939</v>
+        <v>98.20934838653258</v>
       </c>
       <c r="F192" t="n">
-        <v>83.47832081780393</v>
+        <v>91.1308768168315</v>
       </c>
       <c r="G192" t="n">
-        <v>110.2401666234065</v>
+        <v>107.4516707775388</v>
       </c>
       <c r="H192" t="n">
-        <v>106.4242868718833</v>
+        <v>94.90675891293978</v>
       </c>
       <c r="I192" t="n">
-        <v>26.81680797336958</v>
+        <v>17.94211230295787</v>
       </c>
       <c r="J192" t="n">
-        <v>13.83055003392076</v>
+        <v>9.779784813428705</v>
       </c>
       <c r="K192" t="n">
         <v>1</v>
@@ -7177,34 +7177,34 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>15.7127084980299</v>
+        <v>54.44833842475568</v>
       </c>
       <c r="B193" t="n">
-        <v>78.30522535457399</v>
+        <v>65.5820698307804</v>
       </c>
       <c r="C193" t="n">
-        <v>104.9611616304692</v>
+        <v>150.0212954357771</v>
       </c>
       <c r="D193" t="n">
-        <v>167.3866153933743</v>
+        <v>169.0006527725953</v>
       </c>
       <c r="E193" t="n">
-        <v>99.04315682435612</v>
+        <v>96.86815383523765</v>
       </c>
       <c r="F193" t="n">
-        <v>84.26026768447343</v>
+        <v>105.9605629267389</v>
       </c>
       <c r="G193" t="n">
-        <v>31.8931890625194</v>
+        <v>115.2594839543779</v>
       </c>
       <c r="H193" t="n">
-        <v>59.80536467089702</v>
+        <v>97.91929323174611</v>
       </c>
       <c r="I193" t="n">
-        <v>52.80987516199344</v>
+        <v>58.42718888799642</v>
       </c>
       <c r="J193" t="n">
-        <v>2.868920677925998</v>
+        <v>10.54039781719499</v>
       </c>
       <c r="K193" t="n">
         <v>1</v>
@@ -7212,34 +7212,34 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>18.16177845275658</v>
+        <v>65.24289037214717</v>
       </c>
       <c r="B194" t="n">
-        <v>7.050634443699205</v>
+        <v>47.84080688841925</v>
       </c>
       <c r="C194" t="n">
-        <v>71.16101176352767</v>
+        <v>145.6047624011612</v>
       </c>
       <c r="D194" t="n">
-        <v>66.76901831169489</v>
+        <v>150.1891405733897</v>
       </c>
       <c r="E194" t="n">
-        <v>54.82259534654509</v>
+        <v>86.44635190823686</v>
       </c>
       <c r="F194" t="n">
-        <v>63.74248043623826</v>
+        <v>105.6851482250867</v>
       </c>
       <c r="G194" t="n">
-        <v>107.7928425702513</v>
+        <v>52.23992870942345</v>
       </c>
       <c r="H194" t="n">
-        <v>74.64460717964283</v>
+        <v>64.28729483537677</v>
       </c>
       <c r="I194" t="n">
-        <v>13.55891957806726</v>
+        <v>3.625225011241279</v>
       </c>
       <c r="J194" t="n">
-        <v>12.82736604372602</v>
+        <v>7.223135754810064</v>
       </c>
       <c r="K194" t="n">
         <v>1</v>
@@ -7247,106 +7247,36 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>66.39215691394165</v>
+        <v>6.881379399557678</v>
       </c>
       <c r="B195" t="n">
-        <v>55.9360828247655</v>
+        <v>37.55042756059312</v>
       </c>
       <c r="C195" t="n">
-        <v>137.753210651492</v>
+        <v>144.2625081188057</v>
       </c>
       <c r="D195" t="n">
-        <v>138.5740353887986</v>
+        <v>136.0495931688137</v>
       </c>
       <c r="E195" t="n">
-        <v>84.48264346030544</v>
+        <v>115.4206801744497</v>
       </c>
       <c r="F195" t="n">
-        <v>87.46340911786689</v>
+        <v>97.66876988628538</v>
       </c>
       <c r="G195" t="n">
-        <v>52.51636473044687</v>
+        <v>109.7319395443444</v>
       </c>
       <c r="H195" t="n">
-        <v>40.70450786510984</v>
+        <v>87.5426478210736</v>
       </c>
       <c r="I195" t="n">
-        <v>9.34808581604559</v>
+        <v>35.01040115791633</v>
       </c>
       <c r="J195" t="n">
-        <v>18.84197494456071</v>
+        <v>7.007178111199707</v>
       </c>
       <c r="K195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>55.04983991767775</v>
-      </c>
-      <c r="B196" t="n">
-        <v>35.80988624731194</v>
-      </c>
-      <c r="C196" t="n">
-        <v>155.2082966502237</v>
-      </c>
-      <c r="D196" t="n">
-        <v>153.3504277851059</v>
-      </c>
-      <c r="E196" t="n">
-        <v>107.0427847830117</v>
-      </c>
-      <c r="F196" t="n">
-        <v>111.1573923150871</v>
-      </c>
-      <c r="G196" t="n">
-        <v>56.56102913779149</v>
-      </c>
-      <c r="H196" t="n">
-        <v>49.76593174294724</v>
-      </c>
-      <c r="I196" t="n">
-        <v>19.36255846400512</v>
-      </c>
-      <c r="J196" t="n">
-        <v>38.98095491491332</v>
-      </c>
-      <c r="K196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>29.53976855794477</v>
-      </c>
-      <c r="B197" t="n">
-        <v>49.24342333560742</v>
-      </c>
-      <c r="C197" t="n">
-        <v>128.0407418588142</v>
-      </c>
-      <c r="D197" t="n">
-        <v>135.0463026039354</v>
-      </c>
-      <c r="E197" t="n">
-        <v>93.87761341831066</v>
-      </c>
-      <c r="F197" t="n">
-        <v>85.71031319398081</v>
-      </c>
-      <c r="G197" t="n">
-        <v>118.5473955243621</v>
-      </c>
-      <c r="H197" t="n">
-        <v>98.75955951525971</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1.824539336372178</v>
-      </c>
-      <c r="J197" t="n">
-        <v>21.07884412359036</v>
-      </c>
-      <c r="K197" t="n">
         <v>1</v>
       </c>
     </row>
